--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,121 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27025800</v>
+        <v>28211200</v>
       </c>
       <c r="E8" s="3">
-        <v>27034700</v>
+        <v>27620500</v>
       </c>
       <c r="F8" s="3">
-        <v>26501300</v>
+        <v>27629500</v>
       </c>
       <c r="G8" s="3">
-        <v>28039300</v>
+        <v>27084400</v>
       </c>
       <c r="H8" s="3">
-        <v>27288300</v>
+        <v>28656200</v>
       </c>
       <c r="I8" s="3">
-        <v>26728800</v>
+        <v>27888700</v>
       </c>
       <c r="J8" s="3">
+        <v>27316900</v>
+      </c>
+      <c r="K8" s="3">
         <v>25931300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27821100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27624000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26057300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25390800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26880700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25156800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,29 +804,32 @@
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>14315900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13646700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12122500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11756500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14418700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12033700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,29 +854,32 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>13505200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13977300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13934700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13634400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12462000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13123100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,102 +995,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>315700</v>
+        <v>934900</v>
       </c>
       <c r="E14" s="3">
-        <v>274500</v>
+        <v>322600</v>
       </c>
       <c r="F14" s="3">
-        <v>206200</v>
+        <v>280600</v>
       </c>
       <c r="G14" s="3">
-        <v>1254200</v>
+        <v>210800</v>
       </c>
       <c r="H14" s="3">
-        <v>921900</v>
+        <v>1281800</v>
       </c>
       <c r="I14" s="3">
-        <v>294400</v>
+        <v>942200</v>
       </c>
       <c r="J14" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K14" s="3">
         <v>243400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>167300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2970900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>332400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>246800</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3319200</v>
+        <v>3512000</v>
       </c>
       <c r="E15" s="3">
-        <v>3286900</v>
+        <v>3392300</v>
       </c>
       <c r="F15" s="3">
-        <v>3277100</v>
+        <v>3359200</v>
       </c>
       <c r="G15" s="3">
-        <v>3117900</v>
+        <v>3349200</v>
       </c>
       <c r="H15" s="3">
-        <v>3037600</v>
+        <v>3186500</v>
       </c>
       <c r="I15" s="3">
-        <v>3008700</v>
+        <v>3104400</v>
       </c>
       <c r="J15" s="3">
+        <v>3074900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2958700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3108500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6102700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5974800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5995600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3364800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3683200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22775100</v>
+        <v>27173300</v>
       </c>
       <c r="E17" s="3">
-        <v>22693200</v>
+        <v>23276300</v>
       </c>
       <c r="F17" s="3">
-        <v>21909100</v>
+        <v>23192500</v>
       </c>
       <c r="G17" s="3">
-        <v>26523900</v>
+        <v>22391200</v>
       </c>
       <c r="H17" s="3">
-        <v>23139900</v>
+        <v>27107500</v>
       </c>
       <c r="I17" s="3">
-        <v>21879100</v>
+        <v>23649000</v>
       </c>
       <c r="J17" s="3">
+        <v>22360500</v>
+      </c>
+      <c r="K17" s="3">
         <v>21047900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24898500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24267800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21413500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20647900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24918300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21679200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4250700</v>
+        <v>1037900</v>
       </c>
       <c r="E18" s="3">
-        <v>4341500</v>
+        <v>4344200</v>
       </c>
       <c r="F18" s="3">
-        <v>4592200</v>
+        <v>4437000</v>
       </c>
       <c r="G18" s="3">
-        <v>1515400</v>
+        <v>4693300</v>
       </c>
       <c r="H18" s="3">
-        <v>4148400</v>
+        <v>1548700</v>
       </c>
       <c r="I18" s="3">
-        <v>4849800</v>
+        <v>4239700</v>
       </c>
       <c r="J18" s="3">
+        <v>4956500</v>
+      </c>
+      <c r="K18" s="3">
         <v>4883400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2922500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3356200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4643800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4742900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1962400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3477700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,102 +1234,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15400</v>
+        <v>-87000</v>
       </c>
       <c r="E20" s="3">
-        <v>-23000</v>
+        <v>-15800</v>
       </c>
       <c r="F20" s="3">
-        <v>196200</v>
+        <v>-23600</v>
       </c>
       <c r="G20" s="3">
-        <v>-229700</v>
+        <v>200600</v>
       </c>
       <c r="H20" s="3">
-        <v>-38800</v>
+        <v>-234700</v>
       </c>
       <c r="I20" s="3">
-        <v>19500</v>
+        <v>-39700</v>
       </c>
       <c r="J20" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K20" s="3">
         <v>49300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1123500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>78400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>103800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>79200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>236000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>4462900</v>
       </c>
       <c r="E21" s="3">
-        <v>7605400</v>
+        <v>7720700</v>
       </c>
       <c r="F21" s="3">
-        <v>8065600</v>
+        <v>7772700</v>
       </c>
       <c r="G21" s="3">
-        <v>4403500</v>
+        <v>8243000</v>
       </c>
       <c r="H21" s="3">
-        <v>7147200</v>
+        <v>4500400</v>
       </c>
       <c r="I21" s="3">
-        <v>7877900</v>
+        <v>7304500</v>
       </c>
       <c r="J21" s="3">
+        <v>8051200</v>
+      </c>
+      <c r="K21" s="3">
         <v>7891400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5939100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7548400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7734900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7838500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5406400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6963800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,123 +1361,132 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>62500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>75300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>85100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4235300</v>
+        <v>950900</v>
       </c>
       <c r="E23" s="3">
-        <v>4318400</v>
+        <v>4328400</v>
       </c>
       <c r="F23" s="3">
-        <v>4788500</v>
+        <v>4413500</v>
       </c>
       <c r="G23" s="3">
-        <v>1285700</v>
+        <v>4893800</v>
       </c>
       <c r="H23" s="3">
-        <v>4109600</v>
+        <v>1314000</v>
       </c>
       <c r="I23" s="3">
-        <v>4869200</v>
+        <v>4200000</v>
       </c>
       <c r="J23" s="3">
+        <v>4976300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4932700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2841400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4401100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4647600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4771400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1956500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3639300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1329300</v>
+        <v>160300</v>
       </c>
       <c r="E24" s="3">
-        <v>1204200</v>
+        <v>1358500</v>
       </c>
       <c r="F24" s="3">
-        <v>1480100</v>
+        <v>1230700</v>
       </c>
       <c r="G24" s="3">
-        <v>346000</v>
+        <v>1512600</v>
       </c>
       <c r="H24" s="3">
-        <v>1254300</v>
+        <v>353600</v>
       </c>
       <c r="I24" s="3">
-        <v>1725500</v>
+        <v>1281900</v>
       </c>
       <c r="J24" s="3">
+        <v>1763500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1520700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>761900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1444900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1463800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1466700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>386100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1271900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>790600</v>
       </c>
       <c r="E26" s="3">
-        <v>3114200</v>
+        <v>2969900</v>
       </c>
       <c r="F26" s="3">
-        <v>3308400</v>
+        <v>3182700</v>
       </c>
       <c r="G26" s="3">
-        <v>939700</v>
+        <v>3381200</v>
       </c>
       <c r="H26" s="3">
-        <v>2855300</v>
+        <v>960400</v>
       </c>
       <c r="I26" s="3">
-        <v>3143700</v>
+        <v>2918100</v>
       </c>
       <c r="J26" s="3">
+        <v>3212800</v>
+      </c>
+      <c r="K26" s="3">
         <v>3412000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2079500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2956200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3183800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3304700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1570400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2367400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>542400</v>
       </c>
       <c r="E27" s="3">
-        <v>2428300</v>
+        <v>2315600</v>
       </c>
       <c r="F27" s="3">
-        <v>2550000</v>
+        <v>2481700</v>
       </c>
       <c r="G27" s="3">
-        <v>567500</v>
+        <v>2606100</v>
       </c>
       <c r="H27" s="3">
-        <v>2112500</v>
+        <v>580000</v>
       </c>
       <c r="I27" s="3">
-        <v>2454100</v>
+        <v>2159000</v>
       </c>
       <c r="J27" s="3">
+        <v>2508100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2633800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1564900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2012000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2512900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2647500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1165500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1708600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15400</v>
+        <v>87000</v>
       </c>
       <c r="E32" s="3">
-        <v>23000</v>
+        <v>15800</v>
       </c>
       <c r="F32" s="3">
-        <v>-196200</v>
+        <v>23600</v>
       </c>
       <c r="G32" s="3">
-        <v>229700</v>
+        <v>-200600</v>
       </c>
       <c r="H32" s="3">
-        <v>38800</v>
+        <v>234700</v>
       </c>
       <c r="I32" s="3">
-        <v>-19500</v>
+        <v>39700</v>
       </c>
       <c r="J32" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-49300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-78400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-103800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-79200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>542400</v>
       </c>
       <c r="E33" s="3">
-        <v>2428300</v>
+        <v>2315600</v>
       </c>
       <c r="F33" s="3">
-        <v>2550000</v>
+        <v>2481700</v>
       </c>
       <c r="G33" s="3">
-        <v>567500</v>
+        <v>2606100</v>
       </c>
       <c r="H33" s="3">
-        <v>2112500</v>
+        <v>580000</v>
       </c>
       <c r="I33" s="3">
-        <v>2454100</v>
+        <v>2159000</v>
       </c>
       <c r="J33" s="3">
+        <v>2508100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2633800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1564900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2012000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2512900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2647500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1165500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1708600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>542400</v>
       </c>
       <c r="E35" s="3">
-        <v>2428300</v>
+        <v>2315600</v>
       </c>
       <c r="F35" s="3">
-        <v>2550000</v>
+        <v>2481700</v>
       </c>
       <c r="G35" s="3">
-        <v>567500</v>
+        <v>2606100</v>
       </c>
       <c r="H35" s="3">
-        <v>2112500</v>
+        <v>580000</v>
       </c>
       <c r="I35" s="3">
-        <v>2454100</v>
+        <v>2159000</v>
       </c>
       <c r="J35" s="3">
+        <v>2508100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2633800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1564900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2012000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2512900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2647500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1165500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1708600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,431 +2129,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7958000</v>
+        <v>9601900</v>
       </c>
       <c r="E41" s="3">
-        <v>8435100</v>
+        <v>8133100</v>
       </c>
       <c r="F41" s="3">
-        <v>9285400</v>
+        <v>8620700</v>
       </c>
       <c r="G41" s="3">
-        <v>8600400</v>
+        <v>9489700</v>
       </c>
       <c r="H41" s="3">
-        <v>8257200</v>
+        <v>8789600</v>
       </c>
       <c r="I41" s="3">
-        <v>8086900</v>
+        <v>8438900</v>
       </c>
       <c r="J41" s="3">
+        <v>8264800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7245700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15144700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6929900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7599600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8690400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8206600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5897100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1171800</v>
+        <v>300800</v>
       </c>
       <c r="E42" s="3">
-        <v>1030100</v>
+        <v>1197500</v>
       </c>
       <c r="F42" s="3">
-        <v>990700</v>
+        <v>1052700</v>
       </c>
       <c r="G42" s="3">
-        <v>1070400</v>
+        <v>1012500</v>
       </c>
       <c r="H42" s="3">
-        <v>1115300</v>
+        <v>1093900</v>
       </c>
       <c r="I42" s="3">
-        <v>1064000</v>
+        <v>1139900</v>
       </c>
       <c r="J42" s="3">
+        <v>1087400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1160200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1401100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>398600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1303600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>786800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>566300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>677900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41126800</v>
+        <v>32541300</v>
       </c>
       <c r="E43" s="3">
-        <v>37003900</v>
+        <v>42031600</v>
       </c>
       <c r="F43" s="3">
-        <v>38350500</v>
+        <v>37818100</v>
       </c>
       <c r="G43" s="3">
-        <v>39918100</v>
+        <v>39194300</v>
       </c>
       <c r="H43" s="3">
-        <v>37714600</v>
+        <v>40796400</v>
       </c>
       <c r="I43" s="3">
-        <v>36049900</v>
+        <v>38544400</v>
       </c>
       <c r="J43" s="3">
+        <v>36843100</v>
+      </c>
+      <c r="K43" s="3">
         <v>34757800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68781300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31235300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29446200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26375400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27995700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29108000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2811800</v>
+        <v>2390600</v>
       </c>
       <c r="E44" s="3">
-        <v>2427100</v>
+        <v>2873700</v>
       </c>
       <c r="F44" s="3">
-        <v>2765400</v>
+        <v>2480500</v>
       </c>
       <c r="G44" s="3">
-        <v>3014600</v>
+        <v>2826200</v>
       </c>
       <c r="H44" s="3">
-        <v>3895200</v>
+        <v>3080900</v>
       </c>
       <c r="I44" s="3">
-        <v>3129100</v>
+        <v>3980900</v>
       </c>
       <c r="J44" s="3">
+        <v>3198000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3250000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6759800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4153400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3497200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3655500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3240900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3875200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5424500</v>
+        <v>17440900</v>
       </c>
       <c r="E45" s="3">
-        <v>5259800</v>
+        <v>5543800</v>
       </c>
       <c r="F45" s="3">
-        <v>6382900</v>
+        <v>5375600</v>
       </c>
       <c r="G45" s="3">
-        <v>7208500</v>
+        <v>6523300</v>
       </c>
       <c r="H45" s="3">
-        <v>7058700</v>
+        <v>7367100</v>
       </c>
       <c r="I45" s="3">
-        <v>6960100</v>
+        <v>7214100</v>
       </c>
       <c r="J45" s="3">
+        <v>7113200</v>
+      </c>
+      <c r="K45" s="3">
         <v>5420500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9493000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5634700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5426600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6214100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7111600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7980800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58492800</v>
+        <v>62275500</v>
       </c>
       <c r="E46" s="3">
-        <v>54156100</v>
+        <v>59779700</v>
       </c>
       <c r="F46" s="3">
-        <v>57774900</v>
+        <v>55347600</v>
       </c>
       <c r="G46" s="3">
-        <v>59811900</v>
+        <v>59046100</v>
       </c>
       <c r="H46" s="3">
-        <v>58041000</v>
+        <v>61127900</v>
       </c>
       <c r="I46" s="3">
-        <v>55290000</v>
+        <v>59318000</v>
       </c>
       <c r="J46" s="3">
+        <v>56506500</v>
+      </c>
+      <c r="K46" s="3">
         <v>51834100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53057200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48351800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47273300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45722100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47121200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47539100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14187500</v>
+        <v>10493800</v>
       </c>
       <c r="E47" s="3">
-        <v>13266000</v>
+        <v>14499700</v>
       </c>
       <c r="F47" s="3">
-        <v>13407900</v>
+        <v>13557900</v>
       </c>
       <c r="G47" s="3">
-        <v>13060200</v>
+        <v>13702900</v>
       </c>
       <c r="H47" s="3">
-        <v>13036500</v>
+        <v>13347500</v>
       </c>
       <c r="I47" s="3">
-        <v>13392700</v>
+        <v>13323400</v>
       </c>
       <c r="J47" s="3">
+        <v>13687300</v>
+      </c>
+      <c r="K47" s="3">
         <v>14984100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23831700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9577600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9086300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8923400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8691600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8571600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>95784600</v>
+        <v>98849700</v>
       </c>
       <c r="E48" s="3">
-        <v>95129400</v>
+        <v>97892100</v>
       </c>
       <c r="F48" s="3">
-        <v>94673300</v>
+        <v>97222500</v>
       </c>
       <c r="G48" s="3">
-        <v>90717800</v>
+        <v>96756300</v>
       </c>
       <c r="H48" s="3">
-        <v>89191600</v>
+        <v>92713800</v>
       </c>
       <c r="I48" s="3">
-        <v>89793500</v>
+        <v>91154000</v>
       </c>
       <c r="J48" s="3">
+        <v>91769200</v>
+      </c>
+      <c r="K48" s="3">
         <v>89134300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>177505500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87753100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88621500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87913000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86207700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84650400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24047000</v>
+        <v>24849800</v>
       </c>
       <c r="E49" s="3">
-        <v>23249700</v>
+        <v>24576100</v>
       </c>
       <c r="F49" s="3">
-        <v>23009400</v>
+        <v>23761300</v>
       </c>
       <c r="G49" s="3">
-        <v>22854900</v>
+        <v>23515600</v>
       </c>
       <c r="H49" s="3">
-        <v>23020200</v>
+        <v>23357800</v>
       </c>
       <c r="I49" s="3">
-        <v>23296600</v>
+        <v>23526700</v>
       </c>
       <c r="J49" s="3">
+        <v>23809200</v>
+      </c>
+      <c r="K49" s="3">
         <v>23033500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48621500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26804000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26981900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26837400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26415300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25833000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16028400</v>
+        <v>17332500</v>
       </c>
       <c r="E52" s="3">
-        <v>16301900</v>
+        <v>16381000</v>
       </c>
       <c r="F52" s="3">
-        <v>16283100</v>
+        <v>16660600</v>
       </c>
       <c r="G52" s="3">
-        <v>16218100</v>
+        <v>16641300</v>
       </c>
       <c r="H52" s="3">
-        <v>15780100</v>
+        <v>16574900</v>
       </c>
       <c r="I52" s="3">
-        <v>15659800</v>
+        <v>16127300</v>
       </c>
       <c r="J52" s="3">
+        <v>16004400</v>
+      </c>
+      <c r="K52" s="3">
         <v>16148700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30822500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22127200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22380200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22405700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20054600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19890900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>208540300</v>
+        <v>213801300</v>
       </c>
       <c r="E54" s="3">
-        <v>202103100</v>
+        <v>213128700</v>
       </c>
       <c r="F54" s="3">
-        <v>205148500</v>
+        <v>206549800</v>
       </c>
       <c r="G54" s="3">
-        <v>202662900</v>
+        <v>209662200</v>
       </c>
       <c r="H54" s="3">
-        <v>199069400</v>
+        <v>207121900</v>
       </c>
       <c r="I54" s="3">
-        <v>197432600</v>
+        <v>203449400</v>
       </c>
       <c r="J54" s="3">
+        <v>201776600</v>
+      </c>
+      <c r="K54" s="3">
         <v>195134800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194734700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>194613800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>194343300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>191801600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>188490400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>186485000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15497000</v>
+        <v>19906200</v>
       </c>
       <c r="E57" s="3">
-        <v>15198400</v>
+        <v>15837900</v>
       </c>
       <c r="F57" s="3">
-        <v>15324400</v>
+        <v>15532800</v>
       </c>
       <c r="G57" s="3">
-        <v>19020600</v>
+        <v>15661500</v>
       </c>
       <c r="H57" s="3">
-        <v>14685000</v>
+        <v>19439100</v>
       </c>
       <c r="I57" s="3">
-        <v>13497100</v>
+        <v>15008100</v>
       </c>
       <c r="J57" s="3">
+        <v>13794100</v>
+      </c>
+      <c r="K57" s="3">
         <v>13731500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16378000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12341800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11209100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10462900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14307300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10823200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21856800</v>
+        <v>20518200</v>
       </c>
       <c r="E58" s="3">
-        <v>16499900</v>
+        <v>22337700</v>
       </c>
       <c r="F58" s="3">
-        <v>18725300</v>
+        <v>16862900</v>
       </c>
       <c r="G58" s="3">
-        <v>12831300</v>
+        <v>19137300</v>
       </c>
       <c r="H58" s="3">
-        <v>15020000</v>
+        <v>13113600</v>
       </c>
       <c r="I58" s="3">
-        <v>10251400</v>
+        <v>15350400</v>
       </c>
       <c r="J58" s="3">
+        <v>10476900</v>
+      </c>
+      <c r="K58" s="3">
         <v>14238400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15416900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8838000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8994300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9532100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8191800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9374100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13590100</v>
+        <v>20960400</v>
       </c>
       <c r="E59" s="3">
-        <v>14372500</v>
+        <v>13889100</v>
       </c>
       <c r="F59" s="3">
-        <v>14204400</v>
+        <v>14688700</v>
       </c>
       <c r="G59" s="3">
-        <v>15671200</v>
+        <v>14516900</v>
       </c>
       <c r="H59" s="3">
-        <v>14325000</v>
+        <v>16016000</v>
       </c>
       <c r="I59" s="3">
-        <v>15602800</v>
+        <v>14640200</v>
       </c>
       <c r="J59" s="3">
+        <v>15946100</v>
+      </c>
+      <c r="K59" s="3">
         <v>14009300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19934300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14207200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14711400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15808300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14146400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14897400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50943800</v>
+        <v>61384700</v>
       </c>
       <c r="E60" s="3">
-        <v>46070800</v>
+        <v>52064700</v>
       </c>
       <c r="F60" s="3">
-        <v>48254000</v>
+        <v>47084400</v>
       </c>
       <c r="G60" s="3">
-        <v>47523200</v>
+        <v>49315700</v>
       </c>
       <c r="H60" s="3">
-        <v>44030000</v>
+        <v>48568800</v>
       </c>
       <c r="I60" s="3">
-        <v>39351300</v>
+        <v>44998800</v>
       </c>
       <c r="J60" s="3">
+        <v>40217100</v>
+      </c>
+      <c r="K60" s="3">
         <v>41979300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41786800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35387100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34914900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35803300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36645500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35094700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29715300</v>
+        <v>23634900</v>
       </c>
       <c r="E61" s="3">
-        <v>29052900</v>
+        <v>30369100</v>
       </c>
       <c r="F61" s="3">
-        <v>29348300</v>
+        <v>29692100</v>
       </c>
       <c r="G61" s="3">
-        <v>26337900</v>
+        <v>29994000</v>
       </c>
       <c r="H61" s="3">
-        <v>26431000</v>
+        <v>26917400</v>
       </c>
       <c r="I61" s="3">
-        <v>26690800</v>
+        <v>27012500</v>
       </c>
       <c r="J61" s="3">
+        <v>27278100</v>
+      </c>
+      <c r="K61" s="3">
         <v>25389200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28423700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28726400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28965100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29015900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28331200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29049600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22125400</v>
+        <v>22293900</v>
       </c>
       <c r="E62" s="3">
-        <v>21935800</v>
+        <v>22612200</v>
       </c>
       <c r="F62" s="3">
-        <v>21716600</v>
+        <v>22418500</v>
       </c>
       <c r="G62" s="3">
-        <v>21496300</v>
+        <v>22194400</v>
       </c>
       <c r="H62" s="3">
-        <v>21979100</v>
+        <v>21969300</v>
       </c>
       <c r="I62" s="3">
-        <v>21728100</v>
+        <v>22462700</v>
       </c>
       <c r="J62" s="3">
+        <v>22206200</v>
+      </c>
+      <c r="K62" s="3">
         <v>21740200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40355000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21606000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21475400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21294000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20989200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21797200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>125384700</v>
+        <v>129623600</v>
       </c>
       <c r="E66" s="3">
-        <v>119960800</v>
+        <v>128143500</v>
       </c>
       <c r="F66" s="3">
-        <v>122173200</v>
+        <v>122600200</v>
       </c>
       <c r="G66" s="3">
-        <v>118444800</v>
+        <v>124861300</v>
       </c>
       <c r="H66" s="3">
-        <v>115046000</v>
+        <v>121050900</v>
       </c>
       <c r="I66" s="3">
-        <v>111707900</v>
+        <v>117577200</v>
       </c>
       <c r="J66" s="3">
+        <v>114165700</v>
+      </c>
+      <c r="K66" s="3">
         <v>112192700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112807400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109849800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>108990500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>108974100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>108194900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>107689800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58457700</v>
+        <v>60384500</v>
       </c>
       <c r="E72" s="3">
-        <v>57732500</v>
+        <v>59743900</v>
       </c>
       <c r="F72" s="3">
-        <v>55271800</v>
+        <v>59002700</v>
       </c>
       <c r="G72" s="3">
-        <v>54124600</v>
+        <v>56487900</v>
       </c>
       <c r="H72" s="3">
-        <v>53806300</v>
+        <v>55315500</v>
       </c>
       <c r="I72" s="3">
-        <v>53189200</v>
+        <v>54990200</v>
       </c>
       <c r="J72" s="3">
+        <v>54359500</v>
+      </c>
+      <c r="K72" s="3">
         <v>57216800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55490700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55074400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54544700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52229600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49904000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48738500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83155600</v>
+        <v>84177600</v>
       </c>
       <c r="E76" s="3">
-        <v>82142200</v>
+        <v>84985200</v>
       </c>
       <c r="F76" s="3">
-        <v>82975300</v>
+        <v>83949500</v>
       </c>
       <c r="G76" s="3">
-        <v>84218100</v>
+        <v>84800900</v>
       </c>
       <c r="H76" s="3">
-        <v>84023500</v>
+        <v>86071000</v>
       </c>
       <c r="I76" s="3">
-        <v>85724700</v>
+        <v>85872200</v>
       </c>
       <c r="J76" s="3">
+        <v>87610900</v>
+      </c>
+      <c r="K76" s="3">
         <v>82942000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81927300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84764000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85352800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82827500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80295500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78795200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>542400</v>
       </c>
       <c r="E81" s="3">
-        <v>2428300</v>
+        <v>2315600</v>
       </c>
       <c r="F81" s="3">
-        <v>2550000</v>
+        <v>2481700</v>
       </c>
       <c r="G81" s="3">
-        <v>567500</v>
+        <v>2606100</v>
       </c>
       <c r="H81" s="3">
-        <v>2112500</v>
+        <v>580000</v>
       </c>
       <c r="I81" s="3">
-        <v>2454100</v>
+        <v>2159000</v>
       </c>
       <c r="J81" s="3">
+        <v>2508100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2633800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1564900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2012000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2512900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2647500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1165500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1708600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>3512000</v>
       </c>
       <c r="E83" s="3">
-        <v>3286900</v>
+        <v>3392300</v>
       </c>
       <c r="F83" s="3">
-        <v>3277100</v>
+        <v>3359200</v>
       </c>
       <c r="G83" s="3">
-        <v>3117900</v>
+        <v>3349200</v>
       </c>
       <c r="H83" s="3">
-        <v>3037600</v>
+        <v>3186500</v>
       </c>
       <c r="I83" s="3">
-        <v>3008700</v>
+        <v>3104400</v>
       </c>
       <c r="J83" s="3">
+        <v>3074900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2958700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3035200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3068600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3003800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3364800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3250100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>11894300</v>
       </c>
       <c r="E89" s="3">
-        <v>9629900</v>
+        <v>1676700</v>
       </c>
       <c r="F89" s="3">
-        <v>4317700</v>
+        <v>9841800</v>
       </c>
       <c r="G89" s="3">
-        <v>7258500</v>
+        <v>4412700</v>
       </c>
       <c r="H89" s="3">
-        <v>3633600</v>
+        <v>7418200</v>
       </c>
       <c r="I89" s="3">
-        <v>7053800</v>
+        <v>3713500</v>
       </c>
       <c r="J89" s="3">
+        <v>7209000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3926000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7650900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6131900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5252800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4754300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10658100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2885700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-4573000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3297400</v>
+        <v>-4036200</v>
       </c>
       <c r="F91" s="3">
-        <v>-5153000</v>
+        <v>-3370000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4118800</v>
+        <v>-5266400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3458800</v>
+        <v>-4209400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3376600</v>
+        <v>-3534900</v>
       </c>
       <c r="J91" s="3">
+        <v>-3450900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-5118500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3602700</v>
+        <v>-4879800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3455500</v>
+        <v>-3682000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4355200</v>
+        <v>-3531600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3533900</v>
+        <v>-4451000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3277300</v>
+        <v>-3611600</v>
       </c>
       <c r="J94" s="3">
+        <v>-3349400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4604,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4381,46 +4614,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1604100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1655800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1692200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1506900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1540000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-5227700</v>
       </c>
       <c r="E100" s="3">
-        <v>-6845000</v>
+        <v>2653300</v>
       </c>
       <c r="F100" s="3">
-        <v>-101200</v>
+        <v>-6995600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2594200</v>
+        <v>-103400</v>
       </c>
       <c r="H100" s="3">
-        <v>110700</v>
+        <v>-2651300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2966400</v>
+        <v>113200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3031600</v>
+      </c>
+      <c r="K100" s="3">
         <v>138900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1473800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>616100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-79400</v>
       </c>
       <c r="E101" s="3">
-        <v>-32500</v>
+        <v>62100</v>
       </c>
       <c r="F101" s="3">
-        <v>-75900</v>
+        <v>-33200</v>
       </c>
       <c r="G101" s="3">
-        <v>34000</v>
+        <v>-77600</v>
       </c>
       <c r="H101" s="3">
-        <v>-40100</v>
+        <v>34800</v>
       </c>
       <c r="I101" s="3">
-        <v>31100</v>
+        <v>-41000</v>
       </c>
       <c r="J101" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K101" s="3">
         <v>5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-71700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>51100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>88300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>1468800</v>
       </c>
       <c r="E102" s="3">
-        <v>-850300</v>
+        <v>-487700</v>
       </c>
       <c r="F102" s="3">
-        <v>685000</v>
+        <v>-869000</v>
       </c>
       <c r="G102" s="3">
-        <v>343200</v>
+        <v>700100</v>
       </c>
       <c r="H102" s="3">
-        <v>170300</v>
+        <v>350700</v>
       </c>
       <c r="I102" s="3">
-        <v>841200</v>
+        <v>174100</v>
       </c>
       <c r="J102" s="3">
+        <v>859700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-889900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>124000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-669700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>776300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2309600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28211200</v>
+        <v>26115400</v>
       </c>
       <c r="E8" s="3">
-        <v>27620500</v>
+        <v>28666700</v>
       </c>
       <c r="F8" s="3">
-        <v>27629500</v>
+        <v>28066400</v>
       </c>
       <c r="G8" s="3">
-        <v>27084400</v>
+        <v>28075600</v>
       </c>
       <c r="H8" s="3">
-        <v>28656200</v>
+        <v>27521700</v>
       </c>
       <c r="I8" s="3">
-        <v>27888700</v>
+        <v>29118900</v>
       </c>
       <c r="J8" s="3">
+        <v>28339000</v>
+      </c>
+      <c r="K8" s="3">
         <v>27316900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25931300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27821100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27624000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26057300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25390800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26880700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25156800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,29 +813,32 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>14315900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13646700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12122500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11756500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14418700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12033700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,29 +866,32 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>13505200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13977300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13934700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13634400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12462000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13123100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,108 +1014,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>934900</v>
+        <v>203900</v>
       </c>
       <c r="E14" s="3">
-        <v>322600</v>
+        <v>950000</v>
       </c>
       <c r="F14" s="3">
-        <v>280600</v>
+        <v>327800</v>
       </c>
       <c r="G14" s="3">
-        <v>210800</v>
+        <v>285100</v>
       </c>
       <c r="H14" s="3">
-        <v>1281800</v>
+        <v>214200</v>
       </c>
       <c r="I14" s="3">
-        <v>942200</v>
+        <v>1302500</v>
       </c>
       <c r="J14" s="3">
+        <v>957400</v>
+      </c>
+      <c r="K14" s="3">
         <v>300900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>243400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>167300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2970900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>332400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>246800</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3512000</v>
+        <v>3476100</v>
       </c>
       <c r="E15" s="3">
-        <v>3392300</v>
+        <v>3568700</v>
       </c>
       <c r="F15" s="3">
-        <v>3359200</v>
+        <v>3447000</v>
       </c>
       <c r="G15" s="3">
-        <v>3349200</v>
+        <v>3413500</v>
       </c>
       <c r="H15" s="3">
-        <v>3186500</v>
+        <v>3403300</v>
       </c>
       <c r="I15" s="3">
-        <v>3104400</v>
+        <v>3237900</v>
       </c>
       <c r="J15" s="3">
+        <v>3154600</v>
+      </c>
+      <c r="K15" s="3">
         <v>3074900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2958700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3108500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6102700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5974800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5995600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3364800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3683200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27173300</v>
+        <v>21418100</v>
       </c>
       <c r="E17" s="3">
-        <v>23276300</v>
+        <v>27612000</v>
       </c>
       <c r="F17" s="3">
-        <v>23192500</v>
+        <v>23652100</v>
       </c>
       <c r="G17" s="3">
-        <v>22391200</v>
+        <v>23567000</v>
       </c>
       <c r="H17" s="3">
-        <v>27107500</v>
+        <v>22752700</v>
       </c>
       <c r="I17" s="3">
-        <v>23649000</v>
+        <v>27545200</v>
       </c>
       <c r="J17" s="3">
+        <v>24030900</v>
+      </c>
+      <c r="K17" s="3">
         <v>22360500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21047900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24898500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24267800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21413500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20647900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24918300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21679200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1037900</v>
+        <v>4697200</v>
       </c>
       <c r="E18" s="3">
-        <v>4344200</v>
+        <v>1054700</v>
       </c>
       <c r="F18" s="3">
-        <v>4437000</v>
+        <v>4414400</v>
       </c>
       <c r="G18" s="3">
-        <v>4693300</v>
+        <v>4508600</v>
       </c>
       <c r="H18" s="3">
-        <v>1548700</v>
+        <v>4769000</v>
       </c>
       <c r="I18" s="3">
-        <v>4239700</v>
+        <v>1573700</v>
       </c>
       <c r="J18" s="3">
+        <v>4308200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4956500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4883400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2922500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3356200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4643800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4742900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1962400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3477700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-87000</v>
+        <v>-9100</v>
       </c>
       <c r="E20" s="3">
-        <v>-15800</v>
+        <v>-88400</v>
       </c>
       <c r="F20" s="3">
-        <v>-23600</v>
+        <v>-16000</v>
       </c>
       <c r="G20" s="3">
-        <v>200600</v>
+        <v>-23900</v>
       </c>
       <c r="H20" s="3">
-        <v>-234700</v>
+        <v>203800</v>
       </c>
       <c r="I20" s="3">
-        <v>-39700</v>
+        <v>-238500</v>
       </c>
       <c r="J20" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="K20" s="3">
         <v>19900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1123500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>78400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>103800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>79200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>236000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4462900</v>
+        <v>8164200</v>
       </c>
       <c r="E21" s="3">
-        <v>7720700</v>
+        <v>4535000</v>
       </c>
       <c r="F21" s="3">
-        <v>7772700</v>
+        <v>7845400</v>
       </c>
       <c r="G21" s="3">
-        <v>8243000</v>
+        <v>7898200</v>
       </c>
       <c r="H21" s="3">
-        <v>4500400</v>
+        <v>8376100</v>
       </c>
       <c r="I21" s="3">
-        <v>7304500</v>
+        <v>4573100</v>
       </c>
       <c r="J21" s="3">
+        <v>7422400</v>
+      </c>
+      <c r="K21" s="3">
         <v>8051200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7891400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5939100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7548400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7734900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7838500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5406400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6963800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1364,129 +1403,138 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>62500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>75300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>85100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>950900</v>
+        <v>4688100</v>
       </c>
       <c r="E23" s="3">
-        <v>4328400</v>
+        <v>966300</v>
       </c>
       <c r="F23" s="3">
-        <v>4413500</v>
+        <v>4398300</v>
       </c>
       <c r="G23" s="3">
-        <v>4893800</v>
+        <v>4484700</v>
       </c>
       <c r="H23" s="3">
-        <v>1314000</v>
+        <v>4972800</v>
       </c>
       <c r="I23" s="3">
-        <v>4200000</v>
+        <v>1335200</v>
       </c>
       <c r="J23" s="3">
+        <v>4267900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4976300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4932700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2841400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4401100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4647600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4771400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1956500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3639300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160300</v>
+        <v>1408200</v>
       </c>
       <c r="E24" s="3">
-        <v>1358500</v>
+        <v>162900</v>
       </c>
       <c r="F24" s="3">
-        <v>1230700</v>
+        <v>1380400</v>
       </c>
       <c r="G24" s="3">
-        <v>1512600</v>
+        <v>1250600</v>
       </c>
       <c r="H24" s="3">
-        <v>353600</v>
+        <v>1537100</v>
       </c>
       <c r="I24" s="3">
-        <v>1281900</v>
+        <v>359300</v>
       </c>
       <c r="J24" s="3">
+        <v>1302600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1763500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1520700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>761900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1444900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1463800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1466700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>386100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1271900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>790600</v>
+        <v>3279900</v>
       </c>
       <c r="E26" s="3">
-        <v>2969900</v>
+        <v>803300</v>
       </c>
       <c r="F26" s="3">
-        <v>3182700</v>
+        <v>3017900</v>
       </c>
       <c r="G26" s="3">
-        <v>3381200</v>
+        <v>3234100</v>
       </c>
       <c r="H26" s="3">
-        <v>960400</v>
+        <v>3435800</v>
       </c>
       <c r="I26" s="3">
-        <v>2918100</v>
+        <v>975900</v>
       </c>
       <c r="J26" s="3">
+        <v>2965200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3212800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3412000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2079500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2956200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3183800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3304700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1570400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2367400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>542400</v>
+        <v>2573700</v>
       </c>
       <c r="E27" s="3">
-        <v>2315600</v>
+        <v>551100</v>
       </c>
       <c r="F27" s="3">
-        <v>2481700</v>
+        <v>2352900</v>
       </c>
       <c r="G27" s="3">
-        <v>2606100</v>
+        <v>2521800</v>
       </c>
       <c r="H27" s="3">
-        <v>580000</v>
+        <v>2648200</v>
       </c>
       <c r="I27" s="3">
-        <v>2159000</v>
+        <v>589400</v>
       </c>
       <c r="J27" s="3">
+        <v>2193900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2508100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2633800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1564900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2012000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2512900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2647500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1165500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1708600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>87000</v>
+        <v>9100</v>
       </c>
       <c r="E32" s="3">
-        <v>15800</v>
+        <v>88400</v>
       </c>
       <c r="F32" s="3">
-        <v>23600</v>
+        <v>16000</v>
       </c>
       <c r="G32" s="3">
-        <v>-200600</v>
+        <v>23900</v>
       </c>
       <c r="H32" s="3">
-        <v>234700</v>
+        <v>-203800</v>
       </c>
       <c r="I32" s="3">
-        <v>39700</v>
+        <v>238500</v>
       </c>
       <c r="J32" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-78400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-103800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-236000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>542400</v>
+        <v>2573700</v>
       </c>
       <c r="E33" s="3">
-        <v>2315600</v>
+        <v>551100</v>
       </c>
       <c r="F33" s="3">
-        <v>2481700</v>
+        <v>2352900</v>
       </c>
       <c r="G33" s="3">
-        <v>2606100</v>
+        <v>2521800</v>
       </c>
       <c r="H33" s="3">
-        <v>580000</v>
+        <v>2648200</v>
       </c>
       <c r="I33" s="3">
-        <v>2159000</v>
+        <v>589400</v>
       </c>
       <c r="J33" s="3">
+        <v>2193900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2508100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2633800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1564900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2012000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2512900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2647500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1165500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1708600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>542400</v>
+        <v>2573700</v>
       </c>
       <c r="E35" s="3">
-        <v>2315600</v>
+        <v>551100</v>
       </c>
       <c r="F35" s="3">
-        <v>2481700</v>
+        <v>2352900</v>
       </c>
       <c r="G35" s="3">
-        <v>2606100</v>
+        <v>2521800</v>
       </c>
       <c r="H35" s="3">
-        <v>580000</v>
+        <v>2648200</v>
       </c>
       <c r="I35" s="3">
-        <v>2159000</v>
+        <v>589400</v>
       </c>
       <c r="J35" s="3">
+        <v>2193900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2508100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2633800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1564900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2012000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2512900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2647500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1165500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1708600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9601900</v>
+        <v>10124700</v>
       </c>
       <c r="E41" s="3">
-        <v>8133100</v>
+        <v>9756900</v>
       </c>
       <c r="F41" s="3">
-        <v>8620700</v>
+        <v>8264400</v>
       </c>
       <c r="G41" s="3">
-        <v>9489700</v>
+        <v>8759900</v>
       </c>
       <c r="H41" s="3">
-        <v>8789600</v>
+        <v>9642900</v>
       </c>
       <c r="I41" s="3">
-        <v>8438900</v>
+        <v>8931500</v>
       </c>
       <c r="J41" s="3">
+        <v>8575100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8264800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7245700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15144700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6929900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7599600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8690400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8206600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5897100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300800</v>
+        <v>337600</v>
       </c>
       <c r="E42" s="3">
-        <v>1197500</v>
+        <v>305700</v>
       </c>
       <c r="F42" s="3">
-        <v>1052700</v>
+        <v>1216900</v>
       </c>
       <c r="G42" s="3">
-        <v>1012500</v>
+        <v>1069700</v>
       </c>
       <c r="H42" s="3">
-        <v>1093900</v>
+        <v>1028800</v>
       </c>
       <c r="I42" s="3">
-        <v>1139900</v>
+        <v>1111600</v>
       </c>
       <c r="J42" s="3">
+        <v>1158300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1087400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1160200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1401100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>398600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1303600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>786800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>566300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>677900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32541300</v>
+        <v>30525100</v>
       </c>
       <c r="E43" s="3">
-        <v>42031600</v>
+        <v>33066800</v>
       </c>
       <c r="F43" s="3">
-        <v>37818100</v>
+        <v>42710300</v>
       </c>
       <c r="G43" s="3">
-        <v>39194300</v>
+        <v>38428700</v>
       </c>
       <c r="H43" s="3">
-        <v>40796400</v>
+        <v>39827200</v>
       </c>
       <c r="I43" s="3">
-        <v>38544400</v>
+        <v>41455100</v>
       </c>
       <c r="J43" s="3">
+        <v>39166800</v>
+      </c>
+      <c r="K43" s="3">
         <v>36843100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34757800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68781300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31235300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29446200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26375400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27995700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29108000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2390600</v>
+        <v>2911300</v>
       </c>
       <c r="E44" s="3">
-        <v>2873700</v>
+        <v>2429200</v>
       </c>
       <c r="F44" s="3">
-        <v>2480500</v>
+        <v>2920100</v>
       </c>
       <c r="G44" s="3">
-        <v>2826200</v>
+        <v>2520600</v>
       </c>
       <c r="H44" s="3">
-        <v>3080900</v>
+        <v>2871900</v>
       </c>
       <c r="I44" s="3">
-        <v>3980900</v>
+        <v>3130600</v>
       </c>
       <c r="J44" s="3">
+        <v>4045200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3198000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3250000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6759800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4153400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3497200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3655500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3240900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3875200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17440900</v>
+        <v>19783600</v>
       </c>
       <c r="E45" s="3">
-        <v>5543800</v>
+        <v>17722500</v>
       </c>
       <c r="F45" s="3">
-        <v>5375600</v>
+        <v>5633300</v>
       </c>
       <c r="G45" s="3">
-        <v>6523300</v>
+        <v>5462400</v>
       </c>
       <c r="H45" s="3">
-        <v>7367100</v>
+        <v>6628600</v>
       </c>
       <c r="I45" s="3">
-        <v>7214100</v>
+        <v>7486000</v>
       </c>
       <c r="J45" s="3">
+        <v>7330500</v>
+      </c>
+      <c r="K45" s="3">
         <v>7113200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5420500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9493000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5634700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5426600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6214100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7111600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7980800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62275500</v>
+        <v>63682300</v>
       </c>
       <c r="E46" s="3">
-        <v>59779700</v>
+        <v>63281000</v>
       </c>
       <c r="F46" s="3">
-        <v>55347600</v>
+        <v>60745000</v>
       </c>
       <c r="G46" s="3">
-        <v>59046100</v>
+        <v>56241300</v>
       </c>
       <c r="H46" s="3">
-        <v>61127900</v>
+        <v>59999400</v>
       </c>
       <c r="I46" s="3">
-        <v>59318000</v>
+        <v>62114900</v>
       </c>
       <c r="J46" s="3">
+        <v>60275800</v>
+      </c>
+      <c r="K46" s="3">
         <v>56506500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51834100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53057200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48351800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47273300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45722100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47121200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47539100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10493800</v>
+        <v>14130800</v>
       </c>
       <c r="E47" s="3">
-        <v>14499700</v>
+        <v>10663200</v>
       </c>
       <c r="F47" s="3">
-        <v>13557900</v>
+        <v>14733800</v>
       </c>
       <c r="G47" s="3">
-        <v>13702900</v>
+        <v>13776800</v>
       </c>
       <c r="H47" s="3">
-        <v>13347500</v>
+        <v>13924100</v>
       </c>
       <c r="I47" s="3">
-        <v>13323400</v>
+        <v>13563000</v>
       </c>
       <c r="J47" s="3">
+        <v>13538500</v>
+      </c>
+      <c r="K47" s="3">
         <v>13687300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14984100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23831700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9577600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9086300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8923400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8691600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8571600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>98849700</v>
+        <v>101217800</v>
       </c>
       <c r="E48" s="3">
-        <v>97892100</v>
+        <v>100445700</v>
       </c>
       <c r="F48" s="3">
-        <v>97222500</v>
+        <v>99472700</v>
       </c>
       <c r="G48" s="3">
-        <v>96756300</v>
+        <v>98792300</v>
       </c>
       <c r="H48" s="3">
-        <v>92713800</v>
+        <v>98318600</v>
       </c>
       <c r="I48" s="3">
-        <v>91154000</v>
+        <v>94210800</v>
       </c>
       <c r="J48" s="3">
+        <v>92625800</v>
+      </c>
+      <c r="K48" s="3">
         <v>91769200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89134300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>177505500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87753100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88621500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87913000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86207700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84650400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24849800</v>
+        <v>25083300</v>
       </c>
       <c r="E49" s="3">
-        <v>24576100</v>
+        <v>25251100</v>
       </c>
       <c r="F49" s="3">
-        <v>23761300</v>
+        <v>24973000</v>
       </c>
       <c r="G49" s="3">
-        <v>23515600</v>
+        <v>24144900</v>
       </c>
       <c r="H49" s="3">
-        <v>23357800</v>
+        <v>23895300</v>
       </c>
       <c r="I49" s="3">
-        <v>23526700</v>
+        <v>23734900</v>
       </c>
       <c r="J49" s="3">
+        <v>23906500</v>
+      </c>
+      <c r="K49" s="3">
         <v>23809200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23033500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48621500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26804000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26981900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26837400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26415300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25833000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17332500</v>
+        <v>16972800</v>
       </c>
       <c r="E52" s="3">
-        <v>16381000</v>
+        <v>17612400</v>
       </c>
       <c r="F52" s="3">
-        <v>16660600</v>
+        <v>16645500</v>
       </c>
       <c r="G52" s="3">
-        <v>16641300</v>
+        <v>16929600</v>
       </c>
       <c r="H52" s="3">
-        <v>16574900</v>
+        <v>16910000</v>
       </c>
       <c r="I52" s="3">
-        <v>16127300</v>
+        <v>16842600</v>
       </c>
       <c r="J52" s="3">
+        <v>16387700</v>
+      </c>
+      <c r="K52" s="3">
         <v>16004400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16148700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30822500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22127200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22380200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22405700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20054600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19890900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>213801300</v>
+        <v>221087000</v>
       </c>
       <c r="E54" s="3">
-        <v>213128700</v>
+        <v>217253400</v>
       </c>
       <c r="F54" s="3">
-        <v>206549800</v>
+        <v>216569900</v>
       </c>
       <c r="G54" s="3">
-        <v>209662200</v>
+        <v>209884800</v>
       </c>
       <c r="H54" s="3">
-        <v>207121900</v>
+        <v>213047500</v>
       </c>
       <c r="I54" s="3">
-        <v>203449400</v>
+        <v>210466200</v>
       </c>
       <c r="J54" s="3">
+        <v>206734400</v>
+      </c>
+      <c r="K54" s="3">
         <v>201776600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>195134800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>194734700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>194613800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194343300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>191801600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>188490400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>186485000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19906200</v>
+        <v>17187800</v>
       </c>
       <c r="E57" s="3">
-        <v>15837900</v>
+        <v>20227600</v>
       </c>
       <c r="F57" s="3">
-        <v>15532800</v>
+        <v>16093700</v>
       </c>
       <c r="G57" s="3">
-        <v>15661500</v>
+        <v>15783600</v>
       </c>
       <c r="H57" s="3">
-        <v>19439100</v>
+        <v>15914400</v>
       </c>
       <c r="I57" s="3">
-        <v>15008100</v>
+        <v>19753000</v>
       </c>
       <c r="J57" s="3">
+        <v>15250500</v>
+      </c>
+      <c r="K57" s="3">
         <v>13794100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13731500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16378000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12341800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11209100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10462900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14307300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10823200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20518200</v>
+        <v>24334400</v>
       </c>
       <c r="E58" s="3">
-        <v>22337700</v>
+        <v>20849500</v>
       </c>
       <c r="F58" s="3">
-        <v>16862900</v>
+        <v>22698400</v>
       </c>
       <c r="G58" s="3">
-        <v>19137300</v>
+        <v>17135200</v>
       </c>
       <c r="H58" s="3">
-        <v>13113600</v>
+        <v>19446200</v>
       </c>
       <c r="I58" s="3">
-        <v>15350400</v>
+        <v>13325400</v>
       </c>
       <c r="J58" s="3">
+        <v>15598300</v>
+      </c>
+      <c r="K58" s="3">
         <v>10476900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14238400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15416900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8838000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8994300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9532100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8191800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9374100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20960400</v>
+        <v>19356900</v>
       </c>
       <c r="E59" s="3">
-        <v>13889100</v>
+        <v>21298800</v>
       </c>
       <c r="F59" s="3">
-        <v>14688700</v>
+        <v>14113300</v>
       </c>
       <c r="G59" s="3">
-        <v>14516900</v>
+        <v>14925900</v>
       </c>
       <c r="H59" s="3">
-        <v>16016000</v>
+        <v>14751300</v>
       </c>
       <c r="I59" s="3">
-        <v>14640200</v>
+        <v>16274600</v>
       </c>
       <c r="J59" s="3">
+        <v>14876600</v>
+      </c>
+      <c r="K59" s="3">
         <v>15946100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14009300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19934300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14207200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14711400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15808300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14146400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14897400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61384700</v>
+        <v>60879100</v>
       </c>
       <c r="E60" s="3">
-        <v>52064700</v>
+        <v>62375900</v>
       </c>
       <c r="F60" s="3">
-        <v>47084400</v>
+        <v>52905400</v>
       </c>
       <c r="G60" s="3">
-        <v>49315700</v>
+        <v>47844700</v>
       </c>
       <c r="H60" s="3">
-        <v>48568800</v>
+        <v>50112000</v>
       </c>
       <c r="I60" s="3">
-        <v>44998800</v>
+        <v>49353000</v>
       </c>
       <c r="J60" s="3">
+        <v>45725300</v>
+      </c>
+      <c r="K60" s="3">
         <v>40217100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41979300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41786800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35387100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34914900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35803300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36645500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35094700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23634900</v>
+        <v>25667100</v>
       </c>
       <c r="E61" s="3">
-        <v>30369100</v>
+        <v>24016500</v>
       </c>
       <c r="F61" s="3">
-        <v>29692100</v>
+        <v>30859500</v>
       </c>
       <c r="G61" s="3">
-        <v>29994000</v>
+        <v>30171500</v>
       </c>
       <c r="H61" s="3">
-        <v>26917400</v>
+        <v>30478300</v>
       </c>
       <c r="I61" s="3">
-        <v>27012500</v>
+        <v>27352000</v>
       </c>
       <c r="J61" s="3">
+        <v>27448700</v>
+      </c>
+      <c r="K61" s="3">
         <v>27278100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25389200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28423700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28726400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28965100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29015900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28331200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29049600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22293900</v>
+        <v>22807300</v>
       </c>
       <c r="E62" s="3">
-        <v>22612200</v>
+        <v>22653800</v>
       </c>
       <c r="F62" s="3">
-        <v>22418500</v>
+        <v>22977300</v>
       </c>
       <c r="G62" s="3">
-        <v>22194400</v>
+        <v>22780500</v>
       </c>
       <c r="H62" s="3">
-        <v>21969300</v>
+        <v>22552800</v>
       </c>
       <c r="I62" s="3">
-        <v>22462700</v>
+        <v>22324000</v>
       </c>
       <c r="J62" s="3">
+        <v>22825400</v>
+      </c>
+      <c r="K62" s="3">
         <v>22206200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21740200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40355000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21606000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21475400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21294000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20989200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21797200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>129623600</v>
+        <v>132179200</v>
       </c>
       <c r="E66" s="3">
-        <v>128143500</v>
+        <v>131716600</v>
       </c>
       <c r="F66" s="3">
-        <v>122600200</v>
+        <v>130212500</v>
       </c>
       <c r="G66" s="3">
-        <v>124861300</v>
+        <v>124579800</v>
       </c>
       <c r="H66" s="3">
-        <v>121050900</v>
+        <v>126877300</v>
       </c>
       <c r="I66" s="3">
-        <v>117577200</v>
+        <v>123005400</v>
       </c>
       <c r="J66" s="3">
+        <v>119475700</v>
+      </c>
+      <c r="K66" s="3">
         <v>114165700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112192700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112807400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109849800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>108990500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>108974100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>108194900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>107689800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60384500</v>
+        <v>62287800</v>
       </c>
       <c r="E72" s="3">
-        <v>59743900</v>
+        <v>61359500</v>
       </c>
       <c r="F72" s="3">
-        <v>59002700</v>
+        <v>60708500</v>
       </c>
       <c r="G72" s="3">
-        <v>56487900</v>
+        <v>59955400</v>
       </c>
       <c r="H72" s="3">
-        <v>55315500</v>
+        <v>57399900</v>
       </c>
       <c r="I72" s="3">
-        <v>54990200</v>
+        <v>56208600</v>
       </c>
       <c r="J72" s="3">
+        <v>55878100</v>
+      </c>
+      <c r="K72" s="3">
         <v>54359500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57216800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55490700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55074400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54544700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52229600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49904000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48738500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84177600</v>
+        <v>88907800</v>
       </c>
       <c r="E76" s="3">
-        <v>84985200</v>
+        <v>85536800</v>
       </c>
       <c r="F76" s="3">
-        <v>83949500</v>
+        <v>86357400</v>
       </c>
       <c r="G76" s="3">
-        <v>84800900</v>
+        <v>85305000</v>
       </c>
       <c r="H76" s="3">
-        <v>86071000</v>
+        <v>86170200</v>
       </c>
       <c r="I76" s="3">
-        <v>85872200</v>
+        <v>87460800</v>
       </c>
       <c r="J76" s="3">
+        <v>87258700</v>
+      </c>
+      <c r="K76" s="3">
         <v>87610900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82942000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>81927300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84764000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85352800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82827500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80295500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78795200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>542400</v>
+        <v>2573700</v>
       </c>
       <c r="E81" s="3">
-        <v>2315600</v>
+        <v>551100</v>
       </c>
       <c r="F81" s="3">
-        <v>2481700</v>
+        <v>2352900</v>
       </c>
       <c r="G81" s="3">
-        <v>2606100</v>
+        <v>2521800</v>
       </c>
       <c r="H81" s="3">
-        <v>580000</v>
+        <v>2648200</v>
       </c>
       <c r="I81" s="3">
-        <v>2159000</v>
+        <v>589400</v>
       </c>
       <c r="J81" s="3">
+        <v>2193900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2508100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2633800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1564900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2012000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2512900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2647500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1165500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1708600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3512000</v>
+        <v>3476100</v>
       </c>
       <c r="E83" s="3">
-        <v>3392300</v>
+        <v>3568700</v>
       </c>
       <c r="F83" s="3">
-        <v>3359200</v>
+        <v>3447000</v>
       </c>
       <c r="G83" s="3">
-        <v>3349200</v>
+        <v>3413500</v>
       </c>
       <c r="H83" s="3">
-        <v>3186500</v>
+        <v>3403300</v>
       </c>
       <c r="I83" s="3">
-        <v>3104400</v>
+        <v>3237900</v>
       </c>
       <c r="J83" s="3">
+        <v>3154600</v>
+      </c>
+      <c r="K83" s="3">
         <v>3074900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2958700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3035200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3068600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3003800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3364800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3250100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11894300</v>
+        <v>4551000</v>
       </c>
       <c r="E89" s="3">
-        <v>1676700</v>
+        <v>12086400</v>
       </c>
       <c r="F89" s="3">
-        <v>9841800</v>
+        <v>1703800</v>
       </c>
       <c r="G89" s="3">
-        <v>4412700</v>
+        <v>10000700</v>
       </c>
       <c r="H89" s="3">
-        <v>7418200</v>
+        <v>4483900</v>
       </c>
       <c r="I89" s="3">
-        <v>3713500</v>
+        <v>7538000</v>
       </c>
       <c r="J89" s="3">
+        <v>3773500</v>
+      </c>
+      <c r="K89" s="3">
         <v>7209000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3926000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7650900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6131900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5252800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4754300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10658100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2885700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4573000</v>
+        <v>-5194600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4036200</v>
+        <v>-4646800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3370000</v>
+        <v>-4101300</v>
       </c>
       <c r="G91" s="3">
-        <v>-5266400</v>
+        <v>-3424400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4209400</v>
+        <v>-5351400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3534900</v>
+        <v>-4277300</v>
       </c>
       <c r="J91" s="3">
+        <v>-3592000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5118500</v>
+        <v>-7593000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4879800</v>
+        <v>-5201100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3682000</v>
+        <v>-4958600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3531600</v>
+        <v>-3741400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4451000</v>
+        <v>-3588600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3611600</v>
+        <v>-4522900</v>
       </c>
       <c r="J94" s="3">
+        <v>-3669900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1630000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1604100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1630000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1692200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1719500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1540000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1564900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5227700</v>
+        <v>3416500</v>
       </c>
       <c r="E100" s="3">
-        <v>2653300</v>
+        <v>-5312100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6995600</v>
+        <v>2696200</v>
       </c>
       <c r="G100" s="3">
-        <v>-103400</v>
+        <v>-7108500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2651300</v>
+        <v>-105100</v>
       </c>
       <c r="I100" s="3">
-        <v>113200</v>
+        <v>-2694100</v>
       </c>
       <c r="J100" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>138900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1473800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>616100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79400</v>
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
-        <v>62100</v>
+        <v>-80600</v>
       </c>
       <c r="F101" s="3">
-        <v>-33200</v>
+        <v>63100</v>
       </c>
       <c r="G101" s="3">
-        <v>-77600</v>
+        <v>-33700</v>
       </c>
       <c r="H101" s="3">
-        <v>34800</v>
+        <v>-78800</v>
       </c>
       <c r="I101" s="3">
-        <v>-41000</v>
+        <v>35400</v>
       </c>
       <c r="J101" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="K101" s="3">
         <v>31800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-71700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>51100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>88300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1468800</v>
+        <v>367800</v>
       </c>
       <c r="E102" s="3">
-        <v>-487700</v>
+        <v>1492500</v>
       </c>
       <c r="F102" s="3">
-        <v>-869000</v>
+        <v>-495500</v>
       </c>
       <c r="G102" s="3">
-        <v>700100</v>
+        <v>-883000</v>
       </c>
       <c r="H102" s="3">
-        <v>350700</v>
+        <v>711400</v>
       </c>
       <c r="I102" s="3">
-        <v>174100</v>
+        <v>356400</v>
       </c>
       <c r="J102" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K102" s="3">
         <v>859700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-889900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>124000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-669700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>776300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2309600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26115400</v>
+        <v>28300600</v>
       </c>
       <c r="E8" s="3">
-        <v>28666700</v>
+        <v>26585700</v>
       </c>
       <c r="F8" s="3">
-        <v>28066400</v>
+        <v>29182900</v>
       </c>
       <c r="G8" s="3">
-        <v>28075600</v>
+        <v>28571900</v>
       </c>
       <c r="H8" s="3">
-        <v>27521700</v>
+        <v>28581200</v>
       </c>
       <c r="I8" s="3">
-        <v>29118900</v>
+        <v>28017400</v>
       </c>
       <c r="J8" s="3">
+        <v>29643300</v>
+      </c>
+      <c r="K8" s="3">
         <v>28339000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27316900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25931300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27821100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27624000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26057300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25390800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26880700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25156800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,29 +822,32 @@
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>14315900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13646700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12122500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11756500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14418700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12033700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,29 +878,32 @@
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>13505200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13977300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13934700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13634400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12462000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13123100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,114 +1033,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>203900</v>
+        <v>251200</v>
       </c>
       <c r="E14" s="3">
-        <v>950000</v>
+        <v>207500</v>
       </c>
       <c r="F14" s="3">
-        <v>327800</v>
+        <v>967100</v>
       </c>
       <c r="G14" s="3">
-        <v>285100</v>
+        <v>333700</v>
       </c>
       <c r="H14" s="3">
-        <v>214200</v>
+        <v>290200</v>
       </c>
       <c r="I14" s="3">
-        <v>1302500</v>
+        <v>218000</v>
       </c>
       <c r="J14" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="K14" s="3">
         <v>957400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>243400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>167300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2970900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>332400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>246800</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3476100</v>
+        <v>3589900</v>
       </c>
       <c r="E15" s="3">
-        <v>3568700</v>
+        <v>3538700</v>
       </c>
       <c r="F15" s="3">
-        <v>3447000</v>
+        <v>3633000</v>
       </c>
       <c r="G15" s="3">
-        <v>3413500</v>
+        <v>3509100</v>
       </c>
       <c r="H15" s="3">
-        <v>3403300</v>
+        <v>3475000</v>
       </c>
       <c r="I15" s="3">
-        <v>3237900</v>
+        <v>3464600</v>
       </c>
       <c r="J15" s="3">
+        <v>3296200</v>
+      </c>
+      <c r="K15" s="3">
         <v>3154600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3074900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2958700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3108500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6102700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5974800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5995600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3364800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3683200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21418100</v>
+        <v>23389900</v>
       </c>
       <c r="E17" s="3">
-        <v>27612000</v>
+        <v>21803900</v>
       </c>
       <c r="F17" s="3">
-        <v>23652100</v>
+        <v>28109300</v>
       </c>
       <c r="G17" s="3">
-        <v>23567000</v>
+        <v>24078000</v>
       </c>
       <c r="H17" s="3">
-        <v>22752700</v>
+        <v>23991400</v>
       </c>
       <c r="I17" s="3">
-        <v>27545200</v>
+        <v>23162400</v>
       </c>
       <c r="J17" s="3">
+        <v>28041200</v>
+      </c>
+      <c r="K17" s="3">
         <v>24030900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22360500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21047900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24898500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24267800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21413500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20647900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24918300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21679200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4697200</v>
+        <v>4910700</v>
       </c>
       <c r="E18" s="3">
-        <v>1054700</v>
+        <v>4781800</v>
       </c>
       <c r="F18" s="3">
-        <v>4414400</v>
+        <v>1073700</v>
       </c>
       <c r="G18" s="3">
-        <v>4508600</v>
+        <v>4493900</v>
       </c>
       <c r="H18" s="3">
-        <v>4769000</v>
+        <v>4589800</v>
       </c>
       <c r="I18" s="3">
-        <v>1573700</v>
+        <v>4854900</v>
       </c>
       <c r="J18" s="3">
+        <v>1602100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4308200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4956500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4883400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2922500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3356200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4643800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4742900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1962400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3477700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9100</v>
+        <v>-24500</v>
       </c>
       <c r="E20" s="3">
-        <v>-88400</v>
+        <v>-9300</v>
       </c>
       <c r="F20" s="3">
-        <v>-16000</v>
+        <v>-90000</v>
       </c>
       <c r="G20" s="3">
-        <v>-23900</v>
+        <v>-16300</v>
       </c>
       <c r="H20" s="3">
-        <v>203800</v>
+        <v>-24400</v>
       </c>
       <c r="I20" s="3">
-        <v>-238500</v>
+        <v>207500</v>
       </c>
       <c r="J20" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-40300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>49300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1123500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>78400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>103800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>79200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>236000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8164200</v>
+        <v>8476100</v>
       </c>
       <c r="E21" s="3">
-        <v>4535000</v>
+        <v>8311200</v>
       </c>
       <c r="F21" s="3">
-        <v>7845400</v>
+        <v>4616700</v>
       </c>
       <c r="G21" s="3">
-        <v>7898200</v>
+        <v>7986600</v>
       </c>
       <c r="H21" s="3">
-        <v>8376100</v>
+        <v>8040400</v>
       </c>
       <c r="I21" s="3">
-        <v>4573100</v>
+        <v>8527000</v>
       </c>
       <c r="J21" s="3">
+        <v>4655400</v>
+      </c>
+      <c r="K21" s="3">
         <v>7422400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8051200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7891400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5939100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7548400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7734900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7838500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5406400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6963800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,135 +1445,144 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>62500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>78700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>74500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>75300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>85100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>74400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4688100</v>
+        <v>4886200</v>
       </c>
       <c r="E23" s="3">
-        <v>966300</v>
+        <v>4772500</v>
       </c>
       <c r="F23" s="3">
-        <v>4398300</v>
+        <v>983700</v>
       </c>
       <c r="G23" s="3">
-        <v>4484700</v>
+        <v>4477500</v>
       </c>
       <c r="H23" s="3">
-        <v>4972800</v>
+        <v>4565500</v>
       </c>
       <c r="I23" s="3">
-        <v>1335200</v>
+        <v>5062400</v>
       </c>
       <c r="J23" s="3">
+        <v>1359200</v>
+      </c>
+      <c r="K23" s="3">
         <v>4267900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4976300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4932700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2841400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4401100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4647600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4771400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1956500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3639300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1408200</v>
+        <v>1538100</v>
       </c>
       <c r="E24" s="3">
-        <v>162900</v>
+        <v>1433600</v>
       </c>
       <c r="F24" s="3">
-        <v>1380400</v>
+        <v>165900</v>
       </c>
       <c r="G24" s="3">
-        <v>1250600</v>
+        <v>1405300</v>
       </c>
       <c r="H24" s="3">
-        <v>1537100</v>
+        <v>1273100</v>
       </c>
       <c r="I24" s="3">
-        <v>359300</v>
+        <v>1564700</v>
       </c>
       <c r="J24" s="3">
+        <v>365800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1302600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1763500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1520700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>761900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1444900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1463800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1466700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>386100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1271900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3279900</v>
+        <v>3348100</v>
       </c>
       <c r="E26" s="3">
-        <v>803300</v>
+        <v>3338900</v>
       </c>
       <c r="F26" s="3">
-        <v>3017900</v>
+        <v>817800</v>
       </c>
       <c r="G26" s="3">
-        <v>3234100</v>
+        <v>3072200</v>
       </c>
       <c r="H26" s="3">
-        <v>3435800</v>
+        <v>3292400</v>
       </c>
       <c r="I26" s="3">
-        <v>975900</v>
+        <v>3497600</v>
       </c>
       <c r="J26" s="3">
+        <v>993500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2965200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3212800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3412000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2079500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2956200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3183800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3304700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1570400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2367400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2573700</v>
+        <v>2583900</v>
       </c>
       <c r="E27" s="3">
-        <v>551100</v>
+        <v>2620100</v>
       </c>
       <c r="F27" s="3">
-        <v>2352900</v>
+        <v>561100</v>
       </c>
       <c r="G27" s="3">
-        <v>2521800</v>
+        <v>2395300</v>
       </c>
       <c r="H27" s="3">
-        <v>2648200</v>
+        <v>2567200</v>
       </c>
       <c r="I27" s="3">
-        <v>589400</v>
+        <v>2695900</v>
       </c>
       <c r="J27" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2193900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2508100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2633800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1564900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2012000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2512900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2647500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1165500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1708600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9100</v>
+        <v>24500</v>
       </c>
       <c r="E32" s="3">
-        <v>88400</v>
+        <v>9300</v>
       </c>
       <c r="F32" s="3">
-        <v>16000</v>
+        <v>90000</v>
       </c>
       <c r="G32" s="3">
-        <v>23900</v>
+        <v>16300</v>
       </c>
       <c r="H32" s="3">
-        <v>-203800</v>
+        <v>24400</v>
       </c>
       <c r="I32" s="3">
-        <v>238500</v>
+        <v>-207500</v>
       </c>
       <c r="J32" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K32" s="3">
         <v>40300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-49300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-78400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-103800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-79200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-236000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2573700</v>
+        <v>2583900</v>
       </c>
       <c r="E33" s="3">
-        <v>551100</v>
+        <v>2620100</v>
       </c>
       <c r="F33" s="3">
-        <v>2352900</v>
+        <v>561100</v>
       </c>
       <c r="G33" s="3">
-        <v>2521800</v>
+        <v>2395300</v>
       </c>
       <c r="H33" s="3">
-        <v>2648200</v>
+        <v>2567200</v>
       </c>
       <c r="I33" s="3">
-        <v>589400</v>
+        <v>2695900</v>
       </c>
       <c r="J33" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2193900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2508100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2633800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1564900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2012000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2512900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2647500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1165500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1708600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2573700</v>
+        <v>2583900</v>
       </c>
       <c r="E35" s="3">
-        <v>551100</v>
+        <v>2620100</v>
       </c>
       <c r="F35" s="3">
-        <v>2352900</v>
+        <v>561100</v>
       </c>
       <c r="G35" s="3">
-        <v>2521800</v>
+        <v>2395300</v>
       </c>
       <c r="H35" s="3">
-        <v>2648200</v>
+        <v>2567200</v>
       </c>
       <c r="I35" s="3">
-        <v>589400</v>
+        <v>2695900</v>
       </c>
       <c r="J35" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2193900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2508100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2633800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1564900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2012000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2512900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2647500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1165500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1708600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,485 +2301,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10124700</v>
+        <v>9670900</v>
       </c>
       <c r="E41" s="3">
-        <v>9756900</v>
+        <v>10307000</v>
       </c>
       <c r="F41" s="3">
-        <v>8264400</v>
+        <v>9932600</v>
       </c>
       <c r="G41" s="3">
-        <v>8759900</v>
+        <v>8413200</v>
       </c>
       <c r="H41" s="3">
-        <v>9642900</v>
+        <v>8917700</v>
       </c>
       <c r="I41" s="3">
-        <v>8931500</v>
+        <v>9816600</v>
       </c>
       <c r="J41" s="3">
+        <v>9092300</v>
+      </c>
+      <c r="K41" s="3">
         <v>8575100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8264800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7245700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15144700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6929900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7599600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8690400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8206600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5897100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>337600</v>
+        <v>7258900</v>
       </c>
       <c r="E42" s="3">
-        <v>305700</v>
+        <v>343600</v>
       </c>
       <c r="F42" s="3">
-        <v>1216900</v>
+        <v>311200</v>
       </c>
       <c r="G42" s="3">
-        <v>1069700</v>
+        <v>1238800</v>
       </c>
       <c r="H42" s="3">
-        <v>1028800</v>
+        <v>1089000</v>
       </c>
       <c r="I42" s="3">
-        <v>1111600</v>
+        <v>1047400</v>
       </c>
       <c r="J42" s="3">
+        <v>1131600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1158300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1087400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1160200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1401100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>398600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1303600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>786800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>566300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>677900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30525100</v>
+        <v>31388600</v>
       </c>
       <c r="E43" s="3">
-        <v>33066800</v>
+        <v>31074800</v>
       </c>
       <c r="F43" s="3">
-        <v>42710300</v>
+        <v>33662200</v>
       </c>
       <c r="G43" s="3">
-        <v>38428700</v>
+        <v>43479400</v>
       </c>
       <c r="H43" s="3">
-        <v>39827200</v>
+        <v>39120800</v>
       </c>
       <c r="I43" s="3">
-        <v>41455100</v>
+        <v>40544400</v>
       </c>
       <c r="J43" s="3">
+        <v>42201700</v>
+      </c>
+      <c r="K43" s="3">
         <v>39166800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36843100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34757800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68781300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31235300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29446200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26375400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27995700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29108000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2911300</v>
+        <v>2915300</v>
       </c>
       <c r="E44" s="3">
-        <v>2429200</v>
+        <v>2963700</v>
       </c>
       <c r="F44" s="3">
-        <v>2920100</v>
+        <v>2472900</v>
       </c>
       <c r="G44" s="3">
-        <v>2520600</v>
+        <v>2972700</v>
       </c>
       <c r="H44" s="3">
-        <v>2871900</v>
+        <v>2566000</v>
       </c>
       <c r="I44" s="3">
-        <v>3130600</v>
+        <v>2923600</v>
       </c>
       <c r="J44" s="3">
+        <v>3187000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4045200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3198000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3250000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6759800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4153400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3497200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3655500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3240900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3875200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19783600</v>
+        <v>6041400</v>
       </c>
       <c r="E45" s="3">
-        <v>17722500</v>
+        <v>20139900</v>
       </c>
       <c r="F45" s="3">
-        <v>5633300</v>
+        <v>18041600</v>
       </c>
       <c r="G45" s="3">
-        <v>5462400</v>
+        <v>5734800</v>
       </c>
       <c r="H45" s="3">
-        <v>6628600</v>
+        <v>5560700</v>
       </c>
       <c r="I45" s="3">
-        <v>7486000</v>
+        <v>6748000</v>
       </c>
       <c r="J45" s="3">
+        <v>7620800</v>
+      </c>
+      <c r="K45" s="3">
         <v>7330500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7113200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5420500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9493000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5634700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5426600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6214100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7111600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7980800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63682300</v>
+        <v>57275100</v>
       </c>
       <c r="E46" s="3">
-        <v>63281000</v>
+        <v>64829100</v>
       </c>
       <c r="F46" s="3">
-        <v>60745000</v>
+        <v>64420600</v>
       </c>
       <c r="G46" s="3">
-        <v>56241300</v>
+        <v>61838900</v>
       </c>
       <c r="H46" s="3">
-        <v>59999400</v>
+        <v>57254100</v>
       </c>
       <c r="I46" s="3">
-        <v>62114900</v>
+        <v>61079900</v>
       </c>
       <c r="J46" s="3">
+        <v>63233500</v>
+      </c>
+      <c r="K46" s="3">
         <v>60275800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56506500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51834100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53057200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>48351800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47273300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45722100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47121200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47539100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14130800</v>
+        <v>16129000</v>
       </c>
       <c r="E47" s="3">
-        <v>10663200</v>
+        <v>14385300</v>
       </c>
       <c r="F47" s="3">
-        <v>14733800</v>
+        <v>10855200</v>
       </c>
       <c r="G47" s="3">
-        <v>13776800</v>
+        <v>14999100</v>
       </c>
       <c r="H47" s="3">
-        <v>13924100</v>
+        <v>14024900</v>
       </c>
       <c r="I47" s="3">
-        <v>13563000</v>
+        <v>14174900</v>
       </c>
       <c r="J47" s="3">
+        <v>13807300</v>
+      </c>
+      <c r="K47" s="3">
         <v>13538500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13687300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14984100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23831700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9577600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9086300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8923400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8691600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8571600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101217800</v>
+        <v>103899200</v>
       </c>
       <c r="E48" s="3">
-        <v>100445700</v>
+        <v>103040600</v>
       </c>
       <c r="F48" s="3">
-        <v>99472700</v>
+        <v>102254600</v>
       </c>
       <c r="G48" s="3">
-        <v>98792300</v>
+        <v>101264000</v>
       </c>
       <c r="H48" s="3">
-        <v>98318600</v>
+        <v>100571400</v>
       </c>
       <c r="I48" s="3">
-        <v>94210800</v>
+        <v>100089100</v>
       </c>
       <c r="J48" s="3">
+        <v>95907300</v>
+      </c>
+      <c r="K48" s="3">
         <v>92625800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91769200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89134300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>177505500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87753100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88621500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87913000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86207700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84650400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25083300</v>
+        <v>25437400</v>
       </c>
       <c r="E49" s="3">
-        <v>25251100</v>
+        <v>25535000</v>
       </c>
       <c r="F49" s="3">
-        <v>24973000</v>
+        <v>25705800</v>
       </c>
       <c r="G49" s="3">
-        <v>24144900</v>
+        <v>25422700</v>
       </c>
       <c r="H49" s="3">
-        <v>23895300</v>
+        <v>24579700</v>
       </c>
       <c r="I49" s="3">
-        <v>23734900</v>
+        <v>24325600</v>
       </c>
       <c r="J49" s="3">
+        <v>24162400</v>
+      </c>
+      <c r="K49" s="3">
         <v>23906500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23809200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23033500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48621500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26804000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26981900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26837400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26415300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25833000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16972800</v>
+        <v>16905500</v>
       </c>
       <c r="E52" s="3">
-        <v>17612400</v>
+        <v>17278400</v>
       </c>
       <c r="F52" s="3">
-        <v>16645500</v>
+        <v>17929600</v>
       </c>
       <c r="G52" s="3">
-        <v>16929600</v>
+        <v>16945300</v>
       </c>
       <c r="H52" s="3">
-        <v>16910000</v>
+        <v>17234400</v>
       </c>
       <c r="I52" s="3">
-        <v>16842600</v>
+        <v>17214500</v>
       </c>
       <c r="J52" s="3">
+        <v>17145900</v>
+      </c>
+      <c r="K52" s="3">
         <v>16387700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16004400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16148700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30822500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22127200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22380200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22405700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20054600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19890900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>221087000</v>
+        <v>219646300</v>
       </c>
       <c r="E54" s="3">
-        <v>217253400</v>
+        <v>225068400</v>
       </c>
       <c r="F54" s="3">
-        <v>216569900</v>
+        <v>221165800</v>
       </c>
       <c r="G54" s="3">
-        <v>209884800</v>
+        <v>220470000</v>
       </c>
       <c r="H54" s="3">
-        <v>213047500</v>
+        <v>213664500</v>
       </c>
       <c r="I54" s="3">
-        <v>210466200</v>
+        <v>216884100</v>
       </c>
       <c r="J54" s="3">
+        <v>214256400</v>
+      </c>
+      <c r="K54" s="3">
         <v>206734400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>201776600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>195134800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>194734700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194613800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194343300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>191801600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>188490400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>186485000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17187800</v>
+        <v>16726600</v>
       </c>
       <c r="E57" s="3">
-        <v>20227600</v>
+        <v>17497300</v>
       </c>
       <c r="F57" s="3">
-        <v>16093700</v>
+        <v>20591800</v>
       </c>
       <c r="G57" s="3">
-        <v>15783600</v>
+        <v>16383500</v>
       </c>
       <c r="H57" s="3">
-        <v>15914400</v>
+        <v>16067800</v>
       </c>
       <c r="I57" s="3">
-        <v>19753000</v>
+        <v>16201000</v>
       </c>
       <c r="J57" s="3">
+        <v>20108700</v>
+      </c>
+      <c r="K57" s="3">
         <v>15250500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13794100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13731500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16378000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12341800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11209100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10462900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14307300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10823200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24334400</v>
+        <v>22304700</v>
       </c>
       <c r="E58" s="3">
-        <v>20849500</v>
+        <v>24772600</v>
       </c>
       <c r="F58" s="3">
-        <v>22698400</v>
+        <v>21225000</v>
       </c>
       <c r="G58" s="3">
-        <v>17135200</v>
+        <v>23107100</v>
       </c>
       <c r="H58" s="3">
-        <v>19446200</v>
+        <v>17443800</v>
       </c>
       <c r="I58" s="3">
-        <v>13325400</v>
+        <v>19796400</v>
       </c>
       <c r="J58" s="3">
+        <v>13565300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15598300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10476900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14238400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15416900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8838000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8994300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9532100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8191800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9374100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19356900</v>
+        <v>15171600</v>
       </c>
       <c r="E59" s="3">
-        <v>21298800</v>
+        <v>19705500</v>
       </c>
       <c r="F59" s="3">
-        <v>14113300</v>
+        <v>21682400</v>
       </c>
       <c r="G59" s="3">
-        <v>14925900</v>
+        <v>14367500</v>
       </c>
       <c r="H59" s="3">
-        <v>14751300</v>
+        <v>15194700</v>
       </c>
       <c r="I59" s="3">
-        <v>16274600</v>
+        <v>15016900</v>
       </c>
       <c r="J59" s="3">
+        <v>16567700</v>
+      </c>
+      <c r="K59" s="3">
         <v>14876600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15946100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14009300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19934300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14207200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14711400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15808300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14146400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14897400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>60879100</v>
+        <v>54202900</v>
       </c>
       <c r="E60" s="3">
-        <v>62375900</v>
+        <v>61975500</v>
       </c>
       <c r="F60" s="3">
-        <v>52905400</v>
+        <v>63499200</v>
       </c>
       <c r="G60" s="3">
-        <v>47844700</v>
+        <v>53858100</v>
       </c>
       <c r="H60" s="3">
-        <v>50112000</v>
+        <v>48706300</v>
       </c>
       <c r="I60" s="3">
-        <v>49353000</v>
+        <v>51014400</v>
       </c>
       <c r="J60" s="3">
+        <v>50241800</v>
+      </c>
+      <c r="K60" s="3">
         <v>45725300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40217100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41979300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41786800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35387100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34914900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35803300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36645500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35094700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25667100</v>
+        <v>24492300</v>
       </c>
       <c r="E61" s="3">
-        <v>24016500</v>
+        <v>26129300</v>
       </c>
       <c r="F61" s="3">
-        <v>30859500</v>
+        <v>24449000</v>
       </c>
       <c r="G61" s="3">
-        <v>30171500</v>
+        <v>31415200</v>
       </c>
       <c r="H61" s="3">
-        <v>30478300</v>
+        <v>30714900</v>
       </c>
       <c r="I61" s="3">
-        <v>27352000</v>
+        <v>31027200</v>
       </c>
       <c r="J61" s="3">
+        <v>27844600</v>
+      </c>
+      <c r="K61" s="3">
         <v>27448700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27278100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25389200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28423700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28726400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28965100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29015900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28331200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29049600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22807300</v>
+        <v>23398500</v>
       </c>
       <c r="E62" s="3">
-        <v>22653800</v>
+        <v>23218000</v>
       </c>
       <c r="F62" s="3">
-        <v>22977300</v>
+        <v>23061800</v>
       </c>
       <c r="G62" s="3">
-        <v>22780500</v>
+        <v>23391100</v>
       </c>
       <c r="H62" s="3">
-        <v>22552800</v>
+        <v>23190700</v>
       </c>
       <c r="I62" s="3">
-        <v>22324000</v>
+        <v>22958900</v>
       </c>
       <c r="J62" s="3">
+        <v>22726000</v>
+      </c>
+      <c r="K62" s="3">
         <v>22825400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22206200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21740200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40355000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21606000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21475400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21294000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20989200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21797200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>132179200</v>
+        <v>126147300</v>
       </c>
       <c r="E66" s="3">
-        <v>131716600</v>
+        <v>134559600</v>
       </c>
       <c r="F66" s="3">
-        <v>130212500</v>
+        <v>134088600</v>
       </c>
       <c r="G66" s="3">
-        <v>124579800</v>
+        <v>132557500</v>
       </c>
       <c r="H66" s="3">
-        <v>126877300</v>
+        <v>126823300</v>
       </c>
       <c r="I66" s="3">
-        <v>123005400</v>
+        <v>129162200</v>
       </c>
       <c r="J66" s="3">
+        <v>125220500</v>
+      </c>
+      <c r="K66" s="3">
         <v>119475700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114165700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112192700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112807400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>109849800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>108990500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>108974100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>108194900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>107689800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62287800</v>
+        <v>65997600</v>
       </c>
       <c r="E72" s="3">
-        <v>61359500</v>
+        <v>63409500</v>
       </c>
       <c r="F72" s="3">
-        <v>60708500</v>
+        <v>62464400</v>
       </c>
       <c r="G72" s="3">
-        <v>59955400</v>
+        <v>61801800</v>
       </c>
       <c r="H72" s="3">
-        <v>57399900</v>
+        <v>61035100</v>
       </c>
       <c r="I72" s="3">
-        <v>56208600</v>
+        <v>58433600</v>
       </c>
       <c r="J72" s="3">
+        <v>57220900</v>
+      </c>
+      <c r="K72" s="3">
         <v>55878100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54359500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57216800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55490700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55074400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54544700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52229600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49904000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48738500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88907800</v>
+        <v>93498900</v>
       </c>
       <c r="E76" s="3">
-        <v>85536800</v>
+        <v>90508800</v>
       </c>
       <c r="F76" s="3">
-        <v>86357400</v>
+        <v>87077200</v>
       </c>
       <c r="G76" s="3">
-        <v>85305000</v>
+        <v>87912500</v>
       </c>
       <c r="H76" s="3">
-        <v>86170200</v>
+        <v>86841200</v>
       </c>
       <c r="I76" s="3">
-        <v>87460800</v>
+        <v>87721900</v>
       </c>
       <c r="J76" s="3">
+        <v>89035800</v>
+      </c>
+      <c r="K76" s="3">
         <v>87258700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87610900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82942000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>81927300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84764000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>85352800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82827500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>80295500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78795200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2573700</v>
+        <v>2583900</v>
       </c>
       <c r="E81" s="3">
-        <v>551100</v>
+        <v>2620100</v>
       </c>
       <c r="F81" s="3">
-        <v>2352900</v>
+        <v>561100</v>
       </c>
       <c r="G81" s="3">
-        <v>2521800</v>
+        <v>2395300</v>
       </c>
       <c r="H81" s="3">
-        <v>2648200</v>
+        <v>2567200</v>
       </c>
       <c r="I81" s="3">
-        <v>589400</v>
+        <v>2695900</v>
       </c>
       <c r="J81" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2193900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2508100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2633800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1564900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2012000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2512900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2647500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1165500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1708600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3476100</v>
+        <v>3589900</v>
       </c>
       <c r="E83" s="3">
-        <v>3568700</v>
+        <v>3538700</v>
       </c>
       <c r="F83" s="3">
-        <v>3447000</v>
+        <v>3633000</v>
       </c>
       <c r="G83" s="3">
-        <v>3413500</v>
+        <v>3509100</v>
       </c>
       <c r="H83" s="3">
-        <v>3403300</v>
+        <v>3475000</v>
       </c>
       <c r="I83" s="3">
-        <v>3237900</v>
+        <v>3464600</v>
       </c>
       <c r="J83" s="3">
+        <v>3296200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3154600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3074900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2958700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3035200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3068600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3003800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3364800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3250100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4551000</v>
+        <v>7773500</v>
       </c>
       <c r="E89" s="3">
-        <v>12086400</v>
+        <v>4633000</v>
       </c>
       <c r="F89" s="3">
-        <v>1703800</v>
+        <v>12304000</v>
       </c>
       <c r="G89" s="3">
-        <v>10000700</v>
+        <v>1734500</v>
       </c>
       <c r="H89" s="3">
-        <v>4483900</v>
+        <v>10180800</v>
       </c>
       <c r="I89" s="3">
-        <v>7538000</v>
+        <v>4564700</v>
       </c>
       <c r="J89" s="3">
+        <v>7673800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3773500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7209000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3926000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7650900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6131900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5252800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4754300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10658100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2885700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5194600</v>
+        <v>-3494600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4646800</v>
+        <v>-5288200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4101300</v>
+        <v>-4730500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3424400</v>
+        <v>-4175200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5351400</v>
+        <v>-3486000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4277300</v>
+        <v>-5447800</v>
       </c>
       <c r="J91" s="3">
+        <v>-4354400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7593000</v>
+        <v>-3614000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5201100</v>
+        <v>-7729700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4958600</v>
+        <v>-5294800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3741400</v>
+        <v>-5047900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3588600</v>
+        <v>-3808800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4522900</v>
+        <v>-3653200</v>
       </c>
       <c r="J94" s="3">
+        <v>-4604300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1630000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1659400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1630000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1659400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1719500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1750500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3416500</v>
+        <v>-4774900</v>
       </c>
       <c r="E100" s="3">
-        <v>-5312100</v>
+        <v>3478000</v>
       </c>
       <c r="F100" s="3">
-        <v>2696200</v>
+        <v>-5407700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7108500</v>
+        <v>2744700</v>
       </c>
       <c r="H100" s="3">
-        <v>-105100</v>
+        <v>-7236500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2694100</v>
+        <v>-107000</v>
       </c>
       <c r="J100" s="3">
+        <v>-2742600</v>
+      </c>
+      <c r="K100" s="3">
         <v>115000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>138900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1473800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>616100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-20700</v>
       </c>
       <c r="E101" s="3">
-        <v>-80600</v>
+        <v>-6900</v>
       </c>
       <c r="F101" s="3">
-        <v>63100</v>
+        <v>-82100</v>
       </c>
       <c r="G101" s="3">
-        <v>-33700</v>
+        <v>64200</v>
       </c>
       <c r="H101" s="3">
-        <v>-78800</v>
+        <v>-34400</v>
       </c>
       <c r="I101" s="3">
-        <v>35400</v>
+        <v>-80200</v>
       </c>
       <c r="J101" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-41700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-71700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>51100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>88300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>367800</v>
+        <v>-636100</v>
       </c>
       <c r="E102" s="3">
-        <v>1492500</v>
+        <v>374400</v>
       </c>
       <c r="F102" s="3">
-        <v>-495500</v>
+        <v>1519400</v>
       </c>
       <c r="G102" s="3">
-        <v>-883000</v>
+        <v>-504400</v>
       </c>
       <c r="H102" s="3">
-        <v>711400</v>
+        <v>-898900</v>
       </c>
       <c r="I102" s="3">
-        <v>356400</v>
+        <v>724200</v>
       </c>
       <c r="J102" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K102" s="3">
         <v>176900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>859700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-889900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>124000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-669700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>776300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2309600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28300600</v>
+        <v>27724000</v>
       </c>
       <c r="E8" s="3">
-        <v>26585700</v>
+        <v>26975300</v>
       </c>
       <c r="F8" s="3">
-        <v>29182900</v>
+        <v>25340700</v>
       </c>
       <c r="G8" s="3">
-        <v>28571900</v>
+        <v>27816400</v>
       </c>
       <c r="H8" s="3">
-        <v>28581200</v>
+        <v>27234000</v>
       </c>
       <c r="I8" s="3">
-        <v>28017400</v>
+        <v>27242900</v>
       </c>
       <c r="J8" s="3">
+        <v>26705400</v>
+      </c>
+      <c r="K8" s="3">
         <v>29643300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28339000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27316900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25931300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27821100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27624000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26057300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25390800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26880700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25156800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,29 +831,32 @@
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>14315900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13646700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12122500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11756500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14418700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12033700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,29 +890,32 @@
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>13505200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13977300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13934700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13634400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12462000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13123100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,120 +1052,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>251200</v>
+        <v>409900</v>
       </c>
       <c r="E14" s="3">
-        <v>207500</v>
+        <v>239400</v>
       </c>
       <c r="F14" s="3">
-        <v>967100</v>
+        <v>197800</v>
       </c>
       <c r="G14" s="3">
-        <v>333700</v>
+        <v>921800</v>
       </c>
       <c r="H14" s="3">
-        <v>290200</v>
+        <v>318100</v>
       </c>
       <c r="I14" s="3">
-        <v>218000</v>
+        <v>276600</v>
       </c>
       <c r="J14" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1326000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>957400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>243400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>167300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2970900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>332400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>246800</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3589900</v>
+        <v>3476600</v>
       </c>
       <c r="E15" s="3">
-        <v>3538700</v>
+        <v>3421800</v>
       </c>
       <c r="F15" s="3">
-        <v>3633000</v>
+        <v>3373000</v>
       </c>
       <c r="G15" s="3">
-        <v>3509100</v>
+        <v>3462900</v>
       </c>
       <c r="H15" s="3">
-        <v>3475000</v>
+        <v>3344800</v>
       </c>
       <c r="I15" s="3">
-        <v>3464600</v>
+        <v>3312200</v>
       </c>
       <c r="J15" s="3">
+        <v>3302300</v>
+      </c>
+      <c r="K15" s="3">
         <v>3296200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3154600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3074900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2958700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3108500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6102700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5974800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5995600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3364800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3683200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23389900</v>
+        <v>23201300</v>
       </c>
       <c r="E17" s="3">
-        <v>21803900</v>
+        <v>22294600</v>
       </c>
       <c r="F17" s="3">
-        <v>28109300</v>
+        <v>20782900</v>
       </c>
       <c r="G17" s="3">
-        <v>24078000</v>
+        <v>26793000</v>
       </c>
       <c r="H17" s="3">
-        <v>23991400</v>
+        <v>22950500</v>
       </c>
       <c r="I17" s="3">
-        <v>23162400</v>
+        <v>22868000</v>
       </c>
       <c r="J17" s="3">
+        <v>22077800</v>
+      </c>
+      <c r="K17" s="3">
         <v>28041200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24030900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22360500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21047900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24898500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24267800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21413500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20647900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24918300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21679200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4910700</v>
+        <v>4522700</v>
       </c>
       <c r="E18" s="3">
-        <v>4781800</v>
+        <v>4680700</v>
       </c>
       <c r="F18" s="3">
-        <v>1073700</v>
+        <v>4557900</v>
       </c>
       <c r="G18" s="3">
-        <v>4493900</v>
+        <v>1023400</v>
       </c>
       <c r="H18" s="3">
-        <v>4589800</v>
+        <v>4283400</v>
       </c>
       <c r="I18" s="3">
-        <v>4854900</v>
+        <v>4374900</v>
       </c>
       <c r="J18" s="3">
+        <v>4627600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1602100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4308200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4956500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4883400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2922500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3356200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4643800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4742900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1962400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3477700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24500</v>
+        <v>-34000</v>
       </c>
       <c r="E20" s="3">
-        <v>-9300</v>
+        <v>-23300</v>
       </c>
       <c r="F20" s="3">
-        <v>-90000</v>
+        <v>-8900</v>
       </c>
       <c r="G20" s="3">
-        <v>-16300</v>
+        <v>-85800</v>
       </c>
       <c r="H20" s="3">
-        <v>-24400</v>
+        <v>-15600</v>
       </c>
       <c r="I20" s="3">
-        <v>207500</v>
+        <v>-23200</v>
       </c>
       <c r="J20" s="3">
+        <v>197800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-242800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1123500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>78400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>103800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>79200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>236000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8476100</v>
+        <v>7965300</v>
       </c>
       <c r="E21" s="3">
-        <v>8311200</v>
+        <v>8079200</v>
       </c>
       <c r="F21" s="3">
-        <v>4616700</v>
+        <v>7922000</v>
       </c>
       <c r="G21" s="3">
-        <v>7986600</v>
+        <v>4400500</v>
       </c>
       <c r="H21" s="3">
-        <v>8040400</v>
+        <v>7612700</v>
       </c>
       <c r="I21" s="3">
-        <v>8527000</v>
+        <v>7663900</v>
       </c>
       <c r="J21" s="3">
+        <v>8127700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4655400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7422400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8051200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7891400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5939100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7548400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7734900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7838500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5406400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6963800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,141 +1487,150 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>62500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>75300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>85100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>74400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4886200</v>
+        <v>4488700</v>
       </c>
       <c r="E23" s="3">
-        <v>4772500</v>
+        <v>4657400</v>
       </c>
       <c r="F23" s="3">
-        <v>983700</v>
+        <v>4549000</v>
       </c>
       <c r="G23" s="3">
-        <v>4477500</v>
+        <v>937600</v>
       </c>
       <c r="H23" s="3">
-        <v>4565500</v>
+        <v>4267900</v>
       </c>
       <c r="I23" s="3">
-        <v>5062400</v>
+        <v>4351700</v>
       </c>
       <c r="J23" s="3">
+        <v>4825300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1359200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4267900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4976300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4932700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2841400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4401100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4647600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4771400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1956500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3639300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1538100</v>
+        <v>1318800</v>
       </c>
       <c r="E24" s="3">
-        <v>1433600</v>
+        <v>1466100</v>
       </c>
       <c r="F24" s="3">
-        <v>165900</v>
+        <v>1366500</v>
       </c>
       <c r="G24" s="3">
-        <v>1405300</v>
+        <v>158100</v>
       </c>
       <c r="H24" s="3">
-        <v>1273100</v>
+        <v>1339500</v>
       </c>
       <c r="I24" s="3">
-        <v>1564700</v>
+        <v>1213500</v>
       </c>
       <c r="J24" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K24" s="3">
         <v>365800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1302600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1763500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1520700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>761900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1444900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1463800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1466700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>386100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1271900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3348100</v>
+        <v>3169900</v>
       </c>
       <c r="E26" s="3">
-        <v>3338900</v>
+        <v>3191300</v>
       </c>
       <c r="F26" s="3">
-        <v>817800</v>
+        <v>3182600</v>
       </c>
       <c r="G26" s="3">
-        <v>3072200</v>
+        <v>779500</v>
       </c>
       <c r="H26" s="3">
-        <v>3292400</v>
+        <v>2928400</v>
       </c>
       <c r="I26" s="3">
-        <v>3497600</v>
+        <v>3138200</v>
       </c>
       <c r="J26" s="3">
+        <v>3333900</v>
+      </c>
+      <c r="K26" s="3">
         <v>993500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2965200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3212800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3412000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2079500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2956200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3183800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3304700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1570400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2367400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2583900</v>
+        <v>2653300</v>
       </c>
       <c r="E27" s="3">
-        <v>2620100</v>
+        <v>2462900</v>
       </c>
       <c r="F27" s="3">
-        <v>561100</v>
+        <v>2497400</v>
       </c>
       <c r="G27" s="3">
-        <v>2395300</v>
+        <v>534800</v>
       </c>
       <c r="H27" s="3">
-        <v>2567200</v>
+        <v>2283100</v>
       </c>
       <c r="I27" s="3">
-        <v>2695900</v>
+        <v>2447000</v>
       </c>
       <c r="J27" s="3">
+        <v>2569700</v>
+      </c>
+      <c r="K27" s="3">
         <v>600000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2193900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2508100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2633800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1564900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2012000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2512900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2647500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1165500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1708600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="E32" s="3">
-        <v>9300</v>
+        <v>23300</v>
       </c>
       <c r="F32" s="3">
-        <v>90000</v>
+        <v>8900</v>
       </c>
       <c r="G32" s="3">
-        <v>16300</v>
+        <v>85800</v>
       </c>
       <c r="H32" s="3">
-        <v>24400</v>
+        <v>15600</v>
       </c>
       <c r="I32" s="3">
-        <v>-207500</v>
+        <v>23200</v>
       </c>
       <c r="J32" s="3">
+        <v>-197800</v>
+      </c>
+      <c r="K32" s="3">
         <v>242800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-103800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-79200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-236000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2583900</v>
+        <v>2653300</v>
       </c>
       <c r="E33" s="3">
-        <v>2620100</v>
+        <v>2462900</v>
       </c>
       <c r="F33" s="3">
-        <v>561100</v>
+        <v>2497400</v>
       </c>
       <c r="G33" s="3">
-        <v>2395300</v>
+        <v>534800</v>
       </c>
       <c r="H33" s="3">
-        <v>2567200</v>
+        <v>2283100</v>
       </c>
       <c r="I33" s="3">
-        <v>2695900</v>
+        <v>2447000</v>
       </c>
       <c r="J33" s="3">
+        <v>2569700</v>
+      </c>
+      <c r="K33" s="3">
         <v>600000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2193900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2508100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2633800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1564900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2012000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2512900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2647500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1165500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1708600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2583900</v>
+        <v>2653300</v>
       </c>
       <c r="E35" s="3">
-        <v>2620100</v>
+        <v>2462900</v>
       </c>
       <c r="F35" s="3">
-        <v>561100</v>
+        <v>2497400</v>
       </c>
       <c r="G35" s="3">
-        <v>2395300</v>
+        <v>534800</v>
       </c>
       <c r="H35" s="3">
-        <v>2567200</v>
+        <v>2283100</v>
       </c>
       <c r="I35" s="3">
-        <v>2695900</v>
+        <v>2447000</v>
       </c>
       <c r="J35" s="3">
+        <v>2569700</v>
+      </c>
+      <c r="K35" s="3">
         <v>600000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2193900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2508100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2633800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1564900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2012000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2512900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2647500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1165500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1708600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,512 +2387,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9670900</v>
+        <v>12392500</v>
       </c>
       <c r="E41" s="3">
-        <v>10307000</v>
+        <v>9218100</v>
       </c>
       <c r="F41" s="3">
-        <v>9932600</v>
+        <v>9824400</v>
       </c>
       <c r="G41" s="3">
-        <v>8413200</v>
+        <v>9467500</v>
       </c>
       <c r="H41" s="3">
-        <v>8917700</v>
+        <v>8019300</v>
       </c>
       <c r="I41" s="3">
-        <v>9816600</v>
+        <v>8500100</v>
       </c>
       <c r="J41" s="3">
+        <v>9356900</v>
+      </c>
+      <c r="K41" s="3">
         <v>9092300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8575100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8264800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7245700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15144700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6929900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7599600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8690400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8206600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5897100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7258900</v>
+        <v>5544900</v>
       </c>
       <c r="E42" s="3">
-        <v>343600</v>
+        <v>6919000</v>
       </c>
       <c r="F42" s="3">
-        <v>311200</v>
+        <v>327600</v>
       </c>
       <c r="G42" s="3">
-        <v>1238800</v>
+        <v>296600</v>
       </c>
       <c r="H42" s="3">
-        <v>1089000</v>
+        <v>1180800</v>
       </c>
       <c r="I42" s="3">
-        <v>1047400</v>
+        <v>1038000</v>
       </c>
       <c r="J42" s="3">
+        <v>998300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1131600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1158300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1087400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1160200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1401100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>398600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1303600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>786800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>566300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>677900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31388600</v>
+        <v>34448300</v>
       </c>
       <c r="E43" s="3">
-        <v>31074800</v>
+        <v>29918700</v>
       </c>
       <c r="F43" s="3">
-        <v>33662200</v>
+        <v>29619700</v>
       </c>
       <c r="G43" s="3">
-        <v>43479400</v>
+        <v>32086000</v>
       </c>
       <c r="H43" s="3">
-        <v>39120800</v>
+        <v>41443500</v>
       </c>
       <c r="I43" s="3">
-        <v>40544400</v>
+        <v>37288900</v>
       </c>
       <c r="J43" s="3">
+        <v>38645800</v>
+      </c>
+      <c r="K43" s="3">
         <v>42201700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39166800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36843100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34757800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68781300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>31235300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29446200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26375400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27995700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29108000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2915300</v>
+        <v>3301300</v>
       </c>
       <c r="E44" s="3">
-        <v>2963700</v>
+        <v>2778800</v>
       </c>
       <c r="F44" s="3">
-        <v>2472900</v>
+        <v>2824900</v>
       </c>
       <c r="G44" s="3">
-        <v>2972700</v>
+        <v>2357100</v>
       </c>
       <c r="H44" s="3">
-        <v>2566000</v>
+        <v>2833500</v>
       </c>
       <c r="I44" s="3">
-        <v>2923600</v>
+        <v>2445800</v>
       </c>
       <c r="J44" s="3">
+        <v>2786700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3187000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4045200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3198000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3250000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6759800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4153400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3497200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3655500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3240900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3875200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6041400</v>
+        <v>5972000</v>
       </c>
       <c r="E45" s="3">
-        <v>20139900</v>
+        <v>5758500</v>
       </c>
       <c r="F45" s="3">
-        <v>18041600</v>
+        <v>19196800</v>
       </c>
       <c r="G45" s="3">
-        <v>5734800</v>
+        <v>17196800</v>
       </c>
       <c r="H45" s="3">
-        <v>5560700</v>
+        <v>5466200</v>
       </c>
       <c r="I45" s="3">
-        <v>6748000</v>
+        <v>5300300</v>
       </c>
       <c r="J45" s="3">
+        <v>6432000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7620800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7330500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7113200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5420500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9493000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5634700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5426600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6214100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7111600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7980800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57275100</v>
+        <v>61658900</v>
       </c>
       <c r="E46" s="3">
-        <v>64829100</v>
+        <v>54593200</v>
       </c>
       <c r="F46" s="3">
-        <v>64420600</v>
+        <v>61793400</v>
       </c>
       <c r="G46" s="3">
-        <v>61838900</v>
+        <v>61404100</v>
       </c>
       <c r="H46" s="3">
-        <v>57254100</v>
+        <v>58943200</v>
       </c>
       <c r="I46" s="3">
-        <v>61079900</v>
+        <v>54573100</v>
       </c>
       <c r="J46" s="3">
+        <v>58219800</v>
+      </c>
+      <c r="K46" s="3">
         <v>63233500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>60275800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56506500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>51834100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53057200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48351800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47273300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45722100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47121200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47539100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16129000</v>
+        <v>16930400</v>
       </c>
       <c r="E47" s="3">
-        <v>14385300</v>
+        <v>15373800</v>
       </c>
       <c r="F47" s="3">
-        <v>10855200</v>
+        <v>13711700</v>
       </c>
       <c r="G47" s="3">
-        <v>14999100</v>
+        <v>10346900</v>
       </c>
       <c r="H47" s="3">
-        <v>14024900</v>
+        <v>14296800</v>
       </c>
       <c r="I47" s="3">
-        <v>14174900</v>
+        <v>13368200</v>
       </c>
       <c r="J47" s="3">
+        <v>13511100</v>
+      </c>
+      <c r="K47" s="3">
         <v>13807300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13538500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13687300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14984100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23831700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9577600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9086300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8923400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8691600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8571600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103899200</v>
+        <v>99558400</v>
       </c>
       <c r="E48" s="3">
-        <v>103040600</v>
+        <v>99034000</v>
       </c>
       <c r="F48" s="3">
-        <v>102254600</v>
+        <v>98215600</v>
       </c>
       <c r="G48" s="3">
-        <v>101264000</v>
+        <v>97466400</v>
       </c>
       <c r="H48" s="3">
-        <v>100571400</v>
+        <v>96522200</v>
       </c>
       <c r="I48" s="3">
-        <v>100089100</v>
+        <v>95862000</v>
       </c>
       <c r="J48" s="3">
+        <v>95402300</v>
+      </c>
+      <c r="K48" s="3">
         <v>95907300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>92625800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91769200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89134300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>177505500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87753100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88621500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87913000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86207700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84650400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25437400</v>
+        <v>24651800</v>
       </c>
       <c r="E49" s="3">
-        <v>25535000</v>
+        <v>24246300</v>
       </c>
       <c r="F49" s="3">
-        <v>25705800</v>
+        <v>24339300</v>
       </c>
       <c r="G49" s="3">
-        <v>25422700</v>
+        <v>24502100</v>
       </c>
       <c r="H49" s="3">
-        <v>24579700</v>
+        <v>24232200</v>
       </c>
       <c r="I49" s="3">
-        <v>24325600</v>
+        <v>23428800</v>
       </c>
       <c r="J49" s="3">
+        <v>23186600</v>
+      </c>
+      <c r="K49" s="3">
         <v>24162400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23906500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23809200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23033500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48621500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26804000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26981900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26837400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26415300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25833000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16905500</v>
+        <v>15776600</v>
       </c>
       <c r="E52" s="3">
-        <v>17278400</v>
+        <v>16113900</v>
       </c>
       <c r="F52" s="3">
-        <v>17929600</v>
+        <v>16469300</v>
       </c>
       <c r="G52" s="3">
-        <v>16945300</v>
+        <v>17090000</v>
       </c>
       <c r="H52" s="3">
-        <v>17234400</v>
+        <v>16151800</v>
       </c>
       <c r="I52" s="3">
-        <v>17214500</v>
+        <v>16427400</v>
       </c>
       <c r="J52" s="3">
+        <v>16408400</v>
+      </c>
+      <c r="K52" s="3">
         <v>17145900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16387700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16004400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16148700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30822500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22127200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22380200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22405700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20054600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19890900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>219646300</v>
+        <v>218576100</v>
       </c>
       <c r="E54" s="3">
-        <v>225068400</v>
+        <v>209361100</v>
       </c>
       <c r="F54" s="3">
-        <v>221165800</v>
+        <v>214529300</v>
       </c>
       <c r="G54" s="3">
-        <v>220470000</v>
+        <v>210809500</v>
       </c>
       <c r="H54" s="3">
-        <v>213664500</v>
+        <v>210146200</v>
       </c>
       <c r="I54" s="3">
-        <v>216884100</v>
+        <v>203659400</v>
       </c>
       <c r="J54" s="3">
+        <v>206728300</v>
+      </c>
+      <c r="K54" s="3">
         <v>214256400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>206734400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>201776600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>195134800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194734700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194613800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194343300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>191801600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>188490400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>186485000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16726600</v>
+        <v>28343000</v>
       </c>
       <c r="E57" s="3">
-        <v>17497300</v>
+        <v>15943400</v>
       </c>
       <c r="F57" s="3">
-        <v>20591800</v>
+        <v>16678000</v>
       </c>
       <c r="G57" s="3">
-        <v>16383500</v>
+        <v>19627600</v>
       </c>
       <c r="H57" s="3">
-        <v>16067800</v>
+        <v>15616300</v>
       </c>
       <c r="I57" s="3">
-        <v>16201000</v>
+        <v>15315400</v>
       </c>
       <c r="J57" s="3">
+        <v>15442400</v>
+      </c>
+      <c r="K57" s="3">
         <v>20108700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15250500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13794100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13731500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16378000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12341800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11209100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10462900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14307300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10823200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22304700</v>
+        <v>47991100</v>
       </c>
       <c r="E58" s="3">
-        <v>24772600</v>
+        <v>21260200</v>
       </c>
       <c r="F58" s="3">
-        <v>21225000</v>
+        <v>23612600</v>
       </c>
       <c r="G58" s="3">
-        <v>23107100</v>
+        <v>20231100</v>
       </c>
       <c r="H58" s="3">
-        <v>17443800</v>
+        <v>22025100</v>
       </c>
       <c r="I58" s="3">
-        <v>19796400</v>
+        <v>16626900</v>
       </c>
       <c r="J58" s="3">
+        <v>18869500</v>
+      </c>
+      <c r="K58" s="3">
         <v>13565300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15598300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10476900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14238400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15416900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8838000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8994300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9532100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8191800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9374100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15171600</v>
+        <v>13719800</v>
       </c>
       <c r="E59" s="3">
-        <v>19705500</v>
+        <v>14461200</v>
       </c>
       <c r="F59" s="3">
-        <v>21682400</v>
+        <v>18782800</v>
       </c>
       <c r="G59" s="3">
-        <v>14367500</v>
+        <v>20667000</v>
       </c>
       <c r="H59" s="3">
-        <v>15194700</v>
+        <v>13694700</v>
       </c>
       <c r="I59" s="3">
-        <v>15016900</v>
+        <v>14483200</v>
       </c>
       <c r="J59" s="3">
+        <v>14313800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16567700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14876600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15946100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14009300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19934300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14207200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14711400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15808300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14146400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14897400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54202900</v>
+        <v>90053900</v>
       </c>
       <c r="E60" s="3">
-        <v>61975500</v>
+        <v>51664800</v>
       </c>
       <c r="F60" s="3">
-        <v>63499200</v>
+        <v>59073400</v>
       </c>
       <c r="G60" s="3">
-        <v>53858100</v>
+        <v>60525700</v>
       </c>
       <c r="H60" s="3">
-        <v>48706300</v>
+        <v>51336100</v>
       </c>
       <c r="I60" s="3">
-        <v>51014400</v>
+        <v>46425600</v>
       </c>
       <c r="J60" s="3">
+        <v>48625600</v>
+      </c>
+      <c r="K60" s="3">
         <v>50241800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45725300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40217100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41979300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41786800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35387100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34914900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35803300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36645500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35094700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24492300</v>
+        <v>32112000</v>
       </c>
       <c r="E61" s="3">
-        <v>26129300</v>
+        <v>23345400</v>
       </c>
       <c r="F61" s="3">
-        <v>24449000</v>
+        <v>24905800</v>
       </c>
       <c r="G61" s="3">
-        <v>31415200</v>
+        <v>23304200</v>
       </c>
       <c r="H61" s="3">
-        <v>30714900</v>
+        <v>29944200</v>
       </c>
       <c r="I61" s="3">
-        <v>31027200</v>
+        <v>29276600</v>
       </c>
       <c r="J61" s="3">
+        <v>29574300</v>
+      </c>
+      <c r="K61" s="3">
         <v>27844600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27448700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27278100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25389200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28423700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28726400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28965100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29015900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28331200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29049600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23398500</v>
+        <v>22705500</v>
       </c>
       <c r="E62" s="3">
-        <v>23218000</v>
+        <v>22302900</v>
       </c>
       <c r="F62" s="3">
-        <v>23061800</v>
+        <v>22130800</v>
       </c>
       <c r="G62" s="3">
-        <v>23391100</v>
+        <v>21981900</v>
       </c>
       <c r="H62" s="3">
-        <v>23190700</v>
+        <v>22295800</v>
       </c>
       <c r="I62" s="3">
-        <v>22958900</v>
+        <v>22104800</v>
       </c>
       <c r="J62" s="3">
+        <v>21883800</v>
+      </c>
+      <c r="K62" s="3">
         <v>22726000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22825400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22206200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21740200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40355000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21606000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21475400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21294000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20989200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21797200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>126147300</v>
+        <v>150446500</v>
       </c>
       <c r="E66" s="3">
-        <v>134559600</v>
+        <v>120240300</v>
       </c>
       <c r="F66" s="3">
-        <v>134088600</v>
+        <v>128258600</v>
       </c>
       <c r="G66" s="3">
-        <v>132557500</v>
+        <v>127809800</v>
       </c>
       <c r="H66" s="3">
-        <v>126823300</v>
+        <v>126350300</v>
       </c>
       <c r="I66" s="3">
-        <v>129162200</v>
+        <v>120884600</v>
       </c>
       <c r="J66" s="3">
+        <v>123114000</v>
+      </c>
+      <c r="K66" s="3">
         <v>125220500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119475700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114165700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112192700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112807400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109849800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>108990500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>108974100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>108194900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>107689800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65997600</v>
+        <v>62835800</v>
       </c>
       <c r="E72" s="3">
-        <v>63409500</v>
+        <v>62907200</v>
       </c>
       <c r="F72" s="3">
-        <v>62464400</v>
+        <v>60440300</v>
       </c>
       <c r="G72" s="3">
-        <v>61801800</v>
+        <v>59539500</v>
       </c>
       <c r="H72" s="3">
-        <v>61035100</v>
+        <v>58907800</v>
       </c>
       <c r="I72" s="3">
-        <v>58433600</v>
+        <v>58177100</v>
       </c>
       <c r="J72" s="3">
+        <v>55697400</v>
+      </c>
+      <c r="K72" s="3">
         <v>57220900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55878100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54359500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57216800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55490700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55074400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54544700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52229600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49904000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48738500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>93498900</v>
+        <v>68129600</v>
       </c>
       <c r="E76" s="3">
-        <v>90508800</v>
+        <v>89120700</v>
       </c>
       <c r="F76" s="3">
-        <v>87077200</v>
+        <v>86270700</v>
       </c>
       <c r="G76" s="3">
-        <v>87912500</v>
+        <v>82999700</v>
       </c>
       <c r="H76" s="3">
-        <v>86841200</v>
+        <v>83795900</v>
       </c>
       <c r="I76" s="3">
-        <v>87721900</v>
+        <v>82774800</v>
       </c>
       <c r="J76" s="3">
+        <v>83614300</v>
+      </c>
+      <c r="K76" s="3">
         <v>89035800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87258700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87610900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82942000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81927300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84764000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>85352800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>82827500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>80295500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78795200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2583900</v>
+        <v>2653300</v>
       </c>
       <c r="E81" s="3">
-        <v>2620100</v>
+        <v>2462900</v>
       </c>
       <c r="F81" s="3">
-        <v>561100</v>
+        <v>2497400</v>
       </c>
       <c r="G81" s="3">
-        <v>2395300</v>
+        <v>534800</v>
       </c>
       <c r="H81" s="3">
-        <v>2567200</v>
+        <v>2283100</v>
       </c>
       <c r="I81" s="3">
-        <v>2695900</v>
+        <v>2447000</v>
       </c>
       <c r="J81" s="3">
+        <v>2569700</v>
+      </c>
+      <c r="K81" s="3">
         <v>600000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2193900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2508100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2633800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1564900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2012000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2512900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2647500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1165500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1708600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3589900</v>
+        <v>3476600</v>
       </c>
       <c r="E83" s="3">
-        <v>3538700</v>
+        <v>3421800</v>
       </c>
       <c r="F83" s="3">
-        <v>3633000</v>
+        <v>3373000</v>
       </c>
       <c r="G83" s="3">
-        <v>3509100</v>
+        <v>3462900</v>
       </c>
       <c r="H83" s="3">
-        <v>3475000</v>
+        <v>3344800</v>
       </c>
       <c r="I83" s="3">
-        <v>3464600</v>
+        <v>3312200</v>
       </c>
       <c r="J83" s="3">
+        <v>3302300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3296200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3154600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3074900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2958700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3035200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3068600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3003800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3364800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3250100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7773500</v>
+        <v>3728400</v>
       </c>
       <c r="E89" s="3">
-        <v>4633000</v>
+        <v>7409500</v>
       </c>
       <c r="F89" s="3">
-        <v>12304000</v>
+        <v>4416000</v>
       </c>
       <c r="G89" s="3">
-        <v>1734500</v>
+        <v>11727900</v>
       </c>
       <c r="H89" s="3">
-        <v>10180800</v>
+        <v>1653300</v>
       </c>
       <c r="I89" s="3">
-        <v>4564700</v>
+        <v>9704000</v>
       </c>
       <c r="J89" s="3">
+        <v>4350900</v>
+      </c>
+      <c r="K89" s="3">
         <v>7673800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3773500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7209000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3926000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7650900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6131900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5252800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4754300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10658100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2885700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3494600</v>
+        <v>-3794000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5288200</v>
+        <v>-3330900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4730500</v>
+        <v>-5040600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4175200</v>
+        <v>-4509000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3486000</v>
+        <v>-3979700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5447800</v>
+        <v>-3322800</v>
       </c>
       <c r="J91" s="3">
+        <v>-5192700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3614000</v>
+        <v>-3020300</v>
       </c>
       <c r="E94" s="3">
-        <v>-7729700</v>
+        <v>-3444800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5294800</v>
+        <v>-7367800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5047900</v>
+        <v>-5046800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3808800</v>
+        <v>-4811500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3653200</v>
+        <v>-3630400</v>
       </c>
       <c r="J94" s="3">
+        <v>-3482200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1701900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1659400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1581700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1659400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1581700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1750500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1668500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4774900</v>
+        <v>2529300</v>
       </c>
       <c r="E100" s="3">
-        <v>3478000</v>
+        <v>-4551300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5407700</v>
+        <v>3315200</v>
       </c>
       <c r="G100" s="3">
-        <v>2744700</v>
+        <v>-5154500</v>
       </c>
       <c r="H100" s="3">
-        <v>-7236500</v>
+        <v>2616200</v>
       </c>
       <c r="I100" s="3">
-        <v>-107000</v>
+        <v>-6897700</v>
       </c>
       <c r="J100" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>138900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1473800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>616100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20700</v>
+        <v>-63000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6900</v>
+        <v>-19700</v>
       </c>
       <c r="F101" s="3">
-        <v>-82100</v>
+        <v>-6600</v>
       </c>
       <c r="G101" s="3">
-        <v>64200</v>
+        <v>-78300</v>
       </c>
       <c r="H101" s="3">
-        <v>-34400</v>
+        <v>61200</v>
       </c>
       <c r="I101" s="3">
-        <v>-80200</v>
+        <v>-32700</v>
       </c>
       <c r="J101" s="3">
+        <v>-76500</v>
+      </c>
+      <c r="K101" s="3">
         <v>36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-71700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>88300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-636100</v>
+        <v>3174400</v>
       </c>
       <c r="E102" s="3">
-        <v>374400</v>
+        <v>-606300</v>
       </c>
       <c r="F102" s="3">
-        <v>1519400</v>
+        <v>356800</v>
       </c>
       <c r="G102" s="3">
-        <v>-504400</v>
+        <v>1448300</v>
       </c>
       <c r="H102" s="3">
-        <v>-898900</v>
+        <v>-480800</v>
       </c>
       <c r="I102" s="3">
-        <v>724200</v>
+        <v>-856800</v>
       </c>
       <c r="J102" s="3">
+        <v>690300</v>
+      </c>
+      <c r="K102" s="3">
         <v>362800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>176900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>859700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-889900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>124000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-669700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>776300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2309600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27724000</v>
+        <v>29462800</v>
       </c>
       <c r="E8" s="3">
-        <v>26975300</v>
+        <v>27814800</v>
       </c>
       <c r="F8" s="3">
-        <v>25340700</v>
+        <v>27063700</v>
       </c>
       <c r="G8" s="3">
-        <v>27816400</v>
+        <v>25423700</v>
       </c>
       <c r="H8" s="3">
-        <v>27234000</v>
+        <v>27907500</v>
       </c>
       <c r="I8" s="3">
-        <v>27242900</v>
+        <v>27323200</v>
       </c>
       <c r="J8" s="3">
+        <v>27332100</v>
+      </c>
+      <c r="K8" s="3">
         <v>26705400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29643300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28339000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27316900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25931300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27821100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27624000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26057300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25390800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26880700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25156800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,29 +840,32 @@
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3">
         <v>14315900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13646700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12122500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11756500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14418700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12033700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -893,29 +902,32 @@
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
         <v>13505200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13977300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13934700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13634400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12462000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13123100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,126 +1071,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>409900</v>
+        <v>827900</v>
       </c>
       <c r="E14" s="3">
-        <v>239400</v>
+        <v>411300</v>
       </c>
       <c r="F14" s="3">
-        <v>197800</v>
+        <v>240200</v>
       </c>
       <c r="G14" s="3">
-        <v>921800</v>
+        <v>198500</v>
       </c>
       <c r="H14" s="3">
-        <v>318100</v>
+        <v>924900</v>
       </c>
       <c r="I14" s="3">
-        <v>276600</v>
+        <v>319100</v>
       </c>
       <c r="J14" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K14" s="3">
         <v>207800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1326000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>957400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>243400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>167300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2970900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>332400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>246800</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3476600</v>
+        <v>3545700</v>
       </c>
       <c r="E15" s="3">
-        <v>3421800</v>
+        <v>3488000</v>
       </c>
       <c r="F15" s="3">
-        <v>3373000</v>
+        <v>3433000</v>
       </c>
       <c r="G15" s="3">
-        <v>3462900</v>
+        <v>3384100</v>
       </c>
       <c r="H15" s="3">
-        <v>3344800</v>
+        <v>3474200</v>
       </c>
       <c r="I15" s="3">
-        <v>3312200</v>
+        <v>3355700</v>
       </c>
       <c r="J15" s="3">
+        <v>3323100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3302300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3296200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3154600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3074900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2958700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3108500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6102700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5974800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5995600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3364800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3683200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23201300</v>
+        <v>27909100</v>
       </c>
       <c r="E17" s="3">
-        <v>22294600</v>
+        <v>23277300</v>
       </c>
       <c r="F17" s="3">
-        <v>20782900</v>
+        <v>22367700</v>
       </c>
       <c r="G17" s="3">
-        <v>26793000</v>
+        <v>20850900</v>
       </c>
       <c r="H17" s="3">
-        <v>22950500</v>
+        <v>26880800</v>
       </c>
       <c r="I17" s="3">
-        <v>22868000</v>
+        <v>23025700</v>
       </c>
       <c r="J17" s="3">
+        <v>22942900</v>
+      </c>
+      <c r="K17" s="3">
         <v>22077800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28041200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24030900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22360500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21047900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24898500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24267800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21413500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20647900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24918300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21679200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4522700</v>
+        <v>1553700</v>
       </c>
       <c r="E18" s="3">
-        <v>4680700</v>
+        <v>4537500</v>
       </c>
       <c r="F18" s="3">
-        <v>4557900</v>
+        <v>4696000</v>
       </c>
       <c r="G18" s="3">
-        <v>1023400</v>
+        <v>4572800</v>
       </c>
       <c r="H18" s="3">
-        <v>4283400</v>
+        <v>1026700</v>
       </c>
       <c r="I18" s="3">
-        <v>4374900</v>
+        <v>4297500</v>
       </c>
       <c r="J18" s="3">
+        <v>4389200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4627600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1602100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4308200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4956500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4883400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2922500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3356200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4643800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4742900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1962400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3477700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34000</v>
+        <v>-106500</v>
       </c>
       <c r="E20" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-23300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-85800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>197800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-242800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1123500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>78400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>103800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>79200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>236000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7965300</v>
+        <v>4992900</v>
       </c>
       <c r="E21" s="3">
-        <v>8079200</v>
+        <v>7991300</v>
       </c>
       <c r="F21" s="3">
-        <v>7922000</v>
+        <v>8105700</v>
       </c>
       <c r="G21" s="3">
-        <v>4400500</v>
+        <v>7948000</v>
       </c>
       <c r="H21" s="3">
-        <v>7612700</v>
+        <v>4414900</v>
       </c>
       <c r="I21" s="3">
-        <v>7663900</v>
+        <v>7637600</v>
       </c>
       <c r="J21" s="3">
+        <v>7689000</v>
+      </c>
+      <c r="K21" s="3">
         <v>8127700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4655400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7422400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8051200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7891400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5939100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7548400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7734900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7838500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5406400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6963800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1490,147 +1529,156 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>62500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>78700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>75300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>85100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>74400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4488700</v>
+        <v>1447200</v>
       </c>
       <c r="E23" s="3">
-        <v>4657400</v>
+        <v>4503400</v>
       </c>
       <c r="F23" s="3">
-        <v>4549000</v>
+        <v>4672600</v>
       </c>
       <c r="G23" s="3">
-        <v>937600</v>
+        <v>4563900</v>
       </c>
       <c r="H23" s="3">
+        <v>940700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4281900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4365900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4825300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1359200</v>
+      </c>
+      <c r="M23" s="3">
         <v>4267900</v>
       </c>
-      <c r="I23" s="3">
-        <v>4351700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4825300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1359200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4267900</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4976300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4932700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2841400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4401100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4647600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4771400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1956500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3639300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1318800</v>
+        <v>657200</v>
       </c>
       <c r="E24" s="3">
-        <v>1466100</v>
+        <v>1323100</v>
       </c>
       <c r="F24" s="3">
-        <v>1366500</v>
+        <v>1470900</v>
       </c>
       <c r="G24" s="3">
-        <v>158100</v>
+        <v>1370900</v>
       </c>
       <c r="H24" s="3">
-        <v>1339500</v>
+        <v>158600</v>
       </c>
       <c r="I24" s="3">
-        <v>1213500</v>
+        <v>1343900</v>
       </c>
       <c r="J24" s="3">
+        <v>1217500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1491500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>365800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1302600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1763500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1520700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>761900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1444900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1463800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1466700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>386100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1271900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3169900</v>
+        <v>790000</v>
       </c>
       <c r="E26" s="3">
-        <v>3191300</v>
+        <v>3180300</v>
       </c>
       <c r="F26" s="3">
-        <v>3182600</v>
+        <v>3201700</v>
       </c>
       <c r="G26" s="3">
-        <v>779500</v>
+        <v>3193000</v>
       </c>
       <c r="H26" s="3">
-        <v>2928400</v>
+        <v>782000</v>
       </c>
       <c r="I26" s="3">
-        <v>3138200</v>
+        <v>2938000</v>
       </c>
       <c r="J26" s="3">
+        <v>3148500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3333900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>993500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2965200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3212800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3412000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2079500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2956200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3183800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3304700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1570400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2367400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2653300</v>
+        <v>781200</v>
       </c>
       <c r="E27" s="3">
-        <v>2462900</v>
+        <v>2662000</v>
       </c>
       <c r="F27" s="3">
-        <v>2497400</v>
+        <v>2470900</v>
       </c>
       <c r="G27" s="3">
-        <v>534800</v>
+        <v>2505500</v>
       </c>
       <c r="H27" s="3">
-        <v>2283100</v>
+        <v>536500</v>
       </c>
       <c r="I27" s="3">
-        <v>2447000</v>
+        <v>2290600</v>
       </c>
       <c r="J27" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2569700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2193900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2508100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2633800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1564900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2012000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2512900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2647500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1165500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1708600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34000</v>
+        <v>106500</v>
       </c>
       <c r="E32" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>86100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J32" s="3">
         <v>23300</v>
       </c>
-      <c r="F32" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>85800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-197800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>242800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-78400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-103800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-79200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-236000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2653300</v>
+        <v>781200</v>
       </c>
       <c r="E33" s="3">
-        <v>2462900</v>
+        <v>2662000</v>
       </c>
       <c r="F33" s="3">
-        <v>2497400</v>
+        <v>2470900</v>
       </c>
       <c r="G33" s="3">
-        <v>534800</v>
+        <v>2505500</v>
       </c>
       <c r="H33" s="3">
-        <v>2283100</v>
+        <v>536500</v>
       </c>
       <c r="I33" s="3">
-        <v>2447000</v>
+        <v>2290600</v>
       </c>
       <c r="J33" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2569700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2193900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2508100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2633800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1564900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2012000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2512900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2647500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1165500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1708600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2653300</v>
+        <v>781200</v>
       </c>
       <c r="E35" s="3">
-        <v>2462900</v>
+        <v>2662000</v>
       </c>
       <c r="F35" s="3">
-        <v>2497400</v>
+        <v>2470900</v>
       </c>
       <c r="G35" s="3">
-        <v>534800</v>
+        <v>2505500</v>
       </c>
       <c r="H35" s="3">
-        <v>2283100</v>
+        <v>536500</v>
       </c>
       <c r="I35" s="3">
-        <v>2447000</v>
+        <v>2290600</v>
       </c>
       <c r="J35" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2569700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2193900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2508100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2633800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1564900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2012000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2512900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2647500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1165500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1708600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,539 +2473,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12392500</v>
+        <v>8599300</v>
       </c>
       <c r="E41" s="3">
-        <v>9218100</v>
+        <v>12433100</v>
       </c>
       <c r="F41" s="3">
-        <v>9824400</v>
+        <v>9248300</v>
       </c>
       <c r="G41" s="3">
-        <v>9467500</v>
+        <v>9856600</v>
       </c>
       <c r="H41" s="3">
-        <v>8019300</v>
+        <v>9498500</v>
       </c>
       <c r="I41" s="3">
-        <v>8500100</v>
+        <v>8045500</v>
       </c>
       <c r="J41" s="3">
+        <v>8527900</v>
+      </c>
+      <c r="K41" s="3">
         <v>9356900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9092300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8575100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8264800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7245700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15144700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6929900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7599600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8690400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8206600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5897100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5544900</v>
+        <v>383500</v>
       </c>
       <c r="E42" s="3">
-        <v>6919000</v>
+        <v>5563000</v>
       </c>
       <c r="F42" s="3">
-        <v>327600</v>
+        <v>6941700</v>
       </c>
       <c r="G42" s="3">
-        <v>296600</v>
+        <v>328600</v>
       </c>
       <c r="H42" s="3">
-        <v>1180800</v>
+        <v>297600</v>
       </c>
       <c r="I42" s="3">
-        <v>1038000</v>
+        <v>1184600</v>
       </c>
       <c r="J42" s="3">
+        <v>1041400</v>
+      </c>
+      <c r="K42" s="3">
         <v>998300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1131600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1158300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1087400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1160200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1401100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>398600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1303600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>786800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>566300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>677900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34448300</v>
+        <v>32482600</v>
       </c>
       <c r="E43" s="3">
-        <v>29918700</v>
+        <v>34561200</v>
       </c>
       <c r="F43" s="3">
-        <v>29619700</v>
+        <v>30016700</v>
       </c>
       <c r="G43" s="3">
-        <v>32086000</v>
+        <v>29716700</v>
       </c>
       <c r="H43" s="3">
-        <v>41443500</v>
+        <v>32191000</v>
       </c>
       <c r="I43" s="3">
-        <v>37288900</v>
+        <v>41579200</v>
       </c>
       <c r="J43" s="3">
+        <v>37411000</v>
+      </c>
+      <c r="K43" s="3">
         <v>38645800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42201700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39166800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36843100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34757800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>68781300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31235300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29446200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26375400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27995700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29108000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3301300</v>
+        <v>2898900</v>
       </c>
       <c r="E44" s="3">
-        <v>2778800</v>
+        <v>3312100</v>
       </c>
       <c r="F44" s="3">
-        <v>2824900</v>
+        <v>2787900</v>
       </c>
       <c r="G44" s="3">
-        <v>2357100</v>
+        <v>2834200</v>
       </c>
       <c r="H44" s="3">
-        <v>2833500</v>
+        <v>2364900</v>
       </c>
       <c r="I44" s="3">
-        <v>2445800</v>
+        <v>2842800</v>
       </c>
       <c r="J44" s="3">
+        <v>2453800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2786700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3187000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4045200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3198000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3250000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6759800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4153400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3497200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3655500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3240900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3875200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5972000</v>
+        <v>4585100</v>
       </c>
       <c r="E45" s="3">
-        <v>5758500</v>
+        <v>5991500</v>
       </c>
       <c r="F45" s="3">
-        <v>19196800</v>
+        <v>5777400</v>
       </c>
       <c r="G45" s="3">
-        <v>17196800</v>
+        <v>19259700</v>
       </c>
       <c r="H45" s="3">
-        <v>5466200</v>
+        <v>17253100</v>
       </c>
       <c r="I45" s="3">
-        <v>5300300</v>
+        <v>5484100</v>
       </c>
       <c r="J45" s="3">
+        <v>5317700</v>
+      </c>
+      <c r="K45" s="3">
         <v>6432000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7620800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7330500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7113200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5420500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9493000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5634700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5426600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6214100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7111600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7980800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61658900</v>
+        <v>48949400</v>
       </c>
       <c r="E46" s="3">
-        <v>54593200</v>
+        <v>61860900</v>
       </c>
       <c r="F46" s="3">
-        <v>61793400</v>
+        <v>54772000</v>
       </c>
       <c r="G46" s="3">
-        <v>61404100</v>
+        <v>61995800</v>
       </c>
       <c r="H46" s="3">
-        <v>58943200</v>
+        <v>61605200</v>
       </c>
       <c r="I46" s="3">
-        <v>54573100</v>
+        <v>59136300</v>
       </c>
       <c r="J46" s="3">
+        <v>54751800</v>
+      </c>
+      <c r="K46" s="3">
         <v>58219800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63233500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>60275800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56506500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>51834100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53057200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>48351800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47273300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45722100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47121200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47539100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16930400</v>
+        <v>17708700</v>
       </c>
       <c r="E47" s="3">
-        <v>15373800</v>
+        <v>16985800</v>
       </c>
       <c r="F47" s="3">
-        <v>13711700</v>
+        <v>15424100</v>
       </c>
       <c r="G47" s="3">
-        <v>10346900</v>
+        <v>13756600</v>
       </c>
       <c r="H47" s="3">
-        <v>14296800</v>
+        <v>10380800</v>
       </c>
       <c r="I47" s="3">
-        <v>13368200</v>
+        <v>14343600</v>
       </c>
       <c r="J47" s="3">
+        <v>13411900</v>
+      </c>
+      <c r="K47" s="3">
         <v>13511100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13807300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13538500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13687300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14984100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23831700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9577600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9086300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8923400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8691600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8571600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99558400</v>
+        <v>102051500</v>
       </c>
       <c r="E48" s="3">
-        <v>99034000</v>
+        <v>99884500</v>
       </c>
       <c r="F48" s="3">
-        <v>98215600</v>
+        <v>99358300</v>
       </c>
       <c r="G48" s="3">
-        <v>97466400</v>
+        <v>98537200</v>
       </c>
       <c r="H48" s="3">
-        <v>96522200</v>
+        <v>97785600</v>
       </c>
       <c r="I48" s="3">
-        <v>95862000</v>
+        <v>96838300</v>
       </c>
       <c r="J48" s="3">
+        <v>96175900</v>
+      </c>
+      <c r="K48" s="3">
         <v>95402300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95907300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>92625800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91769200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>89134300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>177505500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87753100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88621500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87913000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86207700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84650400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24651800</v>
+        <v>25934600</v>
       </c>
       <c r="E49" s="3">
-        <v>24246300</v>
+        <v>24732500</v>
       </c>
       <c r="F49" s="3">
-        <v>24339300</v>
+        <v>24325700</v>
       </c>
       <c r="G49" s="3">
-        <v>24502100</v>
+        <v>24419000</v>
       </c>
       <c r="H49" s="3">
-        <v>24232200</v>
+        <v>24582300</v>
       </c>
       <c r="I49" s="3">
-        <v>23428800</v>
+        <v>24311600</v>
       </c>
       <c r="J49" s="3">
+        <v>23505500</v>
+      </c>
+      <c r="K49" s="3">
         <v>23186600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24162400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23906500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23809200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23033500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>48621500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26804000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26981900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26837400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26415300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>25833000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15776600</v>
+        <v>16408700</v>
       </c>
       <c r="E52" s="3">
-        <v>16113900</v>
+        <v>15828300</v>
       </c>
       <c r="F52" s="3">
-        <v>16469300</v>
+        <v>16166700</v>
       </c>
       <c r="G52" s="3">
-        <v>17090000</v>
+        <v>16523300</v>
       </c>
       <c r="H52" s="3">
-        <v>16151800</v>
+        <v>17146000</v>
       </c>
       <c r="I52" s="3">
-        <v>16427400</v>
+        <v>16204700</v>
       </c>
       <c r="J52" s="3">
+        <v>16481200</v>
+      </c>
+      <c r="K52" s="3">
         <v>16408400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17145900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16387700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16004400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16148700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30822500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22127200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22380200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22405700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20054600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19890900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>218576100</v>
+        <v>211052900</v>
       </c>
       <c r="E54" s="3">
-        <v>209361100</v>
+        <v>219292000</v>
       </c>
       <c r="F54" s="3">
-        <v>214529300</v>
+        <v>210046700</v>
       </c>
       <c r="G54" s="3">
-        <v>210809500</v>
+        <v>215231900</v>
       </c>
       <c r="H54" s="3">
-        <v>210146200</v>
+        <v>211499900</v>
       </c>
       <c r="I54" s="3">
-        <v>203659400</v>
+        <v>210834500</v>
       </c>
       <c r="J54" s="3">
+        <v>204326400</v>
+      </c>
+      <c r="K54" s="3">
         <v>206728300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214256400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>206734400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201776600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>195134800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194734700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194613800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>194343300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>191801600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>188490400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>186485000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28343000</v>
+        <v>21658100</v>
       </c>
       <c r="E57" s="3">
-        <v>15943400</v>
+        <v>28435800</v>
       </c>
       <c r="F57" s="3">
-        <v>16678000</v>
+        <v>15995600</v>
       </c>
       <c r="G57" s="3">
-        <v>19627600</v>
+        <v>16732600</v>
       </c>
       <c r="H57" s="3">
-        <v>15616300</v>
+        <v>19691900</v>
       </c>
       <c r="I57" s="3">
-        <v>15315400</v>
+        <v>15667500</v>
       </c>
       <c r="J57" s="3">
+        <v>15365600</v>
+      </c>
+      <c r="K57" s="3">
         <v>15442400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20108700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15250500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13794100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13731500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16378000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12341800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11209100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10462900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14307300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10823200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47991100</v>
+        <v>30901600</v>
       </c>
       <c r="E58" s="3">
-        <v>21260200</v>
+        <v>48148200</v>
       </c>
       <c r="F58" s="3">
-        <v>23612600</v>
+        <v>21329900</v>
       </c>
       <c r="G58" s="3">
-        <v>20231100</v>
+        <v>23690000</v>
       </c>
       <c r="H58" s="3">
-        <v>22025100</v>
+        <v>20297300</v>
       </c>
       <c r="I58" s="3">
-        <v>16626900</v>
+        <v>22097300</v>
       </c>
       <c r="J58" s="3">
+        <v>16681400</v>
+      </c>
+      <c r="K58" s="3">
         <v>18869500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13565300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15598300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10476900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14238400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15416900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8838000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8994300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9532100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8191800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9374100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13719800</v>
+        <v>15686700</v>
       </c>
       <c r="E59" s="3">
-        <v>14461200</v>
+        <v>13764800</v>
       </c>
       <c r="F59" s="3">
-        <v>18782800</v>
+        <v>14508600</v>
       </c>
       <c r="G59" s="3">
-        <v>20667000</v>
+        <v>18844300</v>
       </c>
       <c r="H59" s="3">
-        <v>13694700</v>
+        <v>20734700</v>
       </c>
       <c r="I59" s="3">
-        <v>14483200</v>
+        <v>13739600</v>
       </c>
       <c r="J59" s="3">
+        <v>14530600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14313800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16567700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14876600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15946100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14009300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19934300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14207200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14711400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15808300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14146400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14897400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90053900</v>
+        <v>68246400</v>
       </c>
       <c r="E60" s="3">
-        <v>51664800</v>
+        <v>90348800</v>
       </c>
       <c r="F60" s="3">
-        <v>59073400</v>
+        <v>51834000</v>
       </c>
       <c r="G60" s="3">
-        <v>60525700</v>
+        <v>59266900</v>
       </c>
       <c r="H60" s="3">
-        <v>51336100</v>
+        <v>60724000</v>
       </c>
       <c r="I60" s="3">
-        <v>46425600</v>
+        <v>51504300</v>
       </c>
       <c r="J60" s="3">
+        <v>46577600</v>
+      </c>
+      <c r="K60" s="3">
         <v>48625600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50241800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45725300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40217100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41979300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41786800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35387100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34914900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35803300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36645500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35094700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32112000</v>
+        <v>46037900</v>
       </c>
       <c r="E61" s="3">
-        <v>23345400</v>
+        <v>32217100</v>
       </c>
       <c r="F61" s="3">
-        <v>24905800</v>
+        <v>23421800</v>
       </c>
       <c r="G61" s="3">
-        <v>23304200</v>
+        <v>24987400</v>
       </c>
       <c r="H61" s="3">
-        <v>29944200</v>
+        <v>23380500</v>
       </c>
       <c r="I61" s="3">
-        <v>29276600</v>
+        <v>30042200</v>
       </c>
       <c r="J61" s="3">
+        <v>29372500</v>
+      </c>
+      <c r="K61" s="3">
         <v>29574300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27844600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27448700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27278100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25389200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28423700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28726400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28965100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29015900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28331200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29049600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22705500</v>
+        <v>21382600</v>
       </c>
       <c r="E62" s="3">
-        <v>22302900</v>
+        <v>22779900</v>
       </c>
       <c r="F62" s="3">
-        <v>22130800</v>
+        <v>22375900</v>
       </c>
       <c r="G62" s="3">
-        <v>21981900</v>
+        <v>22203300</v>
       </c>
       <c r="H62" s="3">
-        <v>22295800</v>
+        <v>22053900</v>
       </c>
       <c r="I62" s="3">
-        <v>22104800</v>
+        <v>22368800</v>
       </c>
       <c r="J62" s="3">
+        <v>22177200</v>
+      </c>
+      <c r="K62" s="3">
         <v>21883800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22726000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22825400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22206200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21740200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40355000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21606000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21475400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21294000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20989200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21797200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>150446500</v>
+        <v>141551600</v>
       </c>
       <c r="E66" s="3">
-        <v>120240300</v>
+        <v>150939200</v>
       </c>
       <c r="F66" s="3">
-        <v>128258600</v>
+        <v>120634100</v>
       </c>
       <c r="G66" s="3">
-        <v>127809800</v>
+        <v>128678700</v>
       </c>
       <c r="H66" s="3">
-        <v>126350300</v>
+        <v>128228300</v>
       </c>
       <c r="I66" s="3">
-        <v>120884600</v>
+        <v>126764100</v>
       </c>
       <c r="J66" s="3">
+        <v>121280500</v>
+      </c>
+      <c r="K66" s="3">
         <v>123114000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125220500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119475700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114165700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112192700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112807400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109849800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>108990500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>108974100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>108194900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>107689800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62835800</v>
+        <v>64955000</v>
       </c>
       <c r="E72" s="3">
-        <v>62907200</v>
+        <v>63041600</v>
       </c>
       <c r="F72" s="3">
-        <v>60440300</v>
+        <v>63113300</v>
       </c>
       <c r="G72" s="3">
-        <v>59539500</v>
+        <v>60638200</v>
       </c>
       <c r="H72" s="3">
-        <v>58907800</v>
+        <v>59734500</v>
       </c>
       <c r="I72" s="3">
-        <v>58177100</v>
+        <v>59100800</v>
       </c>
       <c r="J72" s="3">
+        <v>58367600</v>
+      </c>
+      <c r="K72" s="3">
         <v>55697400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57220900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55878100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54359500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57216800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55490700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55074400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54544700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52229600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49904000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48738500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68129600</v>
+        <v>69501300</v>
       </c>
       <c r="E76" s="3">
-        <v>89120700</v>
+        <v>68352800</v>
       </c>
       <c r="F76" s="3">
-        <v>86270700</v>
+        <v>89412600</v>
       </c>
       <c r="G76" s="3">
-        <v>82999700</v>
+        <v>86553200</v>
       </c>
       <c r="H76" s="3">
-        <v>83795900</v>
+        <v>83271500</v>
       </c>
       <c r="I76" s="3">
-        <v>82774800</v>
+        <v>84070400</v>
       </c>
       <c r="J76" s="3">
+        <v>83045900</v>
+      </c>
+      <c r="K76" s="3">
         <v>83614300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89035800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87258700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87610900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82942000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>81927300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84764000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>85352800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>82827500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>80295500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>78795200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2653300</v>
+        <v>781200</v>
       </c>
       <c r="E81" s="3">
-        <v>2462900</v>
+        <v>2662000</v>
       </c>
       <c r="F81" s="3">
-        <v>2497400</v>
+        <v>2470900</v>
       </c>
       <c r="G81" s="3">
-        <v>534800</v>
+        <v>2505500</v>
       </c>
       <c r="H81" s="3">
-        <v>2283100</v>
+        <v>536500</v>
       </c>
       <c r="I81" s="3">
-        <v>2447000</v>
+        <v>2290600</v>
       </c>
       <c r="J81" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2569700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2193900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2508100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2633800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1564900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2012000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2512900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2647500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1165500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1708600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3476600</v>
+        <v>3545700</v>
       </c>
       <c r="E83" s="3">
-        <v>3421800</v>
+        <v>3488000</v>
       </c>
       <c r="F83" s="3">
-        <v>3373000</v>
+        <v>3433000</v>
       </c>
       <c r="G83" s="3">
-        <v>3462900</v>
+        <v>3384100</v>
       </c>
       <c r="H83" s="3">
-        <v>3344800</v>
+        <v>3474200</v>
       </c>
       <c r="I83" s="3">
-        <v>3312200</v>
+        <v>3355700</v>
       </c>
       <c r="J83" s="3">
+        <v>3323100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3302300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3296200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3154600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3074900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2958700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3035200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3068600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3003800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3364800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3250100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3728400</v>
+        <v>12048400</v>
       </c>
       <c r="E89" s="3">
-        <v>7409500</v>
+        <v>3740600</v>
       </c>
       <c r="F89" s="3">
-        <v>4416000</v>
+        <v>7433800</v>
       </c>
       <c r="G89" s="3">
-        <v>11727900</v>
+        <v>4430500</v>
       </c>
       <c r="H89" s="3">
-        <v>1653300</v>
+        <v>11766300</v>
       </c>
       <c r="I89" s="3">
-        <v>9704000</v>
+        <v>1658700</v>
       </c>
       <c r="J89" s="3">
+        <v>9735800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4350900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7673800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3773500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7209000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3926000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7650900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6131900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5252800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4754300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10658100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2885700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3794000</v>
+        <v>-4292200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3330900</v>
+        <v>-3806500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5040600</v>
+        <v>-3341800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4509000</v>
+        <v>-5057100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3979700</v>
+        <v>-4523800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3322800</v>
+        <v>-3992700</v>
       </c>
       <c r="J91" s="3">
+        <v>-3333700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3020300</v>
+        <v>786700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3444800</v>
+        <v>-3030200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7367800</v>
+        <v>-3456100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5046800</v>
+        <v>-7391900</v>
       </c>
       <c r="H94" s="3">
-        <v>-4811500</v>
+        <v>-5063400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3630400</v>
+        <v>-4827300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3642300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1701900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1707500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1581700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1586900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1581700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1586900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2529300</v>
+        <v>-16824300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4551300</v>
+        <v>2537600</v>
       </c>
       <c r="F100" s="3">
-        <v>3315200</v>
+        <v>-4566200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5154500</v>
+        <v>3326000</v>
       </c>
       <c r="H100" s="3">
-        <v>2616200</v>
+        <v>-5171400</v>
       </c>
       <c r="I100" s="3">
-        <v>-6897700</v>
+        <v>2624800</v>
       </c>
       <c r="J100" s="3">
+        <v>-6920300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-102000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>115000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>138900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1473800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>616100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-63000</v>
+        <v>155500</v>
       </c>
       <c r="E101" s="3">
-        <v>-19700</v>
+        <v>-63200</v>
       </c>
       <c r="F101" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-6600</v>
       </c>
-      <c r="G101" s="3">
-        <v>-78300</v>
-      </c>
       <c r="H101" s="3">
-        <v>61200</v>
+        <v>-78500</v>
       </c>
       <c r="I101" s="3">
-        <v>-32700</v>
+        <v>61400</v>
       </c>
       <c r="J101" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-76500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-71700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>51100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>88300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3174400</v>
+        <v>-3833800</v>
       </c>
       <c r="E102" s="3">
-        <v>-606300</v>
+        <v>3184800</v>
       </c>
       <c r="F102" s="3">
-        <v>356800</v>
+        <v>-608300</v>
       </c>
       <c r="G102" s="3">
-        <v>1448300</v>
+        <v>358000</v>
       </c>
       <c r="H102" s="3">
-        <v>-480800</v>
+        <v>1453000</v>
       </c>
       <c r="I102" s="3">
-        <v>-856800</v>
+        <v>-482400</v>
       </c>
       <c r="J102" s="3">
+        <v>-859600</v>
+      </c>
+      <c r="K102" s="3">
         <v>690300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>362800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>176900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>859700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-889900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>124000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-669700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>776300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2309600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29462800</v>
+        <v>26351300</v>
       </c>
       <c r="E8" s="3">
-        <v>27814800</v>
+        <v>29206300</v>
       </c>
       <c r="F8" s="3">
-        <v>27063700</v>
+        <v>27572700</v>
       </c>
       <c r="G8" s="3">
-        <v>25423700</v>
+        <v>26828100</v>
       </c>
       <c r="H8" s="3">
-        <v>27907500</v>
+        <v>25202400</v>
       </c>
       <c r="I8" s="3">
-        <v>27323200</v>
+        <v>27664600</v>
       </c>
       <c r="J8" s="3">
+        <v>27085300</v>
+      </c>
+      <c r="K8" s="3">
         <v>27332100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26705400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29643300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28339000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27316900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25931300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27821100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27624000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26057300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25390800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26880700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25156800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,29 +849,32 @@
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
         <v>14315900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13646700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12122500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11756500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14418700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12033700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,29 +914,32 @@
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>13505200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13977300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13934700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13634400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12462000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13123100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,132 +1090,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>827900</v>
+        <v>248600</v>
       </c>
       <c r="E14" s="3">
-        <v>411300</v>
+        <v>820700</v>
       </c>
       <c r="F14" s="3">
-        <v>240200</v>
+        <v>407700</v>
       </c>
       <c r="G14" s="3">
-        <v>198500</v>
+        <v>238100</v>
       </c>
       <c r="H14" s="3">
-        <v>924900</v>
+        <v>196700</v>
       </c>
       <c r="I14" s="3">
-        <v>319100</v>
+        <v>916800</v>
       </c>
       <c r="J14" s="3">
+        <v>316400</v>
+      </c>
+      <c r="K14" s="3">
         <v>277500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>207800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1326000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>957400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>243400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>167300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2970900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>332400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>246800</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3545700</v>
+        <v>3484600</v>
       </c>
       <c r="E15" s="3">
-        <v>3488000</v>
+        <v>3514800</v>
       </c>
       <c r="F15" s="3">
-        <v>3433000</v>
+        <v>3457600</v>
       </c>
       <c r="G15" s="3">
-        <v>3384100</v>
+        <v>3403100</v>
       </c>
       <c r="H15" s="3">
-        <v>3474200</v>
+        <v>3354600</v>
       </c>
       <c r="I15" s="3">
-        <v>3355700</v>
+        <v>3444000</v>
       </c>
       <c r="J15" s="3">
+        <v>3326500</v>
+      </c>
+      <c r="K15" s="3">
         <v>3323100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3302300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3296200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3154600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3074900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2958700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3108500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6102700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5974800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5995600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3364800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3683200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27909100</v>
+        <v>21921400</v>
       </c>
       <c r="E17" s="3">
-        <v>23277300</v>
+        <v>27666100</v>
       </c>
       <c r="F17" s="3">
-        <v>22367700</v>
+        <v>23074700</v>
       </c>
       <c r="G17" s="3">
-        <v>20850900</v>
+        <v>22172900</v>
       </c>
       <c r="H17" s="3">
-        <v>26880800</v>
+        <v>20669400</v>
       </c>
       <c r="I17" s="3">
-        <v>23025700</v>
+        <v>26646800</v>
       </c>
       <c r="J17" s="3">
+        <v>22825300</v>
+      </c>
+      <c r="K17" s="3">
         <v>22942900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22077800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28041200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24030900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22360500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21047900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24898500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24267800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21413500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20647900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24918300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21679200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1553700</v>
+        <v>4430000</v>
       </c>
       <c r="E18" s="3">
-        <v>4537500</v>
+        <v>1540200</v>
       </c>
       <c r="F18" s="3">
-        <v>4696000</v>
+        <v>4498000</v>
       </c>
       <c r="G18" s="3">
-        <v>4572800</v>
+        <v>4655200</v>
       </c>
       <c r="H18" s="3">
-        <v>1026700</v>
+        <v>4533000</v>
       </c>
       <c r="I18" s="3">
-        <v>4297500</v>
+        <v>1017800</v>
       </c>
       <c r="J18" s="3">
+        <v>4260000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4389200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4627600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1602100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4308200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4956500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4883400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2922500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3356200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4643800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4742900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1962400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3477700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,155 +1399,162 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-106500</v>
+        <v>91200</v>
       </c>
       <c r="E20" s="3">
-        <v>-34200</v>
+        <v>-105600</v>
       </c>
       <c r="F20" s="3">
-        <v>-23400</v>
+        <v>-33900</v>
       </c>
       <c r="G20" s="3">
-        <v>-8900</v>
+        <v>-23200</v>
       </c>
       <c r="H20" s="3">
-        <v>-86100</v>
+        <v>-8800</v>
       </c>
       <c r="I20" s="3">
-        <v>-15600</v>
+        <v>-85300</v>
       </c>
       <c r="J20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-23300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>197800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-242800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1123500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>78400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>103800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>79200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>236000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4992900</v>
+        <v>8005700</v>
       </c>
       <c r="E21" s="3">
-        <v>7991300</v>
+        <v>4949500</v>
       </c>
       <c r="F21" s="3">
-        <v>8105700</v>
+        <v>7921800</v>
       </c>
       <c r="G21" s="3">
-        <v>7948000</v>
+        <v>8035100</v>
       </c>
       <c r="H21" s="3">
-        <v>4414900</v>
+        <v>7878800</v>
       </c>
       <c r="I21" s="3">
-        <v>7637600</v>
+        <v>4376500</v>
       </c>
       <c r="J21" s="3">
+        <v>7571100</v>
+      </c>
+      <c r="K21" s="3">
         <v>7689000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8127700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4655400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7422400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8051200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7891400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5939100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7548400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7734900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7838500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5406400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6963800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1532,153 +1571,162 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>62500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>78700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>74500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>75300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>85100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>74400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1447200</v>
+        <v>4521100</v>
       </c>
       <c r="E23" s="3">
-        <v>4503400</v>
+        <v>1434600</v>
       </c>
       <c r="F23" s="3">
-        <v>4672600</v>
+        <v>4464200</v>
       </c>
       <c r="G23" s="3">
-        <v>4563900</v>
+        <v>4632000</v>
       </c>
       <c r="H23" s="3">
-        <v>940700</v>
+        <v>4524200</v>
       </c>
       <c r="I23" s="3">
-        <v>4281900</v>
+        <v>932500</v>
       </c>
       <c r="J23" s="3">
+        <v>4244600</v>
+      </c>
+      <c r="K23" s="3">
         <v>4365900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4825300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1359200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4267900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4976300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4932700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2841400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4401100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4647600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4771400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1956500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3639300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>657200</v>
+        <v>1277800</v>
       </c>
       <c r="E24" s="3">
-        <v>1323100</v>
+        <v>651500</v>
       </c>
       <c r="F24" s="3">
-        <v>1470900</v>
+        <v>1311600</v>
       </c>
       <c r="G24" s="3">
-        <v>1370900</v>
+        <v>1458100</v>
       </c>
       <c r="H24" s="3">
-        <v>158600</v>
+        <v>1359000</v>
       </c>
       <c r="I24" s="3">
-        <v>1343900</v>
+        <v>157200</v>
       </c>
       <c r="J24" s="3">
+        <v>1332200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1217500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1491500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>365800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1302600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1763500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1520700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>761900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1444900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1463800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1466700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>386100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1271900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>790000</v>
+        <v>3243400</v>
       </c>
       <c r="E26" s="3">
-        <v>3180300</v>
+        <v>783100</v>
       </c>
       <c r="F26" s="3">
-        <v>3201700</v>
+        <v>3152600</v>
       </c>
       <c r="G26" s="3">
-        <v>3193000</v>
+        <v>3173900</v>
       </c>
       <c r="H26" s="3">
-        <v>782000</v>
+        <v>3165200</v>
       </c>
       <c r="I26" s="3">
-        <v>2938000</v>
+        <v>775200</v>
       </c>
       <c r="J26" s="3">
+        <v>2912400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3148500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3333900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>993500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2965200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3212800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3412000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2079500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2956200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3183800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3304700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1570400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2367400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>781200</v>
+        <v>3097300</v>
       </c>
       <c r="E27" s="3">
-        <v>2662000</v>
+        <v>774400</v>
       </c>
       <c r="F27" s="3">
-        <v>2470900</v>
+        <v>2638800</v>
       </c>
       <c r="G27" s="3">
-        <v>2505500</v>
+        <v>2449400</v>
       </c>
       <c r="H27" s="3">
-        <v>536500</v>
+        <v>2483700</v>
       </c>
       <c r="I27" s="3">
-        <v>2290600</v>
+        <v>531900</v>
       </c>
       <c r="J27" s="3">
+        <v>2270700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2455000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2569700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2193900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2508100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2633800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2012000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2512900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2647500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1165500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1708600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>106500</v>
+        <v>-91200</v>
       </c>
       <c r="E32" s="3">
-        <v>34200</v>
+        <v>105600</v>
       </c>
       <c r="F32" s="3">
-        <v>23400</v>
+        <v>33900</v>
       </c>
       <c r="G32" s="3">
-        <v>8900</v>
+        <v>23200</v>
       </c>
       <c r="H32" s="3">
-        <v>86100</v>
+        <v>8800</v>
       </c>
       <c r="I32" s="3">
-        <v>15600</v>
+        <v>85300</v>
       </c>
       <c r="J32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K32" s="3">
         <v>23300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-197800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>242800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-78400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-103800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-79200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-236000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>781200</v>
+        <v>3097300</v>
       </c>
       <c r="E33" s="3">
-        <v>2662000</v>
+        <v>774400</v>
       </c>
       <c r="F33" s="3">
-        <v>2470900</v>
+        <v>2638800</v>
       </c>
       <c r="G33" s="3">
-        <v>2505500</v>
+        <v>2449400</v>
       </c>
       <c r="H33" s="3">
-        <v>536500</v>
+        <v>2483700</v>
       </c>
       <c r="I33" s="3">
-        <v>2290600</v>
+        <v>531900</v>
       </c>
       <c r="J33" s="3">
+        <v>2270700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2455000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2569700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2193900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2508100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2633800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2012000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2512900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2647500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1165500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1708600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>781200</v>
+        <v>3097300</v>
       </c>
       <c r="E35" s="3">
-        <v>2662000</v>
+        <v>774400</v>
       </c>
       <c r="F35" s="3">
-        <v>2470900</v>
+        <v>2638800</v>
       </c>
       <c r="G35" s="3">
-        <v>2505500</v>
+        <v>2449400</v>
       </c>
       <c r="H35" s="3">
-        <v>536500</v>
+        <v>2483700</v>
       </c>
       <c r="I35" s="3">
-        <v>2290600</v>
+        <v>531900</v>
       </c>
       <c r="J35" s="3">
+        <v>2270700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2455000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2569700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2193900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2508100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2633800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2012000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2512900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2647500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1165500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1708600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,566 +2559,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8599300</v>
+        <v>10379000</v>
       </c>
       <c r="E41" s="3">
-        <v>12433100</v>
+        <v>8524500</v>
       </c>
       <c r="F41" s="3">
-        <v>9248300</v>
+        <v>12324900</v>
       </c>
       <c r="G41" s="3">
-        <v>9856600</v>
+        <v>9167700</v>
       </c>
       <c r="H41" s="3">
-        <v>9498500</v>
+        <v>9770800</v>
       </c>
       <c r="I41" s="3">
-        <v>8045500</v>
+        <v>9415900</v>
       </c>
       <c r="J41" s="3">
+        <v>7975500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8527900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9356900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9092300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8575100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8264800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7245700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15144700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6929900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7599600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8690400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8206600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5897100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>383500</v>
+        <v>548300</v>
       </c>
       <c r="E42" s="3">
-        <v>5563000</v>
+        <v>380200</v>
       </c>
       <c r="F42" s="3">
-        <v>6941700</v>
+        <v>5514600</v>
       </c>
       <c r="G42" s="3">
-        <v>328600</v>
+        <v>6881200</v>
       </c>
       <c r="H42" s="3">
-        <v>297600</v>
+        <v>325800</v>
       </c>
       <c r="I42" s="3">
-        <v>1184600</v>
+        <v>295000</v>
       </c>
       <c r="J42" s="3">
+        <v>1174300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1041400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>998300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1131600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1158300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1087400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1160200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1401100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>398600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1303600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>786800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>566300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>677900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32482600</v>
+        <v>28365100</v>
       </c>
       <c r="E43" s="3">
-        <v>34561200</v>
+        <v>32199800</v>
       </c>
       <c r="F43" s="3">
-        <v>30016700</v>
+        <v>34260300</v>
       </c>
       <c r="G43" s="3">
-        <v>29716700</v>
+        <v>29755400</v>
       </c>
       <c r="H43" s="3">
-        <v>32191000</v>
+        <v>29458000</v>
       </c>
       <c r="I43" s="3">
-        <v>41579200</v>
+        <v>31910800</v>
       </c>
       <c r="J43" s="3">
+        <v>41217200</v>
+      </c>
+      <c r="K43" s="3">
         <v>37411000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38645800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42201700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39166800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36843100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34757800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68781300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31235300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29446200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26375400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27995700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29108000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2898900</v>
+        <v>3016200</v>
       </c>
       <c r="E44" s="3">
-        <v>3312100</v>
+        <v>2873600</v>
       </c>
       <c r="F44" s="3">
-        <v>2787900</v>
+        <v>3283200</v>
       </c>
       <c r="G44" s="3">
-        <v>2834200</v>
+        <v>2763700</v>
       </c>
       <c r="H44" s="3">
-        <v>2364900</v>
+        <v>2809500</v>
       </c>
       <c r="I44" s="3">
-        <v>2842800</v>
+        <v>2344300</v>
       </c>
       <c r="J44" s="3">
+        <v>2818000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2453800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2786700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3187000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4045200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3198000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3250000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6759800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4153400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3497200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3655500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3240900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3875200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4585100</v>
+        <v>6455700</v>
       </c>
       <c r="E45" s="3">
-        <v>5991500</v>
+        <v>4545200</v>
       </c>
       <c r="F45" s="3">
-        <v>5777400</v>
+        <v>5939400</v>
       </c>
       <c r="G45" s="3">
-        <v>19259700</v>
+        <v>5727100</v>
       </c>
       <c r="H45" s="3">
-        <v>17253100</v>
+        <v>19092100</v>
       </c>
       <c r="I45" s="3">
-        <v>5484100</v>
+        <v>17102900</v>
       </c>
       <c r="J45" s="3">
+        <v>5436400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5317700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6432000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7620800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7330500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7113200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5420500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9493000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5634700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5426600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6214100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7111600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7980800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48949400</v>
+        <v>48764300</v>
       </c>
       <c r="E46" s="3">
-        <v>61860900</v>
+        <v>48523300</v>
       </c>
       <c r="F46" s="3">
-        <v>54772000</v>
+        <v>61322400</v>
       </c>
       <c r="G46" s="3">
-        <v>61995800</v>
+        <v>54295200</v>
       </c>
       <c r="H46" s="3">
-        <v>61605200</v>
+        <v>61456100</v>
       </c>
       <c r="I46" s="3">
-        <v>59136300</v>
+        <v>61068900</v>
       </c>
       <c r="J46" s="3">
+        <v>58621500</v>
+      </c>
+      <c r="K46" s="3">
         <v>54751800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58219800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63233500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60275800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56506500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>51834100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53057200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>48351800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47273300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45722100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47121200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47539100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17708700</v>
+        <v>17760000</v>
       </c>
       <c r="E47" s="3">
-        <v>16985800</v>
+        <v>17554600</v>
       </c>
       <c r="F47" s="3">
-        <v>15424100</v>
+        <v>16838000</v>
       </c>
       <c r="G47" s="3">
-        <v>13756600</v>
+        <v>15289800</v>
       </c>
       <c r="H47" s="3">
-        <v>10380800</v>
+        <v>13636900</v>
       </c>
       <c r="I47" s="3">
-        <v>14343600</v>
+        <v>10290400</v>
       </c>
       <c r="J47" s="3">
+        <v>14218700</v>
+      </c>
+      <c r="K47" s="3">
         <v>13411900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13511100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13807300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13538500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13687300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14984100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23831700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9577600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9086300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8923400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8691600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8571600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102051500</v>
+        <v>101670700</v>
       </c>
       <c r="E48" s="3">
-        <v>99884500</v>
+        <v>101163100</v>
       </c>
       <c r="F48" s="3">
-        <v>99358300</v>
+        <v>99015000</v>
       </c>
       <c r="G48" s="3">
-        <v>98537200</v>
+        <v>98493400</v>
       </c>
       <c r="H48" s="3">
-        <v>97785600</v>
+        <v>97679500</v>
       </c>
       <c r="I48" s="3">
-        <v>96838300</v>
+        <v>96934400</v>
       </c>
       <c r="J48" s="3">
+        <v>95995400</v>
+      </c>
+      <c r="K48" s="3">
         <v>96175900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95402300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95907300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>92625800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91769200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>89134300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>177505500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87753100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88621500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87913000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86207700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84650400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25934600</v>
+        <v>26235200</v>
       </c>
       <c r="E49" s="3">
-        <v>24732500</v>
+        <v>25708800</v>
       </c>
       <c r="F49" s="3">
-        <v>24325700</v>
+        <v>24517200</v>
       </c>
       <c r="G49" s="3">
-        <v>24419000</v>
+        <v>24113900</v>
       </c>
       <c r="H49" s="3">
-        <v>24582300</v>
+        <v>24206500</v>
       </c>
       <c r="I49" s="3">
-        <v>24311600</v>
+        <v>24368300</v>
       </c>
       <c r="J49" s="3">
+        <v>24100000</v>
+      </c>
+      <c r="K49" s="3">
         <v>23505500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23186600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24162400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23906500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23809200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23033500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>48621500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26804000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26981900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26837400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26415300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>25833000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16408700</v>
+        <v>15851700</v>
       </c>
       <c r="E52" s="3">
-        <v>15828300</v>
+        <v>16265800</v>
       </c>
       <c r="F52" s="3">
-        <v>16166700</v>
+        <v>15690500</v>
       </c>
       <c r="G52" s="3">
-        <v>16523300</v>
+        <v>16025900</v>
       </c>
       <c r="H52" s="3">
-        <v>17146000</v>
+        <v>16379400</v>
       </c>
       <c r="I52" s="3">
-        <v>16204700</v>
+        <v>16996700</v>
       </c>
       <c r="J52" s="3">
+        <v>16063700</v>
+      </c>
+      <c r="K52" s="3">
         <v>16481200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16408400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17145900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16387700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16004400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16148700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30822500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22127200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22380200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22405700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20054600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19890900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>211052900</v>
+        <v>210281900</v>
       </c>
       <c r="E54" s="3">
-        <v>219292000</v>
+        <v>209215600</v>
       </c>
       <c r="F54" s="3">
-        <v>210046700</v>
+        <v>217383000</v>
       </c>
       <c r="G54" s="3">
-        <v>215231900</v>
+        <v>208218300</v>
       </c>
       <c r="H54" s="3">
-        <v>211499900</v>
+        <v>213358300</v>
       </c>
       <c r="I54" s="3">
-        <v>210834500</v>
+        <v>209658800</v>
       </c>
       <c r="J54" s="3">
+        <v>208999200</v>
+      </c>
+      <c r="K54" s="3">
         <v>204326400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>206728300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214256400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>206734400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201776600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>195134800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194734700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>194613800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>194343300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>191801600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>188490400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>186485000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21658100</v>
+        <v>18178400</v>
       </c>
       <c r="E57" s="3">
-        <v>28435800</v>
+        <v>21469600</v>
       </c>
       <c r="F57" s="3">
-        <v>15995600</v>
+        <v>28188300</v>
       </c>
       <c r="G57" s="3">
-        <v>16732600</v>
+        <v>15856300</v>
       </c>
       <c r="H57" s="3">
-        <v>19691900</v>
+        <v>16586900</v>
       </c>
       <c r="I57" s="3">
-        <v>15667500</v>
+        <v>19520500</v>
       </c>
       <c r="J57" s="3">
+        <v>15531100</v>
+      </c>
+      <c r="K57" s="3">
         <v>15365600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15442400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20108700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15250500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13794100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13731500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16378000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12341800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11209100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10462900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14307300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10823200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30901600</v>
+        <v>35654900</v>
       </c>
       <c r="E58" s="3">
-        <v>48148200</v>
+        <v>30632600</v>
       </c>
       <c r="F58" s="3">
-        <v>21329900</v>
+        <v>47729100</v>
       </c>
       <c r="G58" s="3">
-        <v>23690000</v>
+        <v>21144200</v>
       </c>
       <c r="H58" s="3">
-        <v>20297300</v>
+        <v>23483700</v>
       </c>
       <c r="I58" s="3">
-        <v>22097300</v>
+        <v>20120600</v>
       </c>
       <c r="J58" s="3">
+        <v>21904900</v>
+      </c>
+      <c r="K58" s="3">
         <v>16681400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18869500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13565300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15598300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10476900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14238400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15416900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8838000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8994300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9532100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8191800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9374100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15686700</v>
+        <v>13618400</v>
       </c>
       <c r="E59" s="3">
-        <v>13764800</v>
+        <v>15550100</v>
       </c>
       <c r="F59" s="3">
-        <v>14508600</v>
+        <v>13644900</v>
       </c>
       <c r="G59" s="3">
-        <v>18844300</v>
+        <v>14382300</v>
       </c>
       <c r="H59" s="3">
-        <v>20734700</v>
+        <v>18680300</v>
       </c>
       <c r="I59" s="3">
-        <v>13739600</v>
+        <v>20554200</v>
       </c>
       <c r="J59" s="3">
+        <v>13620000</v>
+      </c>
+      <c r="K59" s="3">
         <v>14530600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14313800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16567700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14876600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15946100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14009300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19934300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14207200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14711400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15808300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14146400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14897400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68246400</v>
+        <v>67451700</v>
       </c>
       <c r="E60" s="3">
-        <v>90348800</v>
+        <v>67652300</v>
       </c>
       <c r="F60" s="3">
-        <v>51834000</v>
+        <v>89562300</v>
       </c>
       <c r="G60" s="3">
-        <v>59266900</v>
+        <v>51382800</v>
       </c>
       <c r="H60" s="3">
-        <v>60724000</v>
+        <v>58750900</v>
       </c>
       <c r="I60" s="3">
-        <v>51504300</v>
+        <v>60195300</v>
       </c>
       <c r="J60" s="3">
+        <v>51055900</v>
+      </c>
+      <c r="K60" s="3">
         <v>46577600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48625600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50241800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45725300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40217100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41979300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41786800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35387100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34914900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35803300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36645500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35094700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46037900</v>
+        <v>45113900</v>
       </c>
       <c r="E61" s="3">
-        <v>32217100</v>
+        <v>45637100</v>
       </c>
       <c r="F61" s="3">
-        <v>23421800</v>
+        <v>31936700</v>
       </c>
       <c r="G61" s="3">
-        <v>24987400</v>
+        <v>23218000</v>
       </c>
       <c r="H61" s="3">
-        <v>23380500</v>
+        <v>24769800</v>
       </c>
       <c r="I61" s="3">
-        <v>30042200</v>
+        <v>23177000</v>
       </c>
       <c r="J61" s="3">
+        <v>29780700</v>
+      </c>
+      <c r="K61" s="3">
         <v>29372500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29574300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27844600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27448700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27278100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25389200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28423700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28726400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28965100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29015900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28331200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29049600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21382600</v>
+        <v>21347900</v>
       </c>
       <c r="E62" s="3">
-        <v>22779900</v>
+        <v>21196500</v>
       </c>
       <c r="F62" s="3">
-        <v>22375900</v>
+        <v>22581600</v>
       </c>
       <c r="G62" s="3">
-        <v>22203300</v>
+        <v>22181100</v>
       </c>
       <c r="H62" s="3">
-        <v>22053900</v>
+        <v>22010000</v>
       </c>
       <c r="I62" s="3">
-        <v>22368800</v>
+        <v>21861900</v>
       </c>
       <c r="J62" s="3">
+        <v>22174100</v>
+      </c>
+      <c r="K62" s="3">
         <v>22177200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21883800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22726000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22825400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22206200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21740200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40355000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21606000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21475400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21294000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20989200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21797200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>141551600</v>
+        <v>139815000</v>
       </c>
       <c r="E66" s="3">
-        <v>150939200</v>
+        <v>140319400</v>
       </c>
       <c r="F66" s="3">
-        <v>120634100</v>
+        <v>149625300</v>
       </c>
       <c r="G66" s="3">
-        <v>128678700</v>
+        <v>119584000</v>
       </c>
       <c r="H66" s="3">
-        <v>128228300</v>
+        <v>127558500</v>
       </c>
       <c r="I66" s="3">
-        <v>126764100</v>
+        <v>127112100</v>
       </c>
       <c r="J66" s="3">
+        <v>125660600</v>
+      </c>
+      <c r="K66" s="3">
         <v>121280500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>123114000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125220500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119475700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114165700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112192700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112807400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>109849800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>108990500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>108974100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>108194900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>107689800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>64955000</v>
+        <v>65679400</v>
       </c>
       <c r="E72" s="3">
-        <v>63041600</v>
+        <v>64389600</v>
       </c>
       <c r="F72" s="3">
-        <v>63113300</v>
+        <v>62492800</v>
       </c>
       <c r="G72" s="3">
-        <v>60638200</v>
+        <v>62563800</v>
       </c>
       <c r="H72" s="3">
-        <v>59734500</v>
+        <v>60110300</v>
       </c>
       <c r="I72" s="3">
-        <v>59100800</v>
+        <v>59214500</v>
       </c>
       <c r="J72" s="3">
+        <v>58586300</v>
+      </c>
+      <c r="K72" s="3">
         <v>58367600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55697400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57220900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55878100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54359500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57216800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55490700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55074400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54544700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52229600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>49904000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48738500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69501300</v>
+        <v>70466800</v>
       </c>
       <c r="E76" s="3">
-        <v>68352800</v>
+        <v>68896300</v>
       </c>
       <c r="F76" s="3">
-        <v>89412600</v>
+        <v>67757700</v>
       </c>
       <c r="G76" s="3">
-        <v>86553200</v>
+        <v>88634300</v>
       </c>
       <c r="H76" s="3">
-        <v>83271500</v>
+        <v>85799700</v>
       </c>
       <c r="I76" s="3">
-        <v>84070400</v>
+        <v>82546600</v>
       </c>
       <c r="J76" s="3">
+        <v>83338500</v>
+      </c>
+      <c r="K76" s="3">
         <v>83045900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83614300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89035800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87258700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87610900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82942000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>81927300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>84764000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>85352800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>82827500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>80295500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78795200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>781200</v>
+        <v>3097300</v>
       </c>
       <c r="E81" s="3">
-        <v>2662000</v>
+        <v>774400</v>
       </c>
       <c r="F81" s="3">
-        <v>2470900</v>
+        <v>2638800</v>
       </c>
       <c r="G81" s="3">
-        <v>2505500</v>
+        <v>2449400</v>
       </c>
       <c r="H81" s="3">
-        <v>536500</v>
+        <v>2483700</v>
       </c>
       <c r="I81" s="3">
-        <v>2290600</v>
+        <v>531900</v>
       </c>
       <c r="J81" s="3">
+        <v>2270700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2455000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2569700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2193900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2508100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2633800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1564900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2012000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2512900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2647500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1165500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1708600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3545700</v>
+        <v>3484600</v>
       </c>
       <c r="E83" s="3">
-        <v>3488000</v>
+        <v>3514800</v>
       </c>
       <c r="F83" s="3">
-        <v>3433000</v>
+        <v>3457600</v>
       </c>
       <c r="G83" s="3">
-        <v>3384100</v>
+        <v>3403100</v>
       </c>
       <c r="H83" s="3">
-        <v>3474200</v>
+        <v>3354600</v>
       </c>
       <c r="I83" s="3">
-        <v>3355700</v>
+        <v>3444000</v>
       </c>
       <c r="J83" s="3">
+        <v>3326500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3323100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3302300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3296200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3154600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3074900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2958700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3035200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3068600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3000700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3003800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3364800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3250100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12048400</v>
+        <v>5169600</v>
       </c>
       <c r="E89" s="3">
-        <v>3740600</v>
+        <v>11943500</v>
       </c>
       <c r="F89" s="3">
-        <v>7433800</v>
+        <v>3708000</v>
       </c>
       <c r="G89" s="3">
-        <v>4430500</v>
+        <v>7369100</v>
       </c>
       <c r="H89" s="3">
-        <v>11766300</v>
+        <v>4391900</v>
       </c>
       <c r="I89" s="3">
-        <v>1658700</v>
+        <v>11663900</v>
       </c>
       <c r="J89" s="3">
+        <v>1644300</v>
+      </c>
+      <c r="K89" s="3">
         <v>9735800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4350900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7673800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3773500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7209000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3926000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7650900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6131900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5252800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4754300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10658100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2885700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4292200</v>
+        <v>-4698700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3806500</v>
+        <v>-4254800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3341800</v>
+        <v>-3773300</v>
       </c>
       <c r="G91" s="3">
-        <v>-5057100</v>
+        <v>-3312700</v>
       </c>
       <c r="H91" s="3">
-        <v>-4523800</v>
+        <v>-5013100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3992700</v>
+        <v>-4484400</v>
       </c>
       <c r="J91" s="3">
+        <v>-3957900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>786700</v>
+        <v>-5353700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3030200</v>
+        <v>779800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3456100</v>
+        <v>-3003800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7391900</v>
+        <v>-3426000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5063400</v>
+        <v>-7327500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4827300</v>
+        <v>-5019300</v>
       </c>
       <c r="J94" s="3">
+        <v>-4785300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1814800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1707500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1692600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1586900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1573000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1586900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1573100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16824300</v>
+        <v>2025400</v>
       </c>
       <c r="E100" s="3">
-        <v>2537600</v>
+        <v>-16677900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4566200</v>
+        <v>2515500</v>
       </c>
       <c r="G100" s="3">
-        <v>3326000</v>
+        <v>-4526500</v>
       </c>
       <c r="H100" s="3">
-        <v>-5171400</v>
+        <v>3297100</v>
       </c>
       <c r="I100" s="3">
-        <v>2624800</v>
+        <v>-5126400</v>
       </c>
       <c r="J100" s="3">
+        <v>2601900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>115000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>138900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1473800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>616100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>155500</v>
+        <v>13200</v>
       </c>
       <c r="E101" s="3">
-        <v>-63200</v>
+        <v>154100</v>
       </c>
       <c r="F101" s="3">
-        <v>-19800</v>
+        <v>-62600</v>
       </c>
       <c r="G101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-6600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-78500</v>
-      </c>
       <c r="I101" s="3">
-        <v>61400</v>
+        <v>-77800</v>
       </c>
       <c r="J101" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-32900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-76500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>51100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>88300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3833800</v>
+        <v>1854500</v>
       </c>
       <c r="E102" s="3">
-        <v>3184800</v>
+        <v>-3800400</v>
       </c>
       <c r="F102" s="3">
-        <v>-608300</v>
+        <v>3157100</v>
       </c>
       <c r="G102" s="3">
-        <v>358000</v>
+        <v>-603000</v>
       </c>
       <c r="H102" s="3">
-        <v>1453000</v>
+        <v>354900</v>
       </c>
       <c r="I102" s="3">
-        <v>-482400</v>
+        <v>1440400</v>
       </c>
       <c r="J102" s="3">
+        <v>-478200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-859600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>690300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>362800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>176900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>859700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-889900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>124000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-669700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>776300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2309600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26351300</v>
+        <v>26386600</v>
       </c>
       <c r="E8" s="3">
-        <v>29206300</v>
+        <v>25483500</v>
       </c>
       <c r="F8" s="3">
-        <v>27572700</v>
+        <v>28244500</v>
       </c>
       <c r="G8" s="3">
-        <v>26828100</v>
+        <v>26664700</v>
       </c>
       <c r="H8" s="3">
-        <v>25202400</v>
+        <v>25944600</v>
       </c>
       <c r="I8" s="3">
-        <v>27664600</v>
+        <v>24372500</v>
       </c>
       <c r="J8" s="3">
+        <v>26753500</v>
+      </c>
+      <c r="K8" s="3">
         <v>27085300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27332100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26705400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29643300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28339000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27316900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25931300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27821100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27624000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26057300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25390800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26880700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25156800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,29 +858,32 @@
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
         <v>14315900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13646700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12122500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11756500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14418700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12033700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,29 +926,32 @@
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>13505200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13977300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13934700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13634400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12462000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13123100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,138 +1109,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>248600</v>
+        <v>230100</v>
       </c>
       <c r="E14" s="3">
-        <v>820700</v>
+        <v>240400</v>
       </c>
       <c r="F14" s="3">
-        <v>407700</v>
+        <v>793700</v>
       </c>
       <c r="G14" s="3">
-        <v>238100</v>
+        <v>394300</v>
       </c>
       <c r="H14" s="3">
-        <v>196700</v>
+        <v>230200</v>
       </c>
       <c r="I14" s="3">
-        <v>916800</v>
+        <v>190300</v>
       </c>
       <c r="J14" s="3">
+        <v>886600</v>
+      </c>
+      <c r="K14" s="3">
         <v>316400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>277500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>207800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1326000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>957400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>243400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>167300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2970900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>332400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>246800</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3484600</v>
+        <v>3410300</v>
       </c>
       <c r="E15" s="3">
-        <v>3514800</v>
+        <v>3369800</v>
       </c>
       <c r="F15" s="3">
-        <v>3457600</v>
+        <v>3399100</v>
       </c>
       <c r="G15" s="3">
-        <v>3403100</v>
+        <v>3343700</v>
       </c>
       <c r="H15" s="3">
-        <v>3354600</v>
+        <v>3291100</v>
       </c>
       <c r="I15" s="3">
-        <v>3444000</v>
+        <v>3244100</v>
       </c>
       <c r="J15" s="3">
+        <v>3330600</v>
+      </c>
+      <c r="K15" s="3">
         <v>3326500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3323100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3302300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3296200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3154600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3074900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2958700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3108500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6102700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5974800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5995600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3364800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3683200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21921400</v>
+        <v>21779000</v>
       </c>
       <c r="E17" s="3">
-        <v>27666100</v>
+        <v>21199500</v>
       </c>
       <c r="F17" s="3">
-        <v>23074700</v>
+        <v>26755000</v>
       </c>
       <c r="G17" s="3">
-        <v>22172900</v>
+        <v>22314800</v>
       </c>
       <c r="H17" s="3">
-        <v>20669400</v>
+        <v>21442800</v>
       </c>
       <c r="I17" s="3">
-        <v>26646800</v>
+        <v>19988800</v>
       </c>
       <c r="J17" s="3">
+        <v>25769300</v>
+      </c>
+      <c r="K17" s="3">
         <v>22825300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22942900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22077800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28041200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24030900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22360500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21047900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24898500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24267800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21413500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20647900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24918300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21679200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4430000</v>
+        <v>4607600</v>
       </c>
       <c r="E18" s="3">
-        <v>1540200</v>
+        <v>4284100</v>
       </c>
       <c r="F18" s="3">
-        <v>4498000</v>
+        <v>1489500</v>
       </c>
       <c r="G18" s="3">
-        <v>4655200</v>
+        <v>4349900</v>
       </c>
       <c r="H18" s="3">
-        <v>4533000</v>
+        <v>4501900</v>
       </c>
       <c r="I18" s="3">
-        <v>1017800</v>
+        <v>4383700</v>
       </c>
       <c r="J18" s="3">
+        <v>984300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4260000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4389200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4627600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1602100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4308200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4956500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4883400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2922500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3356200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4643800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4742900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1962400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3477700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,138 +1432,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>91200</v>
+        <v>-35200</v>
       </c>
       <c r="E20" s="3">
-        <v>-105600</v>
+        <v>88200</v>
       </c>
       <c r="F20" s="3">
-        <v>-33900</v>
+        <v>-102100</v>
       </c>
       <c r="G20" s="3">
-        <v>-23200</v>
+        <v>-32700</v>
       </c>
       <c r="H20" s="3">
-        <v>-8800</v>
+        <v>-22400</v>
       </c>
       <c r="I20" s="3">
-        <v>-85300</v>
+        <v>-8500</v>
       </c>
       <c r="J20" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>197800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-242800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>49300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1123500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>78400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>103800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>79200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>236000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8005700</v>
+        <v>7982800</v>
       </c>
       <c r="E21" s="3">
-        <v>4949500</v>
+        <v>7742100</v>
       </c>
       <c r="F21" s="3">
-        <v>7921800</v>
+        <v>4786500</v>
       </c>
       <c r="G21" s="3">
-        <v>8035100</v>
+        <v>7660900</v>
       </c>
       <c r="H21" s="3">
-        <v>7878800</v>
+        <v>7770500</v>
       </c>
       <c r="I21" s="3">
-        <v>4376500</v>
+        <v>7619300</v>
       </c>
       <c r="J21" s="3">
+        <v>4232300</v>
+      </c>
+      <c r="K21" s="3">
         <v>7571100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7689000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8127700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4655400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7422400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8051200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7891400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5939100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7548400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7734900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7838500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5406400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6963800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,8 +1595,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1574,159 +1613,168 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>62500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>78700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>74500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>75300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>85100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>74400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4521100</v>
+        <v>4572500</v>
       </c>
       <c r="E23" s="3">
-        <v>1434600</v>
+        <v>4372200</v>
       </c>
       <c r="F23" s="3">
-        <v>4464200</v>
+        <v>1387400</v>
       </c>
       <c r="G23" s="3">
-        <v>4632000</v>
+        <v>4317200</v>
       </c>
       <c r="H23" s="3">
-        <v>4524200</v>
+        <v>4479400</v>
       </c>
       <c r="I23" s="3">
-        <v>932500</v>
+        <v>4375200</v>
       </c>
       <c r="J23" s="3">
+        <v>901800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4244600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4365900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4825300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1359200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4267900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4976300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4932700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2841400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4401100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4647600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4771400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1956500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3639300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1277800</v>
+        <v>1424400</v>
       </c>
       <c r="E24" s="3">
-        <v>651500</v>
+        <v>1235700</v>
       </c>
       <c r="F24" s="3">
-        <v>1311600</v>
+        <v>630000</v>
       </c>
       <c r="G24" s="3">
-        <v>1458100</v>
+        <v>1268400</v>
       </c>
       <c r="H24" s="3">
-        <v>1359000</v>
+        <v>1410100</v>
       </c>
       <c r="I24" s="3">
-        <v>157200</v>
+        <v>1314200</v>
       </c>
       <c r="J24" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1332200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1217500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1491500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>365800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1302600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1763500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1520700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>761900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1444900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1463800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1466700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>386100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1271900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3243400</v>
+        <v>3148100</v>
       </c>
       <c r="E26" s="3">
-        <v>783100</v>
+        <v>3136500</v>
       </c>
       <c r="F26" s="3">
-        <v>3152600</v>
+        <v>757300</v>
       </c>
       <c r="G26" s="3">
-        <v>3173900</v>
+        <v>3048800</v>
       </c>
       <c r="H26" s="3">
-        <v>3165200</v>
+        <v>3069400</v>
       </c>
       <c r="I26" s="3">
-        <v>775200</v>
+        <v>3061000</v>
       </c>
       <c r="J26" s="3">
+        <v>749700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2912400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3148500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3333900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>993500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2965200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3212800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3412000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2079500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2956200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3183800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3304700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1570400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2367400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3097300</v>
+        <v>2958800</v>
       </c>
       <c r="E27" s="3">
-        <v>774400</v>
+        <v>2995300</v>
       </c>
       <c r="F27" s="3">
-        <v>2638800</v>
+        <v>748900</v>
       </c>
       <c r="G27" s="3">
-        <v>2449400</v>
+        <v>2551900</v>
       </c>
       <c r="H27" s="3">
-        <v>2483700</v>
+        <v>2368800</v>
       </c>
       <c r="I27" s="3">
-        <v>531900</v>
+        <v>2401900</v>
       </c>
       <c r="J27" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2270700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2455000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2569700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2193900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2508100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2633800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1564900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2012000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2512900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2647500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1165500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1708600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-91200</v>
+        <v>35200</v>
       </c>
       <c r="E32" s="3">
-        <v>105600</v>
+        <v>-88200</v>
       </c>
       <c r="F32" s="3">
-        <v>33900</v>
+        <v>102100</v>
       </c>
       <c r="G32" s="3">
-        <v>23200</v>
+        <v>32700</v>
       </c>
       <c r="H32" s="3">
-        <v>8800</v>
+        <v>22400</v>
       </c>
       <c r="I32" s="3">
-        <v>85300</v>
+        <v>8500</v>
       </c>
       <c r="J32" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K32" s="3">
         <v>15500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-197800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>242800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-78400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-103800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-79200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-236000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3097300</v>
+        <v>2958800</v>
       </c>
       <c r="E33" s="3">
-        <v>774400</v>
+        <v>2995300</v>
       </c>
       <c r="F33" s="3">
-        <v>2638800</v>
+        <v>748900</v>
       </c>
       <c r="G33" s="3">
-        <v>2449400</v>
+        <v>2551900</v>
       </c>
       <c r="H33" s="3">
-        <v>2483700</v>
+        <v>2368800</v>
       </c>
       <c r="I33" s="3">
-        <v>531900</v>
+        <v>2401900</v>
       </c>
       <c r="J33" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2270700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2455000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2569700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2193900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2508100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2633800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1564900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2012000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2512900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2647500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1165500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1708600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3097300</v>
+        <v>2958800</v>
       </c>
       <c r="E35" s="3">
-        <v>774400</v>
+        <v>2995300</v>
       </c>
       <c r="F35" s="3">
-        <v>2638800</v>
+        <v>748900</v>
       </c>
       <c r="G35" s="3">
-        <v>2449400</v>
+        <v>2551900</v>
       </c>
       <c r="H35" s="3">
-        <v>2483700</v>
+        <v>2368800</v>
       </c>
       <c r="I35" s="3">
-        <v>531900</v>
+        <v>2401900</v>
       </c>
       <c r="J35" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2270700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2455000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2569700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2193900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2508100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2633800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1564900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2012000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2512900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2647500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1165500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1708600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,593 +2645,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10379000</v>
+        <v>7975000</v>
       </c>
       <c r="E41" s="3">
-        <v>8524500</v>
+        <v>10037200</v>
       </c>
       <c r="F41" s="3">
-        <v>12324900</v>
+        <v>8243800</v>
       </c>
       <c r="G41" s="3">
-        <v>9167700</v>
+        <v>11919000</v>
       </c>
       <c r="H41" s="3">
-        <v>9770800</v>
+        <v>8865800</v>
       </c>
       <c r="I41" s="3">
-        <v>9415900</v>
+        <v>9449000</v>
       </c>
       <c r="J41" s="3">
+        <v>9105800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7975500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8527900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9356900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9092300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8575100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8264800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7245700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15144700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6929900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7599600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8690400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8206600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5897100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>548300</v>
+        <v>466200</v>
       </c>
       <c r="E42" s="3">
-        <v>380200</v>
+        <v>530300</v>
       </c>
       <c r="F42" s="3">
-        <v>5514600</v>
+        <v>367700</v>
       </c>
       <c r="G42" s="3">
-        <v>6881200</v>
+        <v>5333000</v>
       </c>
       <c r="H42" s="3">
-        <v>325800</v>
+        <v>6654600</v>
       </c>
       <c r="I42" s="3">
-        <v>295000</v>
+        <v>315000</v>
       </c>
       <c r="J42" s="3">
+        <v>285300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1174300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1041400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>998300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1131600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1158300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1087400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1160200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1401100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>398600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1303600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>786800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>566300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>677900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28365100</v>
+        <v>26269900</v>
       </c>
       <c r="E43" s="3">
-        <v>32199800</v>
+        <v>27431000</v>
       </c>
       <c r="F43" s="3">
-        <v>34260300</v>
+        <v>31139400</v>
       </c>
       <c r="G43" s="3">
-        <v>29755400</v>
+        <v>33132100</v>
       </c>
       <c r="H43" s="3">
-        <v>29458000</v>
+        <v>28775600</v>
       </c>
       <c r="I43" s="3">
-        <v>31910800</v>
+        <v>28487900</v>
       </c>
       <c r="J43" s="3">
+        <v>30860000</v>
+      </c>
+      <c r="K43" s="3">
         <v>41217200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37411000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38645800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42201700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39166800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36843100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34757800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68781300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31235300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29446200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26375400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27995700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29108000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3016200</v>
+        <v>2915900</v>
       </c>
       <c r="E44" s="3">
-        <v>2873600</v>
+        <v>2916900</v>
       </c>
       <c r="F44" s="3">
-        <v>3283200</v>
+        <v>2779000</v>
       </c>
       <c r="G44" s="3">
-        <v>2763700</v>
+        <v>3175100</v>
       </c>
       <c r="H44" s="3">
-        <v>2809500</v>
+        <v>2672700</v>
       </c>
       <c r="I44" s="3">
-        <v>2344300</v>
+        <v>2717000</v>
       </c>
       <c r="J44" s="3">
+        <v>2267100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2818000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2453800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2786700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3187000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4045200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3198000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3250000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6759800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4153400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3497200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3655500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3240900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3875200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6455700</v>
+        <v>6017200</v>
       </c>
       <c r="E45" s="3">
-        <v>4545200</v>
+        <v>6243100</v>
       </c>
       <c r="F45" s="3">
-        <v>5939400</v>
+        <v>4395500</v>
       </c>
       <c r="G45" s="3">
-        <v>5727100</v>
+        <v>5743800</v>
       </c>
       <c r="H45" s="3">
-        <v>19092100</v>
+        <v>5538500</v>
       </c>
       <c r="I45" s="3">
-        <v>17102900</v>
+        <v>18463300</v>
       </c>
       <c r="J45" s="3">
+        <v>16539700</v>
+      </c>
+      <c r="K45" s="3">
         <v>5436400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5317700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6432000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7620800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7330500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7113200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5420500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9493000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5634700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5426600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6214100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7111600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7980800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48764300</v>
+        <v>43644200</v>
       </c>
       <c r="E46" s="3">
-        <v>48523300</v>
+        <v>47158400</v>
       </c>
       <c r="F46" s="3">
-        <v>61322400</v>
+        <v>46925300</v>
       </c>
       <c r="G46" s="3">
-        <v>54295200</v>
+        <v>59303000</v>
       </c>
       <c r="H46" s="3">
-        <v>61456100</v>
+        <v>52507200</v>
       </c>
       <c r="I46" s="3">
-        <v>61068900</v>
+        <v>59432300</v>
       </c>
       <c r="J46" s="3">
+        <v>59057800</v>
+      </c>
+      <c r="K46" s="3">
         <v>58621500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54751800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58219800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63233500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>60275800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56506500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>51834100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53057200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>48351800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47273300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45722100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47121200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47539100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17760000</v>
+        <v>17616800</v>
       </c>
       <c r="E47" s="3">
-        <v>17554600</v>
+        <v>17175100</v>
       </c>
       <c r="F47" s="3">
-        <v>16838000</v>
+        <v>16976500</v>
       </c>
       <c r="G47" s="3">
-        <v>15289800</v>
+        <v>16283500</v>
       </c>
       <c r="H47" s="3">
-        <v>13636900</v>
+        <v>14786300</v>
       </c>
       <c r="I47" s="3">
-        <v>10290400</v>
+        <v>13187800</v>
       </c>
       <c r="J47" s="3">
+        <v>9951600</v>
+      </c>
+      <c r="K47" s="3">
         <v>14218700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13411900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13511100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13807300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13538500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13687300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14984100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23831700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9577600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9086300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8923400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8691600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8571600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101670700</v>
+        <v>98319700</v>
       </c>
       <c r="E48" s="3">
-        <v>101163100</v>
+        <v>98322600</v>
       </c>
       <c r="F48" s="3">
-        <v>99015000</v>
+        <v>97831800</v>
       </c>
       <c r="G48" s="3">
-        <v>98493400</v>
+        <v>95754300</v>
       </c>
       <c r="H48" s="3">
-        <v>97679500</v>
+        <v>95249900</v>
       </c>
       <c r="I48" s="3">
-        <v>96934400</v>
+        <v>94462800</v>
       </c>
       <c r="J48" s="3">
+        <v>93742200</v>
+      </c>
+      <c r="K48" s="3">
         <v>95995400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96175900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95402300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>95907300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>92625800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91769200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>89134300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>177505500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87753100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88621500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87913000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86207700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84650400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26235200</v>
+        <v>25376800</v>
       </c>
       <c r="E49" s="3">
-        <v>25708800</v>
+        <v>25371300</v>
       </c>
       <c r="F49" s="3">
-        <v>24517200</v>
+        <v>24862200</v>
       </c>
       <c r="G49" s="3">
-        <v>24113900</v>
+        <v>23709800</v>
       </c>
       <c r="H49" s="3">
-        <v>24206500</v>
+        <v>23319800</v>
       </c>
       <c r="I49" s="3">
-        <v>24368300</v>
+        <v>23409300</v>
       </c>
       <c r="J49" s="3">
+        <v>23565900</v>
+      </c>
+      <c r="K49" s="3">
         <v>24100000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23505500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23186600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24162400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23906500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23809200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23033500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48621500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26804000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26981900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26837400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26415300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25833000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15851700</v>
+        <v>15201300</v>
       </c>
       <c r="E52" s="3">
-        <v>16265800</v>
+        <v>15329700</v>
       </c>
       <c r="F52" s="3">
-        <v>15690500</v>
+        <v>15730200</v>
       </c>
       <c r="G52" s="3">
-        <v>16025900</v>
+        <v>15173800</v>
       </c>
       <c r="H52" s="3">
-        <v>16379400</v>
+        <v>15498200</v>
       </c>
       <c r="I52" s="3">
-        <v>16996700</v>
+        <v>15840000</v>
       </c>
       <c r="J52" s="3">
+        <v>16437000</v>
+      </c>
+      <c r="K52" s="3">
         <v>16063700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16481200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16408400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17145900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16387700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16004400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16148700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30822500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22127200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22380200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22405700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20054600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>19890900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>210281900</v>
+        <v>200158900</v>
       </c>
       <c r="E54" s="3">
-        <v>209215600</v>
+        <v>203357100</v>
       </c>
       <c r="F54" s="3">
-        <v>217383000</v>
+        <v>202326000</v>
       </c>
       <c r="G54" s="3">
-        <v>208218300</v>
+        <v>210224400</v>
       </c>
       <c r="H54" s="3">
-        <v>213358300</v>
+        <v>201361500</v>
       </c>
       <c r="I54" s="3">
-        <v>209658800</v>
+        <v>206332200</v>
       </c>
       <c r="J54" s="3">
+        <v>202754500</v>
+      </c>
+      <c r="K54" s="3">
         <v>208999200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>204326400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>206728300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>214256400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>206734400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>201776600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>195134800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>194734700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>194613800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>194343300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>191801600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>188490400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>186485000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18178400</v>
+        <v>16262000</v>
       </c>
       <c r="E57" s="3">
-        <v>21469600</v>
+        <v>17579800</v>
       </c>
       <c r="F57" s="3">
-        <v>28188300</v>
+        <v>20762600</v>
       </c>
       <c r="G57" s="3">
-        <v>15856300</v>
+        <v>27260000</v>
       </c>
       <c r="H57" s="3">
-        <v>16586900</v>
+        <v>15334200</v>
       </c>
       <c r="I57" s="3">
-        <v>19520500</v>
+        <v>16040700</v>
       </c>
       <c r="J57" s="3">
+        <v>18877600</v>
+      </c>
+      <c r="K57" s="3">
         <v>15531100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15365600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15442400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20108700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15250500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13794100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13731500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16378000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12341800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11209100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10462900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14307300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10823200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35654900</v>
+        <v>19860000</v>
       </c>
       <c r="E58" s="3">
-        <v>30632600</v>
+        <v>34480800</v>
       </c>
       <c r="F58" s="3">
-        <v>47729100</v>
+        <v>29623900</v>
       </c>
       <c r="G58" s="3">
-        <v>21144200</v>
+        <v>46157300</v>
       </c>
       <c r="H58" s="3">
-        <v>23483700</v>
+        <v>20447900</v>
       </c>
       <c r="I58" s="3">
-        <v>20120600</v>
+        <v>22710400</v>
       </c>
       <c r="J58" s="3">
+        <v>19458000</v>
+      </c>
+      <c r="K58" s="3">
         <v>21904900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16681400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18869500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13565300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15598300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10476900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14238400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15416900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8838000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8994300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9532100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8191800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9374100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13618400</v>
+        <v>13993600</v>
       </c>
       <c r="E59" s="3">
-        <v>15550100</v>
+        <v>13169900</v>
       </c>
       <c r="F59" s="3">
-        <v>13644900</v>
+        <v>15038000</v>
       </c>
       <c r="G59" s="3">
-        <v>14382300</v>
+        <v>13195600</v>
       </c>
       <c r="H59" s="3">
-        <v>18680300</v>
+        <v>13908600</v>
       </c>
       <c r="I59" s="3">
-        <v>20554200</v>
+        <v>18065100</v>
       </c>
       <c r="J59" s="3">
+        <v>19877400</v>
+      </c>
+      <c r="K59" s="3">
         <v>13620000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14530600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14313800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16567700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14876600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15946100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14009300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19934300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14207200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14711400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15808300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14146400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14897400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67451700</v>
+        <v>50115600</v>
       </c>
       <c r="E60" s="3">
-        <v>67652300</v>
+        <v>65230400</v>
       </c>
       <c r="F60" s="3">
-        <v>89562300</v>
+        <v>65424500</v>
       </c>
       <c r="G60" s="3">
-        <v>51382800</v>
+        <v>86612900</v>
       </c>
       <c r="H60" s="3">
-        <v>58750900</v>
+        <v>49690700</v>
       </c>
       <c r="I60" s="3">
-        <v>60195300</v>
+        <v>56816200</v>
       </c>
       <c r="J60" s="3">
+        <v>58213100</v>
+      </c>
+      <c r="K60" s="3">
         <v>51055900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46577600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48625600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50241800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45725300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40217100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41979300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41786800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35387100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34914900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35803300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36645500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35094700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45113900</v>
+        <v>52717300</v>
       </c>
       <c r="E61" s="3">
-        <v>45637100</v>
+        <v>43628200</v>
       </c>
       <c r="F61" s="3">
-        <v>31936700</v>
+        <v>44134200</v>
       </c>
       <c r="G61" s="3">
-        <v>23218000</v>
+        <v>30885000</v>
       </c>
       <c r="H61" s="3">
-        <v>24769800</v>
+        <v>22453400</v>
       </c>
       <c r="I61" s="3">
-        <v>23177000</v>
+        <v>23954100</v>
       </c>
       <c r="J61" s="3">
+        <v>22413700</v>
+      </c>
+      <c r="K61" s="3">
         <v>29780700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29372500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29574300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27844600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27448700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27278100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25389200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28423700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28726400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28965100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29015900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28331200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29049600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21347900</v>
+        <v>20684100</v>
       </c>
       <c r="E62" s="3">
-        <v>21196500</v>
+        <v>20644900</v>
       </c>
       <c r="F62" s="3">
-        <v>22581600</v>
+        <v>20498500</v>
       </c>
       <c r="G62" s="3">
-        <v>22181100</v>
+        <v>21838000</v>
       </c>
       <c r="H62" s="3">
-        <v>22010000</v>
+        <v>21450700</v>
       </c>
       <c r="I62" s="3">
-        <v>21861900</v>
+        <v>21285200</v>
       </c>
       <c r="J62" s="3">
+        <v>21142000</v>
+      </c>
+      <c r="K62" s="3">
         <v>22174100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22177200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21883800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22726000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22825400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22206200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21740200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40355000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21606000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21475400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21294000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20989200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21797200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>139815000</v>
+        <v>129537100</v>
       </c>
       <c r="E66" s="3">
-        <v>140319400</v>
+        <v>135210800</v>
       </c>
       <c r="F66" s="3">
-        <v>149625300</v>
+        <v>135698500</v>
       </c>
       <c r="G66" s="3">
-        <v>119584000</v>
+        <v>144698000</v>
       </c>
       <c r="H66" s="3">
-        <v>127558500</v>
+        <v>115646000</v>
       </c>
       <c r="I66" s="3">
-        <v>127112100</v>
+        <v>123357900</v>
       </c>
       <c r="J66" s="3">
+        <v>122926200</v>
+      </c>
+      <c r="K66" s="3">
         <v>125660600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121280500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>123114000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>125220500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119475700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114165700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112192700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112807400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>109849800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>108990500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>108974100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>108194900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>107689800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65679400</v>
+        <v>66482400</v>
       </c>
       <c r="E72" s="3">
-        <v>64389600</v>
+        <v>63516500</v>
       </c>
       <c r="F72" s="3">
-        <v>62492800</v>
+        <v>62269200</v>
       </c>
       <c r="G72" s="3">
-        <v>62563800</v>
+        <v>60434900</v>
       </c>
       <c r="H72" s="3">
-        <v>60110300</v>
+        <v>60503600</v>
       </c>
       <c r="I72" s="3">
-        <v>59214500</v>
+        <v>58130900</v>
       </c>
       <c r="J72" s="3">
+        <v>57264500</v>
+      </c>
+      <c r="K72" s="3">
         <v>58586300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58367600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55697400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57220900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55878100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54359500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57216800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55490700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55074400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54544700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52229600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>49904000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48738500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70466800</v>
+        <v>70621800</v>
       </c>
       <c r="E76" s="3">
-        <v>68896300</v>
+        <v>68146300</v>
       </c>
       <c r="F76" s="3">
-        <v>67757700</v>
+        <v>66627400</v>
       </c>
       <c r="G76" s="3">
-        <v>88634300</v>
+        <v>65526400</v>
       </c>
       <c r="H76" s="3">
-        <v>85799700</v>
+        <v>85715500</v>
       </c>
       <c r="I76" s="3">
-        <v>82546600</v>
+        <v>82974300</v>
       </c>
       <c r="J76" s="3">
+        <v>79828300</v>
+      </c>
+      <c r="K76" s="3">
         <v>83338500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83045900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83614300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89035800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87258700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87610900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82942000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>81927300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>84764000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>85352800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>82827500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>80295500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>78795200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3097300</v>
+        <v>2958800</v>
       </c>
       <c r="E81" s="3">
-        <v>774400</v>
+        <v>2995300</v>
       </c>
       <c r="F81" s="3">
-        <v>2638800</v>
+        <v>748900</v>
       </c>
       <c r="G81" s="3">
-        <v>2449400</v>
+        <v>2551900</v>
       </c>
       <c r="H81" s="3">
-        <v>2483700</v>
+        <v>2368800</v>
       </c>
       <c r="I81" s="3">
-        <v>531900</v>
+        <v>2401900</v>
       </c>
       <c r="J81" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2270700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2455000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2569700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2193900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2508100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2633800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1564900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2012000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2512900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2647500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1165500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1708600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3484600</v>
+        <v>3410300</v>
       </c>
       <c r="E83" s="3">
-        <v>3514800</v>
+        <v>3369800</v>
       </c>
       <c r="F83" s="3">
-        <v>3457600</v>
+        <v>3399100</v>
       </c>
       <c r="G83" s="3">
-        <v>3403100</v>
+        <v>3343700</v>
       </c>
       <c r="H83" s="3">
-        <v>3354600</v>
+        <v>3291100</v>
       </c>
       <c r="I83" s="3">
-        <v>3444000</v>
+        <v>3244100</v>
       </c>
       <c r="J83" s="3">
+        <v>3330600</v>
+      </c>
+      <c r="K83" s="3">
         <v>3326500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3323100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3302300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3296200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3154600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3074900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2958700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3035200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3068600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3000700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3003800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3364800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3250100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5169600</v>
+        <v>8122900</v>
       </c>
       <c r="E89" s="3">
-        <v>11943500</v>
+        <v>4999300</v>
       </c>
       <c r="F89" s="3">
-        <v>3708000</v>
+        <v>11550200</v>
       </c>
       <c r="G89" s="3">
-        <v>7369100</v>
+        <v>3585900</v>
       </c>
       <c r="H89" s="3">
-        <v>4391900</v>
+        <v>7126400</v>
       </c>
       <c r="I89" s="3">
-        <v>11663900</v>
+        <v>4247300</v>
       </c>
       <c r="J89" s="3">
+        <v>11279800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1644300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9735800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4350900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7673800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3773500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7209000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3926000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7650900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6131900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5252800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4754300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10658100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2885700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4698700</v>
+        <v>-3337600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4254800</v>
+        <v>-4543900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3773300</v>
+        <v>-4114700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3312700</v>
+        <v>-3649100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5013100</v>
+        <v>-3203700</v>
       </c>
       <c r="I91" s="3">
-        <v>-4484400</v>
+        <v>-4848000</v>
       </c>
       <c r="J91" s="3">
+        <v>-4336700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5353700</v>
+        <v>-3427700</v>
       </c>
       <c r="E94" s="3">
-        <v>779800</v>
+        <v>-5177400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3003800</v>
+        <v>754200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3426000</v>
+        <v>-2904900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7327500</v>
+        <v>-3313200</v>
       </c>
       <c r="I94" s="3">
-        <v>-5019300</v>
+        <v>-7086200</v>
       </c>
       <c r="J94" s="3">
+        <v>-4854000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1814800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1755000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1692600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1636900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1573000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1521200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2025400</v>
+        <v>-6776400</v>
       </c>
       <c r="E100" s="3">
-        <v>-16677900</v>
+        <v>1958700</v>
       </c>
       <c r="F100" s="3">
-        <v>2515500</v>
+        <v>-16128700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4526500</v>
+        <v>2432700</v>
       </c>
       <c r="H100" s="3">
-        <v>3297100</v>
+        <v>-4377400</v>
       </c>
       <c r="I100" s="3">
-        <v>-5126400</v>
+        <v>3188500</v>
       </c>
       <c r="J100" s="3">
+        <v>-4957600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2601900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>115000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>138900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1473800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>616100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13200</v>
+        <v>19100</v>
       </c>
       <c r="E101" s="3">
-        <v>154100</v>
+        <v>12700</v>
       </c>
       <c r="F101" s="3">
-        <v>-62600</v>
+        <v>149000</v>
       </c>
       <c r="G101" s="3">
-        <v>-19600</v>
+        <v>-60600</v>
       </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>-19000</v>
       </c>
       <c r="I101" s="3">
-        <v>-77800</v>
+        <v>-6300</v>
       </c>
       <c r="J101" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K101" s="3">
         <v>60900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-76500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-41700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-71700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>51100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>88300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1854500</v>
+        <v>-2062200</v>
       </c>
       <c r="E102" s="3">
-        <v>-3800400</v>
+        <v>1793400</v>
       </c>
       <c r="F102" s="3">
-        <v>3157100</v>
+        <v>-3675200</v>
       </c>
       <c r="G102" s="3">
-        <v>-603000</v>
+        <v>3053100</v>
       </c>
       <c r="H102" s="3">
-        <v>354900</v>
+        <v>-583200</v>
       </c>
       <c r="I102" s="3">
-        <v>1440400</v>
+        <v>343200</v>
       </c>
       <c r="J102" s="3">
+        <v>1392900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-478200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-859600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>690300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>362800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>176900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>859700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-889900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>124000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-669700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>776300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2309600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26386600</v>
+        <v>25893500</v>
       </c>
       <c r="E8" s="3">
-        <v>25483500</v>
+        <v>25548000</v>
       </c>
       <c r="F8" s="3">
-        <v>28244500</v>
+        <v>24673600</v>
       </c>
       <c r="G8" s="3">
-        <v>26664700</v>
+        <v>27346800</v>
       </c>
       <c r="H8" s="3">
-        <v>25944600</v>
+        <v>25817300</v>
       </c>
       <c r="I8" s="3">
-        <v>24372500</v>
+        <v>25120100</v>
       </c>
       <c r="J8" s="3">
+        <v>23597900</v>
+      </c>
+      <c r="K8" s="3">
         <v>26753500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27085300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27332100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26705400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29643300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28339000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27316900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25931300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27821100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27624000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26057300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25390800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26880700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25156800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,29 +867,32 @@
       <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="3">
         <v>14315900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13646700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12122500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11756500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14418700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12033700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,29 +938,32 @@
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
         <v>13505200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13977300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13934700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13634400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12462000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13123100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,144 +1128,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>230100</v>
+        <v>213300</v>
       </c>
       <c r="E14" s="3">
-        <v>240400</v>
+        <v>222800</v>
       </c>
       <c r="F14" s="3">
-        <v>793700</v>
+        <v>232800</v>
       </c>
       <c r="G14" s="3">
-        <v>394300</v>
+        <v>768400</v>
       </c>
       <c r="H14" s="3">
-        <v>230200</v>
+        <v>381700</v>
       </c>
       <c r="I14" s="3">
-        <v>190300</v>
+        <v>222900</v>
       </c>
       <c r="J14" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K14" s="3">
         <v>886600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>316400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>277500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>207800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1326000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>957400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>243400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>167300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2970900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>332400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>246800</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3410300</v>
+        <v>3312200</v>
       </c>
       <c r="E15" s="3">
-        <v>3369800</v>
+        <v>3301900</v>
       </c>
       <c r="F15" s="3">
-        <v>3399100</v>
+        <v>3262700</v>
       </c>
       <c r="G15" s="3">
-        <v>3343700</v>
+        <v>3291100</v>
       </c>
       <c r="H15" s="3">
-        <v>3291100</v>
+        <v>3237500</v>
       </c>
       <c r="I15" s="3">
-        <v>3244100</v>
+        <v>3186500</v>
       </c>
       <c r="J15" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3330600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3326500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3323100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3302300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3296200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3154600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3074900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2958700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3108500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6102700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5974800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5995600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3364800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3683200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21779000</v>
+        <v>21369200</v>
       </c>
       <c r="E17" s="3">
-        <v>21199500</v>
+        <v>21086800</v>
       </c>
       <c r="F17" s="3">
-        <v>26755000</v>
+        <v>20525700</v>
       </c>
       <c r="G17" s="3">
-        <v>22314800</v>
+        <v>25904700</v>
       </c>
       <c r="H17" s="3">
-        <v>21442800</v>
+        <v>21605600</v>
       </c>
       <c r="I17" s="3">
-        <v>19988800</v>
+        <v>20761300</v>
       </c>
       <c r="J17" s="3">
+        <v>19353500</v>
+      </c>
+      <c r="K17" s="3">
         <v>25769300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22825300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22942900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22077800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28041200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24030900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22360500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21047900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24898500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24267800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21413500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20647900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24918300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21679200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4607600</v>
+        <v>4524200</v>
       </c>
       <c r="E18" s="3">
-        <v>4284100</v>
+        <v>4461200</v>
       </c>
       <c r="F18" s="3">
-        <v>1489500</v>
+        <v>4147900</v>
       </c>
       <c r="G18" s="3">
-        <v>4349900</v>
+        <v>1442100</v>
       </c>
       <c r="H18" s="3">
-        <v>4501900</v>
+        <v>4211700</v>
       </c>
       <c r="I18" s="3">
-        <v>4383700</v>
+        <v>4358800</v>
       </c>
       <c r="J18" s="3">
+        <v>4244400</v>
+      </c>
+      <c r="K18" s="3">
         <v>984300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4260000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4389200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4627600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1602100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4308200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4956500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4883400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2922500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3356200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4643800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4742900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1962400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3477700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35200</v>
+        <v>70600</v>
       </c>
       <c r="E20" s="3">
-        <v>88200</v>
+        <v>-34000</v>
       </c>
       <c r="F20" s="3">
-        <v>-102100</v>
+        <v>85400</v>
       </c>
       <c r="G20" s="3">
-        <v>-32700</v>
+        <v>-98800</v>
       </c>
       <c r="H20" s="3">
-        <v>-22400</v>
+        <v>-31700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8500</v>
+        <v>-21700</v>
       </c>
       <c r="J20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-82500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>197800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-242800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>49300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1123500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>103800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>79200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>236000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7982800</v>
+        <v>7907000</v>
       </c>
       <c r="E21" s="3">
-        <v>7742100</v>
+        <v>7729100</v>
       </c>
       <c r="F21" s="3">
-        <v>4786500</v>
+        <v>7496000</v>
       </c>
       <c r="G21" s="3">
-        <v>7660900</v>
+        <v>4634300</v>
       </c>
       <c r="H21" s="3">
-        <v>7770500</v>
+        <v>7417400</v>
       </c>
       <c r="I21" s="3">
-        <v>7619300</v>
+        <v>7523500</v>
       </c>
       <c r="J21" s="3">
+        <v>7377200</v>
+      </c>
+      <c r="K21" s="3">
         <v>4232300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7571100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7689000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8127700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4655400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7422400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8051200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7891400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5939100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7548400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7734900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7838500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5406400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6963800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,8 +1637,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1616,165 +1655,174 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>62500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>78700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>74500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>75300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>85100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>74400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4572500</v>
+        <v>4594800</v>
       </c>
       <c r="E23" s="3">
-        <v>4372200</v>
+        <v>4427200</v>
       </c>
       <c r="F23" s="3">
-        <v>1387400</v>
+        <v>4233300</v>
       </c>
       <c r="G23" s="3">
-        <v>4317200</v>
+        <v>1343300</v>
       </c>
       <c r="H23" s="3">
-        <v>4479400</v>
+        <v>4180000</v>
       </c>
       <c r="I23" s="3">
-        <v>4375200</v>
+        <v>4337100</v>
       </c>
       <c r="J23" s="3">
+        <v>4236200</v>
+      </c>
+      <c r="K23" s="3">
         <v>901800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4244600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4365900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4825300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1359200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4267900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4976300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4932700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2841400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4401100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4647600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4771400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1956500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3639300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1424400</v>
+        <v>1418700</v>
       </c>
       <c r="E24" s="3">
-        <v>1235700</v>
+        <v>1379100</v>
       </c>
       <c r="F24" s="3">
-        <v>630000</v>
+        <v>1196400</v>
       </c>
       <c r="G24" s="3">
-        <v>1268400</v>
+        <v>610000</v>
       </c>
       <c r="H24" s="3">
-        <v>1410100</v>
+        <v>1228100</v>
       </c>
       <c r="I24" s="3">
-        <v>1314200</v>
+        <v>1365300</v>
       </c>
       <c r="J24" s="3">
+        <v>1272500</v>
+      </c>
+      <c r="K24" s="3">
         <v>152100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1332200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1217500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1491500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>365800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1302600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1763500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1520700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>761900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1444900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1463800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1466700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>386100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1271900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3148100</v>
+        <v>3176100</v>
       </c>
       <c r="E26" s="3">
-        <v>3136500</v>
+        <v>3048000</v>
       </c>
       <c r="F26" s="3">
-        <v>757300</v>
+        <v>3036900</v>
       </c>
       <c r="G26" s="3">
-        <v>3048800</v>
+        <v>733300</v>
       </c>
       <c r="H26" s="3">
-        <v>3069400</v>
+        <v>2951900</v>
       </c>
       <c r="I26" s="3">
-        <v>3061000</v>
+        <v>2971800</v>
       </c>
       <c r="J26" s="3">
+        <v>2963700</v>
+      </c>
+      <c r="K26" s="3">
         <v>749700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2912400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3148500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3333900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>993500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2965200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3212800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3412000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2079500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2956200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3183800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3304700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1570400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2367400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2958800</v>
+        <v>3024000</v>
       </c>
       <c r="E27" s="3">
-        <v>2995300</v>
+        <v>2864800</v>
       </c>
       <c r="F27" s="3">
-        <v>748900</v>
+        <v>2900100</v>
       </c>
       <c r="G27" s="3">
-        <v>2551900</v>
+        <v>725100</v>
       </c>
       <c r="H27" s="3">
-        <v>2368800</v>
+        <v>2470800</v>
       </c>
       <c r="I27" s="3">
-        <v>2401900</v>
+        <v>2293500</v>
       </c>
       <c r="J27" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="K27" s="3">
         <v>514400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2270700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2455000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2569700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2193900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2508100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2633800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1564900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2012000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2512900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2647500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1165500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1708600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35200</v>
+        <v>-70600</v>
       </c>
       <c r="E32" s="3">
-        <v>-88200</v>
+        <v>34000</v>
       </c>
       <c r="F32" s="3">
-        <v>102100</v>
+        <v>-85400</v>
       </c>
       <c r="G32" s="3">
-        <v>32700</v>
+        <v>98800</v>
       </c>
       <c r="H32" s="3">
-        <v>22400</v>
+        <v>31700</v>
       </c>
       <c r="I32" s="3">
-        <v>8500</v>
+        <v>21700</v>
       </c>
       <c r="J32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>82500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-197800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>242800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-49300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-103800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-79200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-236000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2958800</v>
+        <v>3024000</v>
       </c>
       <c r="E33" s="3">
-        <v>2995300</v>
+        <v>2864800</v>
       </c>
       <c r="F33" s="3">
-        <v>748900</v>
+        <v>2900100</v>
       </c>
       <c r="G33" s="3">
-        <v>2551900</v>
+        <v>725100</v>
       </c>
       <c r="H33" s="3">
-        <v>2368800</v>
+        <v>2470800</v>
       </c>
       <c r="I33" s="3">
-        <v>2401900</v>
+        <v>2293500</v>
       </c>
       <c r="J33" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="K33" s="3">
         <v>514400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2270700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2455000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2569700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2193900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2508100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2633800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1564900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2012000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2512900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2647500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1165500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1708600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2958800</v>
+        <v>3024000</v>
       </c>
       <c r="E35" s="3">
-        <v>2995300</v>
+        <v>2864800</v>
       </c>
       <c r="F35" s="3">
-        <v>748900</v>
+        <v>2900100</v>
       </c>
       <c r="G35" s="3">
-        <v>2551900</v>
+        <v>725100</v>
       </c>
       <c r="H35" s="3">
-        <v>2368800</v>
+        <v>2470800</v>
       </c>
       <c r="I35" s="3">
-        <v>2401900</v>
+        <v>2293500</v>
       </c>
       <c r="J35" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="K35" s="3">
         <v>514400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2270700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2455000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2569700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2193900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2508100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2633800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1564900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2012000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2512900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2647500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1165500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1708600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,620 +2731,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7975000</v>
+        <v>7048900</v>
       </c>
       <c r="E41" s="3">
-        <v>10037200</v>
+        <v>7721500</v>
       </c>
       <c r="F41" s="3">
-        <v>8243800</v>
+        <v>9718200</v>
       </c>
       <c r="G41" s="3">
-        <v>11919000</v>
+        <v>7981800</v>
       </c>
       <c r="H41" s="3">
-        <v>8865800</v>
+        <v>11540200</v>
       </c>
       <c r="I41" s="3">
-        <v>9449000</v>
+        <v>8584100</v>
       </c>
       <c r="J41" s="3">
+        <v>9148700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9105800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7975500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8527900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9356900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9092300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8575100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8264800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7245700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15144700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6929900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7599600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8690400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8206600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5897100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>466200</v>
+        <v>437100</v>
       </c>
       <c r="E42" s="3">
-        <v>530300</v>
+        <v>451400</v>
       </c>
       <c r="F42" s="3">
-        <v>367700</v>
+        <v>513400</v>
       </c>
       <c r="G42" s="3">
-        <v>5333000</v>
+        <v>356000</v>
       </c>
       <c r="H42" s="3">
-        <v>6654600</v>
+        <v>5163500</v>
       </c>
       <c r="I42" s="3">
-        <v>315000</v>
+        <v>6443100</v>
       </c>
       <c r="J42" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K42" s="3">
         <v>285300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1174300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1041400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>998300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1131600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1158300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1087400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1160200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1401100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>398600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1303600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>786800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>566300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>677900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26269900</v>
+        <v>30629700</v>
       </c>
       <c r="E43" s="3">
-        <v>27431000</v>
+        <v>25435000</v>
       </c>
       <c r="F43" s="3">
-        <v>31139400</v>
+        <v>26559200</v>
       </c>
       <c r="G43" s="3">
-        <v>33132100</v>
+        <v>30149800</v>
       </c>
       <c r="H43" s="3">
-        <v>28775600</v>
+        <v>32079100</v>
       </c>
       <c r="I43" s="3">
-        <v>28487900</v>
+        <v>27861000</v>
       </c>
       <c r="J43" s="3">
+        <v>27582500</v>
+      </c>
+      <c r="K43" s="3">
         <v>30860000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41217200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37411000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38645800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42201700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>39166800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36843100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34757800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68781300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31235300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29446200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>26375400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>27995700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29108000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2915900</v>
+        <v>2999800</v>
       </c>
       <c r="E44" s="3">
-        <v>2916900</v>
+        <v>2823200</v>
       </c>
       <c r="F44" s="3">
-        <v>2779000</v>
+        <v>2824100</v>
       </c>
       <c r="G44" s="3">
-        <v>3175100</v>
+        <v>2690700</v>
       </c>
       <c r="H44" s="3">
-        <v>2672700</v>
+        <v>3074200</v>
       </c>
       <c r="I44" s="3">
-        <v>2717000</v>
+        <v>2587700</v>
       </c>
       <c r="J44" s="3">
+        <v>2630700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2267100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2818000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2453800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2786700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3187000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4045200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3198000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3250000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6759800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4153400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3497200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3655500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3240900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3875200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6017200</v>
+        <v>6157700</v>
       </c>
       <c r="E45" s="3">
-        <v>6243100</v>
+        <v>5825900</v>
       </c>
       <c r="F45" s="3">
-        <v>4395500</v>
+        <v>6044700</v>
       </c>
       <c r="G45" s="3">
-        <v>5743800</v>
+        <v>4255800</v>
       </c>
       <c r="H45" s="3">
-        <v>5538500</v>
+        <v>5561200</v>
       </c>
       <c r="I45" s="3">
-        <v>18463300</v>
+        <v>5362500</v>
       </c>
       <c r="J45" s="3">
+        <v>17876500</v>
+      </c>
+      <c r="K45" s="3">
         <v>16539700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5436400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5317700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6432000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7620800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7330500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7113200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5420500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9493000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5634700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5426600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6214100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7111600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7980800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43644200</v>
+        <v>47273200</v>
       </c>
       <c r="E46" s="3">
-        <v>47158400</v>
+        <v>42257100</v>
       </c>
       <c r="F46" s="3">
-        <v>46925300</v>
+        <v>45659600</v>
       </c>
       <c r="G46" s="3">
-        <v>59303000</v>
+        <v>45434000</v>
       </c>
       <c r="H46" s="3">
-        <v>52507200</v>
+        <v>57418200</v>
       </c>
       <c r="I46" s="3">
-        <v>59432300</v>
+        <v>50838400</v>
       </c>
       <c r="J46" s="3">
+        <v>57543400</v>
+      </c>
+      <c r="K46" s="3">
         <v>59057800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58621500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54751800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>58219800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63233500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>60275800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>56506500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>51834100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53057200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>48351800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47273300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45722100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47121200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47539100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17616800</v>
+        <v>16843200</v>
       </c>
       <c r="E47" s="3">
-        <v>17175100</v>
+        <v>17056900</v>
       </c>
       <c r="F47" s="3">
-        <v>16976500</v>
+        <v>16629300</v>
       </c>
       <c r="G47" s="3">
-        <v>16283500</v>
+        <v>16436900</v>
       </c>
       <c r="H47" s="3">
-        <v>14786300</v>
+        <v>15766000</v>
       </c>
       <c r="I47" s="3">
-        <v>13187800</v>
+        <v>14316400</v>
       </c>
       <c r="J47" s="3">
+        <v>12768700</v>
+      </c>
+      <c r="K47" s="3">
         <v>9951600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14218700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13411900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13511100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13807300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13538500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13687300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14984100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23831700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9577600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9086300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8923400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8691600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8571600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>98319700</v>
+        <v>95840200</v>
       </c>
       <c r="E48" s="3">
-        <v>98322600</v>
+        <v>95194900</v>
       </c>
       <c r="F48" s="3">
-        <v>97831800</v>
+        <v>95197700</v>
       </c>
       <c r="G48" s="3">
-        <v>95754300</v>
+        <v>94722500</v>
       </c>
       <c r="H48" s="3">
-        <v>95249900</v>
+        <v>92711100</v>
       </c>
       <c r="I48" s="3">
-        <v>94462800</v>
+        <v>92222700</v>
       </c>
       <c r="J48" s="3">
+        <v>91460600</v>
+      </c>
+      <c r="K48" s="3">
         <v>93742200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95995400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>96175900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>95402300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95907300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>92625800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91769200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>89134300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>177505500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87753100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>88621500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87913000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86207700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84650400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25376800</v>
+        <v>25899900</v>
       </c>
       <c r="E49" s="3">
-        <v>25371300</v>
+        <v>24570300</v>
       </c>
       <c r="F49" s="3">
-        <v>24862200</v>
+        <v>24564900</v>
       </c>
       <c r="G49" s="3">
-        <v>23709800</v>
+        <v>24072000</v>
       </c>
       <c r="H49" s="3">
-        <v>23319800</v>
+        <v>22956300</v>
       </c>
       <c r="I49" s="3">
-        <v>23409300</v>
+        <v>22578700</v>
       </c>
       <c r="J49" s="3">
+        <v>22665300</v>
+      </c>
+      <c r="K49" s="3">
         <v>23565900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24100000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23505500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23186600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24162400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23906500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23809200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23033500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48621500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26804000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26981900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26837400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26415300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>25833000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15201300</v>
+        <v>14976900</v>
       </c>
       <c r="E52" s="3">
-        <v>15329700</v>
+        <v>14718200</v>
       </c>
       <c r="F52" s="3">
-        <v>15730200</v>
+        <v>14842500</v>
       </c>
       <c r="G52" s="3">
-        <v>15173800</v>
+        <v>15230300</v>
       </c>
       <c r="H52" s="3">
-        <v>15498200</v>
+        <v>14691600</v>
       </c>
       <c r="I52" s="3">
-        <v>15840000</v>
+        <v>15005600</v>
       </c>
       <c r="J52" s="3">
+        <v>15336600</v>
+      </c>
+      <c r="K52" s="3">
         <v>16437000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16063700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16481200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16408400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17145900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16387700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16004400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16148700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30822500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22127200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22380200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22405700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20054600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19890900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200158900</v>
+        <v>200833300</v>
       </c>
       <c r="E54" s="3">
-        <v>203357100</v>
+        <v>193797400</v>
       </c>
       <c r="F54" s="3">
-        <v>202326000</v>
+        <v>196894000</v>
       </c>
       <c r="G54" s="3">
-        <v>210224400</v>
+        <v>195895600</v>
       </c>
       <c r="H54" s="3">
-        <v>201361500</v>
+        <v>203543100</v>
       </c>
       <c r="I54" s="3">
-        <v>206332200</v>
+        <v>194961800</v>
       </c>
       <c r="J54" s="3">
+        <v>199774600</v>
+      </c>
+      <c r="K54" s="3">
         <v>202754500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>208999200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>204326400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>206728300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>214256400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206734400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>201776600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>195134800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>194734700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>194613800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>194343300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>191801600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>188490400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>186485000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16262000</v>
+        <v>18096800</v>
       </c>
       <c r="E57" s="3">
-        <v>17579800</v>
+        <v>15745100</v>
       </c>
       <c r="F57" s="3">
-        <v>20762600</v>
+        <v>17021000</v>
       </c>
       <c r="G57" s="3">
-        <v>27260000</v>
+        <v>20102700</v>
       </c>
       <c r="H57" s="3">
-        <v>15334200</v>
+        <v>26393600</v>
       </c>
       <c r="I57" s="3">
-        <v>16040700</v>
+        <v>14846800</v>
       </c>
       <c r="J57" s="3">
+        <v>15530900</v>
+      </c>
+      <c r="K57" s="3">
         <v>18877600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15531100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15365600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15442400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20108700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15250500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13794100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13731500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16378000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12341800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11209100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10462900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14307300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10823200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19860000</v>
+        <v>18281500</v>
       </c>
       <c r="E58" s="3">
-        <v>34480800</v>
+        <v>19228900</v>
       </c>
       <c r="F58" s="3">
-        <v>29623900</v>
+        <v>33384900</v>
       </c>
       <c r="G58" s="3">
-        <v>46157300</v>
+        <v>28682400</v>
       </c>
       <c r="H58" s="3">
-        <v>20447900</v>
+        <v>44690400</v>
       </c>
       <c r="I58" s="3">
-        <v>22710400</v>
+        <v>19798000</v>
       </c>
       <c r="J58" s="3">
+        <v>21988600</v>
+      </c>
+      <c r="K58" s="3">
         <v>19458000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21904900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16681400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18869500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13565300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15598300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10476900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14238400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15416900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8838000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8994300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9532100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8191800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9374100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13993600</v>
+        <v>13542700</v>
       </c>
       <c r="E59" s="3">
-        <v>13169900</v>
+        <v>13548900</v>
       </c>
       <c r="F59" s="3">
-        <v>15038000</v>
+        <v>12751300</v>
       </c>
       <c r="G59" s="3">
-        <v>13195600</v>
+        <v>14560100</v>
       </c>
       <c r="H59" s="3">
-        <v>13908600</v>
+        <v>12776200</v>
       </c>
       <c r="I59" s="3">
-        <v>18065100</v>
+        <v>13466600</v>
       </c>
       <c r="J59" s="3">
+        <v>17491000</v>
+      </c>
+      <c r="K59" s="3">
         <v>19877400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13620000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14530600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14313800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16567700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14876600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15946100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14009300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19934300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14207200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14711400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15808300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14146400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14897400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50115600</v>
+        <v>49921000</v>
       </c>
       <c r="E60" s="3">
-        <v>65230400</v>
+        <v>48522800</v>
       </c>
       <c r="F60" s="3">
-        <v>65424500</v>
+        <v>63157300</v>
       </c>
       <c r="G60" s="3">
-        <v>86612900</v>
+        <v>63345200</v>
       </c>
       <c r="H60" s="3">
-        <v>49690700</v>
+        <v>83860200</v>
       </c>
       <c r="I60" s="3">
-        <v>56816200</v>
+        <v>48111400</v>
       </c>
       <c r="J60" s="3">
+        <v>55010500</v>
+      </c>
+      <c r="K60" s="3">
         <v>58213100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51055900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46577600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48625600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50241800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45725300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40217100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41979300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41786800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35387100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34914900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35803300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>36645500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35094700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52717300</v>
+        <v>56349600</v>
       </c>
       <c r="E61" s="3">
-        <v>43628200</v>
+        <v>51041800</v>
       </c>
       <c r="F61" s="3">
-        <v>44134200</v>
+        <v>42241700</v>
       </c>
       <c r="G61" s="3">
-        <v>30885000</v>
+        <v>42731500</v>
       </c>
       <c r="H61" s="3">
-        <v>22453400</v>
+        <v>29903400</v>
       </c>
       <c r="I61" s="3">
-        <v>23954100</v>
+        <v>21739800</v>
       </c>
       <c r="J61" s="3">
+        <v>23192800</v>
+      </c>
+      <c r="K61" s="3">
         <v>22413700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29780700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29372500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29574300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27844600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27448700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27278100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25389200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28423700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28726400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28965100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29015900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28331200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29049600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20684100</v>
+        <v>20343400</v>
       </c>
       <c r="E62" s="3">
-        <v>20644900</v>
+        <v>20026700</v>
       </c>
       <c r="F62" s="3">
-        <v>20498500</v>
+        <v>19988800</v>
       </c>
       <c r="G62" s="3">
-        <v>21838000</v>
+        <v>19847000</v>
       </c>
       <c r="H62" s="3">
-        <v>21450700</v>
+        <v>21143900</v>
       </c>
       <c r="I62" s="3">
-        <v>21285200</v>
+        <v>20768900</v>
       </c>
       <c r="J62" s="3">
+        <v>20608700</v>
+      </c>
+      <c r="K62" s="3">
         <v>21142000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22174100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22177200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21883800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22726000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22825400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22206200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21740200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40355000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21606000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21475400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21294000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20989200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21797200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>129537100</v>
+        <v>132612400</v>
       </c>
       <c r="E66" s="3">
-        <v>135210800</v>
+        <v>125420100</v>
       </c>
       <c r="F66" s="3">
-        <v>135698500</v>
+        <v>130913500</v>
       </c>
       <c r="G66" s="3">
-        <v>144698000</v>
+        <v>131385800</v>
       </c>
       <c r="H66" s="3">
-        <v>115646000</v>
+        <v>140099200</v>
       </c>
       <c r="I66" s="3">
-        <v>123357900</v>
+        <v>111970500</v>
       </c>
       <c r="J66" s="3">
+        <v>119437400</v>
+      </c>
+      <c r="K66" s="3">
         <v>122926200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>125660600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>121280500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>123114000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>125220500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119475700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114165700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112192700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112807400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>109849800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>108990500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>108974100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>108194900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>107689800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66482400</v>
+        <v>59487000</v>
       </c>
       <c r="E72" s="3">
-        <v>63516500</v>
+        <v>64369400</v>
       </c>
       <c r="F72" s="3">
-        <v>62269200</v>
+        <v>61497900</v>
       </c>
       <c r="G72" s="3">
-        <v>60434900</v>
+        <v>60290100</v>
       </c>
       <c r="H72" s="3">
-        <v>60503600</v>
+        <v>58514100</v>
       </c>
       <c r="I72" s="3">
-        <v>58130900</v>
+        <v>58580600</v>
       </c>
       <c r="J72" s="3">
+        <v>56283300</v>
+      </c>
+      <c r="K72" s="3">
         <v>57264500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58586300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58367600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55697400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57220900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55878100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54359500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57216800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55490700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55074400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54544700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52229600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>49904000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48738500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70621800</v>
+        <v>68220900</v>
       </c>
       <c r="E76" s="3">
-        <v>68146300</v>
+        <v>68377300</v>
       </c>
       <c r="F76" s="3">
-        <v>66627400</v>
+        <v>65980500</v>
       </c>
       <c r="G76" s="3">
-        <v>65526400</v>
+        <v>64509900</v>
       </c>
       <c r="H76" s="3">
-        <v>85715500</v>
+        <v>63443900</v>
       </c>
       <c r="I76" s="3">
-        <v>82974300</v>
+        <v>82991300</v>
       </c>
       <c r="J76" s="3">
+        <v>80337200</v>
+      </c>
+      <c r="K76" s="3">
         <v>79828300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83338500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83045900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83614300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89035800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87258700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>87610900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>82942000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>81927300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>84764000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>85352800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>82827500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>80295500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>78795200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2958800</v>
+        <v>3024000</v>
       </c>
       <c r="E81" s="3">
-        <v>2995300</v>
+        <v>2864800</v>
       </c>
       <c r="F81" s="3">
-        <v>748900</v>
+        <v>2900100</v>
       </c>
       <c r="G81" s="3">
-        <v>2551900</v>
+        <v>725100</v>
       </c>
       <c r="H81" s="3">
-        <v>2368800</v>
+        <v>2470800</v>
       </c>
       <c r="I81" s="3">
-        <v>2401900</v>
+        <v>2293500</v>
       </c>
       <c r="J81" s="3">
+        <v>2325600</v>
+      </c>
+      <c r="K81" s="3">
         <v>514400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2270700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2455000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2569700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2193900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2508100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2633800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1564900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2012000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2512900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2647500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1165500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1708600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3410300</v>
+        <v>3312200</v>
       </c>
       <c r="E83" s="3">
-        <v>3369800</v>
+        <v>3301900</v>
       </c>
       <c r="F83" s="3">
-        <v>3399100</v>
+        <v>3262700</v>
       </c>
       <c r="G83" s="3">
-        <v>3343700</v>
+        <v>3291100</v>
       </c>
       <c r="H83" s="3">
-        <v>3291100</v>
+        <v>3237500</v>
       </c>
       <c r="I83" s="3">
-        <v>3244100</v>
+        <v>3186500</v>
       </c>
       <c r="J83" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3330600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3326500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3323100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3302300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3296200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3154600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3074900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2958700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3035200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3068600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3003800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3364800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3250100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8122900</v>
+        <v>3303300</v>
       </c>
       <c r="E89" s="3">
-        <v>4999300</v>
+        <v>7864700</v>
       </c>
       <c r="F89" s="3">
-        <v>11550200</v>
+        <v>4840400</v>
       </c>
       <c r="G89" s="3">
-        <v>3585900</v>
+        <v>11183100</v>
       </c>
       <c r="H89" s="3">
-        <v>7126400</v>
+        <v>3472000</v>
       </c>
       <c r="I89" s="3">
-        <v>4247300</v>
+        <v>6899900</v>
       </c>
       <c r="J89" s="3">
+        <v>4112300</v>
+      </c>
+      <c r="K89" s="3">
         <v>11279800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1644300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9735800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4350900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7673800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3773500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7209000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3926000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7650900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6131900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5252800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4754300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10658100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2885700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3337600</v>
+        <v>-3413500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4543900</v>
+        <v>-3231500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4114700</v>
+        <v>-4399500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3649100</v>
+        <v>-3983900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3203700</v>
+        <v>-3533100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4848000</v>
+        <v>-3101800</v>
       </c>
       <c r="J91" s="3">
+        <v>-4693900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3427700</v>
+        <v>-3710400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5177400</v>
+        <v>-3318800</v>
       </c>
       <c r="F94" s="3">
-        <v>754200</v>
+        <v>-5012800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2904900</v>
+        <v>730200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3313200</v>
+        <v>-2812600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7086200</v>
+        <v>-3207900</v>
       </c>
       <c r="J94" s="3">
+        <v>-6861000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1686800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1755000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1699300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1636900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1584900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1521200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1472900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6776400</v>
+        <v>-321300</v>
       </c>
       <c r="E100" s="3">
-        <v>1958700</v>
+        <v>-6561100</v>
       </c>
       <c r="F100" s="3">
-        <v>-16128700</v>
+        <v>1896500</v>
       </c>
       <c r="G100" s="3">
-        <v>2432700</v>
+        <v>-15616100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4377400</v>
+        <v>2355400</v>
       </c>
       <c r="I100" s="3">
-        <v>3188500</v>
+        <v>-4238300</v>
       </c>
       <c r="J100" s="3">
+        <v>3087200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2601900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>115000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>138900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1473800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>616100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19100</v>
+        <v>55700</v>
       </c>
       <c r="E101" s="3">
-        <v>12700</v>
+        <v>18500</v>
       </c>
       <c r="F101" s="3">
-        <v>149000</v>
+        <v>12300</v>
       </c>
       <c r="G101" s="3">
-        <v>-60600</v>
+        <v>144300</v>
       </c>
       <c r="H101" s="3">
-        <v>-19000</v>
+        <v>-58700</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>-18400</v>
       </c>
       <c r="J101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-75300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>60900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-76500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>31800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-71700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>51100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>88300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2062200</v>
+        <v>-672600</v>
       </c>
       <c r="E102" s="3">
-        <v>1793400</v>
+        <v>-1996700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3675200</v>
+        <v>1736400</v>
       </c>
       <c r="G102" s="3">
-        <v>3053100</v>
+        <v>-3558400</v>
       </c>
       <c r="H102" s="3">
-        <v>-583200</v>
+        <v>2956100</v>
       </c>
       <c r="I102" s="3">
-        <v>343200</v>
+        <v>-564600</v>
       </c>
       <c r="J102" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1392900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-478200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-859600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>690300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>362800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>176900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>859700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-889900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>124000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-669700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>776300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2309600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25893500</v>
+        <v>25186800</v>
       </c>
       <c r="E8" s="3">
-        <v>25548000</v>
+        <v>23647200</v>
       </c>
       <c r="F8" s="3">
-        <v>24673600</v>
+        <v>23331600</v>
       </c>
       <c r="G8" s="3">
-        <v>27346800</v>
+        <v>22533100</v>
       </c>
       <c r="H8" s="3">
-        <v>25817300</v>
+        <v>24974400</v>
       </c>
       <c r="I8" s="3">
-        <v>25120100</v>
+        <v>23577500</v>
       </c>
       <c r="J8" s="3">
+        <v>22940800</v>
+      </c>
+      <c r="K8" s="3">
         <v>23597900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26753500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27085300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27332100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26705400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29643300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28339000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27316900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25931300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27821100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27624000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26057300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25390800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26880700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25156800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,29 +876,32 @@
       <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3">
         <v>14315900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13646700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12122500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11756500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14418700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12033700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,29 +950,32 @@
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
         <v>13505200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13977300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13934700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13634400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>12462000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13123100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,150 +1147,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>213300</v>
+        <v>714400</v>
       </c>
       <c r="E14" s="3">
-        <v>222800</v>
+        <v>194800</v>
       </c>
       <c r="F14" s="3">
-        <v>232800</v>
+        <v>203500</v>
       </c>
       <c r="G14" s="3">
-        <v>768400</v>
+        <v>212600</v>
       </c>
       <c r="H14" s="3">
-        <v>381700</v>
+        <v>701800</v>
       </c>
       <c r="I14" s="3">
-        <v>222900</v>
+        <v>348600</v>
       </c>
       <c r="J14" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K14" s="3">
         <v>184200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>886600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>316400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>277500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>207800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1326000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>957400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>243400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>167300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2970900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>332400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>246800</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3312200</v>
+        <v>3141500</v>
       </c>
       <c r="E15" s="3">
-        <v>3301900</v>
+        <v>3024900</v>
       </c>
       <c r="F15" s="3">
-        <v>3262700</v>
+        <v>3015500</v>
       </c>
       <c r="G15" s="3">
-        <v>3291100</v>
+        <v>2979700</v>
       </c>
       <c r="H15" s="3">
-        <v>3237500</v>
+        <v>3005500</v>
       </c>
       <c r="I15" s="3">
-        <v>3186500</v>
+        <v>2956600</v>
       </c>
       <c r="J15" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="K15" s="3">
         <v>3141000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3330600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3326500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3323100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3302300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3296200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3154600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3074900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2958700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3108500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6102700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5974800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5995600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3364800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3683200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21369200</v>
+        <v>23403500</v>
       </c>
       <c r="E17" s="3">
-        <v>21086800</v>
+        <v>19515400</v>
       </c>
       <c r="F17" s="3">
-        <v>20525700</v>
+        <v>19257500</v>
       </c>
       <c r="G17" s="3">
-        <v>25904700</v>
+        <v>18745000</v>
       </c>
       <c r="H17" s="3">
-        <v>21605600</v>
+        <v>23657400</v>
       </c>
       <c r="I17" s="3">
-        <v>20761300</v>
+        <v>19731300</v>
       </c>
       <c r="J17" s="3">
+        <v>18960200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19353500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25769300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22825300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22942900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22077800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28041200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24030900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22360500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21047900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24898500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24267800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21413500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20647900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24918300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21679200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4524200</v>
+        <v>1783300</v>
       </c>
       <c r="E18" s="3">
-        <v>4461200</v>
+        <v>4131800</v>
       </c>
       <c r="F18" s="3">
-        <v>4147900</v>
+        <v>4074200</v>
       </c>
       <c r="G18" s="3">
-        <v>1442100</v>
+        <v>3788100</v>
       </c>
       <c r="H18" s="3">
-        <v>4211700</v>
+        <v>1317000</v>
       </c>
       <c r="I18" s="3">
-        <v>4358800</v>
+        <v>3846300</v>
       </c>
       <c r="J18" s="3">
+        <v>3980600</v>
+      </c>
+      <c r="K18" s="3">
         <v>4244400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>984300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4260000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4389200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4627600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1602100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4308200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4956500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4883400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2922500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3356200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4643800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4742900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1962400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3477700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1498,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70600</v>
+        <v>98500</v>
       </c>
       <c r="E20" s="3">
-        <v>-34000</v>
+        <v>64400</v>
       </c>
       <c r="F20" s="3">
-        <v>85400</v>
+        <v>-31100</v>
       </c>
       <c r="G20" s="3">
-        <v>-98800</v>
+        <v>78000</v>
       </c>
       <c r="H20" s="3">
-        <v>-31700</v>
+        <v>-90300</v>
       </c>
       <c r="I20" s="3">
-        <v>-21700</v>
+        <v>-28900</v>
       </c>
       <c r="J20" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>197800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-242800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>49300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1123500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>78400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>103800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>79200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>236000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7907000</v>
+        <v>5023400</v>
       </c>
       <c r="E21" s="3">
-        <v>7729100</v>
+        <v>7221100</v>
       </c>
       <c r="F21" s="3">
-        <v>7496000</v>
+        <v>7058600</v>
       </c>
       <c r="G21" s="3">
-        <v>4634300</v>
+        <v>6845700</v>
       </c>
       <c r="H21" s="3">
-        <v>7417400</v>
+        <v>4232300</v>
       </c>
       <c r="I21" s="3">
-        <v>7523500</v>
+        <v>6773900</v>
       </c>
       <c r="J21" s="3">
+        <v>6870900</v>
+      </c>
+      <c r="K21" s="3">
         <v>7377200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4232300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7571100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7689000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8127700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4655400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7422400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8051200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7891400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5939100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7548400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7734900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7838500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5406400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6963800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,8 +1679,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1658,171 +1697,180 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>62500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>78700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>74500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>75300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>85100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>74400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4594800</v>
+        <v>1881800</v>
       </c>
       <c r="E23" s="3">
-        <v>4427200</v>
+        <v>4196200</v>
       </c>
       <c r="F23" s="3">
-        <v>4233300</v>
+        <v>4043100</v>
       </c>
       <c r="G23" s="3">
-        <v>1343300</v>
+        <v>3866000</v>
       </c>
       <c r="H23" s="3">
-        <v>4180000</v>
+        <v>1226800</v>
       </c>
       <c r="I23" s="3">
-        <v>4337100</v>
+        <v>3817300</v>
       </c>
       <c r="J23" s="3">
+        <v>3960800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4236200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>901800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4244600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4365900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4825300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1359200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4267900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4976300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4932700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2841400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4401100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4647600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4771400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1956500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3639300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1418700</v>
+        <v>555200</v>
       </c>
       <c r="E24" s="3">
-        <v>1379100</v>
+        <v>1295700</v>
       </c>
       <c r="F24" s="3">
-        <v>1196400</v>
+        <v>1259500</v>
       </c>
       <c r="G24" s="3">
-        <v>610000</v>
+        <v>1092600</v>
       </c>
       <c r="H24" s="3">
-        <v>1228100</v>
+        <v>557100</v>
       </c>
       <c r="I24" s="3">
-        <v>1365300</v>
+        <v>1121500</v>
       </c>
       <c r="J24" s="3">
+        <v>1246800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1272500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>152100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1332200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1217500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1491500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>365800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1302600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1763500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1520700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>761900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1444900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1463800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1466700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>386100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1271900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3176100</v>
+        <v>1326700</v>
       </c>
       <c r="E26" s="3">
-        <v>3048000</v>
+        <v>2900500</v>
       </c>
       <c r="F26" s="3">
-        <v>3036900</v>
+        <v>2783600</v>
       </c>
       <c r="G26" s="3">
-        <v>733300</v>
+        <v>2773400</v>
       </c>
       <c r="H26" s="3">
-        <v>2951900</v>
+        <v>669700</v>
       </c>
       <c r="I26" s="3">
-        <v>2971800</v>
+        <v>2695800</v>
       </c>
       <c r="J26" s="3">
+        <v>2714000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2963700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>749700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2912400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3148500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3333900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>993500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2965200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3212800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3412000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2079500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2956200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3183800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3304700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1570400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2367400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3024000</v>
+        <v>1174200</v>
       </c>
       <c r="E27" s="3">
-        <v>2864800</v>
+        <v>2761700</v>
       </c>
       <c r="F27" s="3">
-        <v>2900100</v>
+        <v>2616200</v>
       </c>
       <c r="G27" s="3">
-        <v>725100</v>
+        <v>2648500</v>
       </c>
       <c r="H27" s="3">
-        <v>2470800</v>
+        <v>662200</v>
       </c>
       <c r="I27" s="3">
-        <v>2293500</v>
+        <v>2256500</v>
       </c>
       <c r="J27" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2325600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>514400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2270700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2455000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2569700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2193900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2508100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2633800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1564900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2012000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2512900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2647500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1165500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1708600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70600</v>
+        <v>-98500</v>
       </c>
       <c r="E32" s="3">
-        <v>34000</v>
+        <v>-64400</v>
       </c>
       <c r="F32" s="3">
-        <v>-85400</v>
+        <v>31100</v>
       </c>
       <c r="G32" s="3">
-        <v>98800</v>
+        <v>-78000</v>
       </c>
       <c r="H32" s="3">
-        <v>31700</v>
+        <v>90300</v>
       </c>
       <c r="I32" s="3">
-        <v>21700</v>
+        <v>28900</v>
       </c>
       <c r="J32" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-197800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>242800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>40300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-49300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-78400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-103800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-79200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-236000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3024000</v>
+        <v>1174200</v>
       </c>
       <c r="E33" s="3">
-        <v>2864800</v>
+        <v>2761700</v>
       </c>
       <c r="F33" s="3">
-        <v>2900100</v>
+        <v>2616200</v>
       </c>
       <c r="G33" s="3">
-        <v>725100</v>
+        <v>2648500</v>
       </c>
       <c r="H33" s="3">
-        <v>2470800</v>
+        <v>662200</v>
       </c>
       <c r="I33" s="3">
-        <v>2293500</v>
+        <v>2256500</v>
       </c>
       <c r="J33" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2325600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>514400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2270700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2455000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2569700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2193900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2508100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2633800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1564900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2012000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2512900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2647500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1165500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1708600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3024000</v>
+        <v>1174200</v>
       </c>
       <c r="E35" s="3">
-        <v>2864800</v>
+        <v>2761700</v>
       </c>
       <c r="F35" s="3">
-        <v>2900100</v>
+        <v>2616200</v>
       </c>
       <c r="G35" s="3">
-        <v>725100</v>
+        <v>2648500</v>
       </c>
       <c r="H35" s="3">
-        <v>2470800</v>
+        <v>662200</v>
       </c>
       <c r="I35" s="3">
-        <v>2293500</v>
+        <v>2256500</v>
       </c>
       <c r="J35" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2325600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>514400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2270700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2455000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2569700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2193900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2508100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2633800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1564900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2012000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2512900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2647500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1165500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1708600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,647 +2817,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7048900</v>
+        <v>6501300</v>
       </c>
       <c r="E41" s="3">
-        <v>7721500</v>
+        <v>6437400</v>
       </c>
       <c r="F41" s="3">
-        <v>9718200</v>
+        <v>7051700</v>
       </c>
       <c r="G41" s="3">
-        <v>7981800</v>
+        <v>8875100</v>
       </c>
       <c r="H41" s="3">
-        <v>11540200</v>
+        <v>7289300</v>
       </c>
       <c r="I41" s="3">
-        <v>8584100</v>
+        <v>10539000</v>
       </c>
       <c r="J41" s="3">
+        <v>7839400</v>
+      </c>
+      <c r="K41" s="3">
         <v>9148700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9105800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7975500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8527900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9356900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9092300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8575100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8264800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7245700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15144700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6929900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7599600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8690400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8206600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5897100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>437100</v>
+        <v>689000</v>
       </c>
       <c r="E42" s="3">
-        <v>451400</v>
+        <v>399200</v>
       </c>
       <c r="F42" s="3">
-        <v>513400</v>
+        <v>412200</v>
       </c>
       <c r="G42" s="3">
-        <v>356000</v>
+        <v>468900</v>
       </c>
       <c r="H42" s="3">
-        <v>5163500</v>
+        <v>325100</v>
       </c>
       <c r="I42" s="3">
-        <v>6443100</v>
+        <v>4715600</v>
       </c>
       <c r="J42" s="3">
+        <v>5884200</v>
+      </c>
+      <c r="K42" s="3">
         <v>305000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>285300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1174300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1041400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>998300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1131600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1158300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1087400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1160200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1401100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>398600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1303600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>786800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>566300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>677900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30629700</v>
+        <v>28082600</v>
       </c>
       <c r="E43" s="3">
-        <v>25435000</v>
+        <v>27972500</v>
       </c>
       <c r="F43" s="3">
-        <v>26559200</v>
+        <v>23228400</v>
       </c>
       <c r="G43" s="3">
-        <v>30149800</v>
+        <v>24255100</v>
       </c>
       <c r="H43" s="3">
-        <v>32079100</v>
+        <v>27534200</v>
       </c>
       <c r="I43" s="3">
-        <v>27861000</v>
+        <v>29296100</v>
       </c>
       <c r="J43" s="3">
+        <v>25444000</v>
+      </c>
+      <c r="K43" s="3">
         <v>27582500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30860000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41217200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37411000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38645800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42201700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>39166800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36843100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34757800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68781300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31235300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29446200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>26375400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>27995700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29108000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2999800</v>
+        <v>3181100</v>
       </c>
       <c r="E44" s="3">
-        <v>2823200</v>
+        <v>2739500</v>
       </c>
       <c r="F44" s="3">
-        <v>2824100</v>
+        <v>2578300</v>
       </c>
       <c r="G44" s="3">
-        <v>2690700</v>
+        <v>2579100</v>
       </c>
       <c r="H44" s="3">
-        <v>3074200</v>
+        <v>2457300</v>
       </c>
       <c r="I44" s="3">
-        <v>2587700</v>
+        <v>2807500</v>
       </c>
       <c r="J44" s="3">
+        <v>2363200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2630700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2267100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2818000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2453800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2786700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3187000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4045200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3198000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3250000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6759800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4153400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3497200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3655500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3240900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3875200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6157700</v>
+        <v>6078300</v>
       </c>
       <c r="E45" s="3">
-        <v>5825900</v>
+        <v>5623500</v>
       </c>
       <c r="F45" s="3">
-        <v>6044700</v>
+        <v>5320500</v>
       </c>
       <c r="G45" s="3">
-        <v>4255800</v>
+        <v>5520300</v>
       </c>
       <c r="H45" s="3">
-        <v>5561200</v>
+        <v>3886600</v>
       </c>
       <c r="I45" s="3">
-        <v>5362500</v>
+        <v>5078800</v>
       </c>
       <c r="J45" s="3">
+        <v>4897300</v>
+      </c>
+      <c r="K45" s="3">
         <v>17876500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16539700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5436400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5317700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6432000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7620800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7330500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7113200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5420500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9493000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5634700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5426600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6214100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7111600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7980800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47273200</v>
+        <v>44532300</v>
       </c>
       <c r="E46" s="3">
-        <v>42257100</v>
+        <v>43172100</v>
       </c>
       <c r="F46" s="3">
-        <v>45659600</v>
+        <v>38591200</v>
       </c>
       <c r="G46" s="3">
-        <v>45434000</v>
+        <v>41698500</v>
       </c>
       <c r="H46" s="3">
-        <v>57418200</v>
+        <v>41492400</v>
       </c>
       <c r="I46" s="3">
-        <v>50838400</v>
+        <v>52437000</v>
       </c>
       <c r="J46" s="3">
+        <v>46428000</v>
+      </c>
+      <c r="K46" s="3">
         <v>57543400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59057800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58621500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54751800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>58219800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63233500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>60275800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>56506500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>51834100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53057200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>48351800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47273300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45722100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47121200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>47539100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16843200</v>
+        <v>14458000</v>
       </c>
       <c r="E47" s="3">
-        <v>17056900</v>
+        <v>15382000</v>
       </c>
       <c r="F47" s="3">
-        <v>16629300</v>
+        <v>15577200</v>
       </c>
       <c r="G47" s="3">
-        <v>16436900</v>
+        <v>15186600</v>
       </c>
       <c r="H47" s="3">
-        <v>15766000</v>
+        <v>15011000</v>
       </c>
       <c r="I47" s="3">
-        <v>14316400</v>
+        <v>14398200</v>
       </c>
       <c r="J47" s="3">
+        <v>13074400</v>
+      </c>
+      <c r="K47" s="3">
         <v>12768700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9951600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14218700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13411900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13511100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13807300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13538500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13687300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14984100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23831700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9577600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9086300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8923400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8691600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8571600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>95840200</v>
+        <v>87699700</v>
       </c>
       <c r="E48" s="3">
-        <v>95194900</v>
+        <v>87525800</v>
       </c>
       <c r="F48" s="3">
-        <v>95197700</v>
+        <v>86936500</v>
       </c>
       <c r="G48" s="3">
-        <v>94722500</v>
+        <v>86939100</v>
       </c>
       <c r="H48" s="3">
-        <v>92711100</v>
+        <v>86505000</v>
       </c>
       <c r="I48" s="3">
-        <v>92222700</v>
+        <v>84668100</v>
       </c>
       <c r="J48" s="3">
+        <v>84222100</v>
+      </c>
+      <c r="K48" s="3">
         <v>91460600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>93742200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95995400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>96175900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95402300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95907300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>92625800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>91769200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>89134300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>177505500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87753100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>88621500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87913000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86207700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84650400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25899900</v>
+        <v>24654000</v>
       </c>
       <c r="E49" s="3">
-        <v>24570300</v>
+        <v>23653000</v>
       </c>
       <c r="F49" s="3">
-        <v>24564900</v>
+        <v>22438800</v>
       </c>
       <c r="G49" s="3">
-        <v>24072000</v>
+        <v>22433800</v>
       </c>
       <c r="H49" s="3">
-        <v>22956300</v>
+        <v>21983700</v>
       </c>
       <c r="I49" s="3">
-        <v>22578700</v>
+        <v>20964800</v>
       </c>
       <c r="J49" s="3">
+        <v>20619900</v>
+      </c>
+      <c r="K49" s="3">
         <v>22665300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23565900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24100000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23505500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23186600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24162400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23906500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23809200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23033500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>48621500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26804000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26981900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26837400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26415300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>25833000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14976900</v>
+        <v>14542900</v>
       </c>
       <c r="E52" s="3">
-        <v>14718200</v>
+        <v>13677600</v>
       </c>
       <c r="F52" s="3">
-        <v>14842500</v>
+        <v>13441300</v>
       </c>
       <c r="G52" s="3">
-        <v>15230300</v>
+        <v>13554800</v>
       </c>
       <c r="H52" s="3">
-        <v>14691600</v>
+        <v>13909000</v>
       </c>
       <c r="I52" s="3">
-        <v>15005600</v>
+        <v>13417000</v>
       </c>
       <c r="J52" s="3">
+        <v>13703800</v>
+      </c>
+      <c r="K52" s="3">
         <v>15336600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16437000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16063700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16481200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16408400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17145900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16387700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16004400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16148700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30822500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22127200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22380200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22405700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20054600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19890900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200833300</v>
+        <v>185886900</v>
       </c>
       <c r="E54" s="3">
-        <v>193797400</v>
+        <v>183410500</v>
       </c>
       <c r="F54" s="3">
-        <v>196894000</v>
+        <v>176985000</v>
       </c>
       <c r="G54" s="3">
-        <v>195895600</v>
+        <v>179812900</v>
       </c>
       <c r="H54" s="3">
-        <v>203543100</v>
+        <v>178901200</v>
       </c>
       <c r="I54" s="3">
-        <v>194961800</v>
+        <v>185885200</v>
       </c>
       <c r="J54" s="3">
+        <v>178048300</v>
+      </c>
+      <c r="K54" s="3">
         <v>199774600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202754500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>208999200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>204326400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>206728300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>214256400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206734400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>201776600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>195134800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>194734700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>194613800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>194343300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>191801600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>188490400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>186485000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18096800</v>
+        <v>19477700</v>
       </c>
       <c r="E57" s="3">
-        <v>15745100</v>
+        <v>16526900</v>
       </c>
       <c r="F57" s="3">
-        <v>17021000</v>
+        <v>14379200</v>
       </c>
       <c r="G57" s="3">
-        <v>20102700</v>
+        <v>15544400</v>
       </c>
       <c r="H57" s="3">
-        <v>26393600</v>
+        <v>18358700</v>
       </c>
       <c r="I57" s="3">
-        <v>14846800</v>
+        <v>24103900</v>
       </c>
       <c r="J57" s="3">
+        <v>13558800</v>
+      </c>
+      <c r="K57" s="3">
         <v>15530900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18877600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15531100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15365600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15442400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20108700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15250500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13794100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13731500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16378000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12341800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11209100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10462900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14307300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10823200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18281500</v>
+        <v>14304800</v>
       </c>
       <c r="E58" s="3">
-        <v>19228900</v>
+        <v>16695600</v>
       </c>
       <c r="F58" s="3">
-        <v>33384900</v>
+        <v>17560700</v>
       </c>
       <c r="G58" s="3">
-        <v>28682400</v>
+        <v>30488700</v>
       </c>
       <c r="H58" s="3">
-        <v>44690400</v>
+        <v>26194100</v>
       </c>
       <c r="I58" s="3">
-        <v>19798000</v>
+        <v>40813400</v>
       </c>
       <c r="J58" s="3">
+        <v>18080500</v>
+      </c>
+      <c r="K58" s="3">
         <v>21988600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19458000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21904900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16681400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18869500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13565300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15598300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10476900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14238400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15416900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8838000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8994300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9532100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8191800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9374100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13542700</v>
+        <v>14972400</v>
       </c>
       <c r="E59" s="3">
-        <v>13548900</v>
+        <v>12367800</v>
       </c>
       <c r="F59" s="3">
-        <v>12751300</v>
+        <v>12373500</v>
       </c>
       <c r="G59" s="3">
-        <v>14560100</v>
+        <v>11645100</v>
       </c>
       <c r="H59" s="3">
-        <v>12776200</v>
+        <v>13297000</v>
       </c>
       <c r="I59" s="3">
-        <v>13466600</v>
+        <v>11667800</v>
       </c>
       <c r="J59" s="3">
+        <v>12298300</v>
+      </c>
+      <c r="K59" s="3">
         <v>17491000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19877400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13620000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14530600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14313800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16567700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14876600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15946100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14009300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19934300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14207200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14711400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15808300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14146400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14897400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49921000</v>
+        <v>48754800</v>
       </c>
       <c r="E60" s="3">
-        <v>48522800</v>
+        <v>45590300</v>
       </c>
       <c r="F60" s="3">
-        <v>63157300</v>
+        <v>44313400</v>
       </c>
       <c r="G60" s="3">
-        <v>63345200</v>
+        <v>57678200</v>
       </c>
       <c r="H60" s="3">
-        <v>83860200</v>
+        <v>57849800</v>
       </c>
       <c r="I60" s="3">
-        <v>48111400</v>
+        <v>76585100</v>
       </c>
       <c r="J60" s="3">
+        <v>43937600</v>
+      </c>
+      <c r="K60" s="3">
         <v>55010500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>58213100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51055900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46577600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48625600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50241800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45725300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40217100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41979300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41786800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35387100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34914900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35803300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>36645500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35094700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56349600</v>
+        <v>49647200</v>
       </c>
       <c r="E61" s="3">
-        <v>51041800</v>
+        <v>51461100</v>
       </c>
       <c r="F61" s="3">
-        <v>42241700</v>
+        <v>46613800</v>
       </c>
       <c r="G61" s="3">
-        <v>42731500</v>
+        <v>38577100</v>
       </c>
       <c r="H61" s="3">
-        <v>29903400</v>
+        <v>39024500</v>
       </c>
       <c r="I61" s="3">
-        <v>21739800</v>
+        <v>27309200</v>
       </c>
       <c r="J61" s="3">
+        <v>19853800</v>
+      </c>
+      <c r="K61" s="3">
         <v>23192800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22413700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29780700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29372500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29574300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27844600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27448700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27278100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25389200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28423700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28726400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28965100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>29015900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28331200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29049600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20343400</v>
+        <v>17233600</v>
       </c>
       <c r="E62" s="3">
-        <v>20026700</v>
+        <v>18578600</v>
       </c>
       <c r="F62" s="3">
-        <v>19988800</v>
+        <v>18289400</v>
       </c>
       <c r="G62" s="3">
-        <v>19847000</v>
+        <v>18254700</v>
       </c>
       <c r="H62" s="3">
-        <v>21143900</v>
+        <v>18125200</v>
       </c>
       <c r="I62" s="3">
-        <v>20768900</v>
+        <v>19309600</v>
       </c>
       <c r="J62" s="3">
+        <v>18967200</v>
+      </c>
+      <c r="K62" s="3">
         <v>20608700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21142000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22174100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22177200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21883800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22726000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22825400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22206200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21740200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40355000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21606000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21475400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21294000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20989200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21797200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>132612400</v>
+        <v>121366500</v>
       </c>
       <c r="E66" s="3">
-        <v>125420100</v>
+        <v>121107900</v>
       </c>
       <c r="F66" s="3">
-        <v>130913500</v>
+        <v>114539600</v>
       </c>
       <c r="G66" s="3">
-        <v>131385800</v>
+        <v>119556400</v>
       </c>
       <c r="H66" s="3">
-        <v>140099200</v>
+        <v>119987700</v>
       </c>
       <c r="I66" s="3">
-        <v>111970500</v>
+        <v>127945200</v>
       </c>
       <c r="J66" s="3">
+        <v>102256800</v>
+      </c>
+      <c r="K66" s="3">
         <v>119437400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>122926200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>125660600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>121280500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>123114000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>125220500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>119475700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>114165700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112192700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112807400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>109849800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>108990500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>108974100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>108194900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>107689800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59487000</v>
+        <v>56819600</v>
       </c>
       <c r="E72" s="3">
-        <v>64369400</v>
+        <v>54326400</v>
       </c>
       <c r="F72" s="3">
-        <v>61497900</v>
+        <v>58785200</v>
       </c>
       <c r="G72" s="3">
-        <v>60290100</v>
+        <v>56162800</v>
       </c>
       <c r="H72" s="3">
-        <v>58514100</v>
+        <v>55059800</v>
       </c>
       <c r="I72" s="3">
-        <v>58580600</v>
+        <v>53437900</v>
       </c>
       <c r="J72" s="3">
+        <v>53498600</v>
+      </c>
+      <c r="K72" s="3">
         <v>56283300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57264500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58586300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58367600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55697400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57220900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55878100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54359500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>57216800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55490700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55074400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54544700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52229600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>49904000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48738500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68220900</v>
+        <v>64520300</v>
       </c>
       <c r="E76" s="3">
-        <v>68377300</v>
+        <v>62302600</v>
       </c>
       <c r="F76" s="3">
-        <v>65980500</v>
+        <v>62445400</v>
       </c>
       <c r="G76" s="3">
-        <v>64509900</v>
+        <v>60256500</v>
       </c>
       <c r="H76" s="3">
-        <v>63443900</v>
+        <v>58913500</v>
       </c>
       <c r="I76" s="3">
-        <v>82991300</v>
+        <v>57939900</v>
       </c>
       <c r="J76" s="3">
+        <v>75791500</v>
+      </c>
+      <c r="K76" s="3">
         <v>80337200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79828300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83338500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83045900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83614300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89035800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>87258700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>87610900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>82942000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>81927300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>84764000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>85352800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>82827500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>80295500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>78795200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3024000</v>
+        <v>1174200</v>
       </c>
       <c r="E81" s="3">
-        <v>2864800</v>
+        <v>2761700</v>
       </c>
       <c r="F81" s="3">
-        <v>2900100</v>
+        <v>2616200</v>
       </c>
       <c r="G81" s="3">
-        <v>725100</v>
+        <v>2648500</v>
       </c>
       <c r="H81" s="3">
-        <v>2470800</v>
+        <v>662200</v>
       </c>
       <c r="I81" s="3">
-        <v>2293500</v>
+        <v>2256500</v>
       </c>
       <c r="J81" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2325600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>514400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2270700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2455000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2569700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2193900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2508100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2633800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1564900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2012000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2512900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2647500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1165500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1708600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3312200</v>
+        <v>3141500</v>
       </c>
       <c r="E83" s="3">
-        <v>3301900</v>
+        <v>3024900</v>
       </c>
       <c r="F83" s="3">
-        <v>3262700</v>
+        <v>3015500</v>
       </c>
       <c r="G83" s="3">
-        <v>3291100</v>
+        <v>2979700</v>
       </c>
       <c r="H83" s="3">
-        <v>3237500</v>
+        <v>3005500</v>
       </c>
       <c r="I83" s="3">
-        <v>3186500</v>
+        <v>2956600</v>
       </c>
       <c r="J83" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3141000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3330600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3326500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3323100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3302300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3296200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3154600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3074900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2958700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3035200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3068600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3000700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3003800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3364800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3250100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3303300</v>
+        <v>8830200</v>
       </c>
       <c r="E89" s="3">
-        <v>7864700</v>
+        <v>3016700</v>
       </c>
       <c r="F89" s="3">
-        <v>4840400</v>
+        <v>7182400</v>
       </c>
       <c r="G89" s="3">
-        <v>11183100</v>
+        <v>4420500</v>
       </c>
       <c r="H89" s="3">
-        <v>3472000</v>
+        <v>10213000</v>
       </c>
       <c r="I89" s="3">
-        <v>6899900</v>
+        <v>3170800</v>
       </c>
       <c r="J89" s="3">
+        <v>6301300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4112300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11279800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1644300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9735800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4350900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7673800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3773500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7209000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3926000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7650900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6131900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5252800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4754300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10658100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2885700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3413500</v>
+        <v>-3608800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3231500</v>
+        <v>-3117400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4399500</v>
+        <v>-2951200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3983900</v>
+        <v>-4017900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3533100</v>
+        <v>-3638300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3101800</v>
+        <v>-3226600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2832700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3710400</v>
+        <v>-2239100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3318800</v>
+        <v>-3388500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5012800</v>
+        <v>-3030800</v>
       </c>
       <c r="G94" s="3">
-        <v>730200</v>
+        <v>-4577900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2812600</v>
+        <v>666800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3207900</v>
+        <v>-2568600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2929600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1686800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1540500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1699300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1551900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1584900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1447400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321300</v>
+        <v>-6649700</v>
       </c>
       <c r="E100" s="3">
-        <v>-6561100</v>
+        <v>-293400</v>
       </c>
       <c r="F100" s="3">
-        <v>1896500</v>
+        <v>-5991900</v>
       </c>
       <c r="G100" s="3">
-        <v>-15616100</v>
+        <v>1732000</v>
       </c>
       <c r="H100" s="3">
-        <v>2355400</v>
+        <v>-14261300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4238300</v>
+        <v>2151000</v>
       </c>
       <c r="J100" s="3">
+        <v>-3870600</v>
+      </c>
+      <c r="K100" s="3">
         <v>3087200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2601900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>115000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>138900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1473800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>616100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55700</v>
+        <v>122400</v>
       </c>
       <c r="E101" s="3">
-        <v>18500</v>
+        <v>50900</v>
       </c>
       <c r="F101" s="3">
-        <v>12300</v>
+        <v>16900</v>
       </c>
       <c r="G101" s="3">
-        <v>144300</v>
+        <v>11300</v>
       </c>
       <c r="H101" s="3">
-        <v>-58700</v>
+        <v>131800</v>
       </c>
       <c r="I101" s="3">
-        <v>-18400</v>
+        <v>-53600</v>
       </c>
       <c r="J101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-75300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>60900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-32900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-76500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>31800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-71700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>51100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>88300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-672600</v>
+        <v>63900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1996700</v>
+        <v>-614300</v>
       </c>
       <c r="F102" s="3">
-        <v>1736400</v>
+        <v>-1823500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3558400</v>
+        <v>1585800</v>
       </c>
       <c r="H102" s="3">
-        <v>2956100</v>
+        <v>-3249700</v>
       </c>
       <c r="I102" s="3">
-        <v>-564600</v>
+        <v>2699700</v>
       </c>
       <c r="J102" s="3">
+        <v>-515600</v>
+      </c>
+      <c r="K102" s="3">
         <v>332300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1392900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-478200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-859600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>690300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>362800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>176900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>859700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-889900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>124000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-669700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>776300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2309600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25186800</v>
+        <v>22494800</v>
       </c>
       <c r="E8" s="3">
-        <v>23647200</v>
+        <v>23699500</v>
       </c>
       <c r="F8" s="3">
-        <v>23331600</v>
+        <v>22250800</v>
       </c>
       <c r="G8" s="3">
-        <v>22533100</v>
+        <v>21953900</v>
       </c>
       <c r="H8" s="3">
-        <v>24974400</v>
+        <v>21202500</v>
       </c>
       <c r="I8" s="3">
-        <v>23577500</v>
+        <v>23499700</v>
       </c>
       <c r="J8" s="3">
+        <v>22185300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22940800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23597900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26753500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27085300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27332100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26705400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29643300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28339000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27316900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25931300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27821100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27624000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26057300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25390800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26880700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>25156800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,29 +885,32 @@
       <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="3">
         <v>14315900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13646700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12122500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11756500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14418700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12033700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,29 +962,32 @@
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
         <v>13505200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13977300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13934700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13634400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12462000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13123100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,156 +1166,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>714400</v>
+        <v>160300</v>
       </c>
       <c r="E14" s="3">
-        <v>194800</v>
+        <v>672200</v>
       </c>
       <c r="F14" s="3">
-        <v>203500</v>
+        <v>183300</v>
       </c>
       <c r="G14" s="3">
-        <v>212600</v>
+        <v>191400</v>
       </c>
       <c r="H14" s="3">
-        <v>701800</v>
+        <v>200000</v>
       </c>
       <c r="I14" s="3">
-        <v>348600</v>
+        <v>660300</v>
       </c>
       <c r="J14" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K14" s="3">
         <v>203600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>184200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>886600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>316400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>277500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>207800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>957400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>243400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>167300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2970900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>332400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>246800</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3141500</v>
+        <v>2856100</v>
       </c>
       <c r="E15" s="3">
-        <v>3024900</v>
+        <v>2956000</v>
       </c>
       <c r="F15" s="3">
-        <v>3015500</v>
+        <v>2846300</v>
       </c>
       <c r="G15" s="3">
-        <v>2979700</v>
+        <v>2837400</v>
       </c>
       <c r="H15" s="3">
-        <v>3005500</v>
+        <v>2803700</v>
       </c>
       <c r="I15" s="3">
-        <v>2956600</v>
+        <v>2828100</v>
       </c>
       <c r="J15" s="3">
+        <v>2782000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2910000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3141000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3330600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3326500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3323100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3302300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3296200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3154600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3074900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2958700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3108500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6102700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5974800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5995600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3364800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3683200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23403500</v>
+        <v>18805300</v>
       </c>
       <c r="E17" s="3">
-        <v>19515400</v>
+        <v>22021500</v>
       </c>
       <c r="F17" s="3">
-        <v>19257500</v>
+        <v>18363000</v>
       </c>
       <c r="G17" s="3">
-        <v>18745000</v>
+        <v>18120300</v>
       </c>
       <c r="H17" s="3">
-        <v>23657400</v>
+        <v>17638100</v>
       </c>
       <c r="I17" s="3">
-        <v>19731300</v>
+        <v>22260400</v>
       </c>
       <c r="J17" s="3">
+        <v>18566100</v>
+      </c>
+      <c r="K17" s="3">
         <v>18960200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19353500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25769300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22825300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22942900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22077800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28041200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24030900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22360500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21047900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24898500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24267800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21413500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20647900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24918300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21679200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1783300</v>
+        <v>3689600</v>
       </c>
       <c r="E18" s="3">
-        <v>4131800</v>
+        <v>1678000</v>
       </c>
       <c r="F18" s="3">
-        <v>4074200</v>
+        <v>3887800</v>
       </c>
       <c r="G18" s="3">
-        <v>3788100</v>
+        <v>3833600</v>
       </c>
       <c r="H18" s="3">
-        <v>1317000</v>
+        <v>3564400</v>
       </c>
       <c r="I18" s="3">
-        <v>3846300</v>
+        <v>1239200</v>
       </c>
       <c r="J18" s="3">
+        <v>3619200</v>
+      </c>
+      <c r="K18" s="3">
         <v>3980600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4244400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>984300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4260000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4389200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4627600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1602100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4308200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4956500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4883400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2922500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3356200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4643800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4742900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1962400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3477700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,156 +1531,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98500</v>
+        <v>162600</v>
       </c>
       <c r="E20" s="3">
-        <v>64400</v>
+        <v>92700</v>
       </c>
       <c r="F20" s="3">
-        <v>-31100</v>
+        <v>60600</v>
       </c>
       <c r="G20" s="3">
-        <v>78000</v>
+        <v>-29200</v>
       </c>
       <c r="H20" s="3">
-        <v>-90300</v>
+        <v>73400</v>
       </c>
       <c r="I20" s="3">
-        <v>-28900</v>
+        <v>-84900</v>
       </c>
       <c r="J20" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>197800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-242800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-40300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>49300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1123500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>78400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>103800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>79200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>236000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5023400</v>
+        <v>6708300</v>
       </c>
       <c r="E21" s="3">
-        <v>7221100</v>
+        <v>4726700</v>
       </c>
       <c r="F21" s="3">
-        <v>7058600</v>
+        <v>6794700</v>
       </c>
       <c r="G21" s="3">
-        <v>6845700</v>
+        <v>6641800</v>
       </c>
       <c r="H21" s="3">
+        <v>6441500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3982400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6373900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>6870900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7377200</v>
+      </c>
+      <c r="M21" s="3">
         <v>4232300</v>
       </c>
-      <c r="I21" s="3">
-        <v>6773900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6870900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>7377200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>4232300</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7571100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7689000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8127700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4655400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7422400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8051200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7891400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5939100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7548400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7734900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7838500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5406400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6963800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1682,8 +1721,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1700,177 +1739,186 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>62500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>78700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>74500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>75300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>85100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>74400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1881800</v>
+        <v>3852200</v>
       </c>
       <c r="E23" s="3">
-        <v>4196200</v>
+        <v>1770700</v>
       </c>
       <c r="F23" s="3">
-        <v>4043100</v>
+        <v>3948400</v>
       </c>
       <c r="G23" s="3">
-        <v>3866000</v>
+        <v>3804400</v>
       </c>
       <c r="H23" s="3">
-        <v>1226800</v>
+        <v>3637700</v>
       </c>
       <c r="I23" s="3">
-        <v>3817300</v>
+        <v>1154300</v>
       </c>
       <c r="J23" s="3">
+        <v>3591900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3960800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4236200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>901800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4244600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4365900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4825300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1359200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4267900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4976300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4932700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2841400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4401100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4647600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4771400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1956500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3639300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>555200</v>
+        <v>991400</v>
       </c>
       <c r="E24" s="3">
-        <v>1295700</v>
+        <v>522400</v>
       </c>
       <c r="F24" s="3">
-        <v>1259500</v>
+        <v>1219100</v>
       </c>
       <c r="G24" s="3">
-        <v>1092600</v>
+        <v>1185100</v>
       </c>
       <c r="H24" s="3">
-        <v>557100</v>
+        <v>1028100</v>
       </c>
       <c r="I24" s="3">
-        <v>1121500</v>
+        <v>524200</v>
       </c>
       <c r="J24" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1246800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1272500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>152100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1332200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1217500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1491500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>365800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1302600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1763500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1520700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>761900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1444900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1463800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1466700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>386100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1271900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1326700</v>
+        <v>2860800</v>
       </c>
       <c r="E26" s="3">
-        <v>2900500</v>
+        <v>1248300</v>
       </c>
       <c r="F26" s="3">
-        <v>2783600</v>
+        <v>2729300</v>
       </c>
       <c r="G26" s="3">
-        <v>2773400</v>
+        <v>2619200</v>
       </c>
       <c r="H26" s="3">
-        <v>669700</v>
+        <v>2609600</v>
       </c>
       <c r="I26" s="3">
-        <v>2695800</v>
+        <v>630100</v>
       </c>
       <c r="J26" s="3">
+        <v>2536600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2714000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2963700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>749700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2912400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3148500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3333900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>993500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2965200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3212800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3412000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2079500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2956200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3183800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3304700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1570400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2367400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1174200</v>
+        <v>2701600</v>
       </c>
       <c r="E27" s="3">
-        <v>2761700</v>
+        <v>1104900</v>
       </c>
       <c r="F27" s="3">
-        <v>2616200</v>
+        <v>2598600</v>
       </c>
       <c r="G27" s="3">
-        <v>2648500</v>
+        <v>2461800</v>
       </c>
       <c r="H27" s="3">
-        <v>662200</v>
+        <v>2492100</v>
       </c>
       <c r="I27" s="3">
-        <v>2256500</v>
+        <v>623100</v>
       </c>
       <c r="J27" s="3">
+        <v>2123200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2094500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2325600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>514400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2270700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2455000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2569700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2193900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2508100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2633800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1564900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2012000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2512900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2647500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1165500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1708600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98500</v>
+        <v>-162600</v>
       </c>
       <c r="E32" s="3">
-        <v>-64400</v>
+        <v>-92700</v>
       </c>
       <c r="F32" s="3">
-        <v>31100</v>
+        <v>-60600</v>
       </c>
       <c r="G32" s="3">
-        <v>-78000</v>
+        <v>29200</v>
       </c>
       <c r="H32" s="3">
-        <v>90300</v>
+        <v>-73400</v>
       </c>
       <c r="I32" s="3">
-        <v>28900</v>
+        <v>84900</v>
       </c>
       <c r="J32" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K32" s="3">
         <v>19800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-197800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>242800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>40300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-49300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-78400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-103800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-79200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-236000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1174200</v>
+        <v>2701600</v>
       </c>
       <c r="E33" s="3">
-        <v>2761700</v>
+        <v>1104900</v>
       </c>
       <c r="F33" s="3">
-        <v>2616200</v>
+        <v>2598600</v>
       </c>
       <c r="G33" s="3">
-        <v>2648500</v>
+        <v>2461800</v>
       </c>
       <c r="H33" s="3">
-        <v>662200</v>
+        <v>2492100</v>
       </c>
       <c r="I33" s="3">
-        <v>2256500</v>
+        <v>623100</v>
       </c>
       <c r="J33" s="3">
+        <v>2123200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2094500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2325600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>514400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2270700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2455000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2569700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2193900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2508100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2633800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1564900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2012000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2512900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2647500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1165500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1708600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1174200</v>
+        <v>2701600</v>
       </c>
       <c r="E35" s="3">
-        <v>2761700</v>
+        <v>1104900</v>
       </c>
       <c r="F35" s="3">
-        <v>2616200</v>
+        <v>2598600</v>
       </c>
       <c r="G35" s="3">
-        <v>2648500</v>
+        <v>2461800</v>
       </c>
       <c r="H35" s="3">
-        <v>662200</v>
+        <v>2492100</v>
       </c>
       <c r="I35" s="3">
-        <v>2256500</v>
+        <v>623100</v>
       </c>
       <c r="J35" s="3">
+        <v>2123200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2094500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2325600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>514400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2270700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2455000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2569700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2193900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2508100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2633800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1564900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2012000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2512900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2647500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1165500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1708600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,674 +2903,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6501300</v>
+        <v>6778200</v>
       </c>
       <c r="E41" s="3">
-        <v>6437400</v>
+        <v>6117400</v>
       </c>
       <c r="F41" s="3">
-        <v>7051700</v>
+        <v>6057300</v>
       </c>
       <c r="G41" s="3">
-        <v>8875100</v>
+        <v>6635300</v>
       </c>
       <c r="H41" s="3">
-        <v>7289300</v>
+        <v>8351000</v>
       </c>
       <c r="I41" s="3">
-        <v>10539000</v>
+        <v>6858900</v>
       </c>
       <c r="J41" s="3">
+        <v>9916700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7839400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9148700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9105800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7975500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8527900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9356900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9092300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8575100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8264800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7245700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15144700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6929900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7599600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8690400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8206600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5897100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>689000</v>
+        <v>822500</v>
       </c>
       <c r="E42" s="3">
-        <v>399200</v>
+        <v>648300</v>
       </c>
       <c r="F42" s="3">
-        <v>412200</v>
+        <v>375600</v>
       </c>
       <c r="G42" s="3">
-        <v>468900</v>
+        <v>387900</v>
       </c>
       <c r="H42" s="3">
-        <v>325100</v>
+        <v>441200</v>
       </c>
       <c r="I42" s="3">
-        <v>4715600</v>
+        <v>305900</v>
       </c>
       <c r="J42" s="3">
+        <v>4437100</v>
+      </c>
+      <c r="K42" s="3">
         <v>5884200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>305000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>285300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1174300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1041400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>998300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1131600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1158300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1087400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1160200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1401100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>398600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1303600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>786800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>566300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>677900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28082600</v>
+        <v>24417200</v>
       </c>
       <c r="E43" s="3">
-        <v>27972500</v>
+        <v>26424300</v>
       </c>
       <c r="F43" s="3">
-        <v>23228400</v>
+        <v>26320700</v>
       </c>
       <c r="G43" s="3">
-        <v>24255100</v>
+        <v>21856800</v>
       </c>
       <c r="H43" s="3">
-        <v>27534200</v>
+        <v>22822800</v>
       </c>
       <c r="I43" s="3">
-        <v>29296100</v>
+        <v>25908300</v>
       </c>
       <c r="J43" s="3">
+        <v>27566200</v>
+      </c>
+      <c r="K43" s="3">
         <v>25444000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27582500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30860000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41217200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37411000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38645800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>42201700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39166800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36843100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34757800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>68781300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31235300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29446200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26375400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>27995700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29108000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3181100</v>
+        <v>3083500</v>
       </c>
       <c r="E44" s="3">
-        <v>2739500</v>
+        <v>2993300</v>
       </c>
       <c r="F44" s="3">
-        <v>2578300</v>
+        <v>2577800</v>
       </c>
       <c r="G44" s="3">
-        <v>2579100</v>
+        <v>2426000</v>
       </c>
       <c r="H44" s="3">
-        <v>2457300</v>
+        <v>2426800</v>
       </c>
       <c r="I44" s="3">
-        <v>2807500</v>
+        <v>2312200</v>
       </c>
       <c r="J44" s="3">
+        <v>2641700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2363200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2630700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2267100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2818000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2453800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2786700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3187000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4045200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3198000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3250000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6759800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4153400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3497200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3655500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3240900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3875200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6078300</v>
+        <v>8428800</v>
       </c>
       <c r="E45" s="3">
-        <v>5623500</v>
+        <v>5719300</v>
       </c>
       <c r="F45" s="3">
-        <v>5320500</v>
+        <v>5291400</v>
       </c>
       <c r="G45" s="3">
-        <v>5520300</v>
+        <v>5006300</v>
       </c>
       <c r="H45" s="3">
-        <v>3886600</v>
+        <v>5194300</v>
       </c>
       <c r="I45" s="3">
-        <v>5078800</v>
+        <v>3657100</v>
       </c>
       <c r="J45" s="3">
+        <v>4778900</v>
+      </c>
+      <c r="K45" s="3">
         <v>4897300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17876500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16539700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5436400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5317700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6432000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7620800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7330500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7113200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5420500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9493000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5634700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5426600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6214100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7111600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7980800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44532300</v>
+        <v>43530200</v>
       </c>
       <c r="E46" s="3">
-        <v>43172100</v>
+        <v>41902600</v>
       </c>
       <c r="F46" s="3">
-        <v>38591200</v>
+        <v>40622800</v>
       </c>
       <c r="G46" s="3">
-        <v>41698500</v>
+        <v>36312400</v>
       </c>
       <c r="H46" s="3">
-        <v>41492400</v>
+        <v>39236200</v>
       </c>
       <c r="I46" s="3">
-        <v>52437000</v>
+        <v>39042300</v>
       </c>
       <c r="J46" s="3">
+        <v>49340600</v>
+      </c>
+      <c r="K46" s="3">
         <v>46428000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57543400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59057800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>58621500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54751800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>58219800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63233500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>60275800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56506500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51834100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>53057200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>48351800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47273300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>45722100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>47121200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>47539100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14458000</v>
+        <v>14292100</v>
       </c>
       <c r="E47" s="3">
-        <v>15382000</v>
+        <v>13604200</v>
       </c>
       <c r="F47" s="3">
-        <v>15577200</v>
+        <v>14473700</v>
       </c>
       <c r="G47" s="3">
-        <v>15186600</v>
+        <v>14657300</v>
       </c>
       <c r="H47" s="3">
-        <v>15011000</v>
+        <v>14289900</v>
       </c>
       <c r="I47" s="3">
-        <v>14398200</v>
+        <v>14124600</v>
       </c>
       <c r="J47" s="3">
+        <v>13548000</v>
+      </c>
+      <c r="K47" s="3">
         <v>13074400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12768700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9951600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14218700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13411900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13511100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13807300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13538500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13687300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14984100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23831700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9577600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9086300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8923400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8691600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8571600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87699700</v>
+        <v>83045400</v>
       </c>
       <c r="E48" s="3">
-        <v>87525800</v>
+        <v>82521100</v>
       </c>
       <c r="F48" s="3">
-        <v>86936500</v>
+        <v>82357400</v>
       </c>
       <c r="G48" s="3">
-        <v>86939100</v>
+        <v>81802900</v>
       </c>
       <c r="H48" s="3">
-        <v>86505000</v>
+        <v>81805300</v>
       </c>
       <c r="I48" s="3">
-        <v>84668100</v>
+        <v>81396900</v>
       </c>
       <c r="J48" s="3">
+        <v>79668500</v>
+      </c>
+      <c r="K48" s="3">
         <v>84222100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91460600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93742200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>95995400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>96175900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95402300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95907300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>92625800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>91769200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>89134300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>177505500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87753100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88621500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>87913000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>86207700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84650400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24654000</v>
+        <v>23992700</v>
       </c>
       <c r="E49" s="3">
-        <v>23653000</v>
+        <v>23198200</v>
       </c>
       <c r="F49" s="3">
-        <v>22438800</v>
+        <v>22256300</v>
       </c>
       <c r="G49" s="3">
-        <v>22433800</v>
+        <v>21113700</v>
       </c>
       <c r="H49" s="3">
-        <v>21983700</v>
+        <v>21109100</v>
       </c>
       <c r="I49" s="3">
-        <v>20964800</v>
+        <v>20685600</v>
       </c>
       <c r="J49" s="3">
+        <v>19726800</v>
+      </c>
+      <c r="K49" s="3">
         <v>20619900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22665300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23565900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24100000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23505500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23186600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24162400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23906500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23809200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23033500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>48621500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26804000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26981900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26837400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26415300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>25833000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14542900</v>
+        <v>14016000</v>
       </c>
       <c r="E52" s="3">
-        <v>13677600</v>
+        <v>13684100</v>
       </c>
       <c r="F52" s="3">
-        <v>13441300</v>
+        <v>12869900</v>
       </c>
       <c r="G52" s="3">
-        <v>13554800</v>
+        <v>12647600</v>
       </c>
       <c r="H52" s="3">
-        <v>13909000</v>
+        <v>12754400</v>
       </c>
       <c r="I52" s="3">
-        <v>13417000</v>
+        <v>13087700</v>
       </c>
       <c r="J52" s="3">
+        <v>12624700</v>
+      </c>
+      <c r="K52" s="3">
         <v>13703800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15336600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16437000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16063700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16481200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16408400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17145900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16387700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16004400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16148700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30822500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22127200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22380200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22405700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20054600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19890900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185886900</v>
+        <v>178876300</v>
       </c>
       <c r="E54" s="3">
-        <v>183410500</v>
+        <v>174910200</v>
       </c>
       <c r="F54" s="3">
-        <v>176985000</v>
+        <v>172580100</v>
       </c>
       <c r="G54" s="3">
-        <v>179812900</v>
+        <v>166534000</v>
       </c>
       <c r="H54" s="3">
-        <v>178901200</v>
+        <v>169195000</v>
       </c>
       <c r="I54" s="3">
-        <v>185885200</v>
+        <v>168337100</v>
       </c>
       <c r="J54" s="3">
+        <v>174908600</v>
+      </c>
+      <c r="K54" s="3">
         <v>178048300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>199774600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202754500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>208999200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>204326400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206728300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>214256400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206734400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>201776600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>195134800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>194734700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>194613800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>194343300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>191801600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>188490400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>186485000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19477700</v>
+        <v>17516000</v>
       </c>
       <c r="E57" s="3">
-        <v>16526900</v>
+        <v>7221300</v>
       </c>
       <c r="F57" s="3">
-        <v>14379200</v>
+        <v>15551000</v>
       </c>
       <c r="G57" s="3">
-        <v>15544400</v>
+        <v>13530100</v>
       </c>
       <c r="H57" s="3">
-        <v>18358700</v>
+        <v>14626500</v>
       </c>
       <c r="I57" s="3">
-        <v>24103900</v>
+        <v>17274600</v>
       </c>
       <c r="J57" s="3">
+        <v>22680600</v>
+      </c>
+      <c r="K57" s="3">
         <v>13558800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15530900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18877600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15531100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15365600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15442400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20108700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15250500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13794100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13731500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16378000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12341800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11209100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10462900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14307300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10823200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14304800</v>
+        <v>16432300</v>
       </c>
       <c r="E58" s="3">
-        <v>16695600</v>
+        <v>13460100</v>
       </c>
       <c r="F58" s="3">
-        <v>17560700</v>
+        <v>15709700</v>
       </c>
       <c r="G58" s="3">
-        <v>30488700</v>
+        <v>16523700</v>
       </c>
       <c r="H58" s="3">
-        <v>26194100</v>
+        <v>28688300</v>
       </c>
       <c r="I58" s="3">
-        <v>40813400</v>
+        <v>24647300</v>
       </c>
       <c r="J58" s="3">
+        <v>38403300</v>
+      </c>
+      <c r="K58" s="3">
         <v>18080500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21988600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19458000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21904900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16681400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18869500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13565300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15598300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10476900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14238400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15416900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8838000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8994300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9532100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8191800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9374100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14972400</v>
+        <v>12261200</v>
       </c>
       <c r="E59" s="3">
-        <v>12367800</v>
+        <v>25194500</v>
       </c>
       <c r="F59" s="3">
-        <v>12373500</v>
+        <v>11637500</v>
       </c>
       <c r="G59" s="3">
-        <v>11645100</v>
+        <v>11642800</v>
       </c>
       <c r="H59" s="3">
-        <v>13297000</v>
+        <v>10957500</v>
       </c>
       <c r="I59" s="3">
-        <v>11667800</v>
+        <v>12511800</v>
       </c>
       <c r="J59" s="3">
+        <v>10978900</v>
+      </c>
+      <c r="K59" s="3">
         <v>12298300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17491000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19877400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13620000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14530600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14313800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16567700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14876600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15946100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14009300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19934300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14207200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14711400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15808300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14146400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14897400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48754800</v>
+        <v>46209500</v>
       </c>
       <c r="E60" s="3">
-        <v>45590300</v>
+        <v>45875800</v>
       </c>
       <c r="F60" s="3">
-        <v>44313400</v>
+        <v>42898100</v>
       </c>
       <c r="G60" s="3">
-        <v>57678200</v>
+        <v>41696700</v>
       </c>
       <c r="H60" s="3">
-        <v>57849800</v>
+        <v>54272300</v>
       </c>
       <c r="I60" s="3">
-        <v>76585100</v>
+        <v>54433800</v>
       </c>
       <c r="J60" s="3">
+        <v>72062700</v>
+      </c>
+      <c r="K60" s="3">
         <v>43937600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55010500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58213100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51055900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46577600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48625600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50241800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45725300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40217100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41979300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>41786800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35387100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34914900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35803300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>36645500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35094700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49647200</v>
+        <v>48280000</v>
       </c>
       <c r="E61" s="3">
-        <v>51461100</v>
+        <v>46715500</v>
       </c>
       <c r="F61" s="3">
-        <v>46613800</v>
+        <v>48422300</v>
       </c>
       <c r="G61" s="3">
-        <v>38577100</v>
+        <v>43861300</v>
       </c>
       <c r="H61" s="3">
-        <v>39024500</v>
+        <v>36299100</v>
       </c>
       <c r="I61" s="3">
-        <v>27309200</v>
+        <v>36720100</v>
       </c>
       <c r="J61" s="3">
+        <v>25696600</v>
+      </c>
+      <c r="K61" s="3">
         <v>19853800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23192800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22413700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29780700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29372500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29574300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27844600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27448700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27278100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25389200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28423700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28726400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28965100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>29015900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28331200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29049600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17233600</v>
+        <v>16258400</v>
       </c>
       <c r="E62" s="3">
-        <v>18578600</v>
+        <v>16216000</v>
       </c>
       <c r="F62" s="3">
-        <v>18289400</v>
+        <v>17481500</v>
       </c>
       <c r="G62" s="3">
-        <v>18254700</v>
+        <v>17209400</v>
       </c>
       <c r="H62" s="3">
-        <v>18125200</v>
+        <v>17176800</v>
       </c>
       <c r="I62" s="3">
-        <v>19309600</v>
+        <v>17054900</v>
       </c>
       <c r="J62" s="3">
+        <v>18169400</v>
+      </c>
+      <c r="K62" s="3">
         <v>18967200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20608700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21142000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22174100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22177200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21883800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22726000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22825400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22206200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21740200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40355000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21606000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21475400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21294000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20989200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21797200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>121366500</v>
+        <v>116466200</v>
       </c>
       <c r="E66" s="3">
-        <v>121107900</v>
+        <v>114199800</v>
       </c>
       <c r="F66" s="3">
-        <v>114539600</v>
+        <v>113956500</v>
       </c>
       <c r="G66" s="3">
-        <v>119556400</v>
+        <v>107776000</v>
       </c>
       <c r="H66" s="3">
-        <v>119987700</v>
+        <v>112496600</v>
       </c>
       <c r="I66" s="3">
-        <v>127945200</v>
+        <v>112902400</v>
       </c>
       <c r="J66" s="3">
+        <v>120390100</v>
+      </c>
+      <c r="K66" s="3">
         <v>102256800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119437400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>122926200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>125660600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>121280500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>123114000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>125220500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>119475700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114165700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112192700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112807400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>109849800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>108990500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>108974100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>108194900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>107689800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56819600</v>
+        <v>54555600</v>
       </c>
       <c r="E72" s="3">
-        <v>54326400</v>
+        <v>53464400</v>
       </c>
       <c r="F72" s="3">
-        <v>58785200</v>
+        <v>51118400</v>
       </c>
       <c r="G72" s="3">
-        <v>56162800</v>
+        <v>55313900</v>
       </c>
       <c r="H72" s="3">
-        <v>55059800</v>
+        <v>52846300</v>
       </c>
       <c r="I72" s="3">
-        <v>53437900</v>
+        <v>51808500</v>
       </c>
       <c r="J72" s="3">
+        <v>50282400</v>
+      </c>
+      <c r="K72" s="3">
         <v>53498600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56283300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57264500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58586300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58367600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55697400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57220900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55878100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54359500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>57216800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55490700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>55074400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54544700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52229600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>49904000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48738500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64520300</v>
+        <v>62410100</v>
       </c>
       <c r="E76" s="3">
-        <v>62302600</v>
+        <v>60710400</v>
       </c>
       <c r="F76" s="3">
-        <v>62445400</v>
+        <v>58623600</v>
       </c>
       <c r="G76" s="3">
-        <v>60256500</v>
+        <v>58758000</v>
       </c>
       <c r="H76" s="3">
-        <v>58913500</v>
+        <v>56698300</v>
       </c>
       <c r="I76" s="3">
-        <v>57939900</v>
+        <v>55434600</v>
       </c>
       <c r="J76" s="3">
+        <v>54518600</v>
+      </c>
+      <c r="K76" s="3">
         <v>75791500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80337200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79828300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83338500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83045900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83614300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89035800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>87258700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87610900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>82942000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>81927300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>84764000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>85352800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>82827500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>80295500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>78795200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1174200</v>
+        <v>2701600</v>
       </c>
       <c r="E81" s="3">
-        <v>2761700</v>
+        <v>1104900</v>
       </c>
       <c r="F81" s="3">
-        <v>2616200</v>
+        <v>2598600</v>
       </c>
       <c r="G81" s="3">
-        <v>2648500</v>
+        <v>2461800</v>
       </c>
       <c r="H81" s="3">
-        <v>662200</v>
+        <v>2492100</v>
       </c>
       <c r="I81" s="3">
-        <v>2256500</v>
+        <v>623100</v>
       </c>
       <c r="J81" s="3">
+        <v>2123200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2094500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2325600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>514400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2270700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2455000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2569700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2193900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2508100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2633800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1564900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2012000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2512900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2647500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1165500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1708600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3141500</v>
+        <v>2856100</v>
       </c>
       <c r="E83" s="3">
-        <v>3024900</v>
+        <v>2956000</v>
       </c>
       <c r="F83" s="3">
-        <v>3015500</v>
+        <v>2846300</v>
       </c>
       <c r="G83" s="3">
-        <v>2979700</v>
+        <v>2837400</v>
       </c>
       <c r="H83" s="3">
-        <v>3005500</v>
+        <v>2803700</v>
       </c>
       <c r="I83" s="3">
-        <v>2956600</v>
+        <v>2828100</v>
       </c>
       <c r="J83" s="3">
+        <v>2782000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2910000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3141000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3330600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3326500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3323100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3302300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3296200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3154600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3074900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2958700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3035200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3068600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3000700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3003800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3364800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3250100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8830200</v>
+        <v>3028500</v>
       </c>
       <c r="E89" s="3">
-        <v>3016700</v>
+        <v>8308800</v>
       </c>
       <c r="F89" s="3">
-        <v>7182400</v>
+        <v>2838600</v>
       </c>
       <c r="G89" s="3">
-        <v>4420500</v>
+        <v>6758300</v>
       </c>
       <c r="H89" s="3">
-        <v>10213000</v>
+        <v>4159500</v>
       </c>
       <c r="I89" s="3">
-        <v>3170800</v>
+        <v>9609900</v>
       </c>
       <c r="J89" s="3">
+        <v>2983500</v>
+      </c>
+      <c r="K89" s="3">
         <v>6301300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4112300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11279800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1644300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9735800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4350900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7673800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3773500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7209000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3926000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7650900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6131900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5252800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4754300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10658100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2885700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3608800</v>
+        <v>-3860600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3117400</v>
+        <v>-3395700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2951200</v>
+        <v>-2933300</v>
       </c>
       <c r="G91" s="3">
-        <v>-4017900</v>
+        <v>-2776900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3638300</v>
+        <v>-3780600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3226600</v>
+        <v>-3423500</v>
       </c>
       <c r="J91" s="3">
+        <v>-3036100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2239100</v>
+        <v>-3334900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3388500</v>
+        <v>-2106900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3030800</v>
+        <v>-3188400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4577900</v>
+        <v>-2851900</v>
       </c>
       <c r="H94" s="3">
-        <v>666800</v>
+        <v>-4307600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2568600</v>
+        <v>627500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2416900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1558000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1540500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1449500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1551900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1460200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1447400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1361900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6649700</v>
+        <v>759000</v>
       </c>
       <c r="E100" s="3">
-        <v>-293400</v>
+        <v>-6257000</v>
       </c>
       <c r="F100" s="3">
-        <v>-5991900</v>
+        <v>-276100</v>
       </c>
       <c r="G100" s="3">
-        <v>1732000</v>
+        <v>-5638100</v>
       </c>
       <c r="H100" s="3">
-        <v>-14261300</v>
+        <v>1629700</v>
       </c>
       <c r="I100" s="3">
-        <v>2151000</v>
+        <v>-13419200</v>
       </c>
       <c r="J100" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3087200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2601900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>115000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>138900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1473800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>616100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>122400</v>
+        <v>208300</v>
       </c>
       <c r="E101" s="3">
-        <v>50900</v>
+        <v>115200</v>
       </c>
       <c r="F101" s="3">
-        <v>16900</v>
+        <v>47900</v>
       </c>
       <c r="G101" s="3">
-        <v>11300</v>
+        <v>15900</v>
       </c>
       <c r="H101" s="3">
-        <v>131800</v>
+        <v>10600</v>
       </c>
       <c r="I101" s="3">
-        <v>-53600</v>
+        <v>124000</v>
       </c>
       <c r="J101" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-75300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>60900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-32900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-76500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>36000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-41700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>31800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-71700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>51100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>88300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>63900</v>
+        <v>660900</v>
       </c>
       <c r="E102" s="3">
-        <v>-614300</v>
+        <v>60100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1823500</v>
+        <v>-578000</v>
       </c>
       <c r="G102" s="3">
-        <v>1585800</v>
+        <v>-1715800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3249700</v>
+        <v>1492200</v>
       </c>
       <c r="I102" s="3">
-        <v>2699700</v>
+        <v>-3057800</v>
       </c>
       <c r="J102" s="3">
+        <v>2540200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-515600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>332300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1392900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-478200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-859600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>690300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>362800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>176900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>859700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-889900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>124000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-669700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>776300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2309600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22494800</v>
+        <v>22810700</v>
       </c>
       <c r="E8" s="3">
-        <v>23699500</v>
+        <v>21758300</v>
       </c>
       <c r="F8" s="3">
-        <v>22250800</v>
+        <v>22923500</v>
       </c>
       <c r="G8" s="3">
-        <v>21953900</v>
+        <v>21522300</v>
       </c>
       <c r="H8" s="3">
-        <v>21202500</v>
+        <v>21235100</v>
       </c>
       <c r="I8" s="3">
-        <v>23499700</v>
+        <v>20508300</v>
       </c>
       <c r="J8" s="3">
+        <v>22730300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22185300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22940800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23597900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26753500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27085300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27332100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26705400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29643300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28339000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27316900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25931300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27821100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27624000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26057300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25390800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26880700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25156800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,29 +894,32 @@
       <c r="T9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="3">
         <v>14315900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13646700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12122500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11756500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14418700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12033700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,29 +974,32 @@
       <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="3">
         <v>13505200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13977300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13934700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13634400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>12462000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13123100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,162 +1185,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>160300</v>
+        <v>182400</v>
       </c>
       <c r="E14" s="3">
-        <v>672200</v>
+        <v>155100</v>
       </c>
       <c r="F14" s="3">
-        <v>183300</v>
+        <v>650200</v>
       </c>
       <c r="G14" s="3">
-        <v>191400</v>
+        <v>177300</v>
       </c>
       <c r="H14" s="3">
-        <v>200000</v>
+        <v>185200</v>
       </c>
       <c r="I14" s="3">
-        <v>660300</v>
+        <v>193500</v>
       </c>
       <c r="J14" s="3">
+        <v>638700</v>
+      </c>
+      <c r="K14" s="3">
         <v>328000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>203600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>184200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>886600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>316400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>277500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>207800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1326000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>957400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>243400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>167300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2970900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>332400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>246800</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2856100</v>
+        <v>2776900</v>
       </c>
       <c r="E15" s="3">
-        <v>2956000</v>
+        <v>2762600</v>
       </c>
       <c r="F15" s="3">
-        <v>2846300</v>
+        <v>2859200</v>
       </c>
       <c r="G15" s="3">
-        <v>2837400</v>
+        <v>2753100</v>
       </c>
       <c r="H15" s="3">
-        <v>2803700</v>
+        <v>2744500</v>
       </c>
       <c r="I15" s="3">
-        <v>2828100</v>
+        <v>2711900</v>
       </c>
       <c r="J15" s="3">
+        <v>2735500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2782000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2910000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3141000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3330600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3326500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3323100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3302300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3296200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3154600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3074900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2958700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3108500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6102700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5974800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5995600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3364800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3683200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18805300</v>
+        <v>19314000</v>
       </c>
       <c r="E17" s="3">
-        <v>22021500</v>
+        <v>18189500</v>
       </c>
       <c r="F17" s="3">
-        <v>18363000</v>
+        <v>21300500</v>
       </c>
       <c r="G17" s="3">
-        <v>18120300</v>
+        <v>17761800</v>
       </c>
       <c r="H17" s="3">
-        <v>17638100</v>
+        <v>17527000</v>
       </c>
       <c r="I17" s="3">
-        <v>22260400</v>
+        <v>17060600</v>
       </c>
       <c r="J17" s="3">
+        <v>21531600</v>
+      </c>
+      <c r="K17" s="3">
         <v>18566100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18960200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19353500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25769300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22825300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22942900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22077800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28041200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24030900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22360500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21047900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24898500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24267800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21413500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20647900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24918300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21679200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3689600</v>
+        <v>3496700</v>
       </c>
       <c r="E18" s="3">
-        <v>1678000</v>
+        <v>3568800</v>
       </c>
       <c r="F18" s="3">
-        <v>3887800</v>
+        <v>1623100</v>
       </c>
       <c r="G18" s="3">
-        <v>3833600</v>
+        <v>3760500</v>
       </c>
       <c r="H18" s="3">
-        <v>3564400</v>
+        <v>3708100</v>
       </c>
       <c r="I18" s="3">
-        <v>1239200</v>
+        <v>3447700</v>
       </c>
       <c r="J18" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3619200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3980600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4244400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>984300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4260000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4389200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4627600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1602100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4308200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4956500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4883400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2922500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3356200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4643800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4742900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1962400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3477700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1564,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>162600</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>92700</v>
+        <v>157300</v>
       </c>
       <c r="F20" s="3">
-        <v>60600</v>
+        <v>89600</v>
       </c>
       <c r="G20" s="3">
-        <v>-29200</v>
+        <v>58600</v>
       </c>
       <c r="H20" s="3">
-        <v>73400</v>
+        <v>-28300</v>
       </c>
       <c r="I20" s="3">
-        <v>-84900</v>
+        <v>71000</v>
       </c>
       <c r="J20" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>197800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-242800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>49300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1123500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>78400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>103800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>79200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>236000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6708300</v>
+        <v>6278800</v>
       </c>
       <c r="E21" s="3">
-        <v>4726700</v>
+        <v>6488600</v>
       </c>
       <c r="F21" s="3">
-        <v>6794700</v>
+        <v>4572000</v>
       </c>
       <c r="G21" s="3">
-        <v>6641800</v>
+        <v>6572200</v>
       </c>
       <c r="H21" s="3">
-        <v>6441500</v>
+        <v>6424300</v>
       </c>
       <c r="I21" s="3">
-        <v>3982400</v>
+        <v>6230600</v>
       </c>
       <c r="J21" s="3">
+        <v>3852000</v>
+      </c>
+      <c r="K21" s="3">
         <v>6373900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6870900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7377200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4232300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7571100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7689000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8127700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4655400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7422400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8051200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7891400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5939100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7548400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7734900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7838500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5406400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6963800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1724,8 +1763,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1742,183 +1781,192 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>62500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>78700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>74500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>75300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>85100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>74400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3852200</v>
+        <v>3501900</v>
       </c>
       <c r="E23" s="3">
-        <v>1770700</v>
+        <v>3726100</v>
       </c>
       <c r="F23" s="3">
-        <v>3948400</v>
+        <v>1712700</v>
       </c>
       <c r="G23" s="3">
-        <v>3804400</v>
+        <v>3819100</v>
       </c>
       <c r="H23" s="3">
-        <v>3637700</v>
+        <v>3679800</v>
       </c>
       <c r="I23" s="3">
-        <v>1154300</v>
+        <v>3518600</v>
       </c>
       <c r="J23" s="3">
+        <v>1116500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3591900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3960800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4236200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>901800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4244600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4365900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4825300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1359200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4267900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4976300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4932700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2841400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4401100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4647600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4771400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1956500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3639300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>991400</v>
+        <v>1015000</v>
       </c>
       <c r="E24" s="3">
-        <v>522400</v>
+        <v>959000</v>
       </c>
       <c r="F24" s="3">
-        <v>1219100</v>
+        <v>505300</v>
       </c>
       <c r="G24" s="3">
-        <v>1185100</v>
+        <v>1179200</v>
       </c>
       <c r="H24" s="3">
-        <v>1028100</v>
+        <v>1146300</v>
       </c>
       <c r="I24" s="3">
-        <v>524200</v>
+        <v>994500</v>
       </c>
       <c r="J24" s="3">
+        <v>507000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1055300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1246800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1272500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>152100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1332200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1217500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1491500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>365800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1302600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1763500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1520700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>761900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1444900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1463800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1466700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>386100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1271900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2860800</v>
+        <v>2486900</v>
       </c>
       <c r="E26" s="3">
-        <v>1248300</v>
+        <v>2767100</v>
       </c>
       <c r="F26" s="3">
-        <v>2729300</v>
+        <v>1207400</v>
       </c>
       <c r="G26" s="3">
-        <v>2619200</v>
+        <v>2639900</v>
       </c>
       <c r="H26" s="3">
-        <v>2609600</v>
+        <v>2533500</v>
       </c>
       <c r="I26" s="3">
-        <v>630100</v>
+        <v>2524200</v>
       </c>
       <c r="J26" s="3">
+        <v>609500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2536600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2714000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2963700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>749700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2912400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3148500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3333900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>993500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2965200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3212800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3412000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2079500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2956200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3183800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3304700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1570400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2367400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2701600</v>
+        <v>2325800</v>
       </c>
       <c r="E27" s="3">
-        <v>1104900</v>
+        <v>2613200</v>
       </c>
       <c r="F27" s="3">
-        <v>2598600</v>
+        <v>1068700</v>
       </c>
       <c r="G27" s="3">
-        <v>2461800</v>
+        <v>2513500</v>
       </c>
       <c r="H27" s="3">
-        <v>2492100</v>
+        <v>2381100</v>
       </c>
       <c r="I27" s="3">
-        <v>623100</v>
+        <v>2410500</v>
       </c>
       <c r="J27" s="3">
+        <v>602700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2123200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2094500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2325600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>514400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2270700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2455000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2569700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2193900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2508100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2633800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1564900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2012000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2512900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2647500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1165500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1708600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-162600</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-92700</v>
+        <v>-157300</v>
       </c>
       <c r="F32" s="3">
-        <v>-60600</v>
+        <v>-89600</v>
       </c>
       <c r="G32" s="3">
-        <v>29200</v>
+        <v>-58600</v>
       </c>
       <c r="H32" s="3">
-        <v>-73400</v>
+        <v>28300</v>
       </c>
       <c r="I32" s="3">
-        <v>84900</v>
+        <v>-71000</v>
       </c>
       <c r="J32" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K32" s="3">
         <v>27200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-197800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>242800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-49300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-78400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-103800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-79200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-236000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2701600</v>
+        <v>2325800</v>
       </c>
       <c r="E33" s="3">
-        <v>1104900</v>
+        <v>2613200</v>
       </c>
       <c r="F33" s="3">
-        <v>2598600</v>
+        <v>1068700</v>
       </c>
       <c r="G33" s="3">
-        <v>2461800</v>
+        <v>2513500</v>
       </c>
       <c r="H33" s="3">
-        <v>2492100</v>
+        <v>2381100</v>
       </c>
       <c r="I33" s="3">
-        <v>623100</v>
+        <v>2410500</v>
       </c>
       <c r="J33" s="3">
+        <v>602700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2123200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2094500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2325600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>514400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2270700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2455000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2569700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2193900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2508100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2633800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1564900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2012000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2512900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2647500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1165500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1708600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2701600</v>
+        <v>2325800</v>
       </c>
       <c r="E35" s="3">
-        <v>1104900</v>
+        <v>2613200</v>
       </c>
       <c r="F35" s="3">
-        <v>2598600</v>
+        <v>1068700</v>
       </c>
       <c r="G35" s="3">
-        <v>2461800</v>
+        <v>2513500</v>
       </c>
       <c r="H35" s="3">
-        <v>2492100</v>
+        <v>2381100</v>
       </c>
       <c r="I35" s="3">
-        <v>623100</v>
+        <v>2410500</v>
       </c>
       <c r="J35" s="3">
+        <v>602700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2123200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2094500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2325600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>514400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2270700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2455000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2569700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2193900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2508100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2633800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1564900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2012000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2512900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2647500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1165500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1708600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,701 +2989,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6778200</v>
+        <v>6727100</v>
       </c>
       <c r="E41" s="3">
-        <v>6117400</v>
+        <v>6556300</v>
       </c>
       <c r="F41" s="3">
-        <v>6057300</v>
+        <v>5917100</v>
       </c>
       <c r="G41" s="3">
-        <v>6635300</v>
+        <v>5858900</v>
       </c>
       <c r="H41" s="3">
-        <v>8351000</v>
+        <v>6418000</v>
       </c>
       <c r="I41" s="3">
-        <v>6858900</v>
+        <v>8077600</v>
       </c>
       <c r="J41" s="3">
+        <v>6634300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9916700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7839400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9148700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9105800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7975500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8527900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9356900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9092300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8575100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8264800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7245700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15144700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6929900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7599600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8690400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8206600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5897100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>822500</v>
+        <v>899800</v>
       </c>
       <c r="E42" s="3">
-        <v>648300</v>
+        <v>795500</v>
       </c>
       <c r="F42" s="3">
-        <v>375600</v>
+        <v>627000</v>
       </c>
       <c r="G42" s="3">
-        <v>387900</v>
+        <v>363300</v>
       </c>
       <c r="H42" s="3">
-        <v>441200</v>
+        <v>375200</v>
       </c>
       <c r="I42" s="3">
-        <v>305900</v>
+        <v>426700</v>
       </c>
       <c r="J42" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4437100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5884200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>305000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>285300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1174300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1041400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>998300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1131600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1158300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1087400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1160200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1401100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>398600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1303600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>786800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>566300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>677900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24417200</v>
+        <v>25239800</v>
       </c>
       <c r="E43" s="3">
-        <v>26424300</v>
+        <v>23617700</v>
       </c>
       <c r="F43" s="3">
-        <v>26320700</v>
+        <v>25559200</v>
       </c>
       <c r="G43" s="3">
-        <v>21856800</v>
+        <v>25458900</v>
       </c>
       <c r="H43" s="3">
-        <v>22822800</v>
+        <v>21141200</v>
       </c>
       <c r="I43" s="3">
-        <v>25908300</v>
+        <v>22075600</v>
       </c>
       <c r="J43" s="3">
+        <v>25060000</v>
+      </c>
+      <c r="K43" s="3">
         <v>27566200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25444000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27582500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30860000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41217200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37411000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38645800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>42201700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39166800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36843100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34757800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>68781300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>31235300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29446200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>26375400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>27995700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29108000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3083500</v>
+        <v>3348400</v>
       </c>
       <c r="E44" s="3">
-        <v>2993300</v>
+        <v>2982500</v>
       </c>
       <c r="F44" s="3">
-        <v>2577800</v>
+        <v>2895300</v>
       </c>
       <c r="G44" s="3">
-        <v>2426000</v>
+        <v>2493400</v>
       </c>
       <c r="H44" s="3">
-        <v>2426800</v>
+        <v>2346600</v>
       </c>
       <c r="I44" s="3">
-        <v>2312200</v>
+        <v>2347400</v>
       </c>
       <c r="J44" s="3">
+        <v>2236400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2641700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2363200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2630700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2267100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2818000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2453800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2786700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3187000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4045200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3198000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3250000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6759800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4153400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3497200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3655500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3240900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3875200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8428800</v>
+        <v>8237400</v>
       </c>
       <c r="E45" s="3">
-        <v>5719300</v>
+        <v>8152800</v>
       </c>
       <c r="F45" s="3">
-        <v>5291400</v>
+        <v>5532100</v>
       </c>
       <c r="G45" s="3">
-        <v>5006300</v>
+        <v>5118200</v>
       </c>
       <c r="H45" s="3">
-        <v>5194300</v>
+        <v>4842400</v>
       </c>
       <c r="I45" s="3">
-        <v>3657100</v>
+        <v>5024300</v>
       </c>
       <c r="J45" s="3">
+        <v>3537400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4778900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4897300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17876500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16539700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5436400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5317700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6432000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7620800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7330500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7113200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5420500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9493000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5634700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5426600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6214100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7111600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7980800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43530200</v>
+        <v>44452500</v>
       </c>
       <c r="E46" s="3">
-        <v>41902600</v>
+        <v>42104900</v>
       </c>
       <c r="F46" s="3">
-        <v>40622800</v>
+        <v>40530600</v>
       </c>
       <c r="G46" s="3">
-        <v>36312400</v>
+        <v>39292700</v>
       </c>
       <c r="H46" s="3">
-        <v>39236200</v>
+        <v>35123400</v>
       </c>
       <c r="I46" s="3">
-        <v>39042300</v>
+        <v>37951500</v>
       </c>
       <c r="J46" s="3">
+        <v>37764000</v>
+      </c>
+      <c r="K46" s="3">
         <v>49340600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46428000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57543400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59057800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>58621500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>54751800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58219800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>63233500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>60275800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>56506500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>51834100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>53057200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>48351800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47273300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45722100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>47121200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>47539100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14292100</v>
+        <v>14060800</v>
       </c>
       <c r="E47" s="3">
-        <v>13604200</v>
+        <v>13824100</v>
       </c>
       <c r="F47" s="3">
-        <v>14473700</v>
+        <v>13158800</v>
       </c>
       <c r="G47" s="3">
-        <v>14657300</v>
+        <v>13999800</v>
       </c>
       <c r="H47" s="3">
-        <v>14289900</v>
+        <v>14177400</v>
       </c>
       <c r="I47" s="3">
-        <v>14124600</v>
+        <v>13822000</v>
       </c>
       <c r="J47" s="3">
+        <v>13662100</v>
+      </c>
+      <c r="K47" s="3">
         <v>13548000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13074400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12768700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9951600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14218700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13411900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13511100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13807300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13538500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13687300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14984100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23831700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9577600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9086300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8923400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8691600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8571600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83045400</v>
+        <v>80616800</v>
       </c>
       <c r="E48" s="3">
-        <v>82521100</v>
+        <v>80326300</v>
       </c>
       <c r="F48" s="3">
-        <v>82357400</v>
+        <v>79819100</v>
       </c>
       <c r="G48" s="3">
-        <v>81802900</v>
+        <v>79660800</v>
       </c>
       <c r="H48" s="3">
-        <v>81805300</v>
+        <v>79124500</v>
       </c>
       <c r="I48" s="3">
-        <v>81396900</v>
+        <v>79126800</v>
       </c>
       <c r="J48" s="3">
+        <v>78731800</v>
+      </c>
+      <c r="K48" s="3">
         <v>79668500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84222100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91460600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93742200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95995400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96175900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95402300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>95907300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>92625800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91769200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>89134300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>177505500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87753100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>88621500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>87913000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>86207700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84650400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23992700</v>
+        <v>23679700</v>
       </c>
       <c r="E49" s="3">
-        <v>23198200</v>
+        <v>23207100</v>
       </c>
       <c r="F49" s="3">
-        <v>22256300</v>
+        <v>22438700</v>
       </c>
       <c r="G49" s="3">
-        <v>21113700</v>
+        <v>21527600</v>
       </c>
       <c r="H49" s="3">
-        <v>21109100</v>
+        <v>20422400</v>
       </c>
       <c r="I49" s="3">
-        <v>20685600</v>
+        <v>20418000</v>
       </c>
       <c r="J49" s="3">
+        <v>20008300</v>
+      </c>
+      <c r="K49" s="3">
         <v>19726800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20619900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22665300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23565900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24100000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23505500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23186600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24162400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23906500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23809200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23033500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>48621500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26804000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26981900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26837400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26415300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>25833000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14016000</v>
+        <v>13602500</v>
       </c>
       <c r="E52" s="3">
-        <v>13684100</v>
+        <v>13557100</v>
       </c>
       <c r="F52" s="3">
-        <v>12869900</v>
+        <v>13236100</v>
       </c>
       <c r="G52" s="3">
-        <v>12647600</v>
+        <v>12448500</v>
       </c>
       <c r="H52" s="3">
-        <v>12754400</v>
+        <v>12233500</v>
       </c>
       <c r="I52" s="3">
-        <v>13087700</v>
+        <v>12336800</v>
       </c>
       <c r="J52" s="3">
+        <v>12659100</v>
+      </c>
+      <c r="K52" s="3">
         <v>12624700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13703800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15336600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16437000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16063700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16481200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16408400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17145900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16387700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16004400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16148700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30822500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22127200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22380200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22405700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20054600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>19890900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>178876300</v>
+        <v>176412200</v>
       </c>
       <c r="E54" s="3">
-        <v>174910200</v>
+        <v>173019500</v>
       </c>
       <c r="F54" s="3">
-        <v>172580100</v>
+        <v>169183300</v>
       </c>
       <c r="G54" s="3">
-        <v>166534000</v>
+        <v>166929500</v>
       </c>
       <c r="H54" s="3">
-        <v>169195000</v>
+        <v>161081300</v>
       </c>
       <c r="I54" s="3">
-        <v>168337100</v>
+        <v>163655200</v>
       </c>
       <c r="J54" s="3">
+        <v>162825300</v>
+      </c>
+      <c r="K54" s="3">
         <v>174908600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>178048300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>199774600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202754500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>208999200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>204326400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206728300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>214256400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206734400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>201776600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>195134800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>194734700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>194613800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>194343300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>191801600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>188490400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>186485000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4169,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17516000</v>
+        <v>15772700</v>
       </c>
       <c r="E57" s="3">
-        <v>7221300</v>
+        <v>16942500</v>
       </c>
       <c r="F57" s="3">
-        <v>15551000</v>
+        <v>6984800</v>
       </c>
       <c r="G57" s="3">
-        <v>13530100</v>
+        <v>15041800</v>
       </c>
       <c r="H57" s="3">
-        <v>14626500</v>
+        <v>13087100</v>
       </c>
       <c r="I57" s="3">
-        <v>17274600</v>
+        <v>14147600</v>
       </c>
       <c r="J57" s="3">
+        <v>16709000</v>
+      </c>
+      <c r="K57" s="3">
         <v>22680600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13558800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15530900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18877600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15531100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15365600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15442400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20108700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15250500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13794100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13731500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16378000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12341800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11209100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10462900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14307300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10823200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16432300</v>
+        <v>17576400</v>
       </c>
       <c r="E58" s="3">
-        <v>13460100</v>
+        <v>15894300</v>
       </c>
       <c r="F58" s="3">
-        <v>15709700</v>
+        <v>13019400</v>
       </c>
       <c r="G58" s="3">
-        <v>16523700</v>
+        <v>15195300</v>
       </c>
       <c r="H58" s="3">
-        <v>28688300</v>
+        <v>15982700</v>
       </c>
       <c r="I58" s="3">
-        <v>24647300</v>
+        <v>27749000</v>
       </c>
       <c r="J58" s="3">
+        <v>23840300</v>
+      </c>
+      <c r="K58" s="3">
         <v>38403300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18080500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21988600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19458000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21904900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16681400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18869500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13565300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15598300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10476900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14238400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15416900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8838000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8994300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9532100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8191800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9374100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12261200</v>
+        <v>12565900</v>
       </c>
       <c r="E59" s="3">
-        <v>25194500</v>
+        <v>11859700</v>
       </c>
       <c r="F59" s="3">
-        <v>11637500</v>
+        <v>24369600</v>
       </c>
       <c r="G59" s="3">
-        <v>11642800</v>
+        <v>11256400</v>
       </c>
       <c r="H59" s="3">
-        <v>10957500</v>
+        <v>11261600</v>
       </c>
       <c r="I59" s="3">
-        <v>12511800</v>
+        <v>10598700</v>
       </c>
       <c r="J59" s="3">
+        <v>12102100</v>
+      </c>
+      <c r="K59" s="3">
         <v>10978900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12298300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17491000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19877400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13620000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14530600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14313800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16567700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14876600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15946100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14009300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19934300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14207200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14711400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15808300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14146400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14897400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46209500</v>
+        <v>45914900</v>
       </c>
       <c r="E60" s="3">
-        <v>45875800</v>
+        <v>44696500</v>
       </c>
       <c r="F60" s="3">
-        <v>42898100</v>
+        <v>44373800</v>
       </c>
       <c r="G60" s="3">
-        <v>41696700</v>
+        <v>41493600</v>
       </c>
       <c r="H60" s="3">
-        <v>54272300</v>
+        <v>40331400</v>
       </c>
       <c r="I60" s="3">
-        <v>54433800</v>
+        <v>52495300</v>
       </c>
       <c r="J60" s="3">
+        <v>52651500</v>
+      </c>
+      <c r="K60" s="3">
         <v>72062700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43937600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55010500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58213100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51055900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46577600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48625600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50241800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45725300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40217100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>41979300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>41786800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35387100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34914900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35803300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>36645500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>35094700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48280000</v>
+        <v>48747400</v>
       </c>
       <c r="E61" s="3">
-        <v>46715500</v>
+        <v>46699300</v>
       </c>
       <c r="F61" s="3">
-        <v>48422300</v>
+        <v>45185900</v>
       </c>
       <c r="G61" s="3">
-        <v>43861300</v>
+        <v>46836900</v>
       </c>
       <c r="H61" s="3">
-        <v>36299100</v>
+        <v>42425200</v>
       </c>
       <c r="I61" s="3">
-        <v>36720100</v>
+        <v>35110600</v>
       </c>
       <c r="J61" s="3">
+        <v>35517800</v>
+      </c>
+      <c r="K61" s="3">
         <v>25696600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19853800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23192800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22413700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29780700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29372500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29574300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27844600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27448700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27278100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25389200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28423700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28726400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28965100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29015900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28331200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>29049600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16258400</v>
+        <v>15851500</v>
       </c>
       <c r="E62" s="3">
-        <v>16216000</v>
+        <v>15726100</v>
       </c>
       <c r="F62" s="3">
-        <v>17481500</v>
+        <v>15685000</v>
       </c>
       <c r="G62" s="3">
-        <v>17209400</v>
+        <v>16909100</v>
       </c>
       <c r="H62" s="3">
-        <v>17176800</v>
+        <v>16645900</v>
       </c>
       <c r="I62" s="3">
-        <v>17054900</v>
+        <v>16614400</v>
       </c>
       <c r="J62" s="3">
+        <v>16496500</v>
+      </c>
+      <c r="K62" s="3">
         <v>18169400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18967200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20608700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21142000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22174100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22177200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21883800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22726000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22825400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22206200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21740200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40355000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21606000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21475400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21294000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20989200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21797200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116466200</v>
+        <v>116356500</v>
       </c>
       <c r="E66" s="3">
-        <v>114199800</v>
+        <v>112652800</v>
       </c>
       <c r="F66" s="3">
-        <v>113956500</v>
+        <v>110460700</v>
       </c>
       <c r="G66" s="3">
-        <v>107776000</v>
+        <v>110225300</v>
       </c>
       <c r="H66" s="3">
-        <v>112496600</v>
+        <v>104247200</v>
       </c>
       <c r="I66" s="3">
-        <v>112902400</v>
+        <v>108813200</v>
       </c>
       <c r="J66" s="3">
+        <v>109205700</v>
+      </c>
+      <c r="K66" s="3">
         <v>120390100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102256800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119437400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>122926200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>125660600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>121280500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>123114000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>125220500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>119475700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>114165700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112192700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112807400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>109849800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>108990500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>108974100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>108194900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>107689800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54555600</v>
+        <v>55079000</v>
       </c>
       <c r="E72" s="3">
-        <v>53464400</v>
+        <v>52769300</v>
       </c>
       <c r="F72" s="3">
-        <v>51118400</v>
+        <v>51713900</v>
       </c>
       <c r="G72" s="3">
-        <v>55313900</v>
+        <v>49444700</v>
       </c>
       <c r="H72" s="3">
-        <v>52846300</v>
+        <v>53502800</v>
       </c>
       <c r="I72" s="3">
-        <v>51808500</v>
+        <v>51116000</v>
       </c>
       <c r="J72" s="3">
+        <v>50112200</v>
+      </c>
+      <c r="K72" s="3">
         <v>50282400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53498600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56283300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57264500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58586300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58367600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55697400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57220900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55878100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54359500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>57216800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>55490700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55074400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54544700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52229600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>49904000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48738500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62410100</v>
+        <v>60055800</v>
       </c>
       <c r="E76" s="3">
-        <v>60710400</v>
+        <v>60366700</v>
       </c>
       <c r="F76" s="3">
-        <v>58623600</v>
+        <v>58722600</v>
       </c>
       <c r="G76" s="3">
-        <v>58758000</v>
+        <v>56704200</v>
       </c>
       <c r="H76" s="3">
-        <v>56698300</v>
+        <v>56834100</v>
       </c>
       <c r="I76" s="3">
-        <v>55434600</v>
+        <v>54841900</v>
       </c>
       <c r="J76" s="3">
+        <v>53619600</v>
+      </c>
+      <c r="K76" s="3">
         <v>54518600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75791500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80337200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79828300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83338500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83045900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83614300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89035800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87258700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87610900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>82942000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>81927300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>84764000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>85352800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>82827500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>80295500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>78795200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2701600</v>
+        <v>2325800</v>
       </c>
       <c r="E81" s="3">
-        <v>1104900</v>
+        <v>2613200</v>
       </c>
       <c r="F81" s="3">
-        <v>2598600</v>
+        <v>1068700</v>
       </c>
       <c r="G81" s="3">
-        <v>2461800</v>
+        <v>2513500</v>
       </c>
       <c r="H81" s="3">
-        <v>2492100</v>
+        <v>2381100</v>
       </c>
       <c r="I81" s="3">
-        <v>623100</v>
+        <v>2410500</v>
       </c>
       <c r="J81" s="3">
+        <v>602700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2123200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2094500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2325600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>514400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2270700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2455000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2569700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2193900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2508100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2633800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1564900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2012000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2512900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2647500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1165500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1708600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2856100</v>
+        <v>2776900</v>
       </c>
       <c r="E83" s="3">
-        <v>2956000</v>
+        <v>2762600</v>
       </c>
       <c r="F83" s="3">
-        <v>2846300</v>
+        <v>2859200</v>
       </c>
       <c r="G83" s="3">
-        <v>2837400</v>
+        <v>2753100</v>
       </c>
       <c r="H83" s="3">
-        <v>2803700</v>
+        <v>2744500</v>
       </c>
       <c r="I83" s="3">
-        <v>2828100</v>
+        <v>2711900</v>
       </c>
       <c r="J83" s="3">
+        <v>2735500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2782000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2910000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3141000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3330600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3326500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3323100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3302300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3296200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3154600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3074900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2958700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3035200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3068600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3000700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3003800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3364800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3250100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3028500</v>
+        <v>2789400</v>
       </c>
       <c r="E89" s="3">
-        <v>8308800</v>
+        <v>2929400</v>
       </c>
       <c r="F89" s="3">
-        <v>2838600</v>
+        <v>8036700</v>
       </c>
       <c r="G89" s="3">
-        <v>6758300</v>
+        <v>2745700</v>
       </c>
       <c r="H89" s="3">
-        <v>4159500</v>
+        <v>6537000</v>
       </c>
       <c r="I89" s="3">
-        <v>9609900</v>
+        <v>4023300</v>
       </c>
       <c r="J89" s="3">
+        <v>9295200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2983500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6301300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4112300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11279800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1644300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9735800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4350900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7673800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3773500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7209000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3926000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7650900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6131900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5252800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4754300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10658100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2885700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3860600</v>
+        <v>-2535000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3395700</v>
+        <v>-3734200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2933300</v>
+        <v>-3284500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2776900</v>
+        <v>-2837200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3780600</v>
+        <v>-2686000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3423500</v>
+        <v>-3656800</v>
       </c>
       <c r="J91" s="3">
+        <v>-3311400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3036100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3334900</v>
+        <v>-2595000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2106900</v>
+        <v>-3225700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3188400</v>
+        <v>-2037900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2851900</v>
+        <v>-3084000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4307600</v>
+        <v>-2758500</v>
       </c>
       <c r="I94" s="3">
-        <v>627500</v>
+        <v>-4166600</v>
       </c>
       <c r="J94" s="3">
+        <v>606900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2416900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1558000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1507000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1449500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1402100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1460200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1412400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1361900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>759000</v>
+        <v>-131300</v>
       </c>
       <c r="E100" s="3">
-        <v>-6257000</v>
+        <v>734200</v>
       </c>
       <c r="F100" s="3">
-        <v>-276100</v>
+        <v>-6052200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5638100</v>
+        <v>-267000</v>
       </c>
       <c r="H100" s="3">
-        <v>1629700</v>
+        <v>-5453500</v>
       </c>
       <c r="I100" s="3">
-        <v>-13419200</v>
+        <v>1576300</v>
       </c>
       <c r="J100" s="3">
+        <v>-12979800</v>
+      </c>
+      <c r="K100" s="3">
         <v>2024000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3087200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2601900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>115000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>138900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1473800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>616100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>208300</v>
+        <v>107700</v>
       </c>
       <c r="E101" s="3">
-        <v>115200</v>
+        <v>201400</v>
       </c>
       <c r="F101" s="3">
-        <v>47900</v>
+        <v>111400</v>
       </c>
       <c r="G101" s="3">
-        <v>15900</v>
+        <v>46300</v>
       </c>
       <c r="H101" s="3">
-        <v>10600</v>
+        <v>15300</v>
       </c>
       <c r="I101" s="3">
-        <v>124000</v>
+        <v>10300</v>
       </c>
       <c r="J101" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-50400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-75300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>60900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-32900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-76500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>36000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-41700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>31800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-71700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>24900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>51100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>88300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>660900</v>
+        <v>170800</v>
       </c>
       <c r="E102" s="3">
-        <v>60100</v>
+        <v>639300</v>
       </c>
       <c r="F102" s="3">
-        <v>-578000</v>
+        <v>58100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1715800</v>
+        <v>-559100</v>
       </c>
       <c r="H102" s="3">
-        <v>1492200</v>
+        <v>-1659600</v>
       </c>
       <c r="I102" s="3">
-        <v>-3057800</v>
+        <v>1443300</v>
       </c>
       <c r="J102" s="3">
+        <v>-2957700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2540200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-515600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>332300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1392900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-478200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-859600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>690300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>362800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>176900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>859700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-889900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>124000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-669700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>776300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2309600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,187 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22810700</v>
+        <v>24155200</v>
       </c>
       <c r="E8" s="3">
-        <v>21758300</v>
+        <v>23647200</v>
       </c>
       <c r="F8" s="3">
-        <v>22923500</v>
+        <v>22556200</v>
       </c>
       <c r="G8" s="3">
-        <v>21522300</v>
+        <v>23764200</v>
       </c>
       <c r="H8" s="3">
-        <v>21235100</v>
+        <v>22311500</v>
       </c>
       <c r="I8" s="3">
-        <v>20508300</v>
+        <v>22013800</v>
       </c>
       <c r="J8" s="3">
+        <v>21260400</v>
+      </c>
+      <c r="K8" s="3">
         <v>22730300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22185300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22940800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23597900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26753500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27085300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27332100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26705400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29643300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28339000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27316900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25931300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27821100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27624000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26057300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>25390800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>26880700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>25156800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,29 +903,32 @@
       <c r="U9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="3">
         <v>14315900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13646700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12122500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11756500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14418700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12033700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -977,29 +986,32 @@
       <c r="U10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="3">
         <v>13505200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13977300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13934700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13634400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>12462000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13123100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,168 +1204,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>182400</v>
+        <v>157400</v>
       </c>
       <c r="E14" s="3">
-        <v>155100</v>
+        <v>189100</v>
       </c>
       <c r="F14" s="3">
-        <v>650200</v>
+        <v>160800</v>
       </c>
       <c r="G14" s="3">
-        <v>177300</v>
+        <v>674000</v>
       </c>
       <c r="H14" s="3">
-        <v>185200</v>
+        <v>183800</v>
       </c>
       <c r="I14" s="3">
-        <v>193500</v>
+        <v>192000</v>
       </c>
       <c r="J14" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K14" s="3">
         <v>638700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>328000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>203600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>184200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>886600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>316400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>277500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>207800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1326000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>957400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>243400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>167300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2970900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>332400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>246800</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2776900</v>
+        <v>2905900</v>
       </c>
       <c r="E15" s="3">
-        <v>2762600</v>
+        <v>2878800</v>
       </c>
       <c r="F15" s="3">
-        <v>2859200</v>
+        <v>2863900</v>
       </c>
       <c r="G15" s="3">
-        <v>2753100</v>
+        <v>2964100</v>
       </c>
       <c r="H15" s="3">
-        <v>2744500</v>
+        <v>2854000</v>
       </c>
       <c r="I15" s="3">
-        <v>2711900</v>
+        <v>2845200</v>
       </c>
       <c r="J15" s="3">
+        <v>2811400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2735500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2782000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2910000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3141000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3330600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3326500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3323100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3302300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3296200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3154600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3074900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2958700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3108500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>6102700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5974800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5995600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3364800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3683200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19314000</v>
+        <v>20301600</v>
       </c>
       <c r="E17" s="3">
-        <v>18189500</v>
+        <v>20022300</v>
       </c>
       <c r="F17" s="3">
-        <v>21300500</v>
+        <v>18856600</v>
       </c>
       <c r="G17" s="3">
-        <v>17761800</v>
+        <v>22081600</v>
       </c>
       <c r="H17" s="3">
-        <v>17527000</v>
+        <v>18413100</v>
       </c>
       <c r="I17" s="3">
-        <v>17060600</v>
+        <v>18169800</v>
       </c>
       <c r="J17" s="3">
+        <v>17686300</v>
+      </c>
+      <c r="K17" s="3">
         <v>21531600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18566100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18960200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19353500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25769300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22825300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22942900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22077800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28041200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24030900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22360500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21047900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24898500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24267800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21413500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20647900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24918300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21679200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3496700</v>
+        <v>3853500</v>
       </c>
       <c r="E18" s="3">
-        <v>3568800</v>
+        <v>3624900</v>
       </c>
       <c r="F18" s="3">
-        <v>1623100</v>
+        <v>3699600</v>
       </c>
       <c r="G18" s="3">
-        <v>3760500</v>
+        <v>1682600</v>
       </c>
       <c r="H18" s="3">
-        <v>3708100</v>
+        <v>3898400</v>
       </c>
       <c r="I18" s="3">
-        <v>3447700</v>
+        <v>3844100</v>
       </c>
       <c r="J18" s="3">
+        <v>3574100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1198700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3619200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3980600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4244400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>984300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4260000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4389200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4627600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1602100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4308200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4956500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4883400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2922500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3356200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4643800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4742900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1962400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3477700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,168 +1597,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>-101700</v>
       </c>
       <c r="E20" s="3">
-        <v>157300</v>
+        <v>5400</v>
       </c>
       <c r="F20" s="3">
-        <v>89600</v>
+        <v>163100</v>
       </c>
       <c r="G20" s="3">
-        <v>58600</v>
+        <v>92900</v>
       </c>
       <c r="H20" s="3">
-        <v>-28300</v>
+        <v>60800</v>
       </c>
       <c r="I20" s="3">
-        <v>71000</v>
+        <v>-29300</v>
       </c>
       <c r="J20" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-82200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-82500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>197800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-242800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>49300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1123500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>78400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>103800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>79200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>236000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6278800</v>
+        <v>6657800</v>
       </c>
       <c r="E21" s="3">
-        <v>6488600</v>
+        <v>6509000</v>
       </c>
       <c r="F21" s="3">
-        <v>4572000</v>
+        <v>6726600</v>
       </c>
       <c r="G21" s="3">
-        <v>6572200</v>
+        <v>4739600</v>
       </c>
       <c r="H21" s="3">
-        <v>6424300</v>
+        <v>6813200</v>
       </c>
       <c r="I21" s="3">
-        <v>6230600</v>
+        <v>6659900</v>
       </c>
       <c r="J21" s="3">
+        <v>6459100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3852000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6373900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6870900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7377200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4232300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7571100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7689000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8127700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4655400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7422400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8051200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7891400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5939100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7548400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7734900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7838500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5406400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6963800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1766,8 +1805,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1784,189 +1823,198 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>62500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>78700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>74500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>75300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>85100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>74400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3501900</v>
+        <v>3751900</v>
       </c>
       <c r="E23" s="3">
-        <v>3726100</v>
+        <v>3630300</v>
       </c>
       <c r="F23" s="3">
-        <v>1712700</v>
+        <v>3862700</v>
       </c>
       <c r="G23" s="3">
-        <v>3819100</v>
+        <v>1775500</v>
       </c>
       <c r="H23" s="3">
-        <v>3679800</v>
+        <v>3959200</v>
       </c>
       <c r="I23" s="3">
-        <v>3518600</v>
+        <v>3814700</v>
       </c>
       <c r="J23" s="3">
+        <v>3647700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1116500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3591900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3960800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4236200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>901800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4244600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4365900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4825300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1359200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4267900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4976300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4932700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2841400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4401100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4647600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4771400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1956500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3639300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1015000</v>
+        <v>1127400</v>
       </c>
       <c r="E24" s="3">
-        <v>959000</v>
+        <v>1052200</v>
       </c>
       <c r="F24" s="3">
-        <v>505300</v>
+        <v>994100</v>
       </c>
       <c r="G24" s="3">
-        <v>1179200</v>
+        <v>523800</v>
       </c>
       <c r="H24" s="3">
-        <v>1146300</v>
+        <v>1222500</v>
       </c>
       <c r="I24" s="3">
-        <v>994500</v>
+        <v>1188400</v>
       </c>
       <c r="J24" s="3">
+        <v>1030900</v>
+      </c>
+      <c r="K24" s="3">
         <v>507000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1055300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1246800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1272500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>152100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1332200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1217500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1491500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>365800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1302600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1763500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1520700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>761900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1444900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1463800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1466700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>386100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1271900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2486900</v>
+        <v>2624400</v>
       </c>
       <c r="E26" s="3">
-        <v>2767100</v>
+        <v>2578100</v>
       </c>
       <c r="F26" s="3">
-        <v>1207400</v>
+        <v>2868600</v>
       </c>
       <c r="G26" s="3">
-        <v>2639900</v>
+        <v>1251700</v>
       </c>
       <c r="H26" s="3">
-        <v>2533500</v>
+        <v>2736700</v>
       </c>
       <c r="I26" s="3">
-        <v>2524200</v>
+        <v>2626400</v>
       </c>
       <c r="J26" s="3">
+        <v>2616800</v>
+      </c>
+      <c r="K26" s="3">
         <v>609500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2536600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2714000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2963700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>749700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2912400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3148500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3333900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>993500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2965200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3212800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3412000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2079500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2956200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3183800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3304700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1570400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2367400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2325800</v>
+        <v>2469000</v>
       </c>
       <c r="E27" s="3">
-        <v>2613200</v>
+        <v>2411100</v>
       </c>
       <c r="F27" s="3">
-        <v>1068700</v>
+        <v>2709000</v>
       </c>
       <c r="G27" s="3">
-        <v>2513500</v>
+        <v>1107900</v>
       </c>
       <c r="H27" s="3">
-        <v>2381100</v>
+        <v>2605700</v>
       </c>
       <c r="I27" s="3">
-        <v>2410500</v>
+        <v>2468500</v>
       </c>
       <c r="J27" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="K27" s="3">
         <v>602700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2123200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2094500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2325600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>514400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2270700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2455000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2569700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2193900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2508100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2633800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1564900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2012000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2512900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2647500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1165500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1708600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>101700</v>
       </c>
       <c r="E32" s="3">
-        <v>-157300</v>
+        <v>-5400</v>
       </c>
       <c r="F32" s="3">
-        <v>-89600</v>
+        <v>-163100</v>
       </c>
       <c r="G32" s="3">
-        <v>-58600</v>
+        <v>-92900</v>
       </c>
       <c r="H32" s="3">
-        <v>28300</v>
+        <v>-60800</v>
       </c>
       <c r="I32" s="3">
-        <v>-71000</v>
+        <v>29300</v>
       </c>
       <c r="J32" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="K32" s="3">
         <v>82200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>82500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-197800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>242800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-49300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-103800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-79200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-236000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2325800</v>
+        <v>2469000</v>
       </c>
       <c r="E33" s="3">
-        <v>2613200</v>
+        <v>2411100</v>
       </c>
       <c r="F33" s="3">
-        <v>1068700</v>
+        <v>2709000</v>
       </c>
       <c r="G33" s="3">
-        <v>2513500</v>
+        <v>1107900</v>
       </c>
       <c r="H33" s="3">
-        <v>2381100</v>
+        <v>2605700</v>
       </c>
       <c r="I33" s="3">
-        <v>2410500</v>
+        <v>2468500</v>
       </c>
       <c r="J33" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="K33" s="3">
         <v>602700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2123200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2094500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2325600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>514400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2270700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2455000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2569700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2193900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2508100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2633800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1564900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2012000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2512900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2647500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1165500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1708600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2325800</v>
+        <v>2469000</v>
       </c>
       <c r="E35" s="3">
-        <v>2613200</v>
+        <v>2411100</v>
       </c>
       <c r="F35" s="3">
-        <v>1068700</v>
+        <v>2709000</v>
       </c>
       <c r="G35" s="3">
-        <v>2513500</v>
+        <v>1107900</v>
       </c>
       <c r="H35" s="3">
-        <v>2381100</v>
+        <v>2605700</v>
       </c>
       <c r="I35" s="3">
-        <v>2410500</v>
+        <v>2468500</v>
       </c>
       <c r="J35" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="K35" s="3">
         <v>602700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2123200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2094500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2325600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>514400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2270700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2455000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2569700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2193900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2508100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2633800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1564900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2012000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2512900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2647500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1165500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1708600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,728 +3075,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6727100</v>
+        <v>6040500</v>
       </c>
       <c r="E41" s="3">
-        <v>6556300</v>
+        <v>6973800</v>
       </c>
       <c r="F41" s="3">
-        <v>5917100</v>
+        <v>6796700</v>
       </c>
       <c r="G41" s="3">
-        <v>5858900</v>
+        <v>6134000</v>
       </c>
       <c r="H41" s="3">
-        <v>6418000</v>
+        <v>6073800</v>
       </c>
       <c r="I41" s="3">
-        <v>8077600</v>
+        <v>6653400</v>
       </c>
       <c r="J41" s="3">
+        <v>8373800</v>
+      </c>
+      <c r="K41" s="3">
         <v>6634300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9916700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7839400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9148700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9105800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7975500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8527900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9356900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9092300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8575100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8264800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7245700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15144700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6929900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7599600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8690400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8206600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5897100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>899800</v>
+        <v>791500</v>
       </c>
       <c r="E42" s="3">
-        <v>795500</v>
+        <v>932800</v>
       </c>
       <c r="F42" s="3">
-        <v>627000</v>
+        <v>824700</v>
       </c>
       <c r="G42" s="3">
-        <v>363300</v>
+        <v>650000</v>
       </c>
       <c r="H42" s="3">
-        <v>375200</v>
+        <v>376600</v>
       </c>
       <c r="I42" s="3">
-        <v>426700</v>
+        <v>389000</v>
       </c>
       <c r="J42" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K42" s="3">
         <v>295900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4437100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5884200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>305000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>285300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1174300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1041400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>998300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1131600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1158300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1087400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1160200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1401100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>398600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1303600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>786800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>566300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>677900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25239800</v>
+        <v>30090000</v>
       </c>
       <c r="E43" s="3">
-        <v>23617700</v>
+        <v>26165400</v>
       </c>
       <c r="F43" s="3">
-        <v>25559200</v>
+        <v>24483800</v>
       </c>
       <c r="G43" s="3">
-        <v>25458900</v>
+        <v>26496400</v>
       </c>
       <c r="H43" s="3">
-        <v>21141200</v>
+        <v>26392500</v>
       </c>
       <c r="I43" s="3">
-        <v>22075600</v>
+        <v>21916400</v>
       </c>
       <c r="J43" s="3">
+        <v>22885100</v>
+      </c>
+      <c r="K43" s="3">
         <v>25060000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27566200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25444000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27582500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30860000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41217200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37411000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38645800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>42201700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>39166800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36843100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34757800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68781300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>31235300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29446200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>26375400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>27995700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>29108000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3348400</v>
+        <v>3644300</v>
       </c>
       <c r="E44" s="3">
-        <v>2982500</v>
+        <v>3471200</v>
       </c>
       <c r="F44" s="3">
-        <v>2895300</v>
+        <v>3091900</v>
       </c>
       <c r="G44" s="3">
-        <v>2493400</v>
+        <v>3001500</v>
       </c>
       <c r="H44" s="3">
-        <v>2346600</v>
+        <v>2584800</v>
       </c>
       <c r="I44" s="3">
-        <v>2347400</v>
+        <v>2432700</v>
       </c>
       <c r="J44" s="3">
+        <v>2433500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2236400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2641700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2363200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2630700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2267100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2818000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2453800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2786700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3187000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4045200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3198000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3250000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6759800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4153400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3497200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3655500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3240900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3875200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8237400</v>
+        <v>8497700</v>
       </c>
       <c r="E45" s="3">
-        <v>8152800</v>
+        <v>8539400</v>
       </c>
       <c r="F45" s="3">
-        <v>5532100</v>
+        <v>8451800</v>
       </c>
       <c r="G45" s="3">
-        <v>5118200</v>
+        <v>5735000</v>
       </c>
       <c r="H45" s="3">
-        <v>4842400</v>
+        <v>5305900</v>
       </c>
       <c r="I45" s="3">
-        <v>5024300</v>
+        <v>5020000</v>
       </c>
       <c r="J45" s="3">
+        <v>5208500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3537400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4778900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4897300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17876500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16539700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5436400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5317700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6432000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7620800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7330500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7113200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5420500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9493000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5634700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5426600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6214100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7111600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7980800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44452500</v>
+        <v>49064000</v>
       </c>
       <c r="E46" s="3">
-        <v>42104900</v>
+        <v>46082600</v>
       </c>
       <c r="F46" s="3">
-        <v>40530600</v>
+        <v>43648900</v>
       </c>
       <c r="G46" s="3">
-        <v>39292700</v>
+        <v>42017000</v>
       </c>
       <c r="H46" s="3">
-        <v>35123400</v>
+        <v>40733600</v>
       </c>
       <c r="I46" s="3">
-        <v>37951500</v>
+        <v>36411400</v>
       </c>
       <c r="J46" s="3">
+        <v>39343300</v>
+      </c>
+      <c r="K46" s="3">
         <v>37764000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49340600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46428000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57543400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59057800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>58621500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>54751800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>58219800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>63233500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>60275800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56506500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>51834100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>53057200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>48351800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>47273300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45722100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>47121200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>47539100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14060800</v>
+        <v>14036500</v>
       </c>
       <c r="E47" s="3">
-        <v>13824100</v>
+        <v>14576400</v>
       </c>
       <c r="F47" s="3">
-        <v>13158800</v>
+        <v>14331100</v>
       </c>
       <c r="G47" s="3">
-        <v>13999800</v>
+        <v>13641300</v>
       </c>
       <c r="H47" s="3">
-        <v>14177400</v>
+        <v>14513200</v>
       </c>
       <c r="I47" s="3">
-        <v>13822000</v>
+        <v>14697300</v>
       </c>
       <c r="J47" s="3">
+        <v>14328900</v>
+      </c>
+      <c r="K47" s="3">
         <v>13662100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13548000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13074400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12768700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9951600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14218700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13411900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13511100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13807300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13538500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13687300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14984100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>23831700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9577600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9086300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>8923400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8691600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8571600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80616800</v>
+        <v>83335800</v>
       </c>
       <c r="E48" s="3">
-        <v>80326300</v>
+        <v>83573100</v>
       </c>
       <c r="F48" s="3">
-        <v>79819100</v>
+        <v>83272000</v>
       </c>
       <c r="G48" s="3">
-        <v>79660800</v>
+        <v>82746200</v>
       </c>
       <c r="H48" s="3">
-        <v>79124500</v>
+        <v>82582100</v>
       </c>
       <c r="I48" s="3">
-        <v>79126800</v>
+        <v>82026100</v>
       </c>
       <c r="J48" s="3">
+        <v>82028500</v>
+      </c>
+      <c r="K48" s="3">
         <v>78731800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79668500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>84222100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>91460600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>93742200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95995400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>96175900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>95402300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>95907300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>92625800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>91769200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>89134300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>177505500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>87753100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>88621500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>87913000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>86207700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>84650400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23679700</v>
+        <v>24519600</v>
       </c>
       <c r="E49" s="3">
-        <v>23207100</v>
+        <v>24548000</v>
       </c>
       <c r="F49" s="3">
-        <v>22438700</v>
+        <v>24058200</v>
       </c>
       <c r="G49" s="3">
-        <v>21527600</v>
+        <v>23261500</v>
       </c>
       <c r="H49" s="3">
-        <v>20422400</v>
+        <v>22317100</v>
       </c>
       <c r="I49" s="3">
-        <v>20418000</v>
+        <v>21171400</v>
       </c>
       <c r="J49" s="3">
+        <v>21166700</v>
+      </c>
+      <c r="K49" s="3">
         <v>20008300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19726800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20619900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22665300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23565900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24100000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23505500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23186600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24162400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23906500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23809200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23033500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>48621500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26804000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26981900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26837400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26415300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>25833000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13602500</v>
+        <v>13941200</v>
       </c>
       <c r="E52" s="3">
-        <v>13557100</v>
+        <v>14101300</v>
       </c>
       <c r="F52" s="3">
-        <v>13236100</v>
+        <v>14054200</v>
       </c>
       <c r="G52" s="3">
-        <v>12448500</v>
+        <v>13721400</v>
       </c>
       <c r="H52" s="3">
-        <v>12233500</v>
+        <v>12905000</v>
       </c>
       <c r="I52" s="3">
-        <v>12336800</v>
+        <v>12682100</v>
       </c>
       <c r="J52" s="3">
+        <v>12789200</v>
+      </c>
+      <c r="K52" s="3">
         <v>12659100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12624700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13703800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15336600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16437000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16063700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16481200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16408400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17145900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16387700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16004400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16148700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30822500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22127200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22380200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>22405700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20054600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>19890900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>176412200</v>
+        <v>184897100</v>
       </c>
       <c r="E54" s="3">
-        <v>173019500</v>
+        <v>182881500</v>
       </c>
       <c r="F54" s="3">
-        <v>169183300</v>
+        <v>179364400</v>
       </c>
       <c r="G54" s="3">
-        <v>166929500</v>
+        <v>175387500</v>
       </c>
       <c r="H54" s="3">
-        <v>161081300</v>
+        <v>173051000</v>
       </c>
       <c r="I54" s="3">
-        <v>163655200</v>
+        <v>166988400</v>
       </c>
       <c r="J54" s="3">
+        <v>169656600</v>
+      </c>
+      <c r="K54" s="3">
         <v>162825300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174908600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>178048300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>199774600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>202754500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>208999200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>204326400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206728300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>214256400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>206734400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>201776600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>195134800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>194734700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>194613800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>194343300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>191801600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>188490400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>186485000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,488 +4299,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15772700</v>
+        <v>18273600</v>
       </c>
       <c r="E57" s="3">
-        <v>16942500</v>
+        <v>16351100</v>
       </c>
       <c r="F57" s="3">
-        <v>6984800</v>
+        <v>17563800</v>
       </c>
       <c r="G57" s="3">
-        <v>15041800</v>
+        <v>7241000</v>
       </c>
       <c r="H57" s="3">
-        <v>13087100</v>
+        <v>15593400</v>
       </c>
       <c r="I57" s="3">
-        <v>14147600</v>
+        <v>13567000</v>
       </c>
       <c r="J57" s="3">
+        <v>14666400</v>
+      </c>
+      <c r="K57" s="3">
         <v>16709000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22680600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13558800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15530900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18877600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15531100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15365600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15442400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20108700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15250500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13794100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13731500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16378000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12341800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11209100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10462900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14307300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10823200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17576400</v>
+        <v>20564200</v>
       </c>
       <c r="E58" s="3">
-        <v>15894300</v>
+        <v>18220900</v>
       </c>
       <c r="F58" s="3">
-        <v>13019400</v>
+        <v>16477200</v>
       </c>
       <c r="G58" s="3">
-        <v>15195300</v>
+        <v>13496800</v>
       </c>
       <c r="H58" s="3">
-        <v>15982700</v>
+        <v>15752600</v>
       </c>
       <c r="I58" s="3">
-        <v>27749000</v>
+        <v>16568800</v>
       </c>
       <c r="J58" s="3">
+        <v>28766600</v>
+      </c>
+      <c r="K58" s="3">
         <v>23840300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38403300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18080500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21988600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19458000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21904900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16681400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18869500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13565300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15598300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10476900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14238400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15416900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8838000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8994300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>9532100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8191800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9374100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12565900</v>
+        <v>12220300</v>
       </c>
       <c r="E59" s="3">
-        <v>11859700</v>
+        <v>13026700</v>
       </c>
       <c r="F59" s="3">
-        <v>24369600</v>
+        <v>12294600</v>
       </c>
       <c r="G59" s="3">
-        <v>11256400</v>
+        <v>25263200</v>
       </c>
       <c r="H59" s="3">
-        <v>11261600</v>
+        <v>11669200</v>
       </c>
       <c r="I59" s="3">
-        <v>10598700</v>
+        <v>11674600</v>
       </c>
       <c r="J59" s="3">
+        <v>10987400</v>
+      </c>
+      <c r="K59" s="3">
         <v>12102100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10978900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12298300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17491000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19877400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13620000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14530600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14313800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16567700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14876600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15946100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14009300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19934300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14207200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14711400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15808300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14146400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14897400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45914900</v>
+        <v>51058200</v>
       </c>
       <c r="E60" s="3">
-        <v>44696500</v>
+        <v>47598700</v>
       </c>
       <c r="F60" s="3">
-        <v>44373800</v>
+        <v>46335600</v>
       </c>
       <c r="G60" s="3">
-        <v>41493600</v>
+        <v>46001000</v>
       </c>
       <c r="H60" s="3">
-        <v>40331400</v>
+        <v>43015200</v>
       </c>
       <c r="I60" s="3">
-        <v>52495300</v>
+        <v>41810400</v>
       </c>
       <c r="J60" s="3">
+        <v>54420400</v>
+      </c>
+      <c r="K60" s="3">
         <v>52651500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72062700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43937600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55010500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58213100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51055900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46577600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48625600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50241800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45725300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40217100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>41979300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41786800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35387100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>34914900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35803300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>36645500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>35094700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48747400</v>
+        <v>49583400</v>
       </c>
       <c r="E61" s="3">
-        <v>46699300</v>
+        <v>50535000</v>
       </c>
       <c r="F61" s="3">
-        <v>45185900</v>
+        <v>48411800</v>
       </c>
       <c r="G61" s="3">
-        <v>46836900</v>
+        <v>46843000</v>
       </c>
       <c r="H61" s="3">
-        <v>42425200</v>
+        <v>48554500</v>
       </c>
       <c r="I61" s="3">
-        <v>35110600</v>
+        <v>43981000</v>
       </c>
       <c r="J61" s="3">
+        <v>36398100</v>
+      </c>
+      <c r="K61" s="3">
         <v>35517800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25696600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19853800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23192800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22413700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29780700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29372500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29574300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27844600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27448700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27278100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25389200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28423700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28726400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28965100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29015900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28331200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>29049600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15851500</v>
+        <v>16625500</v>
       </c>
       <c r="E62" s="3">
-        <v>15726100</v>
+        <v>16432700</v>
       </c>
       <c r="F62" s="3">
-        <v>15685000</v>
+        <v>16302800</v>
       </c>
       <c r="G62" s="3">
-        <v>16909100</v>
+        <v>16260200</v>
       </c>
       <c r="H62" s="3">
-        <v>16645900</v>
+        <v>17529200</v>
       </c>
       <c r="I62" s="3">
-        <v>16614400</v>
+        <v>17256300</v>
       </c>
       <c r="J62" s="3">
+        <v>17223600</v>
+      </c>
+      <c r="K62" s="3">
         <v>16496500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18169400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18967200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20608700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21142000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22174100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22177200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21883800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22726000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22825400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22206200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21740200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40355000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21606000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21475400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21294000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20989200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21797200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116356500</v>
+        <v>122971700</v>
       </c>
       <c r="E66" s="3">
-        <v>112652800</v>
+        <v>120623400</v>
       </c>
       <c r="F66" s="3">
-        <v>110460700</v>
+        <v>116784000</v>
       </c>
       <c r="G66" s="3">
-        <v>110225300</v>
+        <v>114511400</v>
       </c>
       <c r="H66" s="3">
-        <v>104247200</v>
+        <v>114267400</v>
       </c>
       <c r="I66" s="3">
-        <v>108813200</v>
+        <v>108070100</v>
       </c>
       <c r="J66" s="3">
+        <v>112803600</v>
+      </c>
+      <c r="K66" s="3">
         <v>109205700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120390100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102256800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119437400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>122926200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>125660600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>121280500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>123114000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>125220500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>119475700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>114165700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112192700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112807400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>109849800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>108990500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>108974100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>108194900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>107689800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55079000</v>
+        <v>57763300</v>
       </c>
       <c r="E72" s="3">
-        <v>52769300</v>
+        <v>57098800</v>
       </c>
       <c r="F72" s="3">
-        <v>51713900</v>
+        <v>54704400</v>
       </c>
       <c r="G72" s="3">
-        <v>49444700</v>
+        <v>53610300</v>
       </c>
       <c r="H72" s="3">
-        <v>53502800</v>
+        <v>51257900</v>
       </c>
       <c r="I72" s="3">
-        <v>51116000</v>
+        <v>55464800</v>
       </c>
       <c r="J72" s="3">
+        <v>52990500</v>
+      </c>
+      <c r="K72" s="3">
         <v>50112200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50282400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53498600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56283300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57264500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58586300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>58367600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55697400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>57220900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55878100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54359500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>57216800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55490700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>55074400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>54544700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52229600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>49904000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>48738500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60055800</v>
+        <v>61925400</v>
       </c>
       <c r="E76" s="3">
-        <v>60366700</v>
+        <v>62258100</v>
       </c>
       <c r="F76" s="3">
-        <v>58722600</v>
+        <v>62580400</v>
       </c>
       <c r="G76" s="3">
-        <v>56704200</v>
+        <v>60876100</v>
       </c>
       <c r="H76" s="3">
-        <v>56834100</v>
+        <v>58783600</v>
       </c>
       <c r="I76" s="3">
-        <v>54841900</v>
+        <v>58918300</v>
       </c>
       <c r="J76" s="3">
+        <v>56853100</v>
+      </c>
+      <c r="K76" s="3">
         <v>53619600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54518600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75791500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80337200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79828300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83338500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83045900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83614300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89035800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87258700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87610900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>82942000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>81927300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>84764000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>85352800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>82827500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>80295500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>78795200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2325800</v>
+        <v>2469000</v>
       </c>
       <c r="E81" s="3">
-        <v>2613200</v>
+        <v>2411100</v>
       </c>
       <c r="F81" s="3">
-        <v>1068700</v>
+        <v>2709000</v>
       </c>
       <c r="G81" s="3">
-        <v>2513500</v>
+        <v>1107900</v>
       </c>
       <c r="H81" s="3">
-        <v>2381100</v>
+        <v>2605700</v>
       </c>
       <c r="I81" s="3">
-        <v>2410500</v>
+        <v>2468500</v>
       </c>
       <c r="J81" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="K81" s="3">
         <v>602700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2123200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2094500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2325600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>514400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2270700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2455000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2569700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2193900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2508100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2633800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1564900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2012000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2512900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2647500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1165500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1708600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2776900</v>
+        <v>2905900</v>
       </c>
       <c r="E83" s="3">
-        <v>2762600</v>
+        <v>2878800</v>
       </c>
       <c r="F83" s="3">
-        <v>2859200</v>
+        <v>2863900</v>
       </c>
       <c r="G83" s="3">
-        <v>2753100</v>
+        <v>2964100</v>
       </c>
       <c r="H83" s="3">
-        <v>2744500</v>
+        <v>2854000</v>
       </c>
       <c r="I83" s="3">
-        <v>2711900</v>
+        <v>2845200</v>
       </c>
       <c r="J83" s="3">
+        <v>2811400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2735500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2782000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2910000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3330600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3326500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3323100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3302300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3296200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3154600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3074900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2958700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3035200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3068600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3000700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3003800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3364800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3250100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2789400</v>
+        <v>2419300</v>
       </c>
       <c r="E89" s="3">
-        <v>2929400</v>
+        <v>2891700</v>
       </c>
       <c r="F89" s="3">
-        <v>8036700</v>
+        <v>3036800</v>
       </c>
       <c r="G89" s="3">
-        <v>2745700</v>
+        <v>8331500</v>
       </c>
       <c r="H89" s="3">
-        <v>6537000</v>
+        <v>2846300</v>
       </c>
       <c r="I89" s="3">
-        <v>4023300</v>
+        <v>6776700</v>
       </c>
       <c r="J89" s="3">
+        <v>4170800</v>
+      </c>
+      <c r="K89" s="3">
         <v>9295200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2983500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6301300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4112300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11279800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1644300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9735800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4350900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7673800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3773500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7209000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3926000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7650900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6131900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5252800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4754300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10658100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2885700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2535000</v>
+        <v>-3163600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3734200</v>
+        <v>-2627900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3284500</v>
+        <v>-3871200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2837200</v>
+        <v>-3404900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2686000</v>
+        <v>-2941300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3656800</v>
+        <v>-2784500</v>
       </c>
       <c r="J91" s="3">
+        <v>-3790900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3311400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3036100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2595000</v>
+        <v>-3495300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3225700</v>
+        <v>-2690200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2037900</v>
+        <v>-3344000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3084000</v>
+        <v>-2112600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2758500</v>
+        <v>-3197100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4166600</v>
+        <v>-2859700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4319400</v>
+      </c>
+      <c r="K94" s="3">
         <v>606900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2416900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1521300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1507000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1562200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1402100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1453500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1412400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1464200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1361900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-131300</v>
+        <v>297600</v>
       </c>
       <c r="E100" s="3">
-        <v>734200</v>
+        <v>-136100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6052200</v>
+        <v>761100</v>
       </c>
       <c r="G100" s="3">
-        <v>-267000</v>
+        <v>-6274100</v>
       </c>
       <c r="H100" s="3">
-        <v>-5453500</v>
+        <v>-276800</v>
       </c>
       <c r="I100" s="3">
-        <v>1576300</v>
+        <v>-5653500</v>
       </c>
       <c r="J100" s="3">
+        <v>1634100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12979800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2024000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3087200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2601900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-102000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>115000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>138900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1473800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>616100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107700</v>
+        <v>-155100</v>
       </c>
       <c r="E101" s="3">
-        <v>201400</v>
+        <v>111700</v>
       </c>
       <c r="F101" s="3">
-        <v>111400</v>
+        <v>208800</v>
       </c>
       <c r="G101" s="3">
-        <v>46300</v>
+        <v>115500</v>
       </c>
       <c r="H101" s="3">
-        <v>15300</v>
+        <v>48000</v>
       </c>
       <c r="I101" s="3">
-        <v>10300</v>
+        <v>15900</v>
       </c>
       <c r="J101" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K101" s="3">
         <v>119900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-50400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-75300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>60900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-76500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>36000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-41700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>31800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-71700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>24900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>51100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>88300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>170800</v>
+        <v>-933300</v>
       </c>
       <c r="E102" s="3">
-        <v>639300</v>
+        <v>177100</v>
       </c>
       <c r="F102" s="3">
-        <v>58100</v>
+        <v>662700</v>
       </c>
       <c r="G102" s="3">
-        <v>-559100</v>
+        <v>60200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1659600</v>
+        <v>-579600</v>
       </c>
       <c r="I102" s="3">
-        <v>1443300</v>
+        <v>-1720500</v>
       </c>
       <c r="J102" s="3">
+        <v>1496200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2957700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2540200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-515600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>332300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1392900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-478200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-859600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>690300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>362800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>176900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>859700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-889900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>124000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-669700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>776300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2309600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,194 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24155200</v>
+        <v>25693600</v>
       </c>
       <c r="E8" s="3">
-        <v>23647200</v>
+        <v>23695100</v>
       </c>
       <c r="F8" s="3">
-        <v>22556200</v>
+        <v>23196800</v>
       </c>
       <c r="G8" s="3">
-        <v>23764200</v>
+        <v>22126600</v>
       </c>
       <c r="H8" s="3">
-        <v>22311500</v>
+        <v>23311500</v>
       </c>
       <c r="I8" s="3">
-        <v>22013800</v>
+        <v>21886500</v>
       </c>
       <c r="J8" s="3">
+        <v>21594500</v>
+      </c>
+      <c r="K8" s="3">
         <v>21260400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22730300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22185300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22940800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23597900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26753500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27085300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27332100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26705400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29643300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28339000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27316900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25931300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27821100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>27624000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26057300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25390800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>26880700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>25156800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,29 +913,32 @@
       <c r="V9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="3">
         <v>14315900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13646700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12122500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11756500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14418700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12033700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -989,29 +999,32 @@
       <c r="V10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="3">
         <v>13505200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13977300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13934700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13634400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>12462000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13123100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1054,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,174 +1224,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>157400</v>
+        <v>472700</v>
       </c>
       <c r="E14" s="3">
-        <v>189100</v>
+        <v>154400</v>
       </c>
       <c r="F14" s="3">
-        <v>160800</v>
+        <v>185500</v>
       </c>
       <c r="G14" s="3">
-        <v>674000</v>
+        <v>157700</v>
       </c>
       <c r="H14" s="3">
-        <v>183800</v>
+        <v>661200</v>
       </c>
       <c r="I14" s="3">
-        <v>192000</v>
+        <v>180300</v>
       </c>
       <c r="J14" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K14" s="3">
         <v>200600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>638700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>328000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>203600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>184200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>886600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>316400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>277500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>207800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1326000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>957400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>243400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>167300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2970900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>332400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>246800</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2905900</v>
+        <v>2926900</v>
       </c>
       <c r="E15" s="3">
-        <v>2878800</v>
+        <v>2850600</v>
       </c>
       <c r="F15" s="3">
-        <v>2863900</v>
+        <v>2823900</v>
       </c>
       <c r="G15" s="3">
-        <v>2964100</v>
+        <v>2809300</v>
       </c>
       <c r="H15" s="3">
-        <v>2854000</v>
+        <v>2907600</v>
       </c>
       <c r="I15" s="3">
-        <v>2845200</v>
+        <v>2799700</v>
       </c>
       <c r="J15" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2811400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2735500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2782000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2910000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3141000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3330600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3326500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3323100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3302300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3296200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3154600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3074900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2958700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3108500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>6102700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5974800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5995600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3364800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3683200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1427,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20301600</v>
+        <v>23471700</v>
       </c>
       <c r="E17" s="3">
-        <v>20022300</v>
+        <v>19914900</v>
       </c>
       <c r="F17" s="3">
-        <v>18856600</v>
+        <v>19640900</v>
       </c>
       <c r="G17" s="3">
-        <v>22081600</v>
+        <v>18497400</v>
       </c>
       <c r="H17" s="3">
-        <v>18413100</v>
+        <v>21661000</v>
       </c>
       <c r="I17" s="3">
-        <v>18169800</v>
+        <v>18062400</v>
       </c>
       <c r="J17" s="3">
+        <v>17823700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17686300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21531600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18566100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18960200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19353500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25769300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22825300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22942900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22077800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>28041200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24030900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22360500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21047900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24898500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24267800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21413500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20647900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24918300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21679200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3853500</v>
+        <v>2221800</v>
       </c>
       <c r="E18" s="3">
-        <v>3624900</v>
+        <v>3780100</v>
       </c>
       <c r="F18" s="3">
-        <v>3699600</v>
+        <v>3555900</v>
       </c>
       <c r="G18" s="3">
-        <v>1682600</v>
+        <v>3629200</v>
       </c>
       <c r="H18" s="3">
-        <v>3898400</v>
+        <v>1650500</v>
       </c>
       <c r="I18" s="3">
-        <v>3844100</v>
+        <v>3824100</v>
       </c>
       <c r="J18" s="3">
+        <v>3770800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3574100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1198700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3619200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3980600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4244400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>984300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4260000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4389200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4627600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1602100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4308200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4956500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4883400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2922500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3356200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4643800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4742900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1962400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3477700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,174 +1631,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-101700</v>
+        <v>-147000</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>-99700</v>
       </c>
       <c r="F20" s="3">
-        <v>163100</v>
+        <v>5200</v>
       </c>
       <c r="G20" s="3">
-        <v>92900</v>
+        <v>160000</v>
       </c>
       <c r="H20" s="3">
-        <v>60800</v>
+        <v>91100</v>
       </c>
       <c r="I20" s="3">
-        <v>-29300</v>
+        <v>59600</v>
       </c>
       <c r="J20" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K20" s="3">
         <v>73600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-23300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>197800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-242800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-40300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>49300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1123500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>78400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>103800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>79200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>236000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6657800</v>
+        <v>5001700</v>
       </c>
       <c r="E21" s="3">
-        <v>6509000</v>
+        <v>6531000</v>
       </c>
       <c r="F21" s="3">
-        <v>6726600</v>
+        <v>6385100</v>
       </c>
       <c r="G21" s="3">
-        <v>4739600</v>
+        <v>6598400</v>
       </c>
       <c r="H21" s="3">
-        <v>6813200</v>
+        <v>4649300</v>
       </c>
       <c r="I21" s="3">
-        <v>6659900</v>
+        <v>6683400</v>
       </c>
       <c r="J21" s="3">
+        <v>6533100</v>
+      </c>
+      <c r="K21" s="3">
         <v>6459100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3852000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6373900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6870900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7377200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4232300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7571100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7689000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8127700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4655400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7422400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8051200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7891400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5939100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7548400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7734900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7838500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5406400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>6963800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1808,8 +1848,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1826,195 +1866,204 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>62500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>78700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>74500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>75300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>85100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>74400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3751900</v>
+        <v>2074800</v>
       </c>
       <c r="E23" s="3">
-        <v>3630300</v>
+        <v>3680400</v>
       </c>
       <c r="F23" s="3">
-        <v>3862700</v>
+        <v>3561100</v>
       </c>
       <c r="G23" s="3">
-        <v>1775500</v>
+        <v>3789100</v>
       </c>
       <c r="H23" s="3">
-        <v>3959200</v>
+        <v>1741700</v>
       </c>
       <c r="I23" s="3">
-        <v>3814700</v>
+        <v>3883800</v>
       </c>
       <c r="J23" s="3">
+        <v>3742100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3647700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1116500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3591900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3960800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4236200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>901800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4244600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4365900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4825300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1359200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4267900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4976300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4932700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2841400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4401100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4647600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4771400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1956500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3639300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1127400</v>
+        <v>671400</v>
       </c>
       <c r="E24" s="3">
-        <v>1052200</v>
+        <v>1106000</v>
       </c>
       <c r="F24" s="3">
-        <v>994100</v>
+        <v>1032200</v>
       </c>
       <c r="G24" s="3">
-        <v>523800</v>
+        <v>975200</v>
       </c>
       <c r="H24" s="3">
-        <v>1222500</v>
+        <v>513800</v>
       </c>
       <c r="I24" s="3">
-        <v>1188400</v>
+        <v>1199200</v>
       </c>
       <c r="J24" s="3">
+        <v>1165700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1030900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>507000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1055300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1246800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1272500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>152100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1332200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1217500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1491500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>365800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1302600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1763500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1520700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>761900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1444900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1463800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1466700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>386100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1271900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2145,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2624400</v>
+        <v>1403400</v>
       </c>
       <c r="E26" s="3">
-        <v>2578100</v>
+        <v>2574400</v>
       </c>
       <c r="F26" s="3">
-        <v>2868600</v>
+        <v>2529000</v>
       </c>
       <c r="G26" s="3">
-        <v>1251700</v>
+        <v>2813900</v>
       </c>
       <c r="H26" s="3">
-        <v>2736700</v>
+        <v>1227900</v>
       </c>
       <c r="I26" s="3">
-        <v>2626400</v>
+        <v>2684600</v>
       </c>
       <c r="J26" s="3">
+        <v>2576300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2616800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>609500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2536600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2714000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2963700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>749700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2912400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3148500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3333900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>993500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2965200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3212800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3412000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2079500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2956200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3183800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3304700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1570400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2367400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2469000</v>
+        <v>1302000</v>
       </c>
       <c r="E27" s="3">
-        <v>2411100</v>
+        <v>2422000</v>
       </c>
       <c r="F27" s="3">
-        <v>2709000</v>
+        <v>2365100</v>
       </c>
       <c r="G27" s="3">
-        <v>1107900</v>
+        <v>2657400</v>
       </c>
       <c r="H27" s="3">
-        <v>2605700</v>
+        <v>1086800</v>
       </c>
       <c r="I27" s="3">
-        <v>2468500</v>
+        <v>2556000</v>
       </c>
       <c r="J27" s="3">
+        <v>2421400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2498900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>602700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2123200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2094500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2325600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>514400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2455000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2569700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2193900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2508100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2633800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1564900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2012000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2512900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2647500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1165500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1708600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2403,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2428,8 +2489,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2575,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2661,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>101700</v>
+        <v>147000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>99700</v>
       </c>
       <c r="F32" s="3">
-        <v>-163100</v>
+        <v>-5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-92900</v>
+        <v>-160000</v>
       </c>
       <c r="H32" s="3">
-        <v>-60800</v>
+        <v>-91100</v>
       </c>
       <c r="I32" s="3">
-        <v>29300</v>
+        <v>-59600</v>
       </c>
       <c r="J32" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-73600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>23300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-197800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>242800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>40300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-49300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-103800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-79200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-236000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2469000</v>
+        <v>1302000</v>
       </c>
       <c r="E33" s="3">
-        <v>2411100</v>
+        <v>2422000</v>
       </c>
       <c r="F33" s="3">
-        <v>2709000</v>
+        <v>2365100</v>
       </c>
       <c r="G33" s="3">
-        <v>1107900</v>
+        <v>2657400</v>
       </c>
       <c r="H33" s="3">
-        <v>2605700</v>
+        <v>1086800</v>
       </c>
       <c r="I33" s="3">
-        <v>2468500</v>
+        <v>2556000</v>
       </c>
       <c r="J33" s="3">
+        <v>2421400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2498900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>602700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2123200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2094500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2325600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>514400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2455000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2569700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2193900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2508100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2633800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1564900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2012000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2512900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2647500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1165500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1708600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2919,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2469000</v>
+        <v>1302000</v>
       </c>
       <c r="E35" s="3">
-        <v>2411100</v>
+        <v>2422000</v>
       </c>
       <c r="F35" s="3">
-        <v>2709000</v>
+        <v>2365100</v>
       </c>
       <c r="G35" s="3">
-        <v>1107900</v>
+        <v>2657400</v>
       </c>
       <c r="H35" s="3">
-        <v>2605700</v>
+        <v>1086800</v>
       </c>
       <c r="I35" s="3">
-        <v>2468500</v>
+        <v>2556000</v>
       </c>
       <c r="J35" s="3">
+        <v>2421400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2498900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>602700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2123200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2094500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2325600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>514400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2455000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2569700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2193900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2508100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2633800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1564900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2012000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2512900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2647500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1165500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1708600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3130,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,755 +3162,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6040500</v>
+        <v>5724200</v>
       </c>
       <c r="E41" s="3">
-        <v>6973800</v>
+        <v>5925400</v>
       </c>
       <c r="F41" s="3">
-        <v>6796700</v>
+        <v>6841000</v>
       </c>
       <c r="G41" s="3">
-        <v>6134000</v>
+        <v>6667300</v>
       </c>
       <c r="H41" s="3">
-        <v>6073800</v>
+        <v>6017200</v>
       </c>
       <c r="I41" s="3">
-        <v>6653400</v>
+        <v>5958100</v>
       </c>
       <c r="J41" s="3">
+        <v>6526600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8373800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6634300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9916700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7839400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9148700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9105800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7975500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8527900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9356900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9092300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8575100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8264800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7245700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15144700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6929900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7599600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8690400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8206600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5897100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>791500</v>
+        <v>711300</v>
       </c>
       <c r="E42" s="3">
-        <v>932800</v>
+        <v>776500</v>
       </c>
       <c r="F42" s="3">
-        <v>824700</v>
+        <v>915100</v>
       </c>
       <c r="G42" s="3">
-        <v>650000</v>
+        <v>809000</v>
       </c>
       <c r="H42" s="3">
-        <v>376600</v>
+        <v>637700</v>
       </c>
       <c r="I42" s="3">
-        <v>389000</v>
+        <v>369400</v>
       </c>
       <c r="J42" s="3">
+        <v>381600</v>
+      </c>
+      <c r="K42" s="3">
         <v>442400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>295900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4437100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5884200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>305000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>285300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1174300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1041400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>998300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1131600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1158300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1087400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1160200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1401100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>398600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1303600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>786800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>566300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>677900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30090000</v>
+        <v>30183800</v>
       </c>
       <c r="E43" s="3">
-        <v>26165400</v>
+        <v>29516800</v>
       </c>
       <c r="F43" s="3">
-        <v>24483800</v>
+        <v>25667000</v>
       </c>
       <c r="G43" s="3">
-        <v>26496400</v>
+        <v>24017400</v>
       </c>
       <c r="H43" s="3">
-        <v>26392500</v>
+        <v>25991800</v>
       </c>
       <c r="I43" s="3">
-        <v>21916400</v>
+        <v>25889800</v>
       </c>
       <c r="J43" s="3">
+        <v>21499000</v>
+      </c>
+      <c r="K43" s="3">
         <v>22885100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25060000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27566200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25444000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27582500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30860000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41217200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37411000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38645800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>42201700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>39166800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36843100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34757800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>68781300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>31235300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29446200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>26375400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>27995700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>29108000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3644300</v>
+        <v>3730500</v>
       </c>
       <c r="E44" s="3">
-        <v>3471200</v>
+        <v>3574800</v>
       </c>
       <c r="F44" s="3">
-        <v>3091900</v>
+        <v>3405100</v>
       </c>
       <c r="G44" s="3">
-        <v>3001500</v>
+        <v>3033000</v>
       </c>
       <c r="H44" s="3">
-        <v>2584800</v>
+        <v>2944300</v>
       </c>
       <c r="I44" s="3">
-        <v>2432700</v>
+        <v>2535600</v>
       </c>
       <c r="J44" s="3">
+        <v>2386300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2433500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2236400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2641700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2363200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2630700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2267100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2818000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2453800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2786700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3187000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4045200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3198000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3250000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6759800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4153400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3497200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3655500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3240900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3875200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8497700</v>
+        <v>7631900</v>
       </c>
       <c r="E45" s="3">
-        <v>8539400</v>
+        <v>8335900</v>
       </c>
       <c r="F45" s="3">
-        <v>8451800</v>
+        <v>8376800</v>
       </c>
       <c r="G45" s="3">
-        <v>5735000</v>
+        <v>8290800</v>
       </c>
       <c r="H45" s="3">
-        <v>5305900</v>
+        <v>5625700</v>
       </c>
       <c r="I45" s="3">
-        <v>5020000</v>
+        <v>5204800</v>
       </c>
       <c r="J45" s="3">
+        <v>4924400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5208500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3537400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4778900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4897300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17876500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16539700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5436400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5317700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6432000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7620800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7330500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7113200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5420500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9493000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5634700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5426600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6214100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7111600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7980800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49064000</v>
+        <v>47981600</v>
       </c>
       <c r="E46" s="3">
-        <v>46082600</v>
+        <v>48129400</v>
       </c>
       <c r="F46" s="3">
-        <v>43648900</v>
+        <v>45204900</v>
       </c>
       <c r="G46" s="3">
-        <v>42017000</v>
+        <v>42817500</v>
       </c>
       <c r="H46" s="3">
-        <v>40733600</v>
+        <v>41216600</v>
       </c>
       <c r="I46" s="3">
-        <v>36411400</v>
+        <v>39957700</v>
       </c>
       <c r="J46" s="3">
+        <v>35717900</v>
+      </c>
+      <c r="K46" s="3">
         <v>39343300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37764000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49340600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46428000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>57543400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59057800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58621500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>54751800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>58219800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>63233500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>60275800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>56506500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>51834100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>53057200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>48351800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>47273300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>45722100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>47121200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>47539100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14036500</v>
+        <v>12169800</v>
       </c>
       <c r="E47" s="3">
-        <v>14576400</v>
+        <v>13769100</v>
       </c>
       <c r="F47" s="3">
-        <v>14331100</v>
+        <v>14298700</v>
       </c>
       <c r="G47" s="3">
-        <v>13641300</v>
+        <v>14058100</v>
       </c>
       <c r="H47" s="3">
-        <v>14513200</v>
+        <v>13381500</v>
       </c>
       <c r="I47" s="3">
-        <v>14697300</v>
+        <v>14236700</v>
       </c>
       <c r="J47" s="3">
+        <v>14417400</v>
+      </c>
+      <c r="K47" s="3">
         <v>14328900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13662100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13548000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13074400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12768700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9951600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14218700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13411900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13511100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13807300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13538500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13687300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14984100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>23831700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9577600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9086300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>8923400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8691600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8571600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83335800</v>
+        <v>84200000</v>
       </c>
       <c r="E48" s="3">
-        <v>83573100</v>
+        <v>81748500</v>
       </c>
       <c r="F48" s="3">
-        <v>83272000</v>
+        <v>81981200</v>
       </c>
       <c r="G48" s="3">
-        <v>82746200</v>
+        <v>81685900</v>
       </c>
       <c r="H48" s="3">
-        <v>82582100</v>
+        <v>81170100</v>
       </c>
       <c r="I48" s="3">
-        <v>82026100</v>
+        <v>81009100</v>
       </c>
       <c r="J48" s="3">
+        <v>80463700</v>
+      </c>
+      <c r="K48" s="3">
         <v>82028500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78731800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79668500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>84222100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>91460600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>93742200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95995400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>96175900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>95402300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>95907300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>92625800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>91769200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>89134300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>177505500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>87753100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>88621500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>87913000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>86207700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>84650400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24519600</v>
+        <v>24559600</v>
       </c>
       <c r="E49" s="3">
-        <v>24548000</v>
+        <v>24052600</v>
       </c>
       <c r="F49" s="3">
-        <v>24058200</v>
+        <v>24080500</v>
       </c>
       <c r="G49" s="3">
-        <v>23261500</v>
+        <v>23599900</v>
       </c>
       <c r="H49" s="3">
-        <v>22317100</v>
+        <v>22818400</v>
       </c>
       <c r="I49" s="3">
-        <v>21171400</v>
+        <v>21892000</v>
       </c>
       <c r="J49" s="3">
+        <v>20768100</v>
+      </c>
+      <c r="K49" s="3">
         <v>21166700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20008300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19726800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20619900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22665300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23565900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24100000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23505500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23186600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24162400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23906500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23809200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23033500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>48621500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26804000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26981900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26837400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26415300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>25833000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4020,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4106,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13941200</v>
+        <v>13565900</v>
       </c>
       <c r="E52" s="3">
-        <v>14101300</v>
+        <v>13675700</v>
       </c>
       <c r="F52" s="3">
-        <v>14054200</v>
+        <v>13832700</v>
       </c>
       <c r="G52" s="3">
-        <v>13721400</v>
+        <v>13786500</v>
       </c>
       <c r="H52" s="3">
-        <v>12905000</v>
+        <v>13460100</v>
       </c>
       <c r="I52" s="3">
-        <v>12682100</v>
+        <v>12659200</v>
       </c>
       <c r="J52" s="3">
+        <v>12440600</v>
+      </c>
+      <c r="K52" s="3">
         <v>12789200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12659100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12624700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13703800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15336600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16437000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16063700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16481200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16408400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17145900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16387700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16004400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16148700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30822500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22127200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>22380200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>22405700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>20054600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>19890900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4278,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>184897100</v>
+        <v>182476800</v>
       </c>
       <c r="E54" s="3">
-        <v>182881500</v>
+        <v>181375300</v>
       </c>
       <c r="F54" s="3">
-        <v>179364400</v>
+        <v>179398000</v>
       </c>
       <c r="G54" s="3">
-        <v>175387500</v>
+        <v>175947900</v>
       </c>
       <c r="H54" s="3">
-        <v>173051000</v>
+        <v>172046800</v>
       </c>
       <c r="I54" s="3">
-        <v>166988400</v>
+        <v>169754800</v>
       </c>
       <c r="J54" s="3">
+        <v>163807600</v>
+      </c>
+      <c r="K54" s="3">
         <v>169656600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162825300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174908600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>178048300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>199774600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>202754500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>208999200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>204326400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206728300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>214256400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206734400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>201776600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>195134800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>194734700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>194613800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>194343300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>191801600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>188490400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>186485000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4398,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4430,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18273600</v>
+        <v>20240500</v>
       </c>
       <c r="E57" s="3">
-        <v>16351100</v>
+        <v>17925600</v>
       </c>
       <c r="F57" s="3">
-        <v>17563800</v>
+        <v>16039600</v>
       </c>
       <c r="G57" s="3">
-        <v>7241000</v>
+        <v>17229300</v>
       </c>
       <c r="H57" s="3">
-        <v>15593400</v>
+        <v>7103000</v>
       </c>
       <c r="I57" s="3">
-        <v>13567000</v>
+        <v>15296400</v>
       </c>
       <c r="J57" s="3">
+        <v>13308600</v>
+      </c>
+      <c r="K57" s="3">
         <v>14666400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16709000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22680600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13558800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15530900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18877600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15531100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15365600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15442400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20108700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15250500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13794100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13731500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16378000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12341800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11209100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10462900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14307300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10823200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20564200</v>
+        <v>14747700</v>
       </c>
       <c r="E58" s="3">
-        <v>18220900</v>
+        <v>20172500</v>
       </c>
       <c r="F58" s="3">
-        <v>16477200</v>
+        <v>17873900</v>
       </c>
       <c r="G58" s="3">
-        <v>13496800</v>
+        <v>16163300</v>
       </c>
       <c r="H58" s="3">
-        <v>15752600</v>
+        <v>13239700</v>
       </c>
       <c r="I58" s="3">
-        <v>16568800</v>
+        <v>15452500</v>
       </c>
       <c r="J58" s="3">
+        <v>16253200</v>
+      </c>
+      <c r="K58" s="3">
         <v>28766600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23840300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38403300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18080500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21988600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19458000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21904900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16681400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18869500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13565300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15598300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10476900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14238400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>15416900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8838000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8994300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9532100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8191800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9374100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12220300</v>
+        <v>14328000</v>
       </c>
       <c r="E59" s="3">
-        <v>13026700</v>
+        <v>11987500</v>
       </c>
       <c r="F59" s="3">
-        <v>12294600</v>
+        <v>12778500</v>
       </c>
       <c r="G59" s="3">
-        <v>25263200</v>
+        <v>12060400</v>
       </c>
       <c r="H59" s="3">
-        <v>11669200</v>
+        <v>24782000</v>
       </c>
       <c r="I59" s="3">
-        <v>11674600</v>
+        <v>11447000</v>
       </c>
       <c r="J59" s="3">
+        <v>11452200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10987400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12102100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10978900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12298300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17491000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19877400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13620000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14530600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14313800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16567700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14876600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15946100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14009300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19934300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14207200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14711400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>15808300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14146400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>14897400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51058200</v>
+        <v>49316300</v>
       </c>
       <c r="E60" s="3">
-        <v>47598700</v>
+        <v>50085600</v>
       </c>
       <c r="F60" s="3">
-        <v>46335600</v>
+        <v>46692100</v>
       </c>
       <c r="G60" s="3">
-        <v>46001000</v>
+        <v>45453000</v>
       </c>
       <c r="H60" s="3">
-        <v>43015200</v>
+        <v>45124800</v>
       </c>
       <c r="I60" s="3">
-        <v>41810400</v>
+        <v>42195900</v>
       </c>
       <c r="J60" s="3">
+        <v>41014000</v>
+      </c>
+      <c r="K60" s="3">
         <v>54420400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52651500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72062700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43937600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55010500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58213100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51055900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46577600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48625600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50241800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45725300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40217100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41979300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>41786800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35387100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34914900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>35803300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>36645500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>35094700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49583400</v>
+        <v>51227600</v>
       </c>
       <c r="E61" s="3">
-        <v>50535000</v>
+        <v>48638900</v>
       </c>
       <c r="F61" s="3">
-        <v>48411800</v>
+        <v>49572400</v>
       </c>
       <c r="G61" s="3">
-        <v>46843000</v>
+        <v>47489700</v>
       </c>
       <c r="H61" s="3">
-        <v>48554500</v>
+        <v>45950700</v>
       </c>
       <c r="I61" s="3">
-        <v>43981000</v>
+        <v>47629600</v>
       </c>
       <c r="J61" s="3">
+        <v>43143200</v>
+      </c>
+      <c r="K61" s="3">
         <v>36398100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35517800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25696600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19853800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23192800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22413700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29780700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29372500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29574300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27844600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27448700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27278100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25389200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28423700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28726400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28965100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>29015900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28331200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>29049600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16625500</v>
+        <v>14514900</v>
       </c>
       <c r="E62" s="3">
-        <v>16432700</v>
+        <v>16308800</v>
       </c>
       <c r="F62" s="3">
-        <v>16302800</v>
+        <v>16119700</v>
       </c>
       <c r="G62" s="3">
-        <v>16260200</v>
+        <v>15992300</v>
       </c>
       <c r="H62" s="3">
-        <v>17529200</v>
+        <v>15950500</v>
       </c>
       <c r="I62" s="3">
-        <v>17256300</v>
+        <v>17195300</v>
       </c>
       <c r="J62" s="3">
+        <v>16927600</v>
+      </c>
+      <c r="K62" s="3">
         <v>17223600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16496500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18169400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18967200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20608700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21142000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22174100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22177200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21883800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22726000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22825400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22206200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21740200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40355000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21606000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21475400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21294000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20989200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21797200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5030,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5116,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5202,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122971700</v>
+        <v>120749500</v>
       </c>
       <c r="E66" s="3">
-        <v>120623400</v>
+        <v>120629400</v>
       </c>
       <c r="F66" s="3">
-        <v>116784000</v>
+        <v>118325800</v>
       </c>
       <c r="G66" s="3">
-        <v>114511400</v>
+        <v>114559500</v>
       </c>
       <c r="H66" s="3">
-        <v>114267400</v>
+        <v>112330200</v>
       </c>
       <c r="I66" s="3">
-        <v>108070100</v>
+        <v>112090900</v>
       </c>
       <c r="J66" s="3">
+        <v>106011600</v>
+      </c>
+      <c r="K66" s="3">
         <v>112803600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109205700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120390100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102256800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119437400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>122926200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>125660600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>121280500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>123114000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>125220500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>119475700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>114165700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112192700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>112807400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>109849800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>108990500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>108974100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>108194900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>107689800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5322,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5406,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5492,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5578,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5664,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57763300</v>
+        <v>58762300</v>
       </c>
       <c r="E72" s="3">
-        <v>57098800</v>
+        <v>56663100</v>
       </c>
       <c r="F72" s="3">
-        <v>54704400</v>
+        <v>56011200</v>
       </c>
       <c r="G72" s="3">
-        <v>53610300</v>
+        <v>53662400</v>
       </c>
       <c r="H72" s="3">
-        <v>51257900</v>
+        <v>52589100</v>
       </c>
       <c r="I72" s="3">
-        <v>55464800</v>
+        <v>50281500</v>
       </c>
       <c r="J72" s="3">
+        <v>54408400</v>
+      </c>
+      <c r="K72" s="3">
         <v>52990500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50112200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50282400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53498600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56283300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57264500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>58586300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>58367600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55697400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>57220900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55878100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54359500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>57216800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>55490700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>55074400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>54544700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>52229600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>49904000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>48738500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5836,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5922,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6008,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61925400</v>
+        <v>61727400</v>
       </c>
       <c r="E76" s="3">
-        <v>62258100</v>
+        <v>60745900</v>
       </c>
       <c r="F76" s="3">
-        <v>62580400</v>
+        <v>61072200</v>
       </c>
       <c r="G76" s="3">
-        <v>60876100</v>
+        <v>61388400</v>
       </c>
       <c r="H76" s="3">
-        <v>58783600</v>
+        <v>59716500</v>
       </c>
       <c r="I76" s="3">
-        <v>58918300</v>
+        <v>57663900</v>
       </c>
       <c r="J76" s="3">
+        <v>57796000</v>
+      </c>
+      <c r="K76" s="3">
         <v>56853100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53619600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54518600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75791500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80337200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79828300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83338500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83045900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>83614300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89035800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87258700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87610900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>82942000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>81927300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>84764000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>85352800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>82827500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>80295500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>78795200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6180,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2469000</v>
+        <v>1302000</v>
       </c>
       <c r="E81" s="3">
-        <v>2411100</v>
+        <v>2422000</v>
       </c>
       <c r="F81" s="3">
-        <v>2709000</v>
+        <v>2365100</v>
       </c>
       <c r="G81" s="3">
-        <v>1107900</v>
+        <v>2657400</v>
       </c>
       <c r="H81" s="3">
-        <v>2605700</v>
+        <v>1086800</v>
       </c>
       <c r="I81" s="3">
-        <v>2468500</v>
+        <v>2556000</v>
       </c>
       <c r="J81" s="3">
+        <v>2421400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2498900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>602700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2123200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2094500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2325600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>514400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2455000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2569700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2193900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2508100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2633800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1564900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2012000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2512900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2647500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1165500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1708600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6391,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2905900</v>
+        <v>2926900</v>
       </c>
       <c r="E83" s="3">
-        <v>2878800</v>
+        <v>2850600</v>
       </c>
       <c r="F83" s="3">
-        <v>2863900</v>
+        <v>2823900</v>
       </c>
       <c r="G83" s="3">
-        <v>2964100</v>
+        <v>2809300</v>
       </c>
       <c r="H83" s="3">
-        <v>2854000</v>
+        <v>2907600</v>
       </c>
       <c r="I83" s="3">
-        <v>2845200</v>
+        <v>2799700</v>
       </c>
       <c r="J83" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2811400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2735500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2782000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2910000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3330600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3326500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3323100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3302300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3296200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3154600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3074900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2958700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3035200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3068600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3000700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3003800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3364800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3250100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6561,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6647,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6733,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6819,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6905,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2419300</v>
+        <v>8113100</v>
       </c>
       <c r="E89" s="3">
-        <v>2891700</v>
+        <v>2373300</v>
       </c>
       <c r="F89" s="3">
-        <v>3036800</v>
+        <v>2836600</v>
       </c>
       <c r="G89" s="3">
-        <v>8331500</v>
+        <v>2978900</v>
       </c>
       <c r="H89" s="3">
-        <v>2846300</v>
+        <v>8172800</v>
       </c>
       <c r="I89" s="3">
-        <v>6776700</v>
+        <v>2792100</v>
       </c>
       <c r="J89" s="3">
+        <v>6647700</v>
+      </c>
+      <c r="K89" s="3">
         <v>4170800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9295200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2983500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6301300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4112300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11279800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1644300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9735800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4350900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7673800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3773500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7209000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3926000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7650900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6131900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5252800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4754300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10658100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2885700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7025,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3163600</v>
+        <v>-537220000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2627900</v>
+        <v>-430425000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3871200</v>
+        <v>-357543000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3404900</v>
+        <v>-526691000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2941300</v>
+        <v>-463257000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2784500</v>
+        <v>-400176000</v>
       </c>
       <c r="J91" s="3">
+        <v>-378841000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3790900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3311400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3036100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7195,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7281,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3495300</v>
+        <v>-3175200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2690200</v>
+        <v>-3428700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3344000</v>
+        <v>-2639000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2112600</v>
+        <v>-3280300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3197100</v>
+        <v>-2072400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2859700</v>
+        <v>-3136200</v>
       </c>
       <c r="J94" s="3">
+        <v>-2805200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4319400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>606900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2416900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7401,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1521300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1492300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1562200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1532500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1453500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1425800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1464200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1361900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7571,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7657,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7743,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>297600</v>
+        <v>-5160400</v>
       </c>
       <c r="E100" s="3">
-        <v>-136100</v>
+        <v>292000</v>
       </c>
       <c r="F100" s="3">
-        <v>761100</v>
+        <v>-133500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6274100</v>
+        <v>746600</v>
       </c>
       <c r="H100" s="3">
-        <v>-276800</v>
+        <v>-6154600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5653500</v>
+        <v>-271600</v>
       </c>
       <c r="J100" s="3">
+        <v>-5545800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1634100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12979800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2024000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3087200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2601900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-102000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>115000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>138900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1473800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>616100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-155100</v>
+        <v>21200</v>
       </c>
       <c r="E101" s="3">
-        <v>111700</v>
+        <v>-152100</v>
       </c>
       <c r="F101" s="3">
-        <v>208800</v>
+        <v>109600</v>
       </c>
       <c r="G101" s="3">
-        <v>115500</v>
+        <v>204900</v>
       </c>
       <c r="H101" s="3">
-        <v>48000</v>
+        <v>113300</v>
       </c>
       <c r="I101" s="3">
-        <v>15900</v>
+        <v>47100</v>
       </c>
       <c r="J101" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K101" s="3">
         <v>10600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>119900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-50400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-75300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>60900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-32900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-76500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>36000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-41700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>31800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-71700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>24900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>51100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>88300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-933300</v>
+        <v>-201200</v>
       </c>
       <c r="E102" s="3">
-        <v>177100</v>
+        <v>-915600</v>
       </c>
       <c r="F102" s="3">
-        <v>662700</v>
+        <v>173700</v>
       </c>
       <c r="G102" s="3">
-        <v>60200</v>
+        <v>650100</v>
       </c>
       <c r="H102" s="3">
-        <v>-579600</v>
+        <v>59100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1720500</v>
+        <v>-568500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1687700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1496200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2957700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2540200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-515600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>332300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1392900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-478200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-859600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>690300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>362800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>176900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>859700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-889900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>124000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-669700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>776300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2309600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,200 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25693600</v>
+        <v>21373100</v>
       </c>
       <c r="E8" s="3">
-        <v>23695100</v>
+        <v>24481900</v>
       </c>
       <c r="F8" s="3">
-        <v>23196800</v>
+        <v>22577700</v>
       </c>
       <c r="G8" s="3">
-        <v>22126600</v>
+        <v>22102900</v>
       </c>
       <c r="H8" s="3">
-        <v>23311500</v>
+        <v>21083100</v>
       </c>
       <c r="I8" s="3">
-        <v>21886500</v>
+        <v>22212200</v>
       </c>
       <c r="J8" s="3">
+        <v>20854400</v>
+      </c>
+      <c r="K8" s="3">
         <v>21594500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21260400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22730300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22185300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22940800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23597900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26753500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27085300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27332100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26705400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29643300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28339000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27316900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25931300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>27821100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>27624000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>26057300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>25390800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>26880700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>25156800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,29 +922,32 @@
       <c r="W9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="3">
         <v>14315900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13646700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12122500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11756500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14418700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>12033700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1002,29 +1011,32 @@
       <c r="W10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="3">
         <v>13505200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13977300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13934700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13634400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>12462000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>13123100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1067,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1154,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,180 +1243,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>472700</v>
+        <v>175600</v>
       </c>
       <c r="E14" s="3">
-        <v>154400</v>
+        <v>450500</v>
       </c>
       <c r="F14" s="3">
-        <v>185500</v>
+        <v>147200</v>
       </c>
       <c r="G14" s="3">
-        <v>157700</v>
+        <v>176700</v>
       </c>
       <c r="H14" s="3">
-        <v>661200</v>
+        <v>150300</v>
       </c>
       <c r="I14" s="3">
-        <v>180300</v>
+        <v>630000</v>
       </c>
       <c r="J14" s="3">
+        <v>171800</v>
+      </c>
+      <c r="K14" s="3">
         <v>188300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>638700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>328000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>203600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>184200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>886600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>316400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>277500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>207800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1326000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>957400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>243400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>167300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2970900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>332400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>246800</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2926900</v>
+        <v>2721500</v>
       </c>
       <c r="E15" s="3">
-        <v>2850600</v>
+        <v>2788900</v>
       </c>
       <c r="F15" s="3">
-        <v>2823900</v>
+        <v>2716100</v>
       </c>
       <c r="G15" s="3">
-        <v>2809300</v>
+        <v>2690800</v>
       </c>
       <c r="H15" s="3">
-        <v>2907600</v>
+        <v>2676800</v>
       </c>
       <c r="I15" s="3">
-        <v>2799700</v>
+        <v>2770500</v>
       </c>
       <c r="J15" s="3">
+        <v>2667600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2791000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2811400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2735500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2782000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2910000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3141000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3330600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3326500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3323100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3302300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3296200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3154600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3074900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2958700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3108500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>6102700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5974800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5995600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3364800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3683200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1428,180 +1453,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23471700</v>
+        <v>18112200</v>
       </c>
       <c r="E17" s="3">
-        <v>19914900</v>
+        <v>22364900</v>
       </c>
       <c r="F17" s="3">
-        <v>19640900</v>
+        <v>18975800</v>
       </c>
       <c r="G17" s="3">
-        <v>18497400</v>
+        <v>18714700</v>
       </c>
       <c r="H17" s="3">
-        <v>21661000</v>
+        <v>17625100</v>
       </c>
       <c r="I17" s="3">
-        <v>18062400</v>
+        <v>20639500</v>
       </c>
       <c r="J17" s="3">
+        <v>17210600</v>
+      </c>
+      <c r="K17" s="3">
         <v>17823700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17686300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21531600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18566100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18960200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19353500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25769300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22825300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22942900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22077800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>28041200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24030900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22360500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21047900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24898500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24267800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21413500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20647900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>24918300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>21679200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2221800</v>
+        <v>3260800</v>
       </c>
       <c r="E18" s="3">
-        <v>3780100</v>
+        <v>2117000</v>
       </c>
       <c r="F18" s="3">
-        <v>3555900</v>
+        <v>3601900</v>
       </c>
       <c r="G18" s="3">
-        <v>3629200</v>
+        <v>3388200</v>
       </c>
       <c r="H18" s="3">
-        <v>1650500</v>
+        <v>3458000</v>
       </c>
       <c r="I18" s="3">
-        <v>3824100</v>
+        <v>1572700</v>
       </c>
       <c r="J18" s="3">
+        <v>3643800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3770800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3574100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1198700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3619200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3980600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4244400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>984300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4260000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4389200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4627600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1602100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4308200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4956500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4883400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2922500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3356200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4643800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4742900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1962400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3477700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1632,180 +1664,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-147000</v>
+        <v>706800</v>
       </c>
       <c r="E20" s="3">
-        <v>-99700</v>
+        <v>-140100</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>-95000</v>
       </c>
       <c r="G20" s="3">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>91100</v>
+        <v>152400</v>
       </c>
       <c r="I20" s="3">
-        <v>59600</v>
+        <v>86900</v>
       </c>
       <c r="J20" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>73600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-82500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>197800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-242800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-40300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>49300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1123500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>78400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>103800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>79200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>236000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5001700</v>
+        <v>6689200</v>
       </c>
       <c r="E21" s="3">
-        <v>6531000</v>
+        <v>4765800</v>
       </c>
       <c r="F21" s="3">
-        <v>6385100</v>
+        <v>6223000</v>
       </c>
       <c r="G21" s="3">
-        <v>6598400</v>
+        <v>6084000</v>
       </c>
       <c r="H21" s="3">
-        <v>4649300</v>
+        <v>6287300</v>
       </c>
       <c r="I21" s="3">
-        <v>6683400</v>
+        <v>4430100</v>
       </c>
       <c r="J21" s="3">
+        <v>6368300</v>
+      </c>
+      <c r="K21" s="3">
         <v>6533100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6459100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3852000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6373900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6870900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7377200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4232300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7571100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7689000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8127700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4655400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7422400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8051200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7891400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5939100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7548400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7734900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7838500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5406400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6963800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1890,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1869,201 +1908,210 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>62500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>78700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>74500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>75300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>85100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>74400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2074800</v>
+        <v>3967700</v>
       </c>
       <c r="E23" s="3">
-        <v>3680400</v>
+        <v>1977000</v>
       </c>
       <c r="F23" s="3">
-        <v>3561100</v>
+        <v>3506800</v>
       </c>
       <c r="G23" s="3">
-        <v>3789100</v>
+        <v>3393200</v>
       </c>
       <c r="H23" s="3">
-        <v>1741700</v>
+        <v>3610400</v>
       </c>
       <c r="I23" s="3">
-        <v>3883800</v>
+        <v>1659600</v>
       </c>
       <c r="J23" s="3">
+        <v>3700600</v>
+      </c>
+      <c r="K23" s="3">
         <v>3742100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3647700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1116500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3591900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3960800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4236200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>901800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4244600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4365900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4825300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1359200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4267900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4976300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4932700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2841400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4401100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4647600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4771400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1956500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3639300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>671400</v>
+        <v>1287200</v>
       </c>
       <c r="E24" s="3">
-        <v>1106000</v>
+        <v>639700</v>
       </c>
       <c r="F24" s="3">
-        <v>1032200</v>
+        <v>1053800</v>
       </c>
       <c r="G24" s="3">
-        <v>975200</v>
+        <v>983500</v>
       </c>
       <c r="H24" s="3">
-        <v>513800</v>
+        <v>929200</v>
       </c>
       <c r="I24" s="3">
-        <v>1199200</v>
+        <v>489600</v>
       </c>
       <c r="J24" s="3">
+        <v>1142600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1165700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1030900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>507000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1055300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1246800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1272500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>152100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1332200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1217500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1491500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>365800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1302600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1763500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1520700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>761900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1444900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1463800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1466700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>386100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1271900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2148,180 +2196,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1403400</v>
+        <v>2680400</v>
       </c>
       <c r="E26" s="3">
-        <v>2574400</v>
+        <v>1337200</v>
       </c>
       <c r="F26" s="3">
-        <v>2529000</v>
+        <v>2453000</v>
       </c>
       <c r="G26" s="3">
-        <v>2813900</v>
+        <v>2409700</v>
       </c>
       <c r="H26" s="3">
-        <v>1227900</v>
+        <v>2681200</v>
       </c>
       <c r="I26" s="3">
-        <v>2684600</v>
+        <v>1170000</v>
       </c>
       <c r="J26" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2576300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2616800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>609500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2536600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2714000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2963700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>749700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2912400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3148500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3333900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>993500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2965200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3212800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3412000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2079500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2956200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3183800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3304700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1570400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2367400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1302000</v>
+        <v>2581600</v>
       </c>
       <c r="E27" s="3">
-        <v>2422000</v>
+        <v>1240600</v>
       </c>
       <c r="F27" s="3">
-        <v>2365100</v>
+        <v>2307800</v>
       </c>
       <c r="G27" s="3">
-        <v>2657400</v>
+        <v>2253600</v>
       </c>
       <c r="H27" s="3">
-        <v>1086800</v>
+        <v>2532100</v>
       </c>
       <c r="I27" s="3">
-        <v>2556000</v>
+        <v>1035600</v>
       </c>
       <c r="J27" s="3">
+        <v>2435500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2421400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2498900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>602700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2123200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2094500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2325600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>514400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2270700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2455000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2569700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2193900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2508100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2633800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1564900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2012000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2512900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2647500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1165500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1708600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2406,8 +2463,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2492,8 +2552,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2578,8 +2641,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2664,180 +2730,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>147000</v>
+        <v>-706800</v>
       </c>
       <c r="E32" s="3">
-        <v>99700</v>
+        <v>140100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>95000</v>
       </c>
       <c r="G32" s="3">
-        <v>-160000</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-91100</v>
+        <v>-152400</v>
       </c>
       <c r="I32" s="3">
-        <v>-59600</v>
+        <v>-86900</v>
       </c>
       <c r="J32" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="K32" s="3">
         <v>28800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-73600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>82500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-197800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>242800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>40300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-49300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-78400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-103800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-79200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-236000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1302000</v>
+        <v>2581600</v>
       </c>
       <c r="E33" s="3">
-        <v>2422000</v>
+        <v>1240600</v>
       </c>
       <c r="F33" s="3">
-        <v>2365100</v>
+        <v>2307800</v>
       </c>
       <c r="G33" s="3">
-        <v>2657400</v>
+        <v>2253600</v>
       </c>
       <c r="H33" s="3">
-        <v>1086800</v>
+        <v>2532100</v>
       </c>
       <c r="I33" s="3">
-        <v>2556000</v>
+        <v>1035600</v>
       </c>
       <c r="J33" s="3">
+        <v>2435500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2421400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2498900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>602700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2123200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2094500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2325600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>514400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2270700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2455000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2569700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2193900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2508100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2633800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1564900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2012000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2512900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2647500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1165500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1708600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2922,185 +2997,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1302000</v>
+        <v>2581600</v>
       </c>
       <c r="E35" s="3">
-        <v>2422000</v>
+        <v>1240600</v>
       </c>
       <c r="F35" s="3">
-        <v>2365100</v>
+        <v>2307800</v>
       </c>
       <c r="G35" s="3">
-        <v>2657400</v>
+        <v>2253600</v>
       </c>
       <c r="H35" s="3">
-        <v>1086800</v>
+        <v>2532100</v>
       </c>
       <c r="I35" s="3">
-        <v>2556000</v>
+        <v>1035600</v>
       </c>
       <c r="J35" s="3">
+        <v>2435500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2421400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2498900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>602700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2123200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2094500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2325600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>514400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2270700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2455000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2569700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2193900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2508100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2633800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1564900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2012000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2512900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2647500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1165500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1708600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3131,8 +3215,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3163,782 +3248,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5724200</v>
+        <v>6993000</v>
       </c>
       <c r="E41" s="3">
-        <v>5925400</v>
+        <v>5454200</v>
       </c>
       <c r="F41" s="3">
-        <v>6841000</v>
+        <v>5646000</v>
       </c>
       <c r="G41" s="3">
-        <v>6667300</v>
+        <v>6518400</v>
       </c>
       <c r="H41" s="3">
-        <v>6017200</v>
+        <v>6352900</v>
       </c>
       <c r="I41" s="3">
-        <v>5958100</v>
+        <v>5733500</v>
       </c>
       <c r="J41" s="3">
+        <v>5677100</v>
+      </c>
+      <c r="K41" s="3">
         <v>6526600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8373800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6634300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9916700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7839400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9148700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9105800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7975500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8527900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9356900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9092300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8575100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8264800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7245700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15144700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6929900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7599600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8690400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8206600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5897100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>711300</v>
+        <v>846200</v>
       </c>
       <c r="E42" s="3">
-        <v>776500</v>
+        <v>677700</v>
       </c>
       <c r="F42" s="3">
-        <v>915100</v>
+        <v>739800</v>
       </c>
       <c r="G42" s="3">
-        <v>809000</v>
+        <v>871900</v>
       </c>
       <c r="H42" s="3">
-        <v>637700</v>
+        <v>770900</v>
       </c>
       <c r="I42" s="3">
-        <v>369400</v>
+        <v>607600</v>
       </c>
       <c r="J42" s="3">
+        <v>352000</v>
+      </c>
+      <c r="K42" s="3">
         <v>381600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>442400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>295900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4437100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5884200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>305000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>285300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1174300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1041400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>998300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1131600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1158300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1087400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1160200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1401100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>398600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1303600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>786800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>566300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>677900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30183800</v>
+        <v>26632000</v>
       </c>
       <c r="E43" s="3">
-        <v>29516800</v>
+        <v>28760400</v>
       </c>
       <c r="F43" s="3">
-        <v>25667000</v>
+        <v>28124900</v>
       </c>
       <c r="G43" s="3">
-        <v>24017400</v>
+        <v>24456600</v>
       </c>
       <c r="H43" s="3">
-        <v>25991800</v>
+        <v>22884800</v>
       </c>
       <c r="I43" s="3">
-        <v>25889800</v>
+        <v>24766100</v>
       </c>
       <c r="J43" s="3">
+        <v>24668900</v>
+      </c>
+      <c r="K43" s="3">
         <v>21499000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22885100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25060000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27566200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25444000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27582500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30860000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41217200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37411000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38645800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>42201700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>39166800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>36843100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>34757800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>68781300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>31235300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29446200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>26375400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>27995700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>29108000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3730500</v>
+        <v>3837600</v>
       </c>
       <c r="E44" s="3">
-        <v>3574800</v>
+        <v>3554600</v>
       </c>
       <c r="F44" s="3">
-        <v>3405100</v>
+        <v>3406300</v>
       </c>
       <c r="G44" s="3">
-        <v>3033000</v>
+        <v>3244500</v>
       </c>
       <c r="H44" s="3">
-        <v>2944300</v>
+        <v>2890000</v>
       </c>
       <c r="I44" s="3">
-        <v>2535600</v>
+        <v>2805400</v>
       </c>
       <c r="J44" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2386300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2433500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2236400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2641700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2363200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2630700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2267100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2818000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2453800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2786700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3187000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4045200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3198000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3250000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6759800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4153400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3497200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3655500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3240900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3875200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7631900</v>
+        <v>9561200</v>
       </c>
       <c r="E45" s="3">
-        <v>8335900</v>
+        <v>7272000</v>
       </c>
       <c r="F45" s="3">
-        <v>8376800</v>
+        <v>7942800</v>
       </c>
       <c r="G45" s="3">
-        <v>8290800</v>
+        <v>7981800</v>
       </c>
       <c r="H45" s="3">
-        <v>5625700</v>
+        <v>7899800</v>
       </c>
       <c r="I45" s="3">
-        <v>5204800</v>
+        <v>5360400</v>
       </c>
       <c r="J45" s="3">
+        <v>4959400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4924400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5208500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3537400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4778900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4897300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17876500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16539700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5436400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5317700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6432000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7620800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7330500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7113200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5420500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9493000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5634700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5426600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6214100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7111600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7980800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47981600</v>
+        <v>47870100</v>
       </c>
       <c r="E46" s="3">
-        <v>48129400</v>
+        <v>45718900</v>
       </c>
       <c r="F46" s="3">
-        <v>45204900</v>
+        <v>45859800</v>
       </c>
       <c r="G46" s="3">
-        <v>42817500</v>
+        <v>43073100</v>
       </c>
       <c r="H46" s="3">
-        <v>41216600</v>
+        <v>40798400</v>
       </c>
       <c r="I46" s="3">
-        <v>39957700</v>
+        <v>39273000</v>
       </c>
       <c r="J46" s="3">
+        <v>38073500</v>
+      </c>
+      <c r="K46" s="3">
         <v>35717900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39343300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37764000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49340600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46428000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>57543400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59057800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>58621500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>54751800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>58219800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>63233500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>60275800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>56506500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>51834100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>53057200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>48351800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>47273300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>45722100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>47121200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>47539100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12169800</v>
+        <v>13688600</v>
       </c>
       <c r="E47" s="3">
-        <v>13769100</v>
+        <v>11595900</v>
       </c>
       <c r="F47" s="3">
-        <v>14298700</v>
+        <v>13119800</v>
       </c>
       <c r="G47" s="3">
-        <v>14058100</v>
+        <v>13624500</v>
       </c>
       <c r="H47" s="3">
-        <v>13381500</v>
+        <v>13395200</v>
       </c>
       <c r="I47" s="3">
-        <v>14236700</v>
+        <v>12750500</v>
       </c>
       <c r="J47" s="3">
+        <v>13565400</v>
+      </c>
+      <c r="K47" s="3">
         <v>14417400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14328900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13662100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13548000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13074400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12768700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9951600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14218700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13411900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13511100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13807300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13538500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13687300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>14984100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>23831700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9577600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9086300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>8923400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8691600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>8571600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84200000</v>
+        <v>80964700</v>
       </c>
       <c r="E48" s="3">
-        <v>81748500</v>
+        <v>80229400</v>
       </c>
       <c r="F48" s="3">
-        <v>81981200</v>
+        <v>77893500</v>
       </c>
       <c r="G48" s="3">
-        <v>81685900</v>
+        <v>78115300</v>
       </c>
       <c r="H48" s="3">
-        <v>81170100</v>
+        <v>77833800</v>
       </c>
       <c r="I48" s="3">
-        <v>81009100</v>
+        <v>77342400</v>
       </c>
       <c r="J48" s="3">
+        <v>77189000</v>
+      </c>
+      <c r="K48" s="3">
         <v>80463700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82028500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78731800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79668500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84222100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>91460600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>93742200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>95995400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>96175900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>95402300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>95907300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>92625800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>91769200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>89134300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>177505500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>87753100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>88621500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>87913000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>86207700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>84650400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24559600</v>
+        <v>24206700</v>
       </c>
       <c r="E49" s="3">
-        <v>24052600</v>
+        <v>23401400</v>
       </c>
       <c r="F49" s="3">
-        <v>24080500</v>
+        <v>22918300</v>
       </c>
       <c r="G49" s="3">
-        <v>23599900</v>
+        <v>22944900</v>
       </c>
       <c r="H49" s="3">
-        <v>22818400</v>
+        <v>22487000</v>
       </c>
       <c r="I49" s="3">
-        <v>21892000</v>
+        <v>21742400</v>
       </c>
       <c r="J49" s="3">
+        <v>20859600</v>
+      </c>
+      <c r="K49" s="3">
         <v>20768100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21166700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20008300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19726800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20619900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>22665300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23565900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24100000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23505500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23186600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24162400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23906500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23809200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23033500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>48621500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26804000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26981900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26837400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>26415300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>25833000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4023,8 +4136,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4109,94 +4225,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13565900</v>
+        <v>12790300</v>
       </c>
       <c r="E52" s="3">
-        <v>13675700</v>
+        <v>12926200</v>
       </c>
       <c r="F52" s="3">
-        <v>13832700</v>
+        <v>13030800</v>
       </c>
       <c r="G52" s="3">
-        <v>13786500</v>
+        <v>13180400</v>
       </c>
       <c r="H52" s="3">
-        <v>13460100</v>
+        <v>13136400</v>
       </c>
       <c r="I52" s="3">
-        <v>12659200</v>
+        <v>12825300</v>
       </c>
       <c r="J52" s="3">
+        <v>12062300</v>
+      </c>
+      <c r="K52" s="3">
         <v>12440600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12789200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12659100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12624700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13703800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15336600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16437000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16063700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16481200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16408400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17145900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16387700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16004400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16148700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30822500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>22127200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>22380200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>22405700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>20054600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>19890900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4281,94 +4403,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>182476800</v>
+        <v>179520300</v>
       </c>
       <c r="E54" s="3">
-        <v>181375300</v>
+        <v>173871800</v>
       </c>
       <c r="F54" s="3">
-        <v>179398000</v>
+        <v>172822200</v>
       </c>
       <c r="G54" s="3">
-        <v>175947900</v>
+        <v>170938200</v>
       </c>
       <c r="H54" s="3">
-        <v>172046800</v>
+        <v>167650800</v>
       </c>
       <c r="I54" s="3">
-        <v>169754800</v>
+        <v>163933600</v>
       </c>
       <c r="J54" s="3">
+        <v>161749700</v>
+      </c>
+      <c r="K54" s="3">
         <v>163807600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>169656600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162825300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174908600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>178048300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>199774600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>202754500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>208999200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>204326400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>206728300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>214256400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206734400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>201776600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>195134800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>194734700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>194613800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>194343300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>191801600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>188490400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>186485000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4399,8 +4527,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4431,524 +4560,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20240500</v>
+        <v>17261700</v>
       </c>
       <c r="E57" s="3">
-        <v>17925600</v>
+        <v>7629400</v>
       </c>
       <c r="F57" s="3">
-        <v>16039600</v>
+        <v>17080300</v>
       </c>
       <c r="G57" s="3">
-        <v>17229300</v>
+        <v>15283300</v>
       </c>
       <c r="H57" s="3">
-        <v>7103000</v>
+        <v>16416800</v>
       </c>
       <c r="I57" s="3">
-        <v>15296400</v>
+        <v>6768100</v>
       </c>
       <c r="J57" s="3">
+        <v>14575100</v>
+      </c>
+      <c r="K57" s="3">
         <v>13308600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14666400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16709000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22680600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13558800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15530900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18877600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15531100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15365600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15442400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20108700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15250500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13794100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13731500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16378000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12341800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11209100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10462900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14307300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10823200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14747700</v>
+        <v>19415700</v>
       </c>
       <c r="E58" s="3">
-        <v>20172500</v>
+        <v>14052300</v>
       </c>
       <c r="F58" s="3">
-        <v>17873900</v>
+        <v>19221300</v>
       </c>
       <c r="G58" s="3">
-        <v>16163300</v>
+        <v>17031000</v>
       </c>
       <c r="H58" s="3">
-        <v>13239700</v>
+        <v>15401100</v>
       </c>
       <c r="I58" s="3">
-        <v>15452500</v>
+        <v>12615400</v>
       </c>
       <c r="J58" s="3">
+        <v>14723800</v>
+      </c>
+      <c r="K58" s="3">
         <v>16253200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28766600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23840300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38403300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18080500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21988600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19458000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21904900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16681400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18869500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13565300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15598300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10476900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>14238400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>15416900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8838000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8994300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9532100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8191800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>9374100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14328000</v>
+        <v>12667400</v>
       </c>
       <c r="E59" s="3">
-        <v>11987500</v>
+        <v>25309000</v>
       </c>
       <c r="F59" s="3">
-        <v>12778500</v>
+        <v>11422200</v>
       </c>
       <c r="G59" s="3">
-        <v>12060400</v>
+        <v>12176000</v>
       </c>
       <c r="H59" s="3">
-        <v>24782000</v>
+        <v>11491700</v>
       </c>
       <c r="I59" s="3">
-        <v>11447000</v>
+        <v>23613400</v>
       </c>
       <c r="J59" s="3">
+        <v>10907200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11452200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10987400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12102100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10978900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12298300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17491000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19877400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13620000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14530600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14313800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16567700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14876600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15946100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14009300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19934300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14207200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14711400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>15808300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>14146400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>14897400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49316300</v>
+        <v>49344800</v>
       </c>
       <c r="E60" s="3">
-        <v>50085600</v>
+        <v>46990700</v>
       </c>
       <c r="F60" s="3">
-        <v>46692100</v>
+        <v>47723800</v>
       </c>
       <c r="G60" s="3">
-        <v>45453000</v>
+        <v>44490200</v>
       </c>
       <c r="H60" s="3">
-        <v>45124800</v>
+        <v>43309600</v>
       </c>
       <c r="I60" s="3">
-        <v>42195900</v>
+        <v>42996800</v>
       </c>
       <c r="J60" s="3">
+        <v>40206000</v>
+      </c>
+      <c r="K60" s="3">
         <v>41014000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54420400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52651500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72062700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43937600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>55010500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>58213100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51055900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46577600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48625600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50241800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45725300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>40217100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>41979300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>41786800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35387100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>34914900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>35803300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>36645500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>35094700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51227600</v>
+        <v>49332300</v>
       </c>
       <c r="E61" s="3">
-        <v>48638900</v>
+        <v>48811900</v>
       </c>
       <c r="F61" s="3">
-        <v>49572400</v>
+        <v>46345300</v>
       </c>
       <c r="G61" s="3">
-        <v>47489700</v>
+        <v>47234800</v>
       </c>
       <c r="H61" s="3">
-        <v>45950700</v>
+        <v>45250200</v>
       </c>
       <c r="I61" s="3">
-        <v>47629600</v>
+        <v>43783800</v>
       </c>
       <c r="J61" s="3">
+        <v>45383600</v>
+      </c>
+      <c r="K61" s="3">
         <v>43143200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36398100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35517800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25696600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19853800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23192800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22413700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29780700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29372500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29574300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27844600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27448700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27278100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25389200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28423700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28726400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28965100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>29015900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>28331200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>29049600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14514900</v>
+        <v>13604000</v>
       </c>
       <c r="E62" s="3">
-        <v>16308800</v>
+        <v>13830400</v>
       </c>
       <c r="F62" s="3">
-        <v>16119700</v>
+        <v>15539700</v>
       </c>
       <c r="G62" s="3">
-        <v>15992300</v>
+        <v>15359600</v>
       </c>
       <c r="H62" s="3">
-        <v>15950500</v>
+        <v>15238100</v>
       </c>
       <c r="I62" s="3">
-        <v>17195300</v>
+        <v>15198300</v>
       </c>
       <c r="J62" s="3">
+        <v>16384400</v>
+      </c>
+      <c r="K62" s="3">
         <v>16927600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17223600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16496500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18169400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18967200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20608700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21142000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22174100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22177200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21883800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22726000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22825400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22206200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21740200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40355000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21606000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21475400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21294000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>20989200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21797200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5033,8 +5181,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5119,8 +5270,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5205,94 +5359,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>120749500</v>
+        <v>118051100</v>
       </c>
       <c r="E66" s="3">
-        <v>120629400</v>
+        <v>115055300</v>
       </c>
       <c r="F66" s="3">
-        <v>118325800</v>
+        <v>114940900</v>
       </c>
       <c r="G66" s="3">
-        <v>114559500</v>
+        <v>112746000</v>
       </c>
       <c r="H66" s="3">
-        <v>112330200</v>
+        <v>109157300</v>
       </c>
       <c r="I66" s="3">
-        <v>112090900</v>
+        <v>107033100</v>
       </c>
       <c r="J66" s="3">
+        <v>106805100</v>
+      </c>
+      <c r="K66" s="3">
         <v>106011600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112803600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109205700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>120390100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102256800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119437400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>122926200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>125660600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>121280500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>123114000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>125220500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>119475700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>114165700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>112192700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>112807400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>109849800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>108990500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>108974100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>108194900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>107689800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5323,8 +5483,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5409,8 +5570,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5495,8 +5659,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5581,8 +5748,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5667,94 +5837,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58762300</v>
+        <v>57133000</v>
       </c>
       <c r="E72" s="3">
-        <v>56663100</v>
+        <v>55991300</v>
       </c>
       <c r="F72" s="3">
-        <v>56011200</v>
+        <v>53991000</v>
       </c>
       <c r="G72" s="3">
-        <v>53662400</v>
+        <v>53369900</v>
       </c>
       <c r="H72" s="3">
-        <v>52589100</v>
+        <v>51131900</v>
       </c>
       <c r="I72" s="3">
-        <v>50281500</v>
+        <v>50109200</v>
       </c>
       <c r="J72" s="3">
+        <v>47910400</v>
+      </c>
+      <c r="K72" s="3">
         <v>54408400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52990500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50112200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50282400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53498600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56283300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57264500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>58586300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>58367600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55697400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>57220900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>55878100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54359500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>57216800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>55490700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>55074400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>54544700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>52229600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>49904000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>48738500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5839,8 +6015,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5925,8 +6104,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6011,94 +6193,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61727400</v>
+        <v>61469200</v>
       </c>
       <c r="E76" s="3">
-        <v>60745900</v>
+        <v>58816500</v>
       </c>
       <c r="F76" s="3">
-        <v>61072200</v>
+        <v>57881300</v>
       </c>
       <c r="G76" s="3">
-        <v>61388400</v>
+        <v>58192200</v>
       </c>
       <c r="H76" s="3">
-        <v>59716500</v>
+        <v>58493500</v>
       </c>
       <c r="I76" s="3">
-        <v>57663900</v>
+        <v>56900500</v>
       </c>
       <c r="J76" s="3">
+        <v>54944700</v>
+      </c>
+      <c r="K76" s="3">
         <v>57796000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56853100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53619600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54518600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75791500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80337200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79828300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83338500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>83045900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>83614300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>89035800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87258700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87610900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>82942000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>81927300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>84764000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>85352800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>82827500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>80295500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>78795200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6183,185 +6371,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1302000</v>
+        <v>2581600</v>
       </c>
       <c r="E81" s="3">
-        <v>2422000</v>
+        <v>1240600</v>
       </c>
       <c r="F81" s="3">
-        <v>2365100</v>
+        <v>2307800</v>
       </c>
       <c r="G81" s="3">
-        <v>2657400</v>
+        <v>2253600</v>
       </c>
       <c r="H81" s="3">
-        <v>1086800</v>
+        <v>2532100</v>
       </c>
       <c r="I81" s="3">
-        <v>2556000</v>
+        <v>1035600</v>
       </c>
       <c r="J81" s="3">
+        <v>2435500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2421400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2498900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>602700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2123200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2094500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2325600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>514400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2270700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2455000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2569700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2193900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2508100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2633800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1564900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2012000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2512900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2647500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1165500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1708600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6392,94 +6589,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2926900</v>
+        <v>2721500</v>
       </c>
       <c r="E83" s="3">
-        <v>2850600</v>
+        <v>2788900</v>
       </c>
       <c r="F83" s="3">
-        <v>2823900</v>
+        <v>2716100</v>
       </c>
       <c r="G83" s="3">
-        <v>2809300</v>
+        <v>2690800</v>
       </c>
       <c r="H83" s="3">
-        <v>2907600</v>
+        <v>2676800</v>
       </c>
       <c r="I83" s="3">
-        <v>2799700</v>
+        <v>2770500</v>
       </c>
       <c r="J83" s="3">
+        <v>2667600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2791000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2811400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2735500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2782000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2910000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3141000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3330600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3326500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3323100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3302300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3296200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3154600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3074900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2958700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3035200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3068600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3000700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3003800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3364800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3250100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6564,8 +6765,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6650,8 +6854,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6736,8 +6943,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6822,8 +7032,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6908,94 +7121,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8113100</v>
+        <v>2341800</v>
       </c>
       <c r="E89" s="3">
-        <v>2373300</v>
+        <v>7730500</v>
       </c>
       <c r="F89" s="3">
-        <v>2836600</v>
+        <v>2261300</v>
       </c>
       <c r="G89" s="3">
-        <v>2978900</v>
+        <v>2702800</v>
       </c>
       <c r="H89" s="3">
-        <v>8172800</v>
+        <v>2838500</v>
       </c>
       <c r="I89" s="3">
-        <v>2792100</v>
+        <v>7787400</v>
       </c>
       <c r="J89" s="3">
+        <v>2660500</v>
+      </c>
+      <c r="K89" s="3">
         <v>6647700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4170800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9295200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2983500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6301300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4112300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11279800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1644300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9735800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4350900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7673800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3773500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7209000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3926000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7650900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6131900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5252800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4754300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10658100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2885700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7026,94 +7245,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-537194000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-537220000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-430425000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-357543000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-526691000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-463257000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400176000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-378841000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3790900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3311400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3036100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7198,8 +7421,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7284,94 +7510,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3175200</v>
+        <v>-3096800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3428700</v>
+        <v>-3025400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2639000</v>
+        <v>-3267000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3280300</v>
+        <v>-2514500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2072400</v>
+        <v>-3125600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3136200</v>
+        <v>-1974700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2988300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2805200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4319400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>606900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2416900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7402,94 +7634,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1405800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1492300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1421900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1532500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1460200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1425800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1358600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1464200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1361900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7574,8 +7810,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7660,8 +7899,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7746,262 +7988,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5160400</v>
+        <v>2137000</v>
       </c>
       <c r="E100" s="3">
-        <v>292000</v>
+        <v>-4917000</v>
       </c>
       <c r="F100" s="3">
-        <v>-133500</v>
+        <v>278200</v>
       </c>
       <c r="G100" s="3">
-        <v>746600</v>
+        <v>-127200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6154600</v>
+        <v>711400</v>
       </c>
       <c r="I100" s="3">
-        <v>-271600</v>
+        <v>-5864400</v>
       </c>
       <c r="J100" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5545800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1634100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12979800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2024000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3087200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2601900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>115000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>138900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1473800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>616100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>156800</v>
       </c>
       <c r="E101" s="3">
-        <v>-152100</v>
+        <v>20200</v>
       </c>
       <c r="F101" s="3">
-        <v>109600</v>
+        <v>-144900</v>
       </c>
       <c r="G101" s="3">
-        <v>204900</v>
+        <v>104400</v>
       </c>
       <c r="H101" s="3">
-        <v>113300</v>
+        <v>195200</v>
       </c>
       <c r="I101" s="3">
-        <v>47100</v>
+        <v>108000</v>
       </c>
       <c r="J101" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K101" s="3">
         <v>15600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>119900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-50400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>60900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-32900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-76500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>36000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-41700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>31800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-71700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>24900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>13800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>51100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>88300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-201200</v>
+        <v>1538800</v>
       </c>
       <c r="E102" s="3">
-        <v>-915600</v>
+        <v>-191800</v>
       </c>
       <c r="F102" s="3">
-        <v>173700</v>
+        <v>-872400</v>
       </c>
       <c r="G102" s="3">
-        <v>650100</v>
+        <v>165500</v>
       </c>
       <c r="H102" s="3">
-        <v>59100</v>
+        <v>619400</v>
       </c>
       <c r="I102" s="3">
-        <v>-568500</v>
+        <v>56300</v>
       </c>
       <c r="J102" s="3">
+        <v>-541700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1687700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1496200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2957700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2540200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-515600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>332300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1392900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-478200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-859600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>690300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>362800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>176900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>859700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-889900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>124000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-669700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>776300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2309600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1283200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTTYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>NTTYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,206 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21373100</v>
+        <v>21603200</v>
       </c>
       <c r="E8" s="3">
-        <v>24481900</v>
+        <v>20657500</v>
       </c>
       <c r="F8" s="3">
-        <v>22577700</v>
+        <v>23662300</v>
       </c>
       <c r="G8" s="3">
-        <v>22102900</v>
+        <v>21821800</v>
       </c>
       <c r="H8" s="3">
-        <v>21083100</v>
+        <v>21362900</v>
       </c>
       <c r="I8" s="3">
-        <v>22212200</v>
+        <v>20377300</v>
       </c>
       <c r="J8" s="3">
+        <v>21468600</v>
+      </c>
+      <c r="K8" s="3">
         <v>20854400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21594500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21260400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22730300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22185300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22940800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23597900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26753500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27085300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27332100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26705400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29643300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28339000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>27316900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25931300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>27821100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>27624000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>26057300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>25390800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>26880700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>25156800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>24903300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,29 +931,32 @@
       <c r="X9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="3">
         <v>14315900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13646700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12122500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11756500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14418700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>12033700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>11724700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1014,29 +1023,32 @@
       <c r="X10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3">
         <v>13505200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13977300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>13934700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>13634400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>12462000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>13123100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>13178600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1080,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1170,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,186 +1262,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>175600</v>
+        <v>180600</v>
       </c>
       <c r="E14" s="3">
-        <v>450500</v>
+        <v>169700</v>
       </c>
       <c r="F14" s="3">
-        <v>147200</v>
+        <v>435400</v>
       </c>
       <c r="G14" s="3">
-        <v>176700</v>
+        <v>142200</v>
       </c>
       <c r="H14" s="3">
-        <v>150300</v>
+        <v>170800</v>
       </c>
       <c r="I14" s="3">
-        <v>630000</v>
+        <v>145200</v>
       </c>
       <c r="J14" s="3">
+        <v>608900</v>
+      </c>
+      <c r="K14" s="3">
         <v>171800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>188300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>638700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>328000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>203600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>184200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>886600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>316400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>277500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>207800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1326000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>957400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>243400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>167300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2970900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>332400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>246800</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF14" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2721500</v>
+        <v>2647100</v>
       </c>
       <c r="E15" s="3">
-        <v>2788900</v>
+        <v>2630400</v>
       </c>
       <c r="F15" s="3">
-        <v>2716100</v>
+        <v>2695500</v>
       </c>
       <c r="G15" s="3">
-        <v>2690800</v>
+        <v>2625200</v>
       </c>
       <c r="H15" s="3">
-        <v>2676800</v>
+        <v>2600700</v>
       </c>
       <c r="I15" s="3">
-        <v>2770500</v>
+        <v>2587200</v>
       </c>
       <c r="J15" s="3">
+        <v>2677800</v>
+      </c>
+      <c r="K15" s="3">
         <v>2667600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2791000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2811400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2735500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2782000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2910000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3141000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3330600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3326500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3323100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3302300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3296200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3154600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3074900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2958700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3108500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>6102700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5974800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>5995600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3364800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3683200</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>3208700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1454,186 +1479,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18112200</v>
+        <v>18440600</v>
       </c>
       <c r="E17" s="3">
-        <v>22364900</v>
+        <v>17505800</v>
       </c>
       <c r="F17" s="3">
-        <v>18975800</v>
+        <v>21616100</v>
       </c>
       <c r="G17" s="3">
-        <v>18714700</v>
+        <v>18340500</v>
       </c>
       <c r="H17" s="3">
-        <v>17625100</v>
+        <v>18088200</v>
       </c>
       <c r="I17" s="3">
-        <v>20639500</v>
+        <v>17035000</v>
       </c>
       <c r="J17" s="3">
+        <v>19948500</v>
+      </c>
+      <c r="K17" s="3">
         <v>17210600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17823700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17686300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21531600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18566100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18960200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19353500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25769300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22825300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22942900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22077800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28041200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24030900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22360500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21047900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24898500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24267800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21413500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>20647900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>24918300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>21679200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>21008600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3260800</v>
+        <v>3162600</v>
       </c>
       <c r="E18" s="3">
-        <v>2117000</v>
+        <v>3151700</v>
       </c>
       <c r="F18" s="3">
-        <v>3601900</v>
+        <v>2046200</v>
       </c>
       <c r="G18" s="3">
-        <v>3388200</v>
+        <v>3481300</v>
       </c>
       <c r="H18" s="3">
-        <v>3458000</v>
+        <v>3274800</v>
       </c>
       <c r="I18" s="3">
-        <v>1572700</v>
+        <v>3342300</v>
       </c>
       <c r="J18" s="3">
+        <v>1520100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3643800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3770800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3574100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1198700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3619200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3980600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4244400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>984300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4260000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4389200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4627600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1602100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4308200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4956500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4883400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2922500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3356200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4643800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4742900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1962400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3477700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3894700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1665,186 +1697,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>706800</v>
+        <v>-97800</v>
       </c>
       <c r="E20" s="3">
-        <v>-140100</v>
+        <v>683200</v>
       </c>
       <c r="F20" s="3">
-        <v>-95000</v>
+        <v>-135400</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>-91800</v>
       </c>
       <c r="H20" s="3">
-        <v>152400</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>86900</v>
+        <v>147300</v>
       </c>
       <c r="J20" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K20" s="3">
         <v>56800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>73600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-82500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-23300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>197800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-242800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-40300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>49300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1123500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>78400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>103800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>79200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>236000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>190600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6689200</v>
+        <v>5711900</v>
       </c>
       <c r="E21" s="3">
-        <v>4765800</v>
+        <v>6465300</v>
       </c>
       <c r="F21" s="3">
-        <v>6223000</v>
+        <v>4606300</v>
       </c>
       <c r="G21" s="3">
-        <v>6084000</v>
+        <v>6014700</v>
       </c>
       <c r="H21" s="3">
-        <v>6287300</v>
+        <v>5880300</v>
       </c>
       <c r="I21" s="3">
-        <v>4430100</v>
+        <v>6076800</v>
       </c>
       <c r="J21" s="3">
+        <v>4281800</v>
+      </c>
+      <c r="K21" s="3">
         <v>6368300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6533100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6459100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3852000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6373900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6870900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7377200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4232300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7571100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7689000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8127700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4655400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7422400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8051200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7891400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5939100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7548400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7734900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7838500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5406400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6963800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>7254300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1893,8 +1932,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1911,207 +1950,216 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>62500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>78700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>74500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>75300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>85100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>74400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3967700</v>
+        <v>3064800</v>
       </c>
       <c r="E23" s="3">
-        <v>1977000</v>
+        <v>3834800</v>
       </c>
       <c r="F23" s="3">
-        <v>3506800</v>
+        <v>1910800</v>
       </c>
       <c r="G23" s="3">
-        <v>3393200</v>
+        <v>3389400</v>
       </c>
       <c r="H23" s="3">
-        <v>3610400</v>
+        <v>3279600</v>
       </c>
       <c r="I23" s="3">
-        <v>1659600</v>
+        <v>3489600</v>
       </c>
       <c r="J23" s="3">
+        <v>1604000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3700600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3742100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3647700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1116500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3591900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3960800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4236200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>901800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4244600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4365900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4825300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1359200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4267900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4976300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4932700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2841400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4401100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4647600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4771400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1956500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3639300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3998600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1287200</v>
+        <v>1024300</v>
       </c>
       <c r="E24" s="3">
-        <v>639700</v>
+        <v>1244100</v>
       </c>
       <c r="F24" s="3">
-        <v>1053800</v>
+        <v>618300</v>
       </c>
       <c r="G24" s="3">
-        <v>983500</v>
+        <v>1018500</v>
       </c>
       <c r="H24" s="3">
-        <v>929200</v>
+        <v>950600</v>
       </c>
       <c r="I24" s="3">
-        <v>489600</v>
+        <v>898100</v>
       </c>
       <c r="J24" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1142600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1165700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1030900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>507000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1055300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1246800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1272500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>152100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1332200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1217500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1491500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>365800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1302600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1763500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1520700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>761900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1444900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1463800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1466700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>386100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1271900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1264100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,186 +2247,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2680400</v>
+        <v>2040500</v>
       </c>
       <c r="E26" s="3">
-        <v>1337200</v>
+        <v>2590700</v>
       </c>
       <c r="F26" s="3">
-        <v>2453000</v>
+        <v>1292500</v>
       </c>
       <c r="G26" s="3">
-        <v>2409700</v>
+        <v>2370900</v>
       </c>
       <c r="H26" s="3">
-        <v>2681200</v>
+        <v>2329000</v>
       </c>
       <c r="I26" s="3">
-        <v>1170000</v>
+        <v>2591500</v>
       </c>
       <c r="J26" s="3">
+        <v>1130800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2558000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2576300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2616800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>609500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2536600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2714000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2963700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>749700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2912400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3148500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3333900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>993500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2965200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3212800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3412000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2079500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2956200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3183800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3304700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1570400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2367400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2734400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2581600</v>
+        <v>1959300</v>
       </c>
       <c r="E27" s="3">
-        <v>1240600</v>
+        <v>2495100</v>
       </c>
       <c r="F27" s="3">
-        <v>2307800</v>
+        <v>1199100</v>
       </c>
       <c r="G27" s="3">
-        <v>2253600</v>
+        <v>2230500</v>
       </c>
       <c r="H27" s="3">
-        <v>2532100</v>
+        <v>2178200</v>
       </c>
       <c r="I27" s="3">
-        <v>1035600</v>
+        <v>2447300</v>
       </c>
       <c r="J27" s="3">
+        <v>1000900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2435500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2421400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2498900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>602700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2123200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2094500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2325600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>514400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2270700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2455000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2569700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2193900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2508100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2633800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1564900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2012000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2512900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2647500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1165500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1708600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2466,8 +2523,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2555,8 +2615,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2644,8 +2707,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2733,186 +2799,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-706800</v>
+        <v>97800</v>
       </c>
       <c r="E32" s="3">
-        <v>140100</v>
+        <v>-683200</v>
       </c>
       <c r="F32" s="3">
-        <v>95000</v>
+        <v>135400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>91800</v>
       </c>
       <c r="H32" s="3">
-        <v>-152400</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-86900</v>
+        <v>-147300</v>
       </c>
       <c r="J32" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-56800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-73600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>82500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>23300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-197800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>242800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>40300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-49300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1123500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-78400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-103800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-79200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-236000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-190600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2581600</v>
+        <v>1959300</v>
       </c>
       <c r="E33" s="3">
-        <v>1240600</v>
+        <v>2495100</v>
       </c>
       <c r="F33" s="3">
-        <v>2307800</v>
+        <v>1199100</v>
       </c>
       <c r="G33" s="3">
-        <v>2253600</v>
+        <v>2230500</v>
       </c>
       <c r="H33" s="3">
-        <v>2532100</v>
+        <v>2178200</v>
       </c>
       <c r="I33" s="3">
-        <v>1035600</v>
+        <v>2447300</v>
       </c>
       <c r="J33" s="3">
+        <v>1000900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2435500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2421400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2498900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>602700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2123200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2094500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2325600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>514400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2270700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2455000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2569700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2193900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2508100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2633800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1564900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2012000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2512900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2647500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1165500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1708600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3000,191 +3075,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2581600</v>
+        <v>1959300</v>
       </c>
       <c r="E35" s="3">
-        <v>1240600</v>
+        <v>2495100</v>
       </c>
       <c r="F35" s="3">
-        <v>2307800</v>
+        <v>1199100</v>
       </c>
       <c r="G35" s="3">
-        <v>2253600</v>
+        <v>2230500</v>
       </c>
       <c r="H35" s="3">
-        <v>2532100</v>
+        <v>2178200</v>
       </c>
       <c r="I35" s="3">
-        <v>1035600</v>
+        <v>2447300</v>
       </c>
       <c r="J35" s="3">
+        <v>1000900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2435500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2421400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2498900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>602700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2123200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2094500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2325600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>514400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2270700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2455000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2569700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2193900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2508100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2633800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1564900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2012000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2512900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2647500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1165500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1708600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3216,8 +3300,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3249,809 +3334,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6993000</v>
+        <v>4747700</v>
       </c>
       <c r="E41" s="3">
-        <v>5454200</v>
+        <v>6758900</v>
       </c>
       <c r="F41" s="3">
-        <v>5646000</v>
+        <v>5271600</v>
       </c>
       <c r="G41" s="3">
-        <v>6518400</v>
+        <v>5457000</v>
       </c>
       <c r="H41" s="3">
-        <v>6352900</v>
+        <v>6300100</v>
       </c>
       <c r="I41" s="3">
-        <v>5733500</v>
+        <v>6140200</v>
       </c>
       <c r="J41" s="3">
+        <v>5541500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5677100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6526600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8373800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6634300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9916700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7839400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9148700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9105800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7975500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8527900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9356900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9092300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8575100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8264800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7245700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15144700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6929900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7599600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8690400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8206600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5897100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8998400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>846200</v>
+        <v>777100</v>
       </c>
       <c r="E42" s="3">
-        <v>677700</v>
+        <v>817900</v>
       </c>
       <c r="F42" s="3">
-        <v>739800</v>
+        <v>655100</v>
       </c>
       <c r="G42" s="3">
-        <v>871900</v>
+        <v>715100</v>
       </c>
       <c r="H42" s="3">
-        <v>770900</v>
+        <v>842700</v>
       </c>
       <c r="I42" s="3">
-        <v>607600</v>
+        <v>745100</v>
       </c>
       <c r="J42" s="3">
+        <v>587200</v>
+      </c>
+      <c r="K42" s="3">
         <v>352000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>381600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>442400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>295900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4437100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5884200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>305000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>285300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1174300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1041400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>998300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1131600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1158300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1087400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1160200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1401100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>398600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1303600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>786800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>566300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>677900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>770700</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26632000</v>
+        <v>28652600</v>
       </c>
       <c r="E43" s="3">
-        <v>28760400</v>
+        <v>25740400</v>
       </c>
       <c r="F43" s="3">
-        <v>28124900</v>
+        <v>27797500</v>
       </c>
       <c r="G43" s="3">
-        <v>24456600</v>
+        <v>27183300</v>
       </c>
       <c r="H43" s="3">
-        <v>22884800</v>
+        <v>23637800</v>
       </c>
       <c r="I43" s="3">
-        <v>24766100</v>
+        <v>22118700</v>
       </c>
       <c r="J43" s="3">
+        <v>23936900</v>
+      </c>
+      <c r="K43" s="3">
         <v>24668900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21499000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22885100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25060000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27566200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25444000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27582500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30860000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41217200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>37411000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38645800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>42201700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>39166800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>36843100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>34757800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>68781300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>31235300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>29446200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>26375400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>27995700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>29108000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>25063000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3837600</v>
+        <v>3727600</v>
       </c>
       <c r="E44" s="3">
-        <v>3554600</v>
+        <v>3709100</v>
       </c>
       <c r="F44" s="3">
-        <v>3406300</v>
+        <v>3435600</v>
       </c>
       <c r="G44" s="3">
-        <v>3244500</v>
+        <v>3292200</v>
       </c>
       <c r="H44" s="3">
-        <v>2890000</v>
+        <v>3135900</v>
       </c>
       <c r="I44" s="3">
-        <v>2805400</v>
+        <v>2793200</v>
       </c>
       <c r="J44" s="3">
+        <v>2711500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2416000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2386300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2433500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2236400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2641700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2363200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2630700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2267100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2818000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2453800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2786700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3187000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4045200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3198000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3250000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6759800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4153400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3497200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3655500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3240900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3875200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3907300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9561200</v>
+        <v>8081400</v>
       </c>
       <c r="E45" s="3">
-        <v>7272000</v>
+        <v>9241100</v>
       </c>
       <c r="F45" s="3">
-        <v>7942800</v>
+        <v>7028500</v>
       </c>
       <c r="G45" s="3">
-        <v>7981800</v>
+        <v>7676900</v>
       </c>
       <c r="H45" s="3">
-        <v>7899800</v>
+        <v>7714500</v>
       </c>
       <c r="I45" s="3">
-        <v>5360400</v>
+        <v>7635400</v>
       </c>
       <c r="J45" s="3">
+        <v>5181000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4959400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4924400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5208500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3537400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4778900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4897300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17876500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16539700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5436400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5317700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6432000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7620800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7330500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7113200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5420500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9493000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5634700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5426600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>6214100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7111600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>7980800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>7524600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47870100</v>
+        <v>45986200</v>
       </c>
       <c r="E46" s="3">
-        <v>45718900</v>
+        <v>46267400</v>
       </c>
       <c r="F46" s="3">
-        <v>45859800</v>
+        <v>44188300</v>
       </c>
       <c r="G46" s="3">
-        <v>43073100</v>
+        <v>44324500</v>
       </c>
       <c r="H46" s="3">
-        <v>40798400</v>
+        <v>41631100</v>
       </c>
       <c r="I46" s="3">
-        <v>39273000</v>
+        <v>39432500</v>
       </c>
       <c r="J46" s="3">
+        <v>37958200</v>
+      </c>
+      <c r="K46" s="3">
         <v>38073500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35717900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>39343300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37764000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>49340600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46428000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57543400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59057800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>58621500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>54751800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>58219800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>63233500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>60275800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>56506500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>51834100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>53057200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>48351800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>47273300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>45722100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>47121200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>47539100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>46264000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13688600</v>
+        <v>14605400</v>
       </c>
       <c r="E47" s="3">
-        <v>11595900</v>
+        <v>13230300</v>
       </c>
       <c r="F47" s="3">
-        <v>13119800</v>
+        <v>11207700</v>
       </c>
       <c r="G47" s="3">
-        <v>13624500</v>
+        <v>12680600</v>
       </c>
       <c r="H47" s="3">
-        <v>13395200</v>
+        <v>13168300</v>
       </c>
       <c r="I47" s="3">
-        <v>12750500</v>
+        <v>12946700</v>
       </c>
       <c r="J47" s="3">
+        <v>12323600</v>
+      </c>
+      <c r="K47" s="3">
         <v>13565400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14417400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14328900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13662100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13548000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13074400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12768700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9951600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14218700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13411900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13511100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13807300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13538500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13687300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>14984100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>23831700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9577600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>9086300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>8923400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>8691600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>8571600</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>8135900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80964700</v>
+        <v>79647500</v>
       </c>
       <c r="E48" s="3">
-        <v>80229400</v>
+        <v>78254100</v>
       </c>
       <c r="F48" s="3">
-        <v>77893500</v>
+        <v>77543400</v>
       </c>
       <c r="G48" s="3">
-        <v>78115300</v>
+        <v>75285700</v>
       </c>
       <c r="H48" s="3">
-        <v>77833800</v>
+        <v>75500000</v>
       </c>
       <c r="I48" s="3">
-        <v>77342400</v>
+        <v>75228000</v>
       </c>
       <c r="J48" s="3">
+        <v>74753100</v>
+      </c>
+      <c r="K48" s="3">
         <v>77189000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80463700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82028500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78731800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>79668500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84222100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91460600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>93742200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>95995400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>96175900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>95402300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>95907300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>92625800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>91769200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>89134300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>177505500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>87753100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>88621500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>87913000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>86207700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>84650400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>83893100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24206700</v>
+        <v>25377100</v>
       </c>
       <c r="E49" s="3">
-        <v>23401400</v>
+        <v>23396200</v>
       </c>
       <c r="F49" s="3">
-        <v>22918300</v>
+        <v>22618000</v>
       </c>
       <c r="G49" s="3">
-        <v>22944900</v>
+        <v>22151000</v>
       </c>
       <c r="H49" s="3">
-        <v>22487000</v>
+        <v>22176700</v>
       </c>
       <c r="I49" s="3">
-        <v>21742400</v>
+        <v>21734200</v>
       </c>
       <c r="J49" s="3">
+        <v>21014500</v>
+      </c>
+      <c r="K49" s="3">
         <v>20859600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20768100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21166700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20008300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19726800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20619900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22665300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23565900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24100000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23505500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23186600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24162400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23906500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23809200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23033500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>48621500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26804000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26981900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>26837400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>26415300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>25833000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>23543700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4139,8 +4252,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4228,97 +4344,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12790300</v>
+        <v>12425800</v>
       </c>
       <c r="E52" s="3">
-        <v>12926200</v>
+        <v>12362100</v>
       </c>
       <c r="F52" s="3">
-        <v>13030800</v>
+        <v>12493400</v>
       </c>
       <c r="G52" s="3">
-        <v>13180400</v>
+        <v>12594500</v>
       </c>
       <c r="H52" s="3">
-        <v>13136400</v>
+        <v>12739200</v>
       </c>
       <c r="I52" s="3">
-        <v>12825300</v>
+        <v>12696600</v>
       </c>
       <c r="J52" s="3">
+        <v>12396000</v>
+      </c>
+      <c r="K52" s="3">
         <v>12062300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12440600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12789200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12659100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12624700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13703800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15336600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16437000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16063700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16481200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16408400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17145900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16387700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16004400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16148700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>30822500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>22127200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>22380200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>22405700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>20054600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>19890900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>19530300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4406,97 +4528,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179520300</v>
+        <v>178042200</v>
       </c>
       <c r="E54" s="3">
-        <v>173871800</v>
+        <v>173510200</v>
       </c>
       <c r="F54" s="3">
-        <v>172822200</v>
+        <v>168050800</v>
       </c>
       <c r="G54" s="3">
-        <v>170938200</v>
+        <v>167036300</v>
       </c>
       <c r="H54" s="3">
-        <v>167650800</v>
+        <v>165215400</v>
       </c>
       <c r="I54" s="3">
-        <v>163933600</v>
+        <v>162038000</v>
       </c>
       <c r="J54" s="3">
+        <v>158445300</v>
+      </c>
+      <c r="K54" s="3">
         <v>161749700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163807600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>169656600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162825300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174908600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>178048300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>199774600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>202754500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>208999200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>204326400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206728300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>214256400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206734400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>201776600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>195134800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>194734700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>194613800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>194343300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>191801600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>188490400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>186485000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>181367100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4528,8 +4656,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4561,542 +4690,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17261700</v>
+        <v>16045500</v>
       </c>
       <c r="E57" s="3">
-        <v>7629400</v>
+        <v>16683800</v>
       </c>
       <c r="F57" s="3">
-        <v>17080300</v>
+        <v>7374000</v>
       </c>
       <c r="G57" s="3">
-        <v>15283300</v>
+        <v>16508400</v>
       </c>
       <c r="H57" s="3">
-        <v>16416800</v>
+        <v>14771600</v>
       </c>
       <c r="I57" s="3">
-        <v>6768100</v>
+        <v>15867200</v>
       </c>
       <c r="J57" s="3">
+        <v>6541500</v>
+      </c>
+      <c r="K57" s="3">
         <v>14575100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13308600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14666400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16709000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22680600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13558800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15530900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18877600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15531100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15365600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15442400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20108700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15250500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13794100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13731500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16378000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12341800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11209100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10462900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14307300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>10823200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>10149200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19415700</v>
+        <v>15645000</v>
       </c>
       <c r="E58" s="3">
-        <v>14052300</v>
+        <v>18765600</v>
       </c>
       <c r="F58" s="3">
-        <v>19221300</v>
+        <v>13581800</v>
       </c>
       <c r="G58" s="3">
-        <v>17031000</v>
+        <v>18577800</v>
       </c>
       <c r="H58" s="3">
-        <v>15401100</v>
+        <v>16460800</v>
       </c>
       <c r="I58" s="3">
-        <v>12615400</v>
+        <v>14885500</v>
       </c>
       <c r="J58" s="3">
+        <v>12193000</v>
+      </c>
+      <c r="K58" s="3">
         <v>14723800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16253200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28766600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23840300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38403300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18080500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21988600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19458000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21904900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16681400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18869500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13565300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15598300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10476900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>14238400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>15416900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8838000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8994300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9532100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8191800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>9374100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6176000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12667400</v>
+        <v>13391300</v>
       </c>
       <c r="E59" s="3">
-        <v>25309000</v>
+        <v>12243300</v>
       </c>
       <c r="F59" s="3">
-        <v>11422200</v>
+        <v>24461700</v>
       </c>
       <c r="G59" s="3">
-        <v>12176000</v>
+        <v>11039800</v>
       </c>
       <c r="H59" s="3">
-        <v>11491700</v>
+        <v>11768300</v>
       </c>
       <c r="I59" s="3">
-        <v>23613400</v>
+        <v>11107000</v>
       </c>
       <c r="J59" s="3">
+        <v>22822800</v>
+      </c>
+      <c r="K59" s="3">
         <v>10907200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11452200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10987400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12102100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10978900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12298300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17491000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19877400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13620000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14530600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14313800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16567700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14876600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15946100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14009300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19934300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14207200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14711400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>15808300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>14146400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>14897400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>13836100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49344800</v>
+        <v>45081900</v>
       </c>
       <c r="E60" s="3">
-        <v>46990700</v>
+        <v>47692700</v>
       </c>
       <c r="F60" s="3">
-        <v>47723800</v>
+        <v>45417500</v>
       </c>
       <c r="G60" s="3">
-        <v>44490200</v>
+        <v>46126000</v>
       </c>
       <c r="H60" s="3">
-        <v>43309600</v>
+        <v>43000700</v>
       </c>
       <c r="I60" s="3">
-        <v>42996800</v>
+        <v>41859600</v>
       </c>
       <c r="J60" s="3">
+        <v>41557400</v>
+      </c>
+      <c r="K60" s="3">
         <v>40206000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41014000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54420400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52651500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72062700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43937600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55010500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>58213100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51055900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46577600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48625600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50241800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>45725300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>40217100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>41979300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>41786800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>35387100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>34914900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>35803300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>36645500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>35094700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>30161200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49332300</v>
+        <v>51390400</v>
       </c>
       <c r="E61" s="3">
-        <v>48811900</v>
+        <v>47680700</v>
       </c>
       <c r="F61" s="3">
-        <v>46345300</v>
+        <v>47177700</v>
       </c>
       <c r="G61" s="3">
-        <v>47234800</v>
+        <v>44793700</v>
       </c>
       <c r="H61" s="3">
-        <v>45250200</v>
+        <v>45653400</v>
       </c>
       <c r="I61" s="3">
-        <v>43783800</v>
+        <v>43735300</v>
       </c>
       <c r="J61" s="3">
+        <v>42318000</v>
+      </c>
+      <c r="K61" s="3">
         <v>45383600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43143200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36398100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35517800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25696600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19853800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23192800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22413700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29780700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>29372500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29574300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>27844600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27448700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27278100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25389200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28423700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28726400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>28965100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>29015900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>28331200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>29049600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>30307400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13604000</v>
+        <v>13708000</v>
       </c>
       <c r="E62" s="3">
-        <v>13830400</v>
+        <v>13148600</v>
       </c>
       <c r="F62" s="3">
-        <v>15539700</v>
+        <v>13367400</v>
       </c>
       <c r="G62" s="3">
-        <v>15359600</v>
+        <v>15019500</v>
       </c>
       <c r="H62" s="3">
-        <v>15238100</v>
+        <v>14845400</v>
       </c>
       <c r="I62" s="3">
-        <v>15198300</v>
+        <v>14728000</v>
       </c>
       <c r="J62" s="3">
+        <v>14689500</v>
+      </c>
+      <c r="K62" s="3">
         <v>16384400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16927600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17223600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16496500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18169400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18967200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20608700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21142000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22174100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22177200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21883800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22726000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22825400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22206200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21740200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40355000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21606000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21475400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21294000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>20989200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>21797200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>21685400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5184,8 +5332,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5273,8 +5424,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5362,97 +5516,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>118051100</v>
+        <v>116177900</v>
       </c>
       <c r="E66" s="3">
-        <v>115055300</v>
+        <v>114098900</v>
       </c>
       <c r="F66" s="3">
-        <v>114940900</v>
+        <v>111203400</v>
       </c>
       <c r="G66" s="3">
-        <v>112746000</v>
+        <v>111092800</v>
       </c>
       <c r="H66" s="3">
-        <v>109157300</v>
+        <v>108971400</v>
       </c>
       <c r="I66" s="3">
-        <v>107033100</v>
+        <v>105502800</v>
       </c>
       <c r="J66" s="3">
+        <v>103449800</v>
+      </c>
+      <c r="K66" s="3">
         <v>106805100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106011600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112803600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109205700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>120390100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102256800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>119437400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>122926200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>125660600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>121280500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>123114000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>125220500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>119475700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>114165700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>112192700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>112807400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>109849800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>108990500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>108974100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>108194900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>107689800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>103690600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5484,8 +5644,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5573,8 +5734,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5662,8 +5826,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5751,8 +5918,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5840,97 +6010,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57133000</v>
+        <v>57176900</v>
       </c>
       <c r="E72" s="3">
-        <v>55991300</v>
+        <v>55220300</v>
       </c>
       <c r="F72" s="3">
-        <v>53991000</v>
+        <v>54116800</v>
       </c>
       <c r="G72" s="3">
-        <v>53369900</v>
+        <v>52183500</v>
       </c>
       <c r="H72" s="3">
-        <v>51131900</v>
+        <v>51583100</v>
       </c>
       <c r="I72" s="3">
-        <v>50109200</v>
+        <v>49420100</v>
       </c>
       <c r="J72" s="3">
+        <v>48431600</v>
+      </c>
+      <c r="K72" s="3">
         <v>47910400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54408400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52990500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50112200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50282400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53498600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>56283300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57264500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>58586300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>58367600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55697400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>57220900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55878100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54359500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>57216800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>55490700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>55074400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>54544700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>52229600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>49904000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>48738500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>48114000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6018,8 +6194,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6107,8 +6286,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6196,97 +6378,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61469200</v>
+        <v>61864200</v>
       </c>
       <c r="E76" s="3">
-        <v>58816500</v>
+        <v>59411300</v>
       </c>
       <c r="F76" s="3">
-        <v>57881300</v>
+        <v>56847400</v>
       </c>
       <c r="G76" s="3">
-        <v>58192200</v>
+        <v>55943500</v>
       </c>
       <c r="H76" s="3">
-        <v>58493500</v>
+        <v>56244000</v>
       </c>
       <c r="I76" s="3">
-        <v>56900500</v>
+        <v>56535200</v>
       </c>
       <c r="J76" s="3">
+        <v>54995500</v>
+      </c>
+      <c r="K76" s="3">
         <v>54944700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57796000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56853100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53619600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54518600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75791500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80337200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79828300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>83338500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>83045900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>83614300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>89035800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87258700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>87610900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>82942000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>81927300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>84764000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>85352800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>82827500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>80295500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>78795200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>77676600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6374,191 +6562,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2581600</v>
+        <v>1959300</v>
       </c>
       <c r="E81" s="3">
-        <v>1240600</v>
+        <v>2495100</v>
       </c>
       <c r="F81" s="3">
-        <v>2307800</v>
+        <v>1199100</v>
       </c>
       <c r="G81" s="3">
-        <v>2253600</v>
+        <v>2230500</v>
       </c>
       <c r="H81" s="3">
-        <v>2532100</v>
+        <v>2178200</v>
       </c>
       <c r="I81" s="3">
-        <v>1035600</v>
+        <v>2447300</v>
       </c>
       <c r="J81" s="3">
+        <v>1000900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2435500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2421400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2498900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>602700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2123200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2094500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2325600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>514400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2270700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2455000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2569700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2193900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2508100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2633800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1564900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2012000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2512900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2647500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1165500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1708600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6590,97 +6787,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2721500</v>
+        <v>2647100</v>
       </c>
       <c r="E83" s="3">
-        <v>2788900</v>
+        <v>2630400</v>
       </c>
       <c r="F83" s="3">
-        <v>2716100</v>
+        <v>2695500</v>
       </c>
       <c r="G83" s="3">
-        <v>2690800</v>
+        <v>2625200</v>
       </c>
       <c r="H83" s="3">
-        <v>2676800</v>
+        <v>2600700</v>
       </c>
       <c r="I83" s="3">
-        <v>2770500</v>
+        <v>2587200</v>
       </c>
       <c r="J83" s="3">
+        <v>2677800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2667600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2791000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2811400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2735500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2782000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2910000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3141000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3330600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3326500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3323100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3302300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3296200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3154600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3074900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2958700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3035200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3068600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3000700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3003800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3364800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3250100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>3169000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6768,8 +6969,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6857,8 +7061,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6946,8 +7153,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7035,8 +7245,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7124,97 +7337,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2341800</v>
+        <v>3220600</v>
       </c>
       <c r="E89" s="3">
-        <v>7730500</v>
+        <v>2263400</v>
       </c>
       <c r="F89" s="3">
-        <v>2261300</v>
+        <v>7471700</v>
       </c>
       <c r="G89" s="3">
-        <v>2702800</v>
+        <v>2185600</v>
       </c>
       <c r="H89" s="3">
-        <v>2838500</v>
+        <v>2612400</v>
       </c>
       <c r="I89" s="3">
-        <v>7787400</v>
+        <v>2743400</v>
       </c>
       <c r="J89" s="3">
+        <v>7526700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2660500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6647700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4170800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9295200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2983500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6301300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4112300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11279800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1644300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9735800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4350900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7673800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3773500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7209000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3926000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7650900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6131900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5252800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4754300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>10658100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2885700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>7551100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7246,97 +7465,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-404987000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-537194000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-537220000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-430425000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-357543000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-526691000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-463257000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400176000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-378841000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3790900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3311400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3036100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2832700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4693900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4336700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3957900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3333700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5192700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4354400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3592000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3450900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4247500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2610700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2900200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2538600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3781500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3982200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3701000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2945900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7424,8 +7647,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7513,97 +7739,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3096800</v>
+        <v>-4156300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3025400</v>
+        <v>-2993100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3267000</v>
+        <v>-2924200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2514500</v>
+        <v>-3157600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3125600</v>
+        <v>-2430300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1974700</v>
+        <v>-3021000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1908500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2988300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2805200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4319400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>606900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2416900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2929600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6861000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4854000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4785300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3642300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3482200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4604300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3669900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3349400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4960500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4575200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2977700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3913400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5183400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4066000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6691400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3502400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7635,97 +7867,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1405800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1358700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1421900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1374300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1460200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1411300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1358600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1464200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1361900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1472900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1573100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1668500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1564900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1343800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1360400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1093100</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1084100</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7813,8 +8049,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7902,8 +8141,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7991,271 +8233,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2137000</v>
+        <v>-1150100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4917000</v>
+        <v>2065500</v>
       </c>
       <c r="F100" s="3">
-        <v>278200</v>
+        <v>-4752400</v>
       </c>
       <c r="G100" s="3">
-        <v>-127200</v>
+        <v>268900</v>
       </c>
       <c r="H100" s="3">
-        <v>711400</v>
+        <v>-123000</v>
       </c>
       <c r="I100" s="3">
-        <v>-5864400</v>
+        <v>687600</v>
       </c>
       <c r="J100" s="3">
+        <v>-5668000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-258800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5545800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1634100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12979800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2024000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3870600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3087200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4957600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2601900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6920300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-102000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2742600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>115000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3031600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>138900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3545900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3809000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2541100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1473800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4333600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>616100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-2694500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>156800</v>
+        <v>74500</v>
       </c>
       <c r="E101" s="3">
-        <v>20200</v>
+        <v>151500</v>
       </c>
       <c r="F101" s="3">
-        <v>-144900</v>
+        <v>19500</v>
       </c>
       <c r="G101" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>100900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>188700</v>
+      </c>
+      <c r="J101" s="3">
         <v>104400</v>
       </c>
-      <c r="H101" s="3">
-        <v>195200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>108000</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>44900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>119900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-50400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-75300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>60900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-32900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-76500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>36000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-41700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>31800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-71700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>24900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>13800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>51100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>88300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1538800</v>
+        <v>-2011300</v>
       </c>
       <c r="E102" s="3">
-        <v>-191800</v>
+        <v>1487300</v>
       </c>
       <c r="F102" s="3">
-        <v>-872400</v>
+        <v>-185300</v>
       </c>
       <c r="G102" s="3">
-        <v>165500</v>
+        <v>-843200</v>
       </c>
       <c r="H102" s="3">
-        <v>619400</v>
+        <v>160000</v>
       </c>
       <c r="I102" s="3">
-        <v>56300</v>
+        <v>598700</v>
       </c>
       <c r="J102" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-541700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1687700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1496200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2957700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2540200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-515600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>332300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1392900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-478200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-859600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>690300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>362800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>176900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>859700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-889900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>124000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-669700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1540700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>776300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2309600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3101400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1283200</v>
       </c>
     </row>
